--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Finals Week</t>
   </si>
@@ -57,10 +60,6 @@
   </si>
   <si>
     <t>Version Control, Team collaboration, R Programming</t>
-  </si>
-  <si>
-    <t>Get connected with modern team collaboration and version control tools 
-* Improve your R programming skills</t>
   </si>
   <si>
     <t>Join our Slack Channel
@@ -68,39 +67,78 @@
 * Update R Studio</t>
   </si>
   <si>
-    <t>Github assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
-* [r4ds CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
-  </si>
-  <si>
-    <t>Introduction and orientation to Slack and Github 
-* Take control of Assignment repo</t>
-  </si>
-  <si>
-    <t>Practice your R programming skills by working through r4ds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connect to slack team. Join the #r4ds and #git channels. Tell us your github account name in the #git channel
+    <t>Social Media for Academics</t>
+  </si>
+  <si>
+    <t>Start an academic/professional webpage (index, about, cv, blog)</t>
+  </si>
+  <si>
+    <t>Workflow automation using make files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Be familiar with modern team collaboration and version control tools 
+* Write and parse R functions
+* Use R vectors efficiently
+* Compare and contrast loops and mapping functions
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connect to slack team. Join the #r4ds and #git channels. Link to your github account name in the #git channel. 
 * r4ds programming assignment (submit link to .md file in BBL by due date)
 </t>
   </si>
   <si>
-    <t>Social Media for Academics</t>
-  </si>
-  <si>
-    <t>Create an professional online presence
+    <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
+* Github assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
+* [r4ds CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
+  </si>
+  <si>
+    <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
+* [Alice Hills Tutorial](https://alison.rbind.io/post/up-and-running-with-blogdown/)</t>
+  </si>
+  <si>
+    <r>
+      <t>* Look over the following websites for structure/appearance [Alison Hill](https://alison.rbind.io/) [CSUC DSI](datascience.csuchico.edu) [ESPM 157](</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://espm-157.carlboettiger.info/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), [Rbind](https://support.rbind.io/), [Simply Statistics](https://simplystatistics.org/)</t>
+    </r>
+  </si>
+  <si>
+    <t>* Create an professional online presence
 * Connect with the current state of DS</t>
   </si>
   <si>
-    <t>Start an academic/professional webpage (index, about, cv, blog)</t>
-  </si>
-  <si>
-    <t>Workflow automation using make files</t>
+    <t>* Introduction and orientation to Slack and Github 
+* Take control of Assignment repo</t>
+  </si>
+  <si>
+    <t>* Practice your R programming skills by working through r4ds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* We're going to use Hugo/Blogdown to create a professional looking website. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -462,8 +500,8 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Percent 2" xfId="52"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -799,24 +837,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE672480-34D8-4AD4-9F60-F23A82615206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="25.25" style="5" customWidth="1"/>
-    <col min="5" max="6" width="14.875" style="5"/>
-    <col min="7" max="7" width="17.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="32.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -845,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="105" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -856,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -883,20 +924,26 @@
         <v>41668</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="15"/>
       <c r="I3" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -905,7 +952,7 @@
         <v>41675</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -914,7 +961,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -930,7 +977,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -946,7 +993,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -962,7 +1009,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -978,7 +1025,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1005,7 +1052,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1020,7 +1067,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1036,7 +1083,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1052,7 +1099,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1068,7 +1115,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1084,7 +1131,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1100,7 +1147,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1116,7 +1163,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Finals Week</t>
   </si>
@@ -44,36 +44,13 @@
     <t>Prepare</t>
   </si>
   <si>
-    <t>Materials</t>
-  </si>
-  <si>
     <t>Assignments</t>
   </si>
   <si>
     <t>Topics</t>
   </si>
   <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Version Control, Team collaboration, R Programming</t>
-  </si>
-  <si>
-    <t>Join our Slack Channel
-* Install the Slack app for your phone
-* Update R Studio</t>
-  </si>
-  <si>
     <t>Social Media for Academics</t>
-  </si>
-  <si>
-    <t>Start an academic/professional webpage (index, about, cv, blog)</t>
-  </si>
-  <si>
-    <t>Workflow automation using make files</t>
   </si>
   <si>
     <t xml:space="preserve">* Be familiar with modern team collaboration and version control tools 
@@ -83,62 +60,85 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Connect to slack team. Join the #r4ds and #git channels. Link to your github account name in the #git channel. 
-* r4ds programming assignment (submit link to .md file in BBL by due date)
-</t>
-  </si>
-  <si>
     <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
 * Github assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
 * [r4ds CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
   </si>
   <si>
-    <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
-* [Alice Hills Tutorial](https://alison.rbind.io/post/up-and-running-with-blogdown/)</t>
-  </si>
-  <si>
-    <r>
-      <t>* Look over the following websites for structure/appearance [Alison Hill](https://alison.rbind.io/) [CSUC DSI](datascience.csuchico.edu) [ESPM 157](</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://espm-157.carlboettiger.info/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>), [Rbind](https://support.rbind.io/), [Simply Statistics](https://simplystatistics.org/)</t>
-    </r>
-  </si>
-  <si>
     <t>* Create an professional online presence
 * Connect with the current state of DS</t>
   </si>
   <si>
-    <t>* Introduction and orientation to Slack and Github 
-* Take control of Assignment repo</t>
-  </si>
-  <si>
-    <t>* Practice your R programming skills by working through r4ds.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* We're going to use Hugo/Blogdown to create a professional looking website. </t>
+    <t xml:space="preserve">* Start reading the blogdown tutorials and looking for DS sources of interest. </t>
+  </si>
+  <si>
+    <t>Topic1</t>
+  </si>
+  <si>
+    <t>Topic2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Introduction and orientation to Slack and Github 
+* Take control of Assignment repo (link under materials). This provides you a repo and a starting template for your homework.
+* Practice your R programming skills by working through r4ds Ch 17-21.5
+* Most homework will be submitted through this repo. Direct links to the *.md file that you want me to review will be submitted via BBL for easy gradebook entry. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Join our Slack Channel [csuc-ads-s18](https://join.slack.com/t/csuc-ads-s18/shared_invite/enQtMjk3MTIyOTMxMjE2LWQwYjIxYmRlYmU1NzI0N2U1ODE2MmFlYzJkYWEwZjViZDRkMDkyMDBkNTNjNzNmNWY2M2ZiMmE0MTNjNGVkNzM)
+* Install the Slack app for your phone and/or computer
+* Update R &amp; R Studio (if done &lt; 6mo ago)
+* If you're new to Git - I recommend using Sourcetree as your external client (yes you have to make an atlassian account, but that's ok. It opens availability to their other useful software products as well) 
+* Get the textbook - [Weapons of Math Destruction](https://www.amazon.com/Weapons-Math-Destruction-Increases-Inequality/dp/0553418815). There is  1 copy available in the Library -- Someone go check this out for the semester and share! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You don't know what you don’t know.
+* We're going to explore the current world of DS by finding and following people in the world doing DS in an area that interests you. 
+* Find a data science, data visualization, data story, data SOMETHING blog, podcast, twitter feed (or two) to follow. You will be sharing stories weekly, so you may need to find more than one source if your first choice does not update frequently enough.
+</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. 
+* Edit your pinned slack introduction message to include the link to your website. 
+* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds. You won't start blogging until next week. </t>
+  </si>
+  <si>
+    <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
+  </si>
+  <si>
+    <t>* Join all visable Slack channels. 
+* Introduce yourself in #introductions (Name/major/year/github handle/other info you want to share). Pin this message to this board. 
+* r4ds programming assignment</t>
+  </si>
+  <si>
+    <t>Predictive Analytics Lifecycle (I-III): Get, Explore, Clean. Then automate all the things!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Add your CV to your website and create one blog post. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Recap the predictive analytcs life cycle (PAL). 
+* We'll discuss why you may want to automate script files as opposed to (say) clicking the "knit" button. 
+* </t>
+  </si>
+  <si>
+    <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
+* [Alice Hills Tutorial](https://alison.rbind.io/post/up-and-running-with-blogdown/)
+* [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
+* Each week you will write a post about something in the DS world that you found interseting. It doesn't have to be a long or involved post.
+* This is about practicing writing for a public audience. The more you write the better you'll get. 
+* Wait.. why the heck should I create a website? The internet is scary! </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -190,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,13 +205,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -383,32 +389,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="89" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="89" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="90">
@@ -500,11 +509,16 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
-    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -837,35 +851,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="25.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>7</v>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -873,77 +887,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="105" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:9" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>41661</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41668</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -951,17 +965,21 @@
         <f t="shared" si="0"/>
         <v>41675</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -977,7 +995,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -993,7 +1011,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1009,7 +1027,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1025,7 +1043,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1042,17 +1060,17 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1067,7 +1085,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1083,7 +1101,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1094,12 +1112,12 @@
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1115,7 +1133,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1131,7 +1149,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1147,7 +1165,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1163,7 +1181,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Finals Week</t>
   </si>
@@ -60,11 +60,6 @@
 </t>
   </si>
   <si>
-    <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
-* Github assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
-* [r4ds CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
-  </si>
-  <si>
     <t>* Create an professional online presence
 * Connect with the current state of DS</t>
   </si>
@@ -76,19 +71,6 @@
   </si>
   <si>
     <t>Topic2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Introduction and orientation to Slack and Github 
-* Take control of Assignment repo (link under materials). This provides you a repo and a starting template for your homework.
-* Practice your R programming skills by working through r4ds Ch 17-21.5
-* Most homework will be submitted through this repo. Direct links to the *.md file that you want me to review will be submitted via BBL for easy gradebook entry. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Join our Slack Channel [csuc-ads-s18](https://join.slack.com/t/csuc-ads-s18/shared_invite/enQtMjk3MTIyOTMxMjE2LWQwYjIxYmRlYmU1NzI0N2U1ODE2MmFlYzJkYWEwZjViZDRkMDkyMDBkNTNjNzNmNWY2M2ZiMmE0MTNjNGVkNzM)
-* Install the Slack app for your phone and/or computer
-* Update R &amp; R Studio (if done &lt; 6mo ago)
-* If you're new to Git - I recommend using Sourcetree as your external client (yes you have to make an atlassian account, but that's ok. It opens availability to their other useful software products as well) 
-* Get the textbook - [Weapons of Math Destruction](https://www.amazon.com/Weapons-Math-Destruction-Increases-Inequality/dp/0553418815). There is  1 copy available in the Library -- Someone go check this out for the semester and share! </t>
   </si>
   <si>
     <t xml:space="preserve">* You don't know what you don’t know.
@@ -108,31 +90,114 @@
     <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
   </si>
   <si>
-    <t>* Join all visable Slack channels. 
-* Introduce yourself in #introductions (Name/major/year/github handle/other info you want to share). Pin this message to this board. 
-* r4ds programming assignment</t>
-  </si>
-  <si>
-    <t>Predictive Analytics Lifecycle (I-III): Get, Explore, Clean. Then automate all the things!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Add your CV to your website and create one blog post. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Recap the predictive analytcs life cycle (PAL). 
-* We'll discuss why you may want to automate script files as opposed to (say) clicking the "knit" button. 
-* </t>
-  </si>
-  <si>
     <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
 * [Alice Hills Tutorial](https://alison.rbind.io/post/up-and-running-with-blogdown/)
 * [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)</t>
   </si>
   <si>
+    <t>* Review the [notes](notes.html) on the data analytics lifecycle
+* Review the notes from [Stat 545](http://stat545.com/automation01_slides/index.html) on automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Create a reproducible data analytics workflow using a make file. 
+* Practice writing instructions to others by writing a tutorial. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You learned basic modeling techniques in 315, and you're learning more advanced modeling techniques in 456. 
+* The textbook however, takes a different approach to modeling, definitely different code than you might have seen in either of those two classes. 
+* This is how Data Scientists look at modeling, a little differently than Statisticians or even moreso, Researchers from other fields who only use statistics briefly in their research. 
+* Learning how to do things in multiple ways is a great asset. 
+</t>
+  </si>
+  <si>
+    <t>* [R4DS CH 22-23](http://r4ds.had.co.nz/model-intro.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Demonstrate a deeper understanding of the underworkings behind linear models. </t>
+  </si>
+  <si>
+    <t>* R4DS Exercises 24.2.3 (all), 24.3.5 (#1, one of #3-#5, #6, #7)</t>
+  </si>
+  <si>
+    <t>* [Software Carpentry Shell Novice lesson](http://swcarpentry.github.io/shell-novice/)
+* [Software Carpentry Make Novice lesson](http://swcarpentry.github.io/make-novice/)
+* [Example of when/why to use make files](https://dzone.com/articles/makefiles-rlatex-projects)
+* [Stat 545 lesson on automation](http://stat545.com/automation00_index.html)
+* [Gapminder data](https://raw.githubusercontent.com/swcarpentry/r-novice-gapminder/gh-pages/_episodes_rmd/data/gapminder-FiveYearData.csv) from [Software Carpentries R Novice lesson(https://swcarpentry.github.io/r-novice-gapminder/05-data-structures-part2/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Recap the predictive analytics life cycle (PAL). 
+* We'll discuss why you may want to automate script files as opposed to (say) clicking the "knit" button. 
+* We won't cover how to use the unix shell or how to create make files directly as part of this class. This is something covered in CS 111, which is taken before this course. 
+* Work through at least one of the three toy pipelines from the [Stat 545](http://stat545.com/automation00_index.html) website. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  and write a tutorial/walk through as a blog post. Share your post under #assignments and drop a note in BBL when you are done. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* All exercises in 23.2.1 (#1, #2) , 23.3.3 (#1, #3, #4),  23.4.5 (#1, #3, #4). Add this assignment to your github repo as a new RMD file. 
+* Write a blog post about something you found interesting in the DS world this past week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Join our Slack Channel [csuc-ads-s18](https://join.slack.com/t/csuc-ads-s18/shared_invite/enQtMjk3MTIyOTMxMjE2LWQwYjIxYmRlYmU1NzI0N2U1ODE2MmFlYzJkYWEwZjViZDRkMDkyMDBkNTNjNzNmNWY2M2ZiMmE0MTNjNGVkNzM)
+* Install the Slack app for your phone and/or computer
+* Update R &amp; R Studio (if done &lt; 6mo ago)
+* If you're new to Git - I recommend using Sourcetree as your external client (yes you have to make an Atlassian account, but that's ok. It opens availability to their other useful software products as well) 
+* Get the textbook - [Weapons of Math Destruction](https://www.amazon.com/Weapons-Math-Destruction-Increases-Inequality/dp/0553418815). There is  1 copy available in the Library -- Someone go check this out for the semester and share! </t>
+  </si>
+  <si>
+    <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
+* GitHub assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
+* [R4DS CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Introduction and orientation to Slack and GitHub 
+* Take control of Assignment repo (link under materials). This provides you a repo and a starting template for your homework.
+* Practice your R programming skills by working through r4ds Ch 17-21.5
+* Most homework will be submitted through this repo. Direct links to the *.md file that you want me to review will be submitted via BBL for easy gradebook entry. </t>
+  </si>
+  <si>
+    <t>* Join all visible Slack channels. 
+* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. 
+* r4ds programming assignment</t>
+  </si>
+  <si>
     <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
-* Each week you will write a post about something in the DS world that you found interseting. It doesn't have to be a long or involved post.
+* Each week you will write a post about something in the DS world that you found interesting. It doesn't have to be a long or involved post.
 * This is about practicing writing for a public audience. The more you write the better you'll get. 
 * Wait.. why the heck should I create a website? The internet is scary! </t>
+  </si>
+  <si>
+    <t>Data Analytics Lifecycle: Get, Clean, Explore. Then automate all the things!</t>
+  </si>
+  <si>
+    <t>Data Analytics Lifecycle: Model (Basics)</t>
+  </si>
+  <si>
+    <t>Data Analytics Lifecycle: Model (Building)</t>
+  </si>
+  <si>
+    <t>Data Analytics Lifecycle: Model (Validation)</t>
+  </si>
+  <si>
+    <t>* Partition a data set into training and testing sets. 
+* Fit models using cross-validation techniques</t>
+  </si>
+  <si>
+    <t>Supervised Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Fit a variety of supervised machine learning models. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Your blog post this week should revolve around Supervised ML methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* What's the difference between Supervised vs Unsupervised models? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* More discussion on the differnece and use of training and testing data. 
+* How do we implement a cross-validation procedure? </t>
   </si>
 </sst>
 </file>
@@ -855,8 +920,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -888,19 +953,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="204.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -908,23 +973,23 @@
         <v>41661</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,26 +1004,26 @@
         <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="14" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -966,36 +1031,52 @@
         <v>41675</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+        <v>33</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G4" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>41682</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1003,15 +1084,19 @@
         <f t="shared" si="0"/>
         <v>41689</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1019,15 +1104,21 @@
         <f t="shared" si="0"/>
         <v>41696</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1035,13 +1126,21 @@
         <f t="shared" si="0"/>
         <v>41703</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>Finals Week</t>
   </si>
@@ -82,11 +83,6 @@
     <t>References</t>
   </si>
   <si>
-    <t xml:space="preserve">* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. 
-* Edit your pinned slack introduction message to include the link to your website. 
-* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds. You won't start blogging until next week. </t>
-  </si>
-  <si>
     <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
   </si>
   <si>
@@ -116,9 +112,6 @@
     <t xml:space="preserve">* Demonstrate a deeper understanding of the underworkings behind linear models. </t>
   </si>
   <si>
-    <t>* R4DS Exercises 24.2.3 (all), 24.3.5 (#1, one of #3-#5, #6, #7)</t>
-  </si>
-  <si>
     <t>* [Software Carpentry Shell Novice lesson](http://swcarpentry.github.io/shell-novice/)
 * [Software Carpentry Make Novice lesson](http://swcarpentry.github.io/make-novice/)
 * [Example of when/why to use make files](https://dzone.com/articles/makefiles-rlatex-projects)
@@ -132,13 +125,6 @@
 * Work through at least one of the three toy pipelines from the [Stat 545](http://stat545.com/automation00_index.html) website. </t>
   </si>
   <si>
-    <t xml:space="preserve">* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  and write a tutorial/walk through as a blog post. Share your post under #assignments and drop a note in BBL when you are done. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* All exercises in 23.2.1 (#1, #2) , 23.3.3 (#1, #3, #4),  23.4.5 (#1, #3, #4). Add this assignment to your github repo as a new RMD file. 
-* Write a blog post about something you found interesting in the DS world this past week. </t>
-  </si>
-  <si>
     <t xml:space="preserve">* Join our Slack Channel [csuc-ads-s18](https://join.slack.com/t/csuc-ads-s18/shared_invite/enQtMjk3MTIyOTMxMjE2LWQwYjIxYmRlYmU1NzI0N2U1ODE2MmFlYzJkYWEwZjViZDRkMDkyMDBkNTNjNzNmNWY2M2ZiMmE0MTNjNGVkNzM)
 * Install the Slack app for your phone and/or computer
 * Update R &amp; R Studio (if done &lt; 6mo ago)
@@ -157,11 +143,6 @@
 * Most homework will be submitted through this repo. Direct links to the *.md file that you want me to review will be submitted via BBL for easy gradebook entry. </t>
   </si>
   <si>
-    <t>* Join all visible Slack channels. 
-* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. 
-* r4ds programming assignment</t>
-  </si>
-  <si>
     <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
 * Each week you will write a post about something in the DS world that you found interesting. It doesn't have to be a long or involved post.
 * This is about practicing writing for a public audience. The more you write the better you'll get. 
@@ -174,37 +155,135 @@
     <t>Data Analytics Lifecycle: Model (Basics)</t>
   </si>
   <si>
-    <t>Data Analytics Lifecycle: Model (Building)</t>
-  </si>
-  <si>
-    <t>Data Analytics Lifecycle: Model (Validation)</t>
-  </si>
-  <si>
-    <t>* Partition a data set into training and testing sets. 
-* Fit models using cross-validation techniques</t>
-  </si>
-  <si>
-    <t>Supervised Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Fit a variety of supervised machine learning models. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Your blog post this week should revolve around Supervised ML methods. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* What's the difference between Supervised vs Unsupervised models? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* More discussion on the differnece and use of training and testing data. 
-* How do we implement a cross-validation procedure? </t>
+    <t>Introduction to Statistical Learning</t>
+  </si>
+  <si>
+    <t>* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. (Due Mon 2/5)
+* Edit your pinned slack introduction message to include the link to your website.
+* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds.  (Due Mon 2/5)</t>
+  </si>
+  <si>
+    <t>R4DS #1</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Due</t>
+  </si>
+  <si>
+    <t>PR R4DS #1</t>
+  </si>
+  <si>
+    <t>Peer Review</t>
+  </si>
+  <si>
+    <t>Blogdown</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Find Blogs</t>
+  </si>
+  <si>
+    <t>Gapminder</t>
+  </si>
+  <si>
+    <t>PR Gapminder</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>* Join all visible Slack channels. 
+* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Tue 1/23)
+* R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
+* Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)</t>
+  </si>
+  <si>
+    <t>* ISLR MOOC [Video lectures](http://www.dataschool.io/15-hours-of-expert-machine-learning-videos/)
+* [Materials from DSO/IOM 530 at USC](https://www.alsharif.info/iom530)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* We're going to use the textbook "Introduction to Statistical Learning" - a leading book in the field to lead us through an introduction to the world of machine learning. 
+* There will also be associated videos for you to watch as well from the textbook authors. 
+* The slides linked in the reference section are from an offering of a ML class at USC using this book. Consider them another learning tool. 
+* Rememer, for much of this class i'm a guide on the side. Pointing you at things to learn, giving you the space and support to learn it. Others have explained the material much better than I could, so let's let them deliver the lecture content and I'll provide the support. 
+* This means that you'll have to spend some dedicated time reading the textbook. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Download the [PDF of ISLR](http://www-bcf.usc.edu/~gareth/ISL/)
+* Watch ISLR Videos: Ch 1 &amp; 2
+* Read ISLR Ch 1 &amp; CH 2
+* Be prepared to answer questions during class. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* What is f? 
+* Examples of supervised/unsupervised, regression/clustering/classification, parametric/non-parametric models. 
+* Why would we ever choose to use a more restrictive method instead of a very flexible approach?
+* What is the primary measure of model fit for regression models? 
+* What's the difference between training and testing data? Why do we need both? 
+* What is overfitting? 
+* If we don't have a testing data set, what method can we use to estimate the MSE of the testing data? 
+* What is the bias-variance tradeoff? 
+* What is the primary measure of model fit for classification models? 
+* Name two classification models 
+* Name a benefit of using a KNN model. 
+* What happens to the accuracy/bias of the model as the K increases? Why? </t>
+  </si>
+  <si>
+    <t>* R4DS HW #2:  23.2.1 (#1, #2) , 23.3.3 (#1, #3, #4),  23.4.5 (#1, #3, #4). Add this assignment to your github repo as a new RMD file. (Due Sat 2/17)
+* Peer Review R4DS HW #2 (Due Mon 2/19)</t>
+  </si>
+  <si>
+    <t>* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  Write a tutorial/walk through as a separate RMD file. (Due Sat 2/10)
+* Peer review 1 classmates file using github (Due Mon 2/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ISLR Chapter 2 Exercises: #1, #2, #4 (Write this up as a blog post), #10 Explore the Boston data set. Write this up as a separate assignment in your github repo. (Due Sat 2/24)
+* Peer review Boston exploration via forking &amp; writing issues in github. (Due Mon 2/25)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Describe the difference between training and testing data sets
+* Describe the differnece between a parametric and non-parametric model
+* Identify  and describe situations where classification, regression, and clustering models are appropriate. 
+* Explain the concept of overfitting, and bias-variance tradeoff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Everything starts with linear regression, and then moves outward. 
+* In 315/456 we cared more about interpreting models and understanding the effects covariates had on outcomes. Here we're more interested in using the models to make predictions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Under what circumstances will the parametric approach outperform a non-parametric approach? 
+* What is the curse of dimensionality? </t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 3 Exercises: #4,  #15 (Due Sat 3/3)
+* Peer review via github (Due Mon3/5)</t>
+  </si>
+  <si>
+    <t>* Read ISLR Chapter 3.5</t>
+  </si>
+  <si>
+    <t>Prediction using Regression Models</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -254,8 +333,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +373,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -338,8 +430,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,8 +537,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -484,8 +592,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="90" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="4" xfId="90" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="91">
+    <cellStyle name="Calculation" xfId="90" builtinId="22"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -920,8 +1041,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -929,10 +1050,10 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.25" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="39.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.25" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.25" style="5" customWidth="1"/>
     <col min="9" max="9" width="30.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -973,23 +1094,23 @@
         <v>41661</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1010,16 +1131,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1031,23 +1152,23 @@
         <v>41675</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,25 +1180,25 @@
         <v>41682</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1085,15 +1206,25 @@
         <v>41689</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,20 +1236,24 @@
         <v>41696</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1126,21 +1261,13 @@
         <f t="shared" si="0"/>
         <v>41703</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="G8" s="7"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -1300,4 +1427,148 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39BCBD9-52BC-4762-BCE3-C0E2C27CCA7A}">
+  <dimension ref="B3:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="19">
+        <v>41667</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="19">
+        <v>41669</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="19">
+        <v>41674</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19">
+        <v>41674</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>3</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="19">
+        <v>41681</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="19">
+        <v>41683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>Finals Week</t>
   </si>
@@ -86,11 +86,6 @@
     <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
   </si>
   <si>
-    <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
-* [Alice Hills Tutorial](https://alison.rbind.io/post/up-and-running-with-blogdown/)
-* [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)</t>
-  </si>
-  <si>
     <t>* Review the [notes](notes.html) on the data analytics lifecycle
 * Review the notes from [Stat 545](http://stat545.com/automation01_slides/index.html) on automation</t>
   </si>
@@ -143,12 +138,6 @@
 * Most homework will be submitted through this repo. Direct links to the *.md file that you want me to review will be submitted via BBL for easy gradebook entry. </t>
   </si>
   <si>
-    <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
-* Each week you will write a post about something in the DS world that you found interesting. It doesn't have to be a long or involved post.
-* This is about practicing writing for a public audience. The more you write the better you'll get. 
-* Wait.. why the heck should I create a website? The internet is scary! </t>
-  </si>
-  <si>
     <t>Data Analytics Lifecycle: Get, Clean, Explore. Then automate all the things!</t>
   </si>
   <si>
@@ -169,27 +158,12 @@
     <t>Assignment</t>
   </si>
   <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Due</t>
-  </si>
-  <si>
     <t>PR R4DS #1</t>
   </si>
   <si>
-    <t>Peer Review</t>
-  </si>
-  <si>
-    <t>Blogdown</t>
-  </si>
-  <si>
     <t>Discussion</t>
   </si>
   <si>
-    <t>Find Blogs</t>
-  </si>
-  <si>
     <t>Gapminder</t>
   </si>
   <si>
@@ -197,9 +171,6 @@
   </si>
   <si>
     <t>Project</t>
-  </si>
-  <si>
-    <t>Total</t>
   </si>
   <si>
     <t>%</t>
@@ -269,21 +240,133 @@
 * What is the curse of dimensionality? </t>
   </si>
   <si>
+    <t>* Read ISLR Chapter 3.5</t>
+  </si>
+  <si>
+    <t>Prediction using Regression Models</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>* Read ISLR Chapter 4 (Intro), 4.1, 4.35, 4.4, 4.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* What are the three most widely used classifying models? What is the fourth one this chapter talks about? 
+* When would we choose a linear discriminant analysis model over logistic regression? 
+* Briefly explain how a LDA works. What is linear about it? 
+* What is the table at the top of 145 called? 
+* What is one reason the example model on the `default` data had such low sensitivity? How was it improved? 
+* What's the difference bewtween LDA and QDA? When would we choose one over the other? 
+* What patterns are you seeing / what are the take home messages from figure 4.10 &amp; 4.11? </t>
+  </si>
+  <si>
+    <t>Read through the lab (ISLR 4.6) and replicate on your own.</t>
+  </si>
+  <si>
     <t>* ISLR Chapter 3 Exercises: #4,  #15 (Due Sat 3/3)
-* Peer review via github (Due Mon3/5)</t>
-  </si>
-  <si>
-    <t>* Read ISLR Chapter 3.5</t>
-  </si>
-  <si>
-    <t>Prediction using Regression Models</t>
+* Peer review via github (Due Mon 3/5)</t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 4 Exercises: #5,  # 13 (Due Sat 3/10)
+* Peer Review via Github (Due Mon 3/12)</t>
+  </si>
+  <si>
+    <t>* Implement each of four commonly used classifying models. 
+* Explain a situation where a classification model is warrented
+* Identify the best model from a group of competing models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Create and evaluate a prediction model using linear regression. 
+* Identify cases where a non-parametric approach would be more appropriate than a parametric approach. </t>
+  </si>
+  <si>
+    <t>Catgory</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>Create website</t>
+  </si>
+  <si>
+    <t>R4DS #2</t>
+  </si>
+  <si>
+    <t>PR R4DS #2</t>
+  </si>
+  <si>
+    <t>ISLR Ch 2</t>
+  </si>
+  <si>
+    <t>PR ISLR Ch 2</t>
+  </si>
+  <si>
+    <t>Share Blogs</t>
+  </si>
+  <si>
+    <t>ISLR Ch 3</t>
+  </si>
+  <si>
+    <t>PR ISLR Ch 3</t>
+  </si>
+  <si>
+    <t>ISLR Ch 4</t>
+  </si>
+  <si>
+    <t>PR ISLR Ch 4</t>
+  </si>
+  <si>
+    <t>Blog Posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
+* Several times throughout the semester you will write a post about something in the DS world that you found interesting. It doesn't have to be a long or involved post.
+* This is about practicing writing for a public audience. The more you write the better you'll get. 
+* Wait.. why the heck should I create a website? The internet is scary! </t>
+  </si>
+  <si>
+    <t>Boston Project Dashboard</t>
+  </si>
+  <si>
+    <t>Dissemination and reporting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Plotly: https://plot.ly/r/ 
+* User Guide for R: https://plot.ly/r/user-guide/ </t>
+  </si>
+  <si>
+    <t>* Refresh on your Shiny skills. Probably update the package. 
+* Optional: Learn Plotly. Note, it's stand alone but there are instructions on how to use it with R</t>
+  </si>
+  <si>
+    <t>* Convey results of the prediction model back to a non-technical audience
+ * Integrate projects into your webpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Take one of the last two assignments on creating prediction models using the Boston data set, address any peer feedback and turn into dynamic prediction model using Shiny. 
+* Create a dashboard for prediction 
+* Allow the user to see predictions for different covariate patterns. 
+* Add some interactiveness to your app using Plotly
+* Add as a project to personal webpage. 
+</t>
+  </si>
+  <si>
+    <t>* Dashboard Project (Due Friday 3/30)</t>
+  </si>
+  <si>
+    <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
+* [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,15 +417,30 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,13 +471,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -431,22 +524,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -537,9 +635,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -595,18 +695,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="90" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="6" borderId="4" xfId="90" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="92" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
-    <cellStyle name="Calculation" xfId="90" builtinId="22"/>
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -650,6 +764,7 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 2" xfId="91" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -696,7 +811,9 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Percent" xfId="90" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Total" xfId="92" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1041,8 +1158,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -1100,20 +1217,20 @@
         <v>8</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>26</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1131,16 +1248,16 @@
         <v>10</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,23 +1269,23 @@
         <v>41675</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1180,21 +1297,21 @@
         <v>41682</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1206,29 +1323,29 @@
         <v>41689</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1236,54 +1353,80 @@
         <v>41696</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    </row>
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>41703</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>41710</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
@@ -1309,7 +1452,9 @@
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1431,142 +1576,838 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39BCBD9-52BC-4762-BCE3-C0E2C27CCA7A}">
-  <dimension ref="B3:J10"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.25" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="25"/>
+    <col min="2" max="2" width="32.25" style="25" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="25"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H3" s="18" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="18">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="18">
+        <f>SUMIF($C$2:$C$84,F2,$D$2:$D$84)</f>
+        <v>70</v>
+      </c>
+      <c r="H2" s="21">
+        <f>G2/$G$6</f>
+        <v>0.34825870646766172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="18">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="18">
+        <f>SUMIF($C$2:$C$84,F3,$D$2:$D$84)</f>
+        <v>51</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3/$G$6</f>
+        <v>0.2537313432835821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="18">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="18">
+        <f>SUMIF($C$2:$C$84,F4,$D$2:$D$84)</f>
+        <v>30</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4/$G$6</f>
+        <v>0.14925373134328357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="18">
+        <f>SUMIF($C$2:$C$84,F5,$D$2:$D$84)</f>
+        <v>50</v>
+      </c>
+      <c r="H5" s="21">
+        <f>G5/$G$6</f>
+        <v>0.24875621890547264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>3</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
+      <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18">
+        <v>10</v>
+      </c>
+      <c r="G6" s="22">
+        <f>SUM(G2:G5)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>3</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>5</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>5</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="18">
+        <v>5</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>6</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="18">
+        <v>10</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>6</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="18">
+        <v>5</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>7</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18">
+        <v>10</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="18">
+        <v>5</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="19">
-        <v>41667</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="D16" s="18">
+        <v>50</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>8</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="19">
-        <v>41669</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>2</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="19">
-        <v>41674</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>2</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="19">
-        <v>41674</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>3</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="19">
-        <v>41681</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>4</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="19">
-        <v>41683</v>
-      </c>
+      <c r="D17" s="18">
+        <v>50</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="23"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="23"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="23"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="23"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="23"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="23"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="23"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="23"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="23"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="24"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="24"/>
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="24"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="C91" s="27"/>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="28"/>
+      <c r="B93" s="28"/>
+      <c r="D93" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
   <si>
     <t>Finals Week</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Topics</t>
-  </si>
-  <si>
-    <t>Social Media for Academics</t>
   </si>
   <si>
     <t xml:space="preserve">* Be familiar with modern team collaboration and version control tools 
@@ -358,8 +355,67 @@
     <t>* Dashboard Project (Due Friday 3/30)</t>
   </si>
   <si>
+    <t>Final Project</t>
+  </si>
+  <si>
     <t>* [Blogdown](https://bookdown.org/yihui/blogdown/)
-* [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)</t>
+* [Curation vs Creation](https://www.agorapulse.com/blog/lets-clear-content-creation-vs-content-curation)
+* http://varianceexplained.org/r/start-blog/</t>
+  </si>
+  <si>
+    <t>Social Media for Data Scientists</t>
+  </si>
+  <si>
+    <t>Dead Week</t>
+  </si>
+  <si>
+    <t>Ethics of ML algorithms, Resampling Methods</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 3-4 (MB)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 5-6 (AS)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 7-8 (RA)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 9-10 (RAD)</t>
+  </si>
+  <si>
+    <t>Tree based methods</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Intro, Ch 1-2 (RAD)
+* ISLR Chapter 5
+* Install the caret package</t>
+  </si>
+  <si>
+    <t>* Describe how the bootstratp method differs from cross-validation
+* Implement cross-validation technique to assess model performance</t>
+  </si>
+  <si>
+    <t>*https://cran.r-project.org/web/packages/caret/vignettes/caret.pdf
+* https://topepo.github.io/caret/
+* Notes from [[MATH 456 S16]](notes/lec10_Classifiers_456_S16.pdf)</t>
+  </si>
+  <si>
+    <t>* Name one reason resampling techniques are used in statistical learning
+* Describe the overall or general process of model validation
+* What are the two primary methods of cross-validation? 
+* Which method above is nearly unbaiased? Why?
+* What is the primary driver of the bias-variance tradeoff in cross-validation? 
+* Describe how the bootstrap method differs from cross-validation</t>
+  </si>
+  <si>
+    <t>Big Data</t>
+  </si>
+  <si>
+    <t>Other Tools</t>
+  </si>
+  <si>
+    <t>Parallel processing, batch jobs</t>
   </si>
 </sst>
 </file>
@@ -455,12 +511,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,21 +718,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="89" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -686,10 +727,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,6 +759,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1158,8 +1214,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1175,13 +1231,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1190,190 +1246,190 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>14</v>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>41661</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>38</v>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
         <v>41668</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>29</v>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
         <v>41675</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14" t="s">
-        <v>44</v>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
         <v>41682</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
+      <c r="C5" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>41689</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>28</v>
+      <c r="C6" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>41696</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>50</v>
+      <c r="C7" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1381,27 +1437,27 @@
         <v>41703</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1409,54 +1465,64 @@
         <v>41710</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>41724</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1464,9 +1530,13 @@
         <f t="shared" si="0"/>
         <v>41731</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
@@ -1480,15 +1550,19 @@
         <f t="shared" si="0"/>
         <v>41738</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1496,9 +1570,13 @@
         <f t="shared" si="0"/>
         <v>41745</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
@@ -1512,9 +1590,13 @@
         <f t="shared" si="0"/>
         <v>41752</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
@@ -1528,7 +1610,9 @@
         <f t="shared" si="0"/>
         <v>41759</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
@@ -1544,7 +1628,9 @@
         <f t="shared" si="0"/>
         <v>41766</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1579,837 +1665,848 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="25"/>
-    <col min="2" max="2" width="32.25" style="25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="9" style="25"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="32.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20"/>
     <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9" style="18"/>
+    <col min="7" max="7" width="10" style="13" customWidth="1"/>
+    <col min="8" max="8" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>37</v>
+      <c r="H1" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="18">
+        <v>30</v>
+      </c>
+      <c r="G2" s="13">
         <f>SUMIF($C$2:$C$84,F2,$D$2:$D$84)</f>
         <v>70</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="16">
         <f>G2/$G$6</f>
-        <v>0.34825870646766172</v>
+        <v>0.2788844621513944</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="13">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="18">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="G3" s="13">
         <f>SUMIF($C$2:$C$84,F3,$D$2:$D$84)</f>
         <v>51</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="16">
         <f>G3/$G$6</f>
-        <v>0.2537313432835821</v>
+        <v>0.20318725099601595</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18">
+      <c r="B4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="13">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="18">
+        <v>60</v>
+      </c>
+      <c r="G4" s="13">
         <f>SUMIF($C$2:$C$84,F4,$D$2:$D$84)</f>
         <v>30</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="16">
         <f>G4/$G$6</f>
-        <v>0.14925373134328357</v>
+        <v>0.11952191235059761</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="13">
+        <f>SUMIF($C$2:$C$84,F5,$D$2:$D$84)</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="16">
+        <f>G5/$G$6</f>
+        <v>0.39840637450199201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" s="17">
+        <f>SUM(G2:G5)</f>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13">
+        <v>5</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="18">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="18">
-        <f>SUMIF($C$2:$C$84,F5,$D$2:$D$84)</f>
+      <c r="C12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>7</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13">
+        <v>5</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>8</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="13">
         <v>50</v>
       </c>
-      <c r="H5" s="21">
-        <f>G5/$G$6</f>
-        <v>0.24875621890547264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
-        <v>3</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="18">
-        <v>10</v>
-      </c>
-      <c r="G6" s="22">
-        <f>SUM(G2:G5)</f>
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>3</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13">
+        <v>50</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>4</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>4</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>5</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>5</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="18">
-        <v>5</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>6</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="18">
-        <v>10</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>6</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="18">
-        <v>5</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18">
-        <v>10</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="18">
-        <v>5</v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>15</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="D18" s="13">
         <v>50</v>
       </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>8</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18">
-        <v>50</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="23"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="23"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="23"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="23"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="23"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="23"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="23"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="23"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="23"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="23"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="23"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="23"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="18"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="23"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="18"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="23"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="23"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="18"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="23"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="18"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="18"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="26"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="26"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="21"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="23"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="18"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="23"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="23"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="18"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="23"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="18"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="23"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="18"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="23"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="18"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="24"/>
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="19"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="24"/>
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="19"/>
       <c r="G79"/>
       <c r="H79"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="24"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="19"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
       <c r="G81"/>
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="G82"/>
       <c r="H82"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
       <c r="G83"/>
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
       <c r="G84"/>
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
       <c r="G85"/>
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="G86"/>
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="G87"/>
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="G88"/>
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="23"/>
+      <c r="D93" s="23"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D93">
+    <sortCondition ref="A2:A93"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Finals Week</t>
   </si>
@@ -372,18 +372,6 @@
     <t>Ethics of ML algorithms, Resampling Methods</t>
   </si>
   <si>
-    <t>* Read WOMD: Ch 3-4 (MB)</t>
-  </si>
-  <si>
-    <t>* Read WOMD: Ch 5-6 (AS)</t>
-  </si>
-  <si>
-    <t>* Read WOMD: Ch 7-8 (RA)</t>
-  </si>
-  <si>
-    <t>* Read WOMD: Ch 9-10 (RAD)</t>
-  </si>
-  <si>
     <t>Tree based methods</t>
   </si>
   <si>
@@ -415,7 +403,57 @@
     <t>Other Tools</t>
   </si>
   <si>
-    <t>Parallel processing, batch jobs</t>
+    <t>* Read WOMD: Ch 3-4 (MB)
+* [When Data Science Destabilizes Democracy and Facilitates Genocide](http://www.fast.ai/2017/11/02/ethics/)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 5-6 (AS)
+* [More than a Million Pro-Repeal Net Neutrality Comments were Likely Faked](https://hackernoon.com/more-than-a-million-pro-repeal-net-neutrality-comments-were-likely-faked-e9f0e3ed36a6)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 7-8 (RA)
+* [Activision Patents Matchmaking That Encourages Players To Buy Microtransactions](https://kotaku.com/activision-patents-matchmaking-that-encourages-players-1819630937)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 9-10 (RAD)
+* Compare [[this article on practical tips for success with ML]](https://www.datanami.com/2018/01/17/practical-tips-success-machine-learning/) with this post on [[google automating ML]](https://www.datanami.com/2018/01/17/google-automate-machine-learning-automl-service/)</t>
+  </si>
+  <si>
+    <t>* ML homework</t>
+  </si>
+  <si>
+    <t>* Big data homework</t>
+  </si>
+  <si>
+    <t>Working on a computing cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Write a script to send to a remote server to perform an analysis. 
+* Write a script that utilizes more than one computing core. </t>
+  </si>
+  <si>
+    <t>* cluster computing homework</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>PR ML</t>
+  </si>
+  <si>
+    <t>Big data</t>
+  </si>
+  <si>
+    <t>PR big data</t>
+  </si>
+  <si>
+    <t>cluster computing</t>
+  </si>
+  <si>
+    <t>PR Cluster computing</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1252,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1506,23 +1544,23 @@
         <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1531,18 +1569,20 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I12" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1551,18 +1591,20 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1571,18 +1613,22 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1591,11 +1637,11 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1614,7 +1660,9 @@
         <v>80</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
@@ -1665,7 +1713,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1721,11 +1769,11 @@
       </c>
       <c r="G2" s="13">
         <f>SUMIF($C$2:$C$84,F2,$D$2:$D$84)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H2" s="16">
         <f>G2/$G$6</f>
-        <v>0.2788844621513944</v>
+        <v>0.33783783783783783</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,7 +1798,7 @@
       </c>
       <c r="H3" s="16">
         <f>G3/$G$6</f>
-        <v>0.20318725099601595</v>
+        <v>0.17229729729729729</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1771,11 +1819,11 @@
       </c>
       <c r="G4" s="13">
         <f>SUMIF($C$2:$C$84,F4,$D$2:$D$84)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H4" s="16">
         <f>G4/$G$6</f>
-        <v>0.11952191235059761</v>
+        <v>0.15202702702702703</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1800,7 +1848,7 @@
       </c>
       <c r="H5" s="16">
         <f>G5/$G$6</f>
-        <v>0.39840637450199201</v>
+        <v>0.33783783783783783</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,7 +1866,7 @@
       </c>
       <c r="G6" s="17">
         <f>SUM(G2:G5)</f>
-        <v>251</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1969,71 +2017,119 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="13">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
+        <v>10</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="13">
+        <v>5</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>11</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="13">
+        <v>10</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13">
+        <v>5</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>12</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B24" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D24" s="13">
         <v>50</v>
       </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="14445" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
   <si>
     <t>Finals Week</t>
   </si>
@@ -171,12 +171,6 @@
   </si>
   <si>
     <t>%</t>
-  </si>
-  <si>
-    <t>* Join all visible Slack channels. 
-* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Tue 1/23)
-* R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
-* Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)</t>
   </si>
   <si>
     <t>* ISLR MOOC [Video lectures](http://www.dataschool.io/15-hours-of-expert-machine-learning-videos/)
@@ -455,11 +449,24 @@
   <si>
     <t>PR Cluster computing</t>
   </si>
+  <si>
+    <t xml:space="preserve">* Describe your Data Scientist profile. What are your strengths? 
+* Using the [Data Camp infographic](https://www.datacamp.com/community/tutorials/data-science-industry-infographic) - Where do you see yourself fitting in ?
+* How would you explain to someone what "Big Data" is? 
+* How would you explain to someone what a model is? </t>
+  </si>
+  <si>
+    <t>* Join all visible Slack channels. 
+* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Tue 1/23)
+* R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
+* Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
+* Be prepared to answer DDS topic questions in class next Tuesday.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -904,9 +911,9 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Percent 2" xfId="52"/>
     <cellStyle name="Total" xfId="92" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1248,27 +1255,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.75" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="313" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1319,12 +1326,14 @@
       <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>41668</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1342,13 +1351,13 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>28</v>
@@ -1379,10 +1388,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="170" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1405,7 +1414,7 @@
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1420,25 +1429,25 @@
         <v>27</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1447,26 +1456,26 @@
         <v>41696</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="196" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1475,26 +1484,26 @@
         <v>41703</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1503,26 +1512,26 @@
         <v>41710</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="G9" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
@@ -1533,7 +1542,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
     </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="144" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1541,26 +1550,26 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="66" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1569,20 +1578,20 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1591,20 +1600,20 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="79" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1613,22 +1622,22 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1637,18 +1646,18 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1657,18 +1666,18 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1686,7 +1695,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1709,23 +1718,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39BCBD9-52BC-4762-BCE3-C0E2C27CCA7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="32.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9" style="20"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="32.1640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="20"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="13" customWidth="1"/>
-    <col min="8" max="8" width="9" style="13"/>
+    <col min="8" max="8" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1736,16 +1745,16 @@
         <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>36</v>
@@ -1776,7 +1785,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1784,7 +1793,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="13">
         <v>5</v>
@@ -1801,12 +1810,12 @@
         <v>0.17229729729729729</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>30</v>
@@ -1815,7 +1824,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIF($C$2:$C$84,F4,$D$2:$D$84)</f>
@@ -1826,12 +1835,12 @@
         <v>0.15202702702702703</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>32</v>
@@ -1851,7 +1860,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -1869,7 +1878,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -1877,18 +1886,18 @@
         <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>30</v>
@@ -1897,26 +1906,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>30</v>
@@ -1925,27 +1934,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="13">
         <v>5</v>
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>30</v>
@@ -1955,27 +1964,27 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="13">
         <v>5</v>
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>30</v>
@@ -1985,27 +1994,27 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="13">
         <v>5</v>
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>8</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>35</v>
@@ -2015,12 +2024,12 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>30</v>
@@ -2030,27 +2039,27 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="13">
         <v>5</v>
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>30</v>
@@ -2060,27 +2069,27 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13">
         <v>5</v>
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>12</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>30</v>
@@ -2089,26 +2098,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>32</v>
@@ -2117,12 +2126,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>35</v>
@@ -2131,247 +2140,247 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2381,7 +2390,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2391,106 +2400,106 @@
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="22"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -2499,14 +2508,14 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -2514,7 +2523,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -2522,7 +2531,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -2530,7 +2539,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -2538,7 +2547,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -2546,7 +2555,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -2554,7 +2563,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -2562,7 +2571,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -2570,31 +2579,31 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="23"/>
       <c r="B93" s="23"/>
       <c r="D93" s="23"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
   <si>
     <t>Finals Week</t>
   </si>
@@ -71,20 +71,10 @@
     <t>Topic2</t>
   </si>
   <si>
-    <t xml:space="preserve">* You don't know what you don’t know.
-* We're going to explore the current world of DS by finding and following people in the world doing DS in an area that interests you. 
-* Find a data science, data visualization, data story, data SOMETHING blog, podcast, twitter feed (or two) to follow. You will be sharing stories weekly, so you may need to find more than one source if your first choice does not update frequently enough.
-</t>
-  </si>
-  <si>
     <t>References</t>
   </si>
   <si>
     <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
-  </si>
-  <si>
-    <t>* Review the [notes](notes.html) on the data analytics lifecycle
-* Review the notes from [Stat 545](http://stat545.com/automation01_slides/index.html) on automation</t>
   </si>
   <si>
     <t xml:space="preserve">* Create a reproducible data analytics workflow using a make file. 
@@ -98,9 +88,6 @@
 </t>
   </si>
   <si>
-    <t>* [R4DS CH 22-23](http://r4ds.had.co.nz/model-intro.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Demonstrate a deeper understanding of the underworkings behind linear models. </t>
   </si>
   <si>
@@ -124,11 +111,6 @@
 * Get the textbook - [Weapons of Math Destruction](https://www.amazon.com/Weapons-Math-Destruction-Increases-Inequality/dp/0553418815). There is  1 copy available in the Library -- Someone go check this out for the semester and share! </t>
   </si>
   <si>
-    <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
-* GitHub assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
-* [R4DS CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Introduction and orientation to Slack and GitHub 
 * Take control of Assignment repo (link under materials). This provides you a repo and a starting template for your homework.
 * Practice your R programming skills by working through r4ds Ch 17-21.5
@@ -138,15 +120,7 @@
     <t>Data Analytics Lifecycle: Get, Clean, Explore. Then automate all the things!</t>
   </si>
   <si>
-    <t>Data Analytics Lifecycle: Model (Basics)</t>
-  </si>
-  <si>
     <t>Introduction to Statistical Learning</t>
-  </si>
-  <si>
-    <t>* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. (Due Mon 2/5)
-* Edit your pinned slack introduction message to include the link to your website.
-* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds.  (Due Mon 2/5)</t>
   </si>
   <si>
     <t>R4DS #1</t>
@@ -208,10 +182,6 @@
 * Peer Review R4DS HW #2 (Due Mon 2/19)</t>
   </si>
   <si>
-    <t>* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  Write a tutorial/walk through as a separate RMD file. (Due Sat 2/10)
-* Peer review 1 classmates file using github (Due Mon 2/12)</t>
-  </si>
-  <si>
     <t xml:space="preserve">* ISLR Chapter 2 Exercises: #1, #2, #4 (Write this up as a blog post), #10 Explore the Boston data set. Write this up as a separate assignment in your github repo. (Due Sat 2/24)
 * Peer review Boston exploration via forking &amp; writing issues in github. (Due Mon 2/25)
 </t>
@@ -456,17 +426,66 @@
 * How would you explain to someone what a model is? </t>
   </si>
   <si>
-    <t>* Join all visible Slack channels. 
-* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Tue 1/23)
+    <t>Slack Introductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Join all visible Slack channels. 
+* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Thu 1/25)
 * R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
+* Read DDS CH 1&amp; 2 (Due Tue 1/30) 
 * Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
-* Be prepared to answer DDS topic questions in class next Tuesday.</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* You don't know what you don’t know.
+* We're going to explore the current world of DS by finding and following people in the world doing DS in an area that interests you. 
+* Find a data science, data visualization, data story, data SOMETHING blog, podcast, twitter feed (or two) to follow. 
+* You are assigned to write at least 8 blog posts throughout the semester, so you may need to find more than one source if your first choice does not update frequently enough.
+* Discuss answers from Last week's reading from Doing Data Science
+</t>
+  </si>
+  <si>
+    <t>* [HappygitwithR Ch 1-16](http://happygitwithr.com/)
+* GitHub assignment repo [link](https://classroom.github.com/a/5I9Qnnbl)
+* [R4DS CH 17-21.5](http://r4ds.had.co.nz/program-intro.html)
+* Doing Data Science: Chapter 1-2</t>
+  </si>
+  <si>
+    <t>Data Analytics Lifecycle: Model (Basics), Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [R4DS CH 22-23](http://r4ds.had.co.nz/model-intro.html)
+</t>
+  </si>
+  <si>
+    <t>* DDS Chapter 3</t>
+  </si>
+  <si>
+    <t>* DDS Chapter 5</t>
+  </si>
+  <si>
+    <t>* DDS Ch 3 (Read 51-57, 80-81, 90-91, skim the rest.)</t>
+  </si>
+  <si>
+    <t>* Review the [notes](notes.html) on the data analytics lifecycle. (Recap from IDS)
+* Review the notes from [Stat 545](http://stat545.com/automation01_slides/index.html) on automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. (Due Mon 2/5)
+* Edit your pinned slack introduction message to include the link to your website.
+* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds.  (Due Mon 2/5)
+* Skim the TOC of DDS and pick a case study you want to read (Ch 4-14) . Post your selection in #readings by (Sun 2/4). Be prepared to share an overview of this case study next Thursday. </t>
+  </si>
+  <si>
+    <t>* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  Write a tutorial/walk through as a separate RMD file. (Due Sat 2/10)
+* Peer review 1 classmates file using github (Due Mon 2/12)
+* Pick a new (to you) case study to share next thursday (Post in #readings by Sun 2/10).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -911,9 +930,9 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51"/>
+    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="52"/>
+    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="Total" xfId="92" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1255,27 +1274,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1292,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1304,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="313" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1312,28 +1331,28 @@
         <v>41661</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>41668</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1351,16 +1370,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1372,26 +1391,26 @@
         <v>41675</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="170" thickBot="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1400,21 +1419,23 @@
         <v>41682</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,28 +1447,28 @@
         <v>41689</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1456,26 +1477,28 @@
         <v>41696</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G7" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="196" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1484,26 +1507,28 @@
         <v>41703</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1512,26 +1537,26 @@
         <v>41710</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
@@ -1542,7 +1567,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
     </row>
-    <row r="11" spans="1:9" ht="144" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1550,26 +1575,26 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1578,20 +1603,20 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="92" thickBot="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1600,20 +1625,20 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1622,22 +1647,22 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="131" thickBot="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1646,18 +1671,18 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1666,18 +1691,18 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1686,7 +1711,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1695,7 +1720,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1718,23 +1743,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="20"/>
-    <col min="2" max="2" width="32.1640625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="20"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="20"/>
+    <col min="2" max="2" width="32.125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="20"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="8.875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1742,22 +1767,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1765,622 +1790,630 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G2" s="13">
-        <f>SUMIF($C$2:$C$84,F2,$D$2:$D$84)</f>
+        <f>SUMIF($C$2:$C$85,F2,$D$2:$D$85)</f>
         <v>100</v>
       </c>
       <c r="H2" s="16">
         <f>G2/$G$6</f>
-        <v>0.33783783783783783</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.33670033670033672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D3" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="13">
-        <f>SUMIF($C$2:$C$84,F3,$D$2:$D$84)</f>
-        <v>51</v>
+        <f>SUMIF($C$2:$C$85,F3,$D$2:$D$85)</f>
+        <v>52</v>
       </c>
       <c r="H3" s="16">
         <f>G3/$G$6</f>
-        <v>0.17229729729729729</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.17508417508417509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D4" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G4" s="13">
-        <f>SUMIF($C$2:$C$84,F4,$D$2:$D$84)</f>
+        <f>SUMIF($C$2:$C$85,F4,$D$2:$D$85)</f>
         <v>45</v>
       </c>
       <c r="H4" s="16">
         <f>G4/$G$6</f>
-        <v>0.15202702702702703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G5" s="13">
-        <f>SUMIF($C$2:$C$84,F5,$D$2:$D$84)</f>
+        <f>SUMIF($C$2:$C$85,F5,$D$2:$D$85)</f>
         <v>100</v>
       </c>
       <c r="H5" s="16">
         <f>G5/$G$6</f>
-        <v>0.33783783783783783</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0.33670033670033672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G6" s="17">
         <f>SUM(G2:G5)</f>
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D9" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>5</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>5</v>
       </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
-        <v>6</v>
-      </c>
       <c r="B12" s="13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D12" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D13" s="13">
+        <v>10</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>6</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="13">
         <v>5</v>
       </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
-        <v>7</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="13">
-        <v>10</v>
-      </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D15" s="13">
+        <v>10</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="13">
         <v>5</v>
       </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
         <v>8</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="B17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="13">
         <v>50</v>
       </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13">
-        <v>10</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="13">
-        <v>10</v>
-      </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D18" s="13">
+        <v>10</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>10</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13">
         <v>5</v>
       </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13">
-        <v>11</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="13">
-        <v>10</v>
-      </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D20" s="13">
+        <v>10</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>11</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="D22" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>15</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>16</v>
-      </c>
       <c r="B24" s="13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D24" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>16</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2390,7 +2423,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2400,106 +2433,106 @@
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -2508,14 +2541,14 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -2523,7 +2556,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -2531,7 +2564,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -2539,7 +2572,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -2547,7 +2580,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -2555,7 +2588,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -2563,7 +2596,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -2571,7 +2604,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -2579,38 +2612,44 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="D93" s="23"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="23"/>
+      <c r="B94" s="23"/>
+      <c r="D94" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D93">
-    <sortCondition ref="A2:A93"/>
+  <sortState ref="A2:D94">
+    <sortCondition ref="A2:A94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -178,15 +178,6 @@
 * What happens to the accuracy/bias of the model as the K increases? Why? </t>
   </si>
   <si>
-    <t>* R4DS HW #2:  23.2.1 (#1, #2) , 23.3.3 (#1, #3, #4),  23.4.5 (#1, #3, #4). Add this assignment to your github repo as a new RMD file. (Due Sat 2/17)
-* Peer Review R4DS HW #2 (Due Mon 2/19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* ISLR Chapter 2 Exercises: #1, #2, #4 (Write this up as a blog post), #10 Explore the Boston data set. Write this up as a separate assignment in your github repo. (Due Sat 2/24)
-* Peer review Boston exploration via forking &amp; writing issues in github. (Due Mon 2/25)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Describe the difference between training and testing data sets
 * Describe the differnece between a parametric and non-parametric model
 * Identify  and describe situations where classification, regression, and clustering models are appropriate. 
@@ -429,14 +420,6 @@
     <t>Slack Introductions</t>
   </si>
   <si>
-    <t xml:space="preserve">* Join all visible Slack channels. 
-* Introduce yourself in #introductions (Name/major/year/GitHub handle/other info you want to share). Pin this message to this board. (Due Thu 1/25)
-* R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
-* Read DDS CH 1&amp; 2 (Due Tue 1/30) 
-* Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">* You don't know what you don’t know.
 * We're going to explore the current world of DS by finding and following people in the world doing DS in an area that interests you. 
 * Find a data science, data visualization, data story, data SOMETHING blog, podcast, twitter feed (or two) to follow. 
@@ -473,13 +456,32 @@
   <si>
     <t xml:space="preserve">* Follow the tutorials provided to build your website using blogdown. Minimum information includes an 'about' paragraph. (Due Mon 2/5)
 * Edit your pinned slack introduction message to include the link to your website.
-* Tell us a little bit about your DS sources (blog/podcast/twitter) in #state-of-ds.  (Due Mon 2/5)
+* Tell us a little bit about your DS sources,  i.e. blog/podcast/twitter,  in #state-of-ds.  (Due Mon 2/5)
 * Skim the TOC of DDS and pick a case study you want to read (Ch 4-14) . Post your selection in #readings by (Sun 2/4). Be prepared to share an overview of this case study next Thursday. </t>
   </si>
   <si>
     <t>* Using the gapminder data set, explore the question "How does life expectancy change over time for each country?"  Automate your entire workflow including data acquisition as a separate R file.  Write a tutorial/walk through as a separate RMD file. (Due Sat 2/10)
 * Peer review 1 classmates file using github (Due Mon 2/12)
-* Pick a new (to you) case study to share next thursday (Post in #readings by Sun 2/10).</t>
+* Pick a new case study to share next thursday (Post in #readings by Sun 2/10).</t>
+  </si>
+  <si>
+    <t>* R4DS HW #2:  23.2.1 #1, #2 , 23.3.3 #1, #3, #4,  23.4.5 #1, #3, #4. Add this assignment to your github repo as a new RMD file. (Due Sat 2/17)
+* Peer Review R4DS HW #2 (Due Mon 2/19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* ISLR Ch2 Exercises: #1, #2 (Due Sat 2/24)
+* ISLR Ch 2 #4 Write this up as a blog post (Due Sat 2/24)
+* ISLR Ch 2 #10 Explore the Boston data set. Write this up as a separate assignment in your github repo. (Due Sat 2/24)
+* Peer review Boston exploration via forking &amp; writing issues in github. (Due Mon 2/25)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Join all visible Slack channels. 
+* Introduce yourself in #introductions. Include things like name/major/year/GitHub handle/other info you want to share. Pin this message to this board. (Due Thu 1/25)
+* R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
+* Read DDS CH 1&amp; 2 (Due Tue 1/30) 
+* Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
+</t>
   </si>
 </sst>
 </file>
@@ -1277,9 +1279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1291,7 +1293,7 @@
     <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="30.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1340,19 +1342,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>41668</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1370,16 +1372,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,7 +1399,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
@@ -1407,7 +1409,7 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1419,23 +1421,23 @@
         <v>41682</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,7 +1452,7 @@
         <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>33</v>
@@ -1465,7 +1467,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1477,25 +1479,25 @@
         <v>41696</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
@@ -1507,25 +1509,25 @@
         <v>41703</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1537,23 +1539,23 @@
         <v>41710</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1575,23 +1577,23 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1603,17 +1605,17 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -1625,17 +1627,17 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1647,19 +1649,19 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1671,11 +1673,11 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -1691,11 +1693,11 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1711,7 +1713,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1770,16 +1772,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>30</v>
@@ -1790,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
@@ -1843,13 +1845,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIF($C$2:$C$85,F4,$D$2:$D$85)</f>
@@ -1865,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>24</v>
@@ -1890,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -1925,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="13">
         <v>5</v>
@@ -1936,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>24</v>
@@ -1950,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
@@ -1964,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>24</v>
@@ -1979,10 +1981,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
@@ -1994,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>24</v>
@@ -2009,10 +2011,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13">
         <v>5</v>
@@ -2024,7 +2026,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>24</v>
@@ -2039,10 +2041,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" s="13">
         <v>5</v>
@@ -2054,7 +2056,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>29</v>
@@ -2069,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>24</v>
@@ -2084,10 +2086,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19" s="13">
         <v>5</v>
@@ -2099,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>24</v>
@@ -2114,10 +2116,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
@@ -2128,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>24</v>
@@ -2142,10 +2144,10 @@
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13">
         <v>5</v>
@@ -2156,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>26</v>
@@ -2170,7 +2172,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>29</v>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,17 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -216,14 +213,6 @@
     <t>Read through the lab (ISLR 4.6) and replicate on your own.</t>
   </si>
   <si>
-    <t>* ISLR Chapter 3 Exercises: #4,  #15 (Due Sat 3/3)
-* Peer review via github (Due Mon 3/5)</t>
-  </si>
-  <si>
-    <t>* ISLR Chapter 4 Exercises: #5,  # 13 (Due Sat 3/10)
-* Peer Review via Github (Due Mon 3/12)</t>
-  </si>
-  <si>
     <t>* Implement each of four commonly used classifying models. 
 * Explain a situation where a classification model is warrented
 * Identify the best model from a group of competing models</t>
@@ -469,13 +458,6 @@
 * Peer Review R4DS HW #2 (Due Mon 2/19)</t>
   </si>
   <si>
-    <t xml:space="preserve">* ISLR Ch2 Exercises: #1, #2 (Due Sat 2/24)
-* ISLR Ch 2 #4 Write this up as a blog post (Due Sat 2/24)
-* ISLR Ch 2 #10 Explore the Boston data set. Write this up as a separate assignment in your github repo. (Due Sat 2/24)
-* Peer review Boston exploration via forking &amp; writing issues in github. (Due Mon 2/25)
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Join all visible Slack channels. 
 * Introduce yourself in #introductions. Include things like name/major/year/GitHub handle/other info you want to share. Pin this message to this board. (Due Thu 1/25)
 * R4DS HW #1 . Put a link in the #assignments channel when complete. (Due Mon 1/29)
@@ -483,11 +465,24 @@
 * Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">* ISLR Ch2 Exercises: #1, #2,  #4 (Write this up as a blog post), #10 (Due Mon 2/24)
+* Peer review Boston exploration via forking &amp; writing issues in github. (Due Wed 2/25)
+</t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 3 Exercises: #4,  #15 (Due Mon 3/3)
+* Peer review via github (Due Wed 3/5)</t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 4 Exercises: #5,  # 13 (Due Mon 3/10)
+* Peer Review via Github (Due Wed 3/12)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -932,9 +927,9 @@
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 2" xfId="51"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Percent 2" xfId="52"/>
     <cellStyle name="Total" xfId="92" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,27 +1271,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="25.08203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.58203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.58203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.08203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="35.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1325,7 +1320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="300.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -1342,19 +1337,19 @@
         <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="175.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -1363,7 +1358,7 @@
         <v>41668</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1372,19 +1367,19 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -1399,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
@@ -1409,10 +1404,10 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="163" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -1421,26 +1416,26 @@
         <v>41682</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1467,10 +1462,10 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1482,13 +1477,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>36</v>
@@ -1497,10 +1492,10 @@
         <v>37</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="188" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -1512,13 +1507,13 @@
         <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>42</v>
@@ -1527,10 +1522,10 @@
         <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1539,26 +1534,26 @@
         <v>41710</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24"/>
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
@@ -1569,7 +1564,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
     </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="138" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1577,26 +1572,26 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1605,20 +1600,20 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1627,20 +1622,20 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1649,22 +1644,22 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="125.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1673,18 +1668,18 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1693,18 +1688,18 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1722,7 +1717,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1745,26 +1740,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="20"/>
-    <col min="2" max="2" width="32.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="20"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="20"/>
+    <col min="2" max="2" width="32.08203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.08203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="20"/>
+    <col min="5" max="5" width="5.08203125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="13"/>
+    <col min="8" max="8" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -1772,27 +1767,27 @@
         <v>24</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
@@ -1812,7 +1807,7 @@
         <v>0.33670033670033672</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>0.17508417508417509</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1845,13 +1840,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="13">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G4" s="13">
         <f>SUMIF($C$2:$C$85,F4,$D$2:$D$85)</f>
@@ -1862,12 +1857,12 @@
         <v>0.15151515151515152</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>24</v>
@@ -1887,12 +1882,12 @@
         <v>0.33670033670033672</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>26</v>
@@ -1905,7 +1900,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -1919,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -1927,18 +1922,18 @@
         <v>28</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>4</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>24</v>
@@ -1947,26 +1942,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>24</v>
@@ -1976,27 +1971,27 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="13">
         <v>5</v>
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>24</v>
@@ -2006,27 +2001,27 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>6</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="13">
         <v>5</v>
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>7</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>24</v>
@@ -2036,27 +2031,27 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>7</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13">
         <v>5</v>
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="13">
         <v>8</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>29</v>
@@ -2066,12 +2061,12 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="13">
         <v>10</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>24</v>
@@ -2081,27 +2076,27 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="13">
         <v>10</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="13">
         <v>5</v>
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="13">
         <v>11</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>24</v>
@@ -2111,26 +2106,26 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="13">
         <v>11</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <v>12</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>24</v>
@@ -2139,26 +2134,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="13">
         <v>12</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="13">
         <v>15</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>26</v>
@@ -2167,12 +2162,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="13">
         <v>16</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>29</v>
@@ -2181,241 +2176,241 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="18"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="18"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="18"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="18"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="18"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="18"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -2425,7 +2420,7 @@
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -2435,106 +2430,106 @@
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
       <c r="E67" s="18"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="18"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="18"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="22"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
       <c r="D73" s="22"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="22"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="22"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
       <c r="D75" s="22"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="22"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
       <c r="D76" s="22"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="22"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
       <c r="D77" s="22"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="22"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
       <c r="E78" s="19"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -2543,14 +2538,14 @@
       <c r="G79"/>
       <c r="H79"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="22"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
       <c r="D80" s="22"/>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="22"/>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -2558,7 +2553,7 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="22"/>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -2566,7 +2561,7 @@
       <c r="G82"/>
       <c r="H82"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="22"/>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -2574,7 +2569,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -2582,7 +2577,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="22"/>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -2590,7 +2585,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="22"/>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
@@ -2598,7 +2593,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="22"/>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -2606,7 +2601,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="22"/>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -2614,37 +2609,37 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="22"/>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="22"/>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="22"/>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
       <c r="D92" s="22"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="22"/>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
       <c r="D93" s="22"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="23"/>
       <c r="B94" s="23"/>
       <c r="D94" s="23"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9C0272-C8E2-49DB-97E8-CDF844AF67EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +16,7 @@
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
   <si>
     <t>Finals Week</t>
   </si>
@@ -307,9 +308,6 @@
 </t>
   </si>
   <si>
-    <t>* Dashboard Project (Due Friday 3/30)</t>
-  </si>
-  <si>
     <t>Final Project</t>
   </si>
   <si>
@@ -337,11 +335,6 @@
   <si>
     <t>* Describe how the bootstratp method differs from cross-validation
 * Implement cross-validation technique to assess model performance</t>
-  </si>
-  <si>
-    <t>*https://cran.r-project.org/web/packages/caret/vignettes/caret.pdf
-* https://topepo.github.io/caret/
-* Notes from [[MATH 456 S16]](notes/lec10_Classifiers_456_S16.pdf)</t>
   </si>
   <si>
     <t>* Name one reason resampling techniques are used in statistical learning
@@ -358,10 +351,6 @@
     <t>Other Tools</t>
   </si>
   <si>
-    <t>* Read WOMD: Ch 3-4 (MB)
-* [When Data Science Destabilizes Democracy and Facilitates Genocide](http://www.fast.ai/2017/11/02/ethics/)</t>
-  </si>
-  <si>
     <t>* Read WOMD: Ch 5-6 (AS)
 * [More than a Million Pro-Repeal Net Neutrality Comments were Likely Faked](https://hackernoon.com/more-than-a-million-pro-repeal-net-neutrality-comments-were-likely-faked-e9f0e3ed36a6)</t>
   </si>
@@ -375,9 +364,6 @@
   <si>
     <t>* Read WOMD: Ch 9-10 (RAD)
 * Compare [[this article on practical tips for success with ML]](https://www.datanami.com/2018/01/17/practical-tips-success-machine-learning/) with this post on [[google automating ML]](https://www.datanami.com/2018/01/17/google-automate-machine-learning-automl-service/)</t>
-  </si>
-  <si>
-    <t>* ML homework</t>
   </si>
   <si>
     <t>* Big data homework</t>
@@ -482,6 +468,59 @@
 * Read DDS CH 1&amp; 2 (Due Tue 1/30) 
 * Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
 </t>
+  </si>
+  <si>
+    <t>ISLR Ch 5</t>
+  </si>
+  <si>
+    <t>PR ISLR Ch 5</t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 8
+* Read WOMD: Ch 3-4 (MB)
+* [When Data Science Destabilizes Democracy and Facilitates Genocide](http://www.fast.ai/2017/11/02/ethics/)</t>
+  </si>
+  <si>
+    <t>Robin share WOMD Intro &amp; Ch 1-2</t>
+  </si>
+  <si>
+    <t>Robin share WOMD Ch 9-10</t>
+  </si>
+  <si>
+    <t>Mitch share WOMD Ch 3-4 &amp; extra story</t>
+  </si>
+  <si>
+    <t>Aaron share WOMD CH 5-6 &amp; extra story</t>
+  </si>
+  <si>
+    <t>Ricardo share WOMD Ch 7-8 &amp; extra story</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Define terminology: terminal node, internal node, branch, leaf
+* Explain how recursive binary splitting works, and why its considered top down and greedy. 
+* Why is pruning necessary? 
+* What is the optimization critiera for regression trees? For classification trees? 
+* Advantages and disadvantages of trees
+* bagging is a general-purpose procedure for reducing _(bias/variance)____ of a statistical learning method
+* Explain how bagging works
+* What is an out of bag error estimate? Why do we care about it? 
+* Bagging improves prediction accuracy at the expense of ______
+* How is the Gini index used to generate a summary measure of importance for each predictor? 
+* What's the difference between Random Forests and bagged trees? 
+* How is boosting a sequential method? 
+* What are the three tuning parameters for boosting? </t>
+  </si>
+  <si>
+    <t>* ISLR Ch 8 #5, #7, #9</t>
+  </si>
+  <si>
+    <t>* https://cran.r-project.org/web/packages/caret/vignettes/caret.pdf
+* https://topepo.github.io/caret/
+* Notes from [[MATH 456 S16]](notes/lec10_Classifiers_456_S16.pdf)</t>
+  </si>
+  <si>
+    <t>* ISLR Ch 5: #3, #5
+* Blog post about something in the Data Science news lately</t>
   </si>
 </sst>
 </file>
@@ -562,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -590,6 +629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +806,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -840,6 +885,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1280,8 +1328,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1342,16 +1390,16 @@
         <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1363,7 +1411,7 @@
         <v>41668</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1372,16 +1420,16 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,7 +1447,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
@@ -1409,7 +1457,7 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,23 +1469,23 @@
         <v>41682</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1467,7 +1515,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1488,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>36</v>
@@ -1518,7 +1566,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>42</v>
@@ -1554,9 +1602,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
@@ -1577,26 +1623,28 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="I11" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1605,17 +1653,21 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="I12" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
@@ -1627,17 +1679,19 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1649,19 +1703,21 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I14" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1673,15 +1729,17 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1693,11 +1751,11 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1713,7 +1771,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1746,10 +1804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
@@ -1804,12 +1862,12 @@
         <v>24</v>
       </c>
       <c r="G2" s="13">
-        <f>SUMIF($C$2:$C$85,F2,$D$2:$D$85)</f>
-        <v>100</v>
+        <f>SUMIF($C$2:$C$87,F2,$D$2:$D$87)</f>
+        <v>110</v>
       </c>
       <c r="H2" s="16">
         <f>G2/$G$6</f>
-        <v>0.33670033670033672</v>
+        <v>0.41984732824427479</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,12 +1887,12 @@
         <v>26</v>
       </c>
       <c r="G3" s="13">
-        <f>SUMIF($C$2:$C$85,F3,$D$2:$D$85)</f>
+        <f>SUMIF($C$2:$C$87,F3,$D$2:$D$87)</f>
         <v>52</v>
       </c>
       <c r="H3" s="16">
         <f>G3/$G$6</f>
-        <v>0.17508417508417509</v>
+        <v>0.19847328244274809</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1854,12 +1912,12 @@
         <v>50</v>
       </c>
       <c r="G4" s="13">
-        <f>SUMIF($C$2:$C$85,F4,$D$2:$D$85)</f>
-        <v>45</v>
+        <f>SUMIF($C$2:$C$87,F4,$D$2:$D$87)</f>
+        <v>50</v>
       </c>
       <c r="H4" s="16">
         <f>G4/$G$6</f>
-        <v>0.15151515151515152</v>
+        <v>0.19083969465648856</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1879,12 +1937,12 @@
         <v>29</v>
       </c>
       <c r="G5" s="13">
-        <f>SUMIF($C$2:$C$85,F5,$D$2:$D$85)</f>
-        <v>100</v>
+        <f>SUMIF($C$2:$C$87,F5,$D$2:$D$87)</f>
+        <v>50</v>
       </c>
       <c r="H5" s="16">
         <f>G5/$G$6</f>
-        <v>0.33670033670033672</v>
+        <v>0.19083969465648856</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1902,7 +1960,7 @@
       </c>
       <c r="G6" s="17">
         <f>SUM(G2:G5)</f>
-        <v>297</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -2051,57 +2109,55 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29">
         <v>8</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="29"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>9</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="20">
+        <v>10</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>9</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="D19" s="20">
+        <v>5</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>10</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="13">
-        <v>10</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>10</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="13">
-        <v>5</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>11</v>
-      </c>
       <c r="B20" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>24</v>
@@ -2111,12 +2167,12 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>50</v>
@@ -2124,13 +2180,14 @@
       <c r="D21" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>24</v>
@@ -2138,13 +2195,14 @@
       <c r="D22" s="13">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>50</v>
@@ -2153,71 +2211,87 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
+        <v>12</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>12</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>15</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D26" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>16</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D27" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2258,7 +2332,6 @@
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
@@ -2271,6 +2344,7 @@
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
@@ -2301,14 +2375,12 @@
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
-      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
@@ -2421,9 +2493,6 @@
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
@@ -2431,37 +2500,40 @@
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
-      <c r="E64" s="21"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="21"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="18"/>
+      <c r="E66" s="21"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
-      <c r="E67" s="18"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
@@ -2496,18 +2568,20 @@
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
+      <c r="E72" s="18"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="18"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="22"/>
@@ -2532,16 +2606,12 @@
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
       <c r="D78" s="22"/>
-      <c r="E78" s="19"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
       <c r="D79" s="22"/>
-      <c r="E79" s="19"/>
-      <c r="G79"/>
-      <c r="H79"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="22"/>
@@ -2555,6 +2625,7 @@
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
       <c r="D81" s="22"/>
+      <c r="E81" s="19"/>
       <c r="G81"/>
       <c r="H81"/>
     </row>
@@ -2563,8 +2634,7 @@
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
-      <c r="G82"/>
-      <c r="H82"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="22"/>
@@ -2619,12 +2689,16 @@
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
       <c r="D89" s="22"/>
+      <c r="G89"/>
+      <c r="H89"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="22"/>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
+      <c r="G90"/>
+      <c r="H90"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
@@ -2645,13 +2719,25 @@
       <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
-      <c r="B94" s="23"/>
-      <c r="D94" s="23"/>
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="23"/>
+      <c r="B96" s="23"/>
+      <c r="D96" s="23"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D94">
-    <sortCondition ref="A2:A94"/>
+  <sortState ref="A2:D96">
+    <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9C0272-C8E2-49DB-97E8-CDF844AF67EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C0F405-9E81-4F72-A172-18EB2E753C13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,10 +351,6 @@
     <t>Other Tools</t>
   </si>
   <si>
-    <t>* Read WOMD: Ch 5-6 (AS)
-* [More than a Million Pro-Repeal Net Neutrality Comments were Likely Faked](https://hackernoon.com/more-than-a-million-pro-repeal-net-neutrality-comments-were-likely-faked-e9f0e3ed36a6)</t>
-  </si>
-  <si>
     <t>* Read WOMD: Ch 7-8 (RA)
 * [Activision Patents Matchmaking That Encourages Players To Buy Microtransactions](https://kotaku.com/activision-patents-matchmaking-that-encourages-players-1819630937)</t>
   </si>
@@ -511,16 +507,25 @@
 * What are the three tuning parameters for boosting? </t>
   </si>
   <si>
-    <t>* ISLR Ch 8 #5, #7, #9</t>
-  </si>
-  <si>
     <t>* https://cran.r-project.org/web/packages/caret/vignettes/caret.pdf
 * https://topepo.github.io/caret/
 * Notes from [[MATH 456 S16]](notes/lec10_Classifiers_456_S16.pdf)</t>
   </si>
   <si>
-    <t>* ISLR Ch 5: #3, #5
-* Blog post about something in the Data Science news lately</t>
+    <t>* ISLR Ch 5: #3, #5 (Due Mon 4/2)
+* Peer review via Github (Due Wed 4/4)
+* Blog post about something in the Data Science news lately (Due Mon 4/2)</t>
+  </si>
+  <si>
+    <t>* Read WOMD: Ch 5-6 (AS)
+* Data Camp Sparklyr Lesson
+* [More than a Million Pro-Repeal Net Neutrality Comments were Likely Faked](https://hackernoon.com/more-than-a-million-pro-repeal-net-neutrality-comments-were-likely-faked-e9f0e3ed36a6)</t>
+  </si>
+  <si>
+    <t>* ISLR Ch 8 #5, #7, #9 (Due Mon 4/9)
+* Peer Review via Github (Due Wed 4/11)
+* Blog post about Genocide reading (Due Mon 4/9)
+* Complete Data Camp Sparklyr lesson (Due Wed 4/11)</t>
   </si>
 </sst>
 </file>
@@ -1327,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1390,16 +1395,16 @@
         <v>19</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1423,13 +1428,13 @@
         <v>70</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>62</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>17</v>
@@ -1457,7 +1462,7 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1469,23 +1474,23 @@
         <v>41682</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1515,7 +1520,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1541,7 @@
         <v>38</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>36</v>
@@ -1566,7 +1571,7 @@
         <v>41</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>42</v>
@@ -1632,16 +1637,16 @@
         <v>75</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>77</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,20 +1662,20 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1683,15 +1688,15 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,21 +1708,21 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1733,12 +1738,12 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1755,7 +1760,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -1850,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>26</v>
@@ -2127,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>24</v>
@@ -2142,7 +2147,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>50</v>
@@ -2157,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>24</v>
@@ -2172,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>50</v>
@@ -2187,7 +2192,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>24</v>
@@ -2202,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>50</v>
@@ -2216,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>24</v>
@@ -2230,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>50</v>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C0F405-9E81-4F72-A172-18EB2E753C13}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848C810D-4DE3-8144-8144-B1886944249E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="435" windowWidth="38400" windowHeight="20040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
+    <sheet name="points" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>Finals Week</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>Topic2</t>
-  </si>
-  <si>
-    <t>References</t>
   </si>
   <si>
     <t>Version Control with git, Team collaboration with slack, Intermediate R Programming concepts.</t>
@@ -526,6 +524,15 @@
 * Peer Review via Github (Due Wed 4/11)
 * Blog post about Genocide reading (Due Mon 4/9)
 * Complete Data Camp Sparklyr lesson (Due Wed 4/11)</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Spring Break</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -606,7 +613,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,12 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFE2F3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,10 +844,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -876,23 +874,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1333,30 +1334,30 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.25" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1365,8 +1366,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
+      <c r="F1" s="11" t="s">
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1374,282 +1375,183 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>41661</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>42390</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B18" si="0">B2+7</f>
-        <v>41668</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+        <v>42397</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>41675</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
+        <v>42404</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>41682</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>42411</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>41689</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+        <v>42418</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>41696</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+        <v>42425</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>41703</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+        <v>42432</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>41710</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>42439</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24">
+        <f t="shared" si="0"/>
+        <v>42446</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>41724</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1657,25 +1559,15 @@
         <f t="shared" si="0"/>
         <v>41731</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="E12" s="4"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1683,23 +1575,15 @@
         <f t="shared" si="0"/>
         <v>41738</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1707,25 +1591,15 @@
         <f t="shared" si="0"/>
         <v>41745</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1733,21 +1607,15 @@
         <f t="shared" si="0"/>
         <v>41752</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1755,19 +1623,15 @@
         <f t="shared" si="0"/>
         <v>41759</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1776,7 +1640,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1785,7 +1649,488 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>41773</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9095851B-4B9F-8945-8A91-05442CABAD87}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42390</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <f t="shared" ref="B3:B18" si="0">B2+7</f>
+        <v>42397</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <f t="shared" si="0"/>
+        <v>42404</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f t="shared" si="0"/>
+        <v>42411</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>42418</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>42425</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="0"/>
+        <v>42432</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>42439</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>41724</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f t="shared" si="0"/>
+        <v>41731</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>41738</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>41745</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>41752</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>41759</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>41766</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +2152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -1815,930 +2160,930 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="20"/>
-    <col min="2" max="2" width="32.125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="20"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="19"/>
+    <col min="2" max="2" width="32.1640625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="19"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10" style="13" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="13"/>
+    <col min="7" max="7" width="10" style="12" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="H1" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="B2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="13">
+        <v>23</v>
+      </c>
+      <c r="G2" s="12">
         <f>SUMIF($C$2:$C$87,F2,$D$2:$D$87)</f>
         <v>110</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <f>G2/$G$6</f>
         <v>0.41984732824427479</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="13">
+        <v>25</v>
+      </c>
+      <c r="G3" s="12">
         <f>SUMIF($C$2:$C$87,F3,$D$2:$D$87)</f>
         <v>52</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <f>G3/$G$6</f>
         <v>0.19847328244274809</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="12">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="13">
+        <v>49</v>
+      </c>
+      <c r="G4" s="12">
         <f>SUMIF($C$2:$C$87,F4,$D$2:$D$87)</f>
         <v>50</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f>G4/$G$6</f>
         <v>0.19083969465648856</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="B5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="12">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="13">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12">
         <f>SUMIF($C$2:$C$87,F5,$D$2:$D$87)</f>
         <v>50</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <f>G5/$G$6</f>
         <v>0.19083969465648856</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="B6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <f>SUM(G2:G5)</f>
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>3</v>
-      </c>
-      <c r="B8" s="13" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
+        <v>10</v>
+      </c>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12">
+        <v>5</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12">
+        <v>10</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>6</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="12">
+        <v>5</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>7</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="12">
+        <v>10</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>8</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D17" s="28"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>9</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="19">
+        <v>10</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>9</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="12">
+        <v>10</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="12">
+        <v>5</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>11</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="12">
+        <v>10</v>
+      </c>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>11</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>12</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>12</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>15</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="12">
         <v>50</v>
       </c>
-      <c r="D8" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>4</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>16</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>5</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>5</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="13">
-        <v>5</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>6</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="13">
-        <v>10</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>6</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>7</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13">
-        <v>10</v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="13">
-        <v>5</v>
-      </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
-        <v>8</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>9</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="20">
-        <v>10</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
-        <v>9</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="20">
-        <v>5</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="13">
-        <v>10</v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>10</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="13">
-        <v>5</v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>11</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="13">
-        <v>10</v>
-      </c>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>11</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>12</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>15</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>16</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="18"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="18"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="18"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="18"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="18"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="18"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="18"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="18"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="18"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="18"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="18"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="18"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="18"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="18"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="18"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="18"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="21"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="18"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="18"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="18"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="18"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="22"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="19"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="17"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="17"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="17"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="17"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="21"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="18"/>
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="19"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="21"/>
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="23"/>
-      <c r="D96" s="23"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
+      <c r="D91" s="21"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="D96" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A2:D96">

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848C810D-4DE3-8144-8144-B1886944249E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE777BD-31BA-4C73-8DC2-BDF37FB02E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
     <sheet name="points" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
   <si>
     <t>Finals Week</t>
   </si>
@@ -122,22 +130,10 @@
     <t>Introduction to Statistical Learning</t>
   </si>
   <si>
-    <t>R4DS #1</t>
-  </si>
-  <si>
     <t>Assignment</t>
   </si>
   <si>
-    <t>PR R4DS #1</t>
-  </si>
-  <si>
     <t>Discussion</t>
-  </si>
-  <si>
-    <t>Gapminder</t>
-  </si>
-  <si>
-    <t>PR Gapminder</t>
   </si>
   <si>
     <t>Project</t>
@@ -241,46 +237,10 @@
     <t>Learning</t>
   </si>
   <si>
-    <t>Create website</t>
-  </si>
-  <si>
-    <t>R4DS #2</t>
-  </si>
-  <si>
-    <t>PR R4DS #2</t>
-  </si>
-  <si>
-    <t>ISLR Ch 2</t>
-  </si>
-  <si>
-    <t>PR ISLR Ch 2</t>
-  </si>
-  <si>
-    <t>Share Blogs</t>
-  </si>
-  <si>
-    <t>ISLR Ch 3</t>
-  </si>
-  <si>
-    <t>PR ISLR Ch 3</t>
-  </si>
-  <si>
-    <t>ISLR Ch 4</t>
-  </si>
-  <si>
-    <t>PR ISLR Ch 4</t>
-  </si>
-  <si>
-    <t>Blog Posts</t>
-  </si>
-  <si>
     <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
 * Several times throughout the semester you will write a post about something in the DS world that you found interesting. It doesn't have to be a long or involved post.
 * This is about practicing writing for a public audience. The more you write the better you'll get. 
 * Wait.. why the heck should I create a website? The internet is scary! </t>
-  </si>
-  <si>
-    <t>Boston Project Dashboard</t>
   </si>
   <si>
     <t>Dissemination and reporting</t>
@@ -373,31 +333,10 @@
     <t>* cluster computing homework</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>PR ML</t>
-  </si>
-  <si>
-    <t>Big data</t>
-  </si>
-  <si>
-    <t>PR big data</t>
-  </si>
-  <si>
-    <t>cluster computing</t>
-  </si>
-  <si>
-    <t>PR Cluster computing</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Describe your Data Scientist profile. What are your strengths? 
 * Using the [Data Camp infographic](https://www.datacamp.com/community/tutorials/data-science-industry-infographic) - Where do you see yourself fitting in ?
 * How would you explain to someone what "Big Data" is? 
 * How would you explain to someone what a model is? </t>
-  </si>
-  <si>
-    <t>Slack Introductions</t>
   </si>
   <si>
     <t xml:space="preserve">* You don't know what you don’t know.
@@ -462,12 +401,6 @@
 * Read DDS CH 1&amp; 2 (Due Tue 1/30) 
 * Peer review 1 clasmates work by forking their repo, modify their code, then doing a pull request (Due Wed 1/31)
 </t>
-  </si>
-  <si>
-    <t>ISLR Ch 5</t>
-  </si>
-  <si>
-    <t>PR ISLR Ch 5</t>
   </si>
   <si>
     <t>* ISLR Chapter 8
@@ -533,6 +466,139 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started
+</t>
+  </si>
+  <si>
+    <t>Personal Websites</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
+</t>
+  </si>
+  <si>
+    <t>Read DDS Ch1</t>
+  </si>
+  <si>
+    <t>Read DDS Ch2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is Data Science? </t>
+  </si>
+  <si>
+    <t>Effective communication</t>
+  </si>
+  <si>
+    <t>Analying public opinion using Twitter</t>
+  </si>
+  <si>
+    <t>Read ISLR Chapter 4 (Intro), 4.1, 4.35, 4.4, 4.5</t>
+  </si>
+  <si>
+    <t>Ref DDS Ch 5</t>
+  </si>
+  <si>
+    <t>R Markdown website</t>
+  </si>
+  <si>
+    <t>Blogdown website</t>
+  </si>
+  <si>
+    <t>Get historical twitter data (DEMO)</t>
+  </si>
+  <si>
+    <t>Get approved for a Twiter Dev account</t>
+  </si>
+  <si>
+    <t>Read DDS Ch3
+Read ISLR Ch1, Ch2</t>
+  </si>
+  <si>
+    <t>Read ISLR Chapter 3: Intro, 3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Have students write down how they plan to answer these questions. (prep work?)
+-- open book, answers are in book, 
+* Github repo for the assignment? 
+* Add questions: 
+-- does KNN perform better than linear regression? 
+-- when would you choose to perform KNN over LinReg?
+</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Resampling Methods</t>
+  </si>
+  <si>
+    <t>Ethics of ML algorithms</t>
+  </si>
+  <si>
+    <t>* ISLR Chapter 5
+* Install the caret package</t>
+  </si>
+  <si>
+    <t>Read WMD: Intro, Ch 1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lec00
+3-2-1 Bridge: What is Data Science? 
+Spend 2 min reviewing the course description. 
+Rank each category - write this down. 
+What is missing, what do you want to add? 
+Do you want to re-rank? Write your final rankings in your LJ. </t>
+  </si>
+  <si>
+    <t>Community Coding</t>
+  </si>
+  <si>
+    <t>DataFest</t>
+  </si>
+  <si>
+    <t>Reflect on DDS case study (n=5)</t>
+  </si>
+  <si>
+    <t>Share DDS Case study (n=1)</t>
+  </si>
+  <si>
+    <t>WMD Reflections</t>
+  </si>
+  <si>
+    <t>Blog posts (5) on external topics of interest</t>
+  </si>
+  <si>
+    <t>Comments on Blog posts</t>
+  </si>
+  <si>
+    <t>Grade POLS Learn R HW (4 x 3 students ea. )</t>
+  </si>
+  <si>
+    <t>* [Lec00: Class Orientation](lec/lec00_orientation.html)</t>
+  </si>
+  <si>
+    <t>* [Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)
+* [Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
+  </si>
+  <si>
+    <t>[hw01: Personal Website](hw/hw01-website.html) (Due 1/28 )</t>
+  </si>
+  <si>
+    <t>POLS Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form DS collaboration teams with POLS students. </t>
+  </si>
+  <si>
+    <t>* [Lec02 - What is DS](lec/lec02-what-is-ds.html)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +679,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -635,12 +701,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,7 +872,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -888,9 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1331,31 +1388,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="38.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>6</v>
@@ -1367,305 +1424,387 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>95</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>42390</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <f t="shared" ref="B3:B18" si="0">B2+7</f>
-        <v>42397</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>133</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
-        <v>3</v>
+    <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="0"/>
-        <v>42404</v>
-      </c>
-      <c r="C4" s="10"/>
+        <f>B2+7</f>
+        <v>42397</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+    <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <f>B4+7</f>
+        <v>42404</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <f t="shared" si="0"/>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:B22" si="0">B6+7</f>
         <v>42411</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="D7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>42418</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>42425</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>42432</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
-        <v>8</v>
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>6</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>42439</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>42425</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24">
-        <f t="shared" si="0"/>
-        <v>42446</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>9</v>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>41724</v>
-      </c>
-      <c r="C11" s="2"/>
+        <f>B9+7</f>
+        <v>42432</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>10</v>
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>8</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="0"/>
-        <v>41731</v>
-      </c>
-      <c r="C12" s="2"/>
+        <f>B11+7</f>
+        <v>42439</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>41738</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>41745</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24">
+        <f>B12+7</f>
+        <v>42446</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>41752</v>
+        <v>41724</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>41759</v>
+        <v>41731</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>41766</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>41738</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>41773</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>41745</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>41752</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>41759</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>41766</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>41773</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1678,23 +1817,23 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:I3"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -1723,8 +1862,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -1740,20 +1879,20 @@
         <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -1761,7 +1900,7 @@
         <v>42397</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -1770,20 +1909,20 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -1797,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>16</v>
@@ -1807,11 +1946,11 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -1819,27 +1958,27 @@
         <v>42411</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -1850,26 +1989,26 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -1877,29 +2016,29 @@
         <v>42425</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -1907,29 +2046,29 @@
         <v>42432</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+    </row>
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -1937,24 +2076,24 @@
         <v>42439</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -1965,7 +2104,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1973,28 +2112,28 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2003,24 +2142,24 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2029,22 +2168,22 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2053,24 +2192,24 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2079,20 +2218,20 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2101,18 +2240,18 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2121,7 +2260,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2130,7 +2269,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2157,701 +2296,517 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="19"/>
-    <col min="2" max="2" width="32.1640625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="19"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="19"/>
+    <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="19"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="12"/>
+    <col min="8" max="8" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="12">
         <f>SUMIF($C$2:$C$87,F2,$D$2:$D$87)</f>
-        <v>110</v>
-      </c>
-      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15" t="e">
         <f>G2/$G$6</f>
-        <v>0.41984732824427479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="12" t="s">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="12">
-        <v>10</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="G3" s="12">
         <f>SUMIF($C$2:$C$87,F3,$D$2:$D$87)</f>
-        <v>52</v>
-      </c>
-      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="e">
         <f>G3/$G$6</f>
-        <v>0.19847328244274809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="12">
-        <v>5</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="12">
         <f>SUMIF($C$2:$C$87,F4,$D$2:$D$87)</f>
-        <v>50</v>
-      </c>
-      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15" t="e">
         <f>G4/$G$6</f>
-        <v>0.19083969465648856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12">
-        <v>10</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" s="12">
         <f>SUMIF($C$2:$C$87,F5,$D$2:$D$87)</f>
-        <v>50</v>
-      </c>
-      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15" t="e">
         <f>G5/$G$6</f>
-        <v>0.19083969465648856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
       <c r="G6" s="16">
         <f>SUM(G2:G5)</f>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>4</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="12">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10"/>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>5</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="12">
-        <v>5</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>6</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="12">
-        <v>10</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
-        <v>6</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="12">
-        <v>5</v>
-      </c>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
-        <v>7</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="12">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>7</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="12">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="28">
-        <v>8</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="28"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>9</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="19">
-        <v>10</v>
-      </c>
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>9</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="19">
-        <v>5</v>
-      </c>
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
-        <v>10</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="12">
-        <v>10</v>
-      </c>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
-        <v>10</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="12">
-        <v>5</v>
-      </c>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>11</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="12">
-        <v>10</v>
-      </c>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
-        <v>11</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
-        <v>12</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>12</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
-        <v>15</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
-        <v>16</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="12"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2861,7 +2816,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2871,106 +2826,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="12"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -2979,14 +2934,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -2994,7 +2949,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3002,7 +2957,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3010,7 +2965,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3018,7 +2973,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3026,7 +2981,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="21"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3034,7 +2989,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="21"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3042,7 +2997,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="21"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3050,43 +3005,43 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="22"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE777BD-31BA-4C73-8DC2-BDF37FB02E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB543C-1AC0-44F7-BE66-9EFE0ED8676A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
   <si>
     <t>Finals Week</t>
   </si>
@@ -481,10 +481,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t xml:space="preserve">[hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
-</t>
-  </si>
-  <si>
     <t>Read DDS Ch1</t>
   </si>
   <si>
@@ -516,10 +512,6 @@
   </si>
   <si>
     <t>Get approved for a Twiter Dev account</t>
-  </si>
-  <si>
-    <t>Read DDS Ch3
-Read ISLR Ch1, Ch2</t>
   </si>
   <si>
     <t>Read ISLR Chapter 3: Intro, 3.5</t>
@@ -543,10 +535,6 @@
     <t>Ethics of ML algorithms</t>
   </si>
   <si>
-    <t>* ISLR Chapter 5
-* Install the caret package</t>
-  </si>
-  <si>
     <t>Read WMD: Intro, Ch 1-2</t>
   </si>
   <si>
@@ -582,23 +570,48 @@
     <t>Grade POLS Learn R HW (4 x 3 students ea. )</t>
   </si>
   <si>
-    <t>* [Lec00: Class Orientation](lec/lec00_orientation.html)</t>
-  </si>
-  <si>
-    <t>* [Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)
-* [Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
-  </si>
-  <si>
-    <t>[hw01: Personal Website](hw/hw01-website.html) (Due 1/28 )</t>
-  </si>
-  <si>
     <t>POLS Project</t>
   </si>
   <si>
-    <t xml:space="preserve">Form DS collaboration teams with POLS students. </t>
-  </si>
-  <si>
-    <t>* [Lec02 - What is DS](lec/lec02-what-is-ds.html)</t>
+    <t>Interactive lecture 02 (Hack MD)</t>
+  </si>
+  <si>
+    <t>Intro to Statistical Learning</t>
+  </si>
+  <si>
+    <t>DATA FEST!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
+</t>
+  </si>
+  <si>
+    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due 1/28 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Form DS collaboration teams with POLS students. </t>
+  </si>
+  <si>
+    <t>[Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)  
+[Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
+  </si>
+  <si>
+    <t>[Lec00: Class Orientation](lec/lec00_orientation.html)</t>
+  </si>
+  <si>
+    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)</t>
+  </si>
+  <si>
+    <t>ISLR Chapter 5  
+Install the caret package</t>
+  </si>
+  <si>
+    <t>Read DDS Ch3  
+Read ISLR Ch1, Ch2</t>
+  </si>
+  <si>
+    <t>* Share a blog post or tweet in #state-of-ds (Due x/x )
+* Read the linked article,  and comment on someone elses post (Due x/x )</t>
   </si>
 </sst>
 </file>
@@ -872,7 +885,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -950,6 +963,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1388,11 +1404,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1452,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -1449,17 +1465,17 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1467,7 +1483,7 @@
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>133</v>
@@ -1475,7 +1491,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1484,24 +1500,28 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="3"/>
       <c r="C5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1519,11 +1539,11 @@
         <v>42404</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1535,12 +1555,12 @@
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B22" si="0">B6+7</f>
+        <f t="shared" ref="B7:B21" si="0">B6+7</f>
         <v>42411</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1555,10 +1575,12 @@
         <f t="shared" si="0"/>
         <v>42418</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
@@ -1574,30 +1596,30 @@
         <v>42425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="6"/>
       <c r="G10" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1615,10 +1637,10 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1633,54 +1655,60 @@
         <v>42439</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
         <f>B12+7</f>
         <v>42446</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>9</v>
+      </c>
+      <c r="B14" s="29">
+        <f>B13+7</f>
+        <v>42453</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
-        <v>41724</v>
+        <f t="shared" si="0"/>
+        <v>42460</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -1692,43 +1720,45 @@
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>41731</v>
+        <v>42467</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>41738</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>42474</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>41745</v>
+        <v>42481</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1740,11 +1770,11 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>41752</v>
+        <v>42488</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -1756,13 +1786,15 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>41759</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>42495</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="6"/>
@@ -1772,14 +1804,14 @@
     </row>
     <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
-        <v>41766</v>
+        <v>42502</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1787,24 +1819,6 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>16</v>
-      </c>
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>41773</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2337,7 +2351,7 @@
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2356,7 +2370,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2375,7 +2389,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2394,7 +2408,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2413,7 +2427,7 @@
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2425,7 +2439,7 @@
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2433,7 +2447,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -2441,7 +2455,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -2449,7 +2463,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -2457,7 +2471,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -2466,7 +2480,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB543C-1AC0-44F7-BE66-9EFE0ED8676A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A884EA-B94E-46B8-A065-385739E4A60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="585" yWindow="570" windowWidth="25905" windowHeight="14430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
   <si>
     <t>Finals Week</t>
   </si>
@@ -481,16 +481,7 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Read DDS Ch1</t>
-  </si>
-  <si>
     <t>Read DDS Ch2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is Data Science? </t>
-  </si>
-  <si>
-    <t>Effective communication</t>
   </si>
   <si>
     <t>Analying public opinion using Twitter</t>
@@ -586,9 +577,6 @@
 </t>
   </si>
   <si>
-    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due 1/28 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">* Form DS collaboration teams with POLS students. </t>
   </si>
   <si>
@@ -610,8 +598,32 @@
 Read ISLR Ch1, Ch2</t>
   </si>
   <si>
-    <t>* Share a blog post or tweet in #state-of-ds (Due x/x )
-* Read the linked article,  and comment on someone elses post (Due x/x )</t>
+    <t>Read DDS Ch1, 16</t>
+  </si>
+  <si>
+    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Wed 1/29 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )
+</t>
+  </si>
+  <si>
+    <t>Mind MAP: What makes a good DS?</t>
+  </si>
+  <si>
+    <t>What is Data Science?  What's your DS path?</t>
+  </si>
+  <si>
+    <t>Share mind maps (20)</t>
+  </si>
+  <si>
+    <t>What is DS mind map</t>
+  </si>
+  <si>
+    <t>What is DS - hack notes</t>
+  </si>
+  <si>
+    <t>participation</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -967,6 +979,21 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1404,11 +1431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1445,7 @@
     <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="37.75" style="5" customWidth="1"/>
     <col min="9" max="9" width="25.125" style="5" customWidth="1"/>
   </cols>
@@ -1465,13 +1492,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1483,15 +1510,15 @@
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1500,203 +1527,210 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B4+7</f>
+        <v>42404</v>
+      </c>
       <c r="C5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f>B4+7</f>
-        <v>42404</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="B6:B20" si="0">B5+7</f>
+        <v>42411</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B21" si="0">B6+7</f>
-        <v>42411</v>
+        <f t="shared" si="0"/>
+        <v>42418</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="9" t="s">
-        <v>103</v>
+      <c r="E7" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>42418</v>
+        <v>42425</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>42425</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>115</v>
+    <row r="9" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="G9" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B8+7</f>
+        <v>42432</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="s">
-        <v>134</v>
-      </c>
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <f>B9+7</f>
-        <v>42432</v>
+        <f>B10+7</f>
+        <v>42439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>108</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
         <f>B11+7</f>
-        <v>42439</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24">
+        <v>42446</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29">
         <f>B12+7</f>
-        <v>42446</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42453</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="29">
-        <f>B13+7</f>
-        <v>42453</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>42460</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1704,47 +1738,47 @@
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>42460</v>
+        <v>42467</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>42467</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>42474</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>42474</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
+        <v>42481</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1754,11 +1788,11 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>42481</v>
+        <v>42488</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1770,13 +1804,15 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>42488</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>42495</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -1786,14 +1822,14 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>42495</v>
+        <v>42502</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1801,24 +1837,6 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>42502</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1831,8 +1849,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2310,12 +2328,12 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="19"/>
+    <col min="1" max="1" width="8.875" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="19"/>
@@ -2326,7 +2344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -2349,9 +2367,11 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2368,9 +2388,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3"/>
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2387,9 +2409,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4"/>
+      <c r="A4" s="31"/>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2406,9 +2428,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5"/>
+      <c r="A5" s="31">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2425,9 +2449,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6"/>
+      <c r="A6" s="31">
+        <v>9</v>
+      </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2437,391 +2463,401 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
+      <c r="A7" s="31"/>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8"/>
+      <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="A9" s="31"/>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10"/>
+      <c r="A10" s="31"/>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11"/>
+      <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12"/>
+      <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" s="31">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" s="31">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15"/>
+      <c r="A15" s="31"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16"/>
+      <c r="A16" s="31"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17"/>
+      <c r="A17" s="31"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
+      <c r="A18" s="31"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
+      <c r="A19" s="31"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20"/>
+      <c r="A20" s="31"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21"/>
+      <c r="A21" s="31"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22"/>
+      <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23"/>
+      <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24"/>
+      <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25"/>
+      <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26"/>
+      <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27"/>
+      <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
@@ -2831,7 +2867,7 @@
       <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -2841,106 +2877,106 @@
       <c r="H65" s="19"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
       <c r="D81" s="21"/>
@@ -2949,14 +2985,14 @@
       <c r="H81"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21"/>
@@ -2964,7 +3000,7 @@
       <c r="H83"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
       <c r="D84" s="21"/>
@@ -2972,7 +3008,7 @@
       <c r="H84"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
       <c r="D85" s="21"/>
@@ -2980,7 +3016,7 @@
       <c r="H85"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
@@ -2988,7 +3024,7 @@
       <c r="H86"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
       <c r="D87" s="21"/>
@@ -2996,7 +3032,7 @@
       <c r="H87"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
       <c r="D88" s="21"/>
@@ -3004,7 +3040,7 @@
       <c r="H88"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
       <c r="D89" s="21"/>
@@ -3012,7 +3048,7 @@
       <c r="H89"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
       <c r="D90" s="21"/>
@@ -3020,37 +3056,37 @@
       <c r="H90"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
+      <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A884EA-B94E-46B8-A065-385739E4A60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2876F5-4579-4BA3-A43D-E8233B2720CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="570" windowWidth="25905" windowHeight="14430" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -502,9 +502,6 @@
     <t>Get historical twitter data (DEMO)</t>
   </si>
   <si>
-    <t>Get approved for a Twiter Dev account</t>
-  </si>
-  <si>
     <t>Read ISLR Chapter 3: Intro, 3.5</t>
   </si>
   <si>
@@ -529,101 +526,106 @@
     <t>Read WMD: Intro, Ch 1-2</t>
   </si>
   <si>
+    <t>Community Coding</t>
+  </si>
+  <si>
+    <t>DataFest</t>
+  </si>
+  <si>
+    <t>Reflect on DDS case study (n=5)</t>
+  </si>
+  <si>
+    <t>Share DDS Case study (n=1)</t>
+  </si>
+  <si>
+    <t>WMD Reflections</t>
+  </si>
+  <si>
+    <t>Blog posts (5) on external topics of interest</t>
+  </si>
+  <si>
+    <t>Comments on Blog posts</t>
+  </si>
+  <si>
+    <t>Grade POLS Learn R HW (4 x 3 students ea. )</t>
+  </si>
+  <si>
+    <t>POLS Project</t>
+  </si>
+  <si>
+    <t>Interactive lecture 02 (Hack MD)</t>
+  </si>
+  <si>
+    <t>Intro to Statistical Learning</t>
+  </si>
+  <si>
+    <t>DATA FEST!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Form DS collaboration teams with POLS students. </t>
+  </si>
+  <si>
+    <t>[Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)  
+[Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
+  </si>
+  <si>
+    <t>[Lec00: Class Orientation](lec/lec00_orientation.html)</t>
+  </si>
+  <si>
+    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)</t>
+  </si>
+  <si>
+    <t>ISLR Chapter 5  
+Install the caret package</t>
+  </si>
+  <si>
+    <t>Read DDS Ch3  
+Read ISLR Ch1, Ch2</t>
+  </si>
+  <si>
+    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Wed 1/29 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )
+</t>
+  </si>
+  <si>
+    <t>Mind MAP: What makes a good DS?</t>
+  </si>
+  <si>
+    <t>What is Data Science?  What's your DS path?</t>
+  </si>
+  <si>
+    <t>Share mind maps (20)</t>
+  </si>
+  <si>
+    <t>What is DS mind map</t>
+  </si>
+  <si>
+    <t>What is DS - hack notes</t>
+  </si>
+  <si>
+    <t>participation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lec00
 3-2-1 Bridge: What is Data Science? 
-Spend 2 min reviewing the course description. 
-Rank each category - write this down. 
+Spend 1 min reviewing the course description solo. Rank categories. 
+Share with table (3-5 min)
 What is missing, what do you want to add? 
-Do you want to re-rank? Write your final rankings in your LJ. </t>
-  </si>
-  <si>
-    <t>Community Coding</t>
-  </si>
-  <si>
-    <t>DataFest</t>
-  </si>
-  <si>
-    <t>Reflect on DDS case study (n=5)</t>
-  </si>
-  <si>
-    <t>Share DDS Case study (n=1)</t>
-  </si>
-  <si>
-    <t>WMD Reflections</t>
-  </si>
-  <si>
-    <t>Blog posts (5) on external topics of interest</t>
-  </si>
-  <si>
-    <t>Comments on Blog posts</t>
-  </si>
-  <si>
-    <t>Grade POLS Learn R HW (4 x 3 students ea. )</t>
-  </si>
-  <si>
-    <t>POLS Project</t>
-  </si>
-  <si>
-    <t>Interactive lecture 02 (Hack MD)</t>
-  </si>
-  <si>
-    <t>Intro to Statistical Learning</t>
-  </si>
-  <si>
-    <t>DATA FEST!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* [hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Form DS collaboration teams with POLS students. </t>
-  </si>
-  <si>
-    <t>[Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)  
-[Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
-  </si>
-  <si>
-    <t>[Lec00: Class Orientation](lec/lec00_orientation.html)</t>
-  </si>
-  <si>
-    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)</t>
-  </si>
-  <si>
-    <t>ISLR Chapter 5  
-Install the caret package</t>
-  </si>
-  <si>
-    <t>Read DDS Ch3  
-Read ISLR Ch1, Ch2</t>
-  </si>
-  <si>
-    <t>Read DDS Ch1, 16</t>
-  </si>
-  <si>
-    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Wed 1/29 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* [hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )
-</t>
-  </si>
-  <si>
-    <t>Mind MAP: What makes a good DS?</t>
-  </si>
-  <si>
-    <t>What is Data Science?  What's your DS path?</t>
-  </si>
-  <si>
-    <t>Share mind maps (20)</t>
-  </si>
-  <si>
-    <t>What is DS mind map</t>
-  </si>
-  <si>
-    <t>What is DS - hack notes</t>
-  </si>
-  <si>
-    <t>participation</t>
+Rerank if desired and record your final rankings in your LJ. </t>
+  </si>
+  <si>
+    <t>Read DDS Ch1, 16.   
+Review DS Research examples in the Social Science (Handout)</t>
+  </si>
+  <si>
+    <t>Get approved for a Twiter Dev account.    
+Read at least one SS paper in Google Drive and summarize data extraction/analysis</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1492,13 +1494,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1510,10 +1512,10 @@
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -1527,26 +1529,26 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>3</v>
       </c>
@@ -1559,12 +1561,12 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -1594,11 +1596,11 @@
         <v>42418</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1614,30 +1616,30 @@
         <v>42425</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1673,11 +1675,11 @@
         <v>42439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
@@ -1709,11 +1711,11 @@
         <v>42453</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -1761,7 +1763,7 @@
         <v>42474</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2432,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2453,7 +2455,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2465,7 +2467,7 @@
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -2473,7 +2475,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -2481,7 +2483,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -2489,7 +2491,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -2497,7 +2499,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -2506,7 +2508,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -2517,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -2528,10 +2530,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2876F5-4579-4BA3-A43D-E8233B2720CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C10EB-36BF-434F-9206-D1415DCBEE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -576,18 +576,12 @@
     <t>[Lec00: Class Orientation](lec/lec00_orientation.html)</t>
   </si>
   <si>
-    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)</t>
-  </si>
-  <si>
     <t>ISLR Chapter 5  
 Install the caret package</t>
   </si>
   <si>
     <t>Read DDS Ch3  
 Read ISLR Ch1, Ch2</t>
-  </si>
-  <si>
-    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Wed 1/29 )</t>
   </si>
   <si>
     <t xml:space="preserve">* [hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )
@@ -620,12 +614,18 @@
 Rerank if desired and record your final rankings in your LJ. </t>
   </si>
   <si>
-    <t>Read DDS Ch1, 16.   
-Review DS Research examples in the Social Science (Handout)</t>
-  </si>
-  <si>
     <t>Get approved for a Twiter Dev account.    
 Read at least one SS paper in Google Drive and summarize data extraction/analysis</t>
+  </si>
+  <si>
+    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read DDS Ch1, 16.   </t>
+  </si>
+  <si>
+    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)  
+DS Research examples in the Social Science (Google Drive)</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1500,7 +1500,7 @@
         <v>127</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1515,12 +1515,12 @@
         <v>129</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1529,23 +1529,23 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
         <v>143</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>124</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I5" s="9"/>
     </row>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
@@ -2519,7 +2519,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -2530,10 +2530,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C10EB-36BF-434F-9206-D1415DCBEE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA2BF5A-C0B3-41CB-9556-37EC8A431E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
   <si>
     <t>Finals Week</t>
   </si>
@@ -481,22 +481,10 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Read DDS Ch2</t>
-  </si>
-  <si>
-    <t>Analying public opinion using Twitter</t>
-  </si>
-  <si>
     <t>Read ISLR Chapter 4 (Intro), 4.1, 4.35, 4.4, 4.5</t>
   </si>
   <si>
     <t>Ref DDS Ch 5</t>
-  </si>
-  <si>
-    <t>R Markdown website</t>
-  </si>
-  <si>
-    <t>Blogdown website</t>
   </si>
   <si>
     <t>Get historical twitter data (DEMO)</t>
@@ -547,13 +535,7 @@
     <t>Comments on Blog posts</t>
   </si>
   <si>
-    <t>Grade POLS Learn R HW (4 x 3 students ea. )</t>
-  </si>
-  <si>
     <t>POLS Project</t>
-  </si>
-  <si>
-    <t>Interactive lecture 02 (Hack MD)</t>
   </si>
   <si>
     <t>Intro to Statistical Learning</t>
@@ -588,16 +570,10 @@
 </t>
   </si>
   <si>
-    <t>Mind MAP: What makes a good DS?</t>
-  </si>
-  <si>
     <t>What is Data Science?  What's your DS path?</t>
   </si>
   <si>
     <t>Share mind maps (20)</t>
-  </si>
-  <si>
-    <t>What is DS mind map</t>
   </si>
   <si>
     <t>What is DS - hack notes</t>
@@ -614,18 +590,70 @@
 Rerank if desired and record your final rankings in your LJ. </t>
   </si>
   <si>
-    <t>Get approved for a Twiter Dev account.    
-Read at least one SS paper in Google Drive and summarize data extraction/analysis</t>
-  </si>
-  <si>
     <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
   </si>
   <si>
     <t xml:space="preserve">Read DDS Ch1, 16.   </t>
   </si>
   <si>
-    <t>[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)  
-DS Research examples in the Social Science (Google Drive)</t>
+    <t>HW1: R Markdown website</t>
+  </si>
+  <si>
+    <t>HW1: Blogdown website</t>
+  </si>
+  <si>
+    <t>Slack Intro</t>
+  </si>
+  <si>
+    <t>HW2: Share content</t>
+  </si>
+  <si>
+    <t>HW2: reflect on others share</t>
+  </si>
+  <si>
+    <t>HW2: What is DS mind map</t>
+  </si>
+  <si>
+    <t>Grade POLS Learn R HW (4 x 2 students ea. )</t>
+  </si>
+  <si>
+    <t>Blogdown
+Interactive lecture 02 (Hack MD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish HackMD Lec02 
+Mind MAP: What is the field of Data science? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)  
+</t>
+  </si>
+  <si>
+    <t>Getting and wrangling Twitter data</t>
+  </si>
+  <si>
+    <t>Data Science analysis on Political Opinions</t>
+  </si>
+  <si>
+    <t>R Markdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS Research examples in the Social Science (Google Drive)  
+[Twitter collab notes ](https://hackmd.io/@norcalbiostat/data485-twitter)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Help turn the Twitter collab notes into a working tutorial. </t>
+  </si>
+  <si>
+    <t>Get approved for a Twiter Dev account.     
+Read through the links in the Twitter collab notes.</t>
+  </si>
+  <si>
+    <t>Read DDS Ch2  
+Read at least one SS paper in Google Drive and prepare to share extraction/analysis</t>
+  </si>
+  <si>
+    <t>Share POLS DS analysis</t>
   </si>
 </sst>
 </file>
@@ -732,7 +760,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -803,6 +831,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -899,7 +938,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -996,6 +1035,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1437,7 +1479,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1494,13 +1536,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1510,17 +1552,21 @@
       <c r="C3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F3" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>2</v>
       </c>
@@ -1529,23 +1575,23 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>144</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1557,20 +1603,24 @@
         <v>42404</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+        <v>150</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="H5" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -1578,13 +1628,18 @@
         <f t="shared" ref="B6:B20" si="0">B5+7</f>
         <v>42411</v>
       </c>
+      <c r="C6" s="35" t="s">
+        <v>146</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1596,11 +1651,11 @@
         <v>42418</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1616,16 +1671,16 @@
         <v>42425</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -1633,13 +1688,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1657,10 +1712,10 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1675,11 +1730,11 @@
         <v>42439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
@@ -1711,11 +1766,11 @@
         <v>42453</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -1763,7 +1818,7 @@
         <v>42474</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1852,7 +1907,7 @@
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2385,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2370,10 +2425,10 @@
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2391,10 +2446,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2411,9 +2466,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="31">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2434,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2452,10 +2509,10 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
-        <v>9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -2465,50 +2522,64 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="31">
+        <v>2.1</v>
+      </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="31">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8"/>
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="31">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="31">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
+      <c r="A11" s="31">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="31">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -2516,10 +2587,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -2527,34 +2598,44 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C14"/>
       <c r="D14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15"/>
+      <c r="A15" s="31">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16"/>
+      <c r="A16" s="31">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17"/>
+      <c r="A17" s="31">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
       <c r="G17"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA2BF5A-C0B3-41CB-9556-37EC8A431E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40138C-250D-4FF3-9A78-9F4F3BB90A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
   <si>
     <t>Finals Week</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Ref DDS Ch 5</t>
   </si>
   <si>
-    <t>Get historical twitter data (DEMO)</t>
-  </si>
-  <si>
     <t>Read ISLR Chapter 3: Intro, 3.5</t>
   </si>
   <si>
@@ -573,9 +570,6 @@
     <t>What is Data Science?  What's your DS path?</t>
   </si>
   <si>
-    <t>Share mind maps (20)</t>
-  </si>
-  <si>
     <t>What is DS - hack notes</t>
   </si>
   <si>
@@ -596,12 +590,6 @@
     <t xml:space="preserve">Read DDS Ch1, 16.   </t>
   </si>
   <si>
-    <t>HW1: R Markdown website</t>
-  </si>
-  <si>
-    <t>HW1: Blogdown website</t>
-  </si>
-  <si>
     <t>Slack Intro</t>
   </si>
   <si>
@@ -609,9 +597,6 @@
   </si>
   <si>
     <t>HW2: reflect on others share</t>
-  </si>
-  <si>
-    <t>HW2: What is DS mind map</t>
   </si>
   <si>
     <t>Grade POLS Learn R HW (4 x 2 students ea. )</t>
@@ -621,10 +606,6 @@
 Interactive lecture 02 (Hack MD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Finish HackMD Lec02 
-Mind MAP: What is the field of Data science? </t>
-  </si>
-  <si>
     <t xml:space="preserve">[Lec02 - What is DS](https://hackmd.io/@norcalbiostat/data485-lec02)  
 </t>
   </si>
@@ -642,18 +623,64 @@
 [Twitter collab notes ](https://hackmd.io/@norcalbiostat/data485-twitter)  </t>
   </si>
   <si>
-    <t xml:space="preserve">* Help turn the Twitter collab notes into a working tutorial. </t>
-  </si>
-  <si>
-    <t>Get approved for a Twiter Dev account.     
-Read through the links in the Twitter collab notes.</t>
-  </si>
-  <si>
     <t>Read DDS Ch2  
 Read at least one SS paper in Google Drive and prepare to share extraction/analysis</t>
   </si>
   <si>
     <t>Share POLS DS analysis</t>
+  </si>
+  <si>
+    <t>Finish HackMD Lec02 
+Mind MAP: What is the field of Data science? 
+Work in pairs for 10 min, share out to class 10 min</t>
+  </si>
+  <si>
+    <t>Get approved for a Twiter Dev account.     
+Read through the links in the Twitter collab notes.
+Read the example POLS DS projects in Google Drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) (Due TBD )
+</t>
+  </si>
+  <si>
+    <t>Open work time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackathon / open work time. </t>
+  </si>
+  <si>
+    <t>HW1: R Markdown website demo</t>
+  </si>
+  <si>
+    <t>HW1: Blogdown website demo</t>
+  </si>
+  <si>
+    <t>HW1: Personal website</t>
+  </si>
+  <si>
+    <t>HW3: Twitter tutorial for others</t>
+  </si>
+  <si>
+    <t>HW3: Historical twitter data demo</t>
+  </si>
+  <si>
+    <t>HW3: Sentiment analysis</t>
+  </si>
+  <si>
+    <t>What is DS mind map share out</t>
+  </si>
+  <si>
+    <t>Add info to class-logsitics repo via PR</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>skills</t>
   </si>
 </sst>
 </file>
@@ -734,7 +761,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -756,6 +783,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,7 +977,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1038,6 +1077,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1479,7 +1524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1569,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -1536,18 +1581,18 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
         <v>99</v>
@@ -1556,18 +1601,18 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -1575,27 +1620,27 @@
         <v>42397</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -1603,22 +1648,24 @@
         <v>42404</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
@@ -1629,16 +1676,16 @@
         <v>42411</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1651,11 +1698,11 @@
         <v>42418</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4"/>
@@ -1671,16 +1718,16 @@
         <v>42425</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -1688,13 +1735,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1730,11 +1777,11 @@
         <v>42439</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
@@ -1766,11 +1813,11 @@
         <v>42453</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -1818,7 +1865,7 @@
         <v>42474</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -2385,14 +2432,14 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.875" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="19"/>
     <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
@@ -2428,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2449,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2470,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2491,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2509,12 +2556,14 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6"/>
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
       <c r="D6"/>
       <c r="G6" s="16">
         <f>SUM(G2:G5)</f>
@@ -2523,44 +2572,50 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7"/>
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9"/>
+        <v>152</v>
+      </c>
+      <c r="C9" t="s">
+        <v>160</v>
+      </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10"/>
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2568,103 +2623,139 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11"/>
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
       <c r="D11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12"/>
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
       <c r="D12"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13"/>
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
       <c r="D13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14"/>
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15"/>
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16"/>
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17"/>
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18"/>
-      <c r="C18"/>
+      <c r="A18" s="31">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19"/>
-      <c r="C19"/>
+      <c r="A19" s="31">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20"/>
+      <c r="A20" s="31">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21"/>
-      <c r="C21"/>
+      <c r="A21" s="31">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
       <c r="D21"/>
       <c r="G21"/>
     </row>
@@ -3174,7 +3265,7 @@
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A40138C-250D-4FF3-9A78-9F4F3BB90A52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F08D4-047B-0544-94DF-69E869DE0B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
     <sheet name="points" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -623,10 +615,6 @@
 [Twitter collab notes ](https://hackmd.io/@norcalbiostat/data485-twitter)  </t>
   </si>
   <si>
-    <t>Read DDS Ch2  
-Read at least one SS paper in Google Drive and prepare to share extraction/analysis</t>
-  </si>
-  <si>
     <t>Share POLS DS analysis</t>
   </si>
   <si>
@@ -640,47 +628,51 @@
 Read the example POLS DS projects in Google Drive</t>
   </si>
   <si>
-    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) (Due TBD )
+    <t>Open work time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hackathon / open work time. </t>
+  </si>
+  <si>
+    <t>HW1: R Markdown website demo</t>
+  </si>
+  <si>
+    <t>HW1: Blogdown website demo</t>
+  </si>
+  <si>
+    <t>HW1: Personal website</t>
+  </si>
+  <si>
+    <t>HW3: Twitter tutorial for others</t>
+  </si>
+  <si>
+    <t>HW3: Historical twitter data demo</t>
+  </si>
+  <si>
+    <t>HW3: Sentiment analysis</t>
+  </si>
+  <si>
+    <t>What is DS mind map share out</t>
+  </si>
+  <si>
+    <t>Add info to class-logsitics repo via PR</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>communication</t>
+  </si>
+  <si>
+    <t>skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) (Varying due dates )
 </t>
   </si>
   <si>
-    <t>Open work time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hackathon / open work time. </t>
-  </si>
-  <si>
-    <t>HW1: R Markdown website demo</t>
-  </si>
-  <si>
-    <t>HW1: Blogdown website demo</t>
-  </si>
-  <si>
-    <t>HW1: Personal website</t>
-  </si>
-  <si>
-    <t>HW3: Twitter tutorial for others</t>
-  </si>
-  <si>
-    <t>HW3: Historical twitter data demo</t>
-  </si>
-  <si>
-    <t>HW3: Sentiment analysis</t>
-  </si>
-  <si>
-    <t>What is DS mind map share out</t>
-  </si>
-  <si>
-    <t>Add info to class-logsitics repo via PR</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>skills</t>
+    <t>Read DDS Ch2  
+Read at least one twitter paper in Google Drive and prepare to share extraction/analysis</t>
   </si>
 </sst>
 </file>
@@ -1524,22 +1516,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1591,7 +1583,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1611,7 +1603,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1636,10 +1628,10 @@
         <v>137</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37">
         <v>3</v>
       </c>
@@ -1652,22 +1644,22 @@
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>4</v>
       </c>
@@ -1680,16 +1672,16 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -1709,7 +1701,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1731,7 +1723,7 @@
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
@@ -1746,7 +1738,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>7</v>
       </c>
@@ -1768,7 +1760,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>8</v>
       </c>
@@ -1788,7 +1780,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="24">
         <f>B11+7</f>
@@ -1804,7 +1796,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
-    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1824,7 +1816,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1840,7 +1832,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1856,7 +1848,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1874,7 +1866,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1890,7 +1882,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1906,7 +1898,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1924,7 +1916,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1957,19 +1949,19 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1998,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2027,7 +2019,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2057,7 +2049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2085,7 +2077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2113,7 +2105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2143,7 +2135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2173,7 +2165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2203,7 +2195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2229,7 +2221,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2240,7 +2232,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2269,7 +2261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2295,7 +2287,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2319,7 +2311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2345,7 +2337,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2367,7 +2359,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2387,7 +2379,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2405,7 +2397,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2435,19 +2427,19 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="34"/>
+    <col min="1" max="1" width="8.83203125" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="19"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="19"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="12"/>
+    <col min="8" max="8" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2470,7 +2462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>0</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>0</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>0</v>
       </c>
@@ -2533,7 +2525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>0</v>
       </c>
@@ -2554,15 +2546,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2570,43 +2562,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -2618,20 +2610,20 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2639,12 +2631,12 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2652,51 +2644,51 @@
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>4</v>
       </c>
@@ -2704,12 +2696,12 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -2717,12 +2709,12 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -2730,12 +2722,12 @@
         <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>9</v>
       </c>
@@ -2746,7 +2738,7 @@
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>9</v>
       </c>
@@ -2754,283 +2746,283 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3040,7 +3032,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3050,106 +3042,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3158,14 +3150,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3173,7 +3165,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3181,7 +3173,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3189,7 +3181,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3197,7 +3189,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3205,7 +3197,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3213,7 +3205,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3221,7 +3213,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3229,43 +3221,43 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+  <sortState ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160F08D4-047B-0544-94DF-69E869DE0B09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C4D4A-5928-4E79-AAFE-48D1FEA8558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29730" yWindow="1800" windowWidth="23580" windowHeight="14925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
-    <sheet name="points" sheetId="3" r:id="rId3"/>
+    <sheet name="assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="168">
   <si>
     <t>Finals Week</t>
   </si>
@@ -605,9 +613,6 @@
     <t>Getting and wrangling Twitter data</t>
   </si>
   <si>
-    <t>Data Science analysis on Political Opinions</t>
-  </si>
-  <si>
     <t>R Markdown</t>
   </si>
   <si>
@@ -667,12 +672,40 @@
     <t>skills</t>
   </si>
   <si>
-    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) (Varying due dates )
+    <t>Statistical Inference, Exploratory Data Analysis, and the Data Science Process</t>
+  </si>
+  <si>
+    <t>Learning about data science research in the Political Science field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read DDS Ch2 before Tuesday
 </t>
   </si>
   <si>
-    <t>Read DDS Ch2  
-Read at least one twitter paper in Google Drive and prepare to share extraction/analysis</t>
+    <t>Respond to poll in Slack #reading, and read that paper before Thursday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lec3 - DS Process. Hack MD notes in progress. </t>
+  </si>
+  <si>
+    <t>* hw04: EDA</t>
+  </si>
+  <si>
+    <t>Case study</t>
+  </si>
+  <si>
+    <t>Tree methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research on Twitter Examples (Google Drive)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) 
+* Slack intro to POLS (Due 2/7 )
+* Readings (Due 2/10 )
+* Rtweet tutorial (Due 2/14 )
+* Historical tweet documentation (Due 2/14 )
+</t>
   </si>
 </sst>
 </file>
@@ -1512,26 +1545,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1560,12 +1593,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>42390</v>
+        <v>42388</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>98</v>
@@ -1583,7 +1616,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1600,16 +1633,16 @@
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <f>B2+7</f>
-        <v>42397</v>
+        <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>127</v>
@@ -1628,253 +1661,264 @@
         <v>137</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <f>B4+7</f>
-        <v>42404</v>
+        <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>139</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B20" si="0">B5+7</f>
-        <v>42411</v>
+        <f t="shared" ref="B6:B21" si="0">B5+7</f>
+        <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <f t="shared" si="0"/>
-        <v>42418</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>118</v>
+    <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="0"/>
-        <v>42425</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>106</v>
+        <f>B6+7</f>
+        <v>42416</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>164</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="0"/>
+        <v>42423</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <f>B8+7</f>
-        <v>42432</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <f>B10+7</f>
-        <v>42439</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>107</v>
+        <f>B9+7</f>
+        <v>42430</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24">
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3">
         <f>B11+7</f>
-        <v>42446</v>
-      </c>
-      <c r="C12" s="23" t="s">
+        <v>42437</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24">
+        <f>B12+7</f>
+        <v>42444</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="29">
-        <f>B12+7</f>
-        <v>42453</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
-        <v>42460</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="B14" s="29">
+        <f>B13+7</f>
+        <v>42451</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>42467</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>42458</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="E15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>42474</v>
+        <v>42465</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>42481</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>42472</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1882,13 +1926,13 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>42488</v>
+        <v>42479</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1898,17 +1942,15 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>42495</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>42486</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -1916,16 +1958,16 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>42502</v>
+        <v>42493</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1933,6 +1975,24 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>42500</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,19 +2009,19 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1990,7 +2050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2019,7 +2079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2049,7 +2109,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2077,7 +2137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2105,7 +2165,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2135,7 +2195,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2165,7 +2225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2195,7 +2255,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2221,7 +2281,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2232,7 +2292,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2261,7 +2321,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2287,7 +2347,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2311,7 +2371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2337,7 +2397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2359,7 +2419,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2379,7 +2439,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2397,7 +2457,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2424,22 +2484,22 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="34"/>
+    <col min="1" max="1" width="8.875" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="19"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="19"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="12"/>
+    <col min="8" max="8" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>0</v>
       </c>
@@ -2483,7 +2543,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>0</v>
       </c>
@@ -2504,7 +2564,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>0</v>
       </c>
@@ -2525,7 +2585,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>0</v>
       </c>
@@ -2546,15 +2606,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2562,43 +2622,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -2610,20 +2670,20 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2631,12 +2691,12 @@
         <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2644,51 +2704,51 @@
         <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>4</v>
       </c>
@@ -2696,12 +2756,12 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -2709,12 +2769,12 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -2722,12 +2782,12 @@
         <v>136</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>9</v>
       </c>
@@ -2738,7 +2798,7 @@
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>9</v>
       </c>
@@ -2746,283 +2806,283 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3032,7 +3092,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3042,106 +3102,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3150,14 +3210,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3165,7 +3225,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3173,7 +3233,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3181,7 +3241,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3189,7 +3249,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3197,7 +3257,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3205,7 +3265,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3213,7 +3273,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3221,45 +3281,46 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6C4D4A-5928-4E79-AAFE-48D1FEA8558A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29668BE8-0C35-445F-BCBA-737EF3E91A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29730" yWindow="1800" windowWidth="23580" windowHeight="14925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -682,18 +674,6 @@
 </t>
   </si>
   <si>
-    <t>Respond to poll in Slack #reading, and read that paper before Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lec3 - DS Process. Hack MD notes in progress. </t>
-  </si>
-  <si>
-    <t>* hw04: EDA</t>
-  </si>
-  <si>
-    <t>Case study</t>
-  </si>
-  <si>
     <t>Tree methods</t>
   </si>
   <si>
@@ -706,6 +686,18 @@
 * Rtweet tutorial (Due 2/14 )
 * Historical tweet documentation (Due 2/14 )
 </t>
+  </si>
+  <si>
+    <t>Respond to poll in Slack #reading, and read that paper before Tuesday</t>
+  </si>
+  <si>
+    <t>Open work day to finish twtiter tutorials</t>
+  </si>
+  <si>
+    <t>Lec 03 Hack notes</t>
+  </si>
+  <si>
+    <t>* hw04: EDA / case study</t>
   </si>
 </sst>
 </file>
@@ -1545,11 +1537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1675,7 @@
         <v>141</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>146</v>
@@ -1697,7 +1689,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B21" si="0">B5+7</f>
+        <f t="shared" ref="B6:B20" si="0">B5+7</f>
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -1705,20 +1697,27 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f>B6+7</f>
+        <v>42416</v>
+      </c>
       <c r="C7" s="35" t="s">
         <v>158</v>
       </c>
@@ -1727,198 +1726,196 @@
         <v>160</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f>B6+7</f>
-        <v>42416</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>164</v>
+        <f>B7+7</f>
+        <v>42423</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <f t="shared" si="0"/>
-        <v>42423</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>118</v>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B8+7</f>
+        <v>42430</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <f>B9+7</f>
-        <v>42430</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>106</v>
+        <f>B10+7</f>
+        <v>42437</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24">
         <f>B11+7</f>
-        <v>42437</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24">
+        <v>42444</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29">
         <f>B12+7</f>
-        <v>42444</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+        <v>42451</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="29">
-        <f>B13+7</f>
-        <v>42451</v>
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>42458</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>42458</v>
+        <v>42465</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>42465</v>
+        <v>42472</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>42472</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>42479</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1928,11 +1925,11 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>42479</v>
+        <v>42486</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -1944,13 +1941,15 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>42486</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>42493</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
@@ -1960,14 +1959,14 @@
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
-        <v>42493</v>
+        <v>42500</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1975,24 +1974,6 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>16</v>
-      </c>
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3317,7 +3298,7 @@
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+  <sortState ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29668BE8-0C35-445F-BCBA-737EF3E91A9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF23F88C-FA3F-456D-BA64-18A63DF27F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="1800" windowWidth="23580" windowHeight="14925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="945" windowWidth="23580" windowHeight="14925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
   <si>
     <t>Finals Week</t>
   </si>
@@ -533,13 +541,6 @@
     <t>DATA FEST!</t>
   </si>
   <si>
-    <t xml:space="preserve">* [hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Form DS collaboration teams with POLS students. </t>
-  </si>
-  <si>
     <t>[Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)  
 [Lec01b - Blogdown Websites](lec/lec01b_blogdown_website.html)</t>
   </si>
@@ -553,10 +554,6 @@
   <si>
     <t>Read DDS Ch3  
 Read ISLR Ch1, Ch2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* [hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )
-</t>
   </si>
   <si>
     <t>What is Data Science?  What's your DS path?</t>
@@ -576,9 +573,6 @@
 Rerank if desired and record your final rankings in your LJ. </t>
   </si>
   <si>
-    <t>* [hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Read DDS Ch1, 16.   </t>
   </si>
   <si>
@@ -680,24 +674,54 @@
     <t xml:space="preserve">Research on Twitter Examples (Google Drive)  </t>
   </si>
   <si>
-    <t xml:space="preserve">* [hw03: Hello Twitter](hw/hw03-hello-twitter.html) 
-* Slack intro to POLS (Due 2/7 )
-* Readings (Due 2/10 )
-* Rtweet tutorial (Due 2/14 )
-* Historical tweet documentation (Due 2/14 )
+    <t>Respond to poll in Slack #reading, and read that paper before Tuesday</t>
+  </si>
+  <si>
+    <t>Open work day to finish twtiter tutorials</t>
+  </si>
+  <si>
+    <t>Lec 03 Hack notes</t>
+  </si>
+  <si>
+    <t>[hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hw00: Getting Started](hw/hw00-getting-started.html) (Due Wed 1/22 )
 </t>
   </si>
   <si>
-    <t>Respond to poll in Slack #reading, and read that paper before Tuesday</t>
-  </si>
-  <si>
-    <t>Open work day to finish twtiter tutorials</t>
-  </si>
-  <si>
-    <t>Lec 03 Hack notes</t>
-  </si>
-  <si>
-    <t>* hw04: EDA / case study</t>
+    <t>[hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hw03: Hello Twitter](hw/hw03-hello-twitter.html)  
+Slack intro to POLS (Due 2/7 )  
+Readings (Due 2/10 )  
+Rtweet tutorial (Due 2/14 )  
+Historical tweet documentation (Due 2/14 )  
+</t>
+  </si>
+  <si>
+    <t>Review POLS Learn R HW 1 (Due 2/18 )</t>
+  </si>
+  <si>
+    <t>Form DS collaboration teams with POLS students.   
+Review POLS Learn R HW 4 (Due 3/10 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case study in class? </t>
+  </si>
+  <si>
+    <t>Discuss DDS Ch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR RTweet tutorial (Due 2/23 )  
+hw04: EDA / case study (Due 2/22 )  
+Review POLS Learn R HW 2 (Due 2/25 )  </t>
+  </si>
+  <si>
+    <t>Review POLS Learn R HW 3 (Due 3/3 )  
+Blog post &amp; response (Due 2/29 )  
+Final Rtweet tutorial to share (FIRM Due 3/1 )</t>
   </si>
 </sst>
 </file>
@@ -778,7 +802,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,12 +830,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +1012,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1096,9 +1114,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1540,7 +1555,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1598,13 +1613,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1618,14 +1633,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1637,27 +1652,27 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37">
+      <c r="A5" s="36">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -1665,27 +1680,27 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="36">
         <v>4</v>
       </c>
       <c r="B6" s="3">
@@ -1693,21 +1708,23 @@
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1719,20 +1736,24 @@
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
@@ -1747,16 +1768,18 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
@@ -1766,7 +1789,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="6"/>
       <c r="G9" s="4" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1844,7 +1867,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -1880,7 +1903,7 @@
         <v>42465</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -2571,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2592,10 +2615,10 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2608,10 +2631,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D7"/>
     </row>
@@ -2620,10 +2643,10 @@
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D8"/>
     </row>
@@ -2632,10 +2655,10 @@
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D9"/>
     </row>
@@ -2644,10 +2667,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D10"/>
     </row>
@@ -2656,10 +2679,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
@@ -2669,10 +2692,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
@@ -2682,10 +2705,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
@@ -2695,10 +2718,10 @@
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
@@ -2708,10 +2731,10 @@
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
@@ -2721,10 +2744,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
@@ -2737,7 +2760,7 @@
         <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
@@ -2750,7 +2773,7 @@
         <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
@@ -2760,10 +2783,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
@@ -2787,7 +2810,7 @@
         <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
@@ -3298,7 +3321,7 @@
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF23F88C-FA3F-456D-BA64-18A63DF27F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD40E79C-8FCE-4334-8224-B9BAC80AAEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="945" windowWidth="23580" windowHeight="14925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="176">
   <si>
     <t>Finals Week</t>
   </si>
@@ -490,15 +490,6 @@
     <t>Read ISLR Chapter 3: Intro, 3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">* Have students write down how they plan to answer these questions. (prep work?)
--- open book, answers are in book, 
-* Github repo for the assignment? 
-* Add questions: 
--- does KNN perform better than linear regression? 
--- when would you choose to perform KNN over LinReg?
-</t>
-  </si>
-  <si>
     <t>Linear Regression</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
   </si>
   <si>
     <t>Comments on Blog posts</t>
-  </si>
-  <si>
-    <t>POLS Project</t>
   </si>
   <si>
     <t>Intro to Statistical Learning</t>
@@ -546,14 +534,6 @@
   </si>
   <si>
     <t>[Lec00: Class Orientation](lec/lec00_orientation.html)</t>
-  </si>
-  <si>
-    <t>ISLR Chapter 5  
-Install the caret package</t>
-  </si>
-  <si>
-    <t>Read DDS Ch3  
-Read ISLR Ch1, Ch2</t>
   </si>
   <si>
     <t>What is Data Science?  What's your DS path?</t>
@@ -664,10 +644,6 @@
     <t>Learning about data science research in the Political Science field</t>
   </si>
   <si>
-    <t xml:space="preserve">Read DDS Ch2 before Tuesday
-</t>
-  </si>
-  <si>
     <t>Tree methods</t>
   </si>
   <si>
@@ -678,9 +654,6 @@
   </si>
   <si>
     <t>Open work day to finish twtiter tutorials</t>
-  </si>
-  <si>
-    <t>Lec 03 Hack notes</t>
   </si>
   <si>
     <t>[hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
@@ -691,37 +664,71 @@
   </si>
   <si>
     <t>[hw02: What is DS](hw/hw02-what-is-ds.html) (Due Mon 2/3 )</t>
+  </si>
+  <si>
+    <t>Review POLS Learn R HW 1 (Due 2/18 )</t>
+  </si>
+  <si>
+    <t>Case Study</t>
   </si>
   <si>
     <t xml:space="preserve">[hw03: Hello Twitter](hw/hw03-hello-twitter.html)  
 Slack intro to POLS (Due 2/7 )  
 Readings (Due 2/10 )  
-Rtweet tutorial (Due 2/14 )  
+Rtweet tutorial (Draft Due 2/14 , PR Due 2/20, Final 2/23 )  
 Historical tweet documentation (Due 2/14 )  
 </t>
   </si>
   <si>
-    <t>Review POLS Learn R HW 1 (Due 2/18 )</t>
-  </si>
-  <si>
-    <t>Form DS collaboration teams with POLS students.   
-Review POLS Learn R HW 4 (Due 3/10 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case study in class? </t>
-  </si>
-  <si>
-    <t>Discuss DDS Ch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR RTweet tutorial (Due 2/23 )  
-hw04: EDA / case study (Due 2/22 )  
+    <t xml:space="preserve">[hw04: Case study](https://classroom.github.com/a/2BmxOWsY) (Due 2/25 )  
 Review POLS Learn R HW 2 (Due 2/25 )  </t>
   </si>
   <si>
-    <t>Review POLS Learn R HW 3 (Due 3/3 )  
-Blog post &amp; response (Due 2/29 )  
-Final Rtweet tutorial to share (FIRM Due 3/1 )</t>
+    <t xml:space="preserve">Review POLS Learn R HW 3 (Due 3/3 )  
+Blog post &amp; response (Due 2/29 )  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open work day - robin N/A
+</t>
+  </si>
+  <si>
+    <t>Read ISLR Ch1, Ch2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Add questions: 
+-- does KNN perform better than linear regression? 
+-- when would you choose to perform KNN over LinReg?
+</t>
+  </si>
+  <si>
+    <t>BSS Project Poster Session</t>
+  </si>
+  <si>
+    <t>"I used to think… but now I think…"</t>
+  </si>
+  <si>
+    <t>Return to bridge. 
+Questions in ISLR Ch 2</t>
+  </si>
+  <si>
+    <t>ISLR Ch 1, 2</t>
+  </si>
+  <si>
+    <t>Sleep! Play! Refresh!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun, Blankets, Books, Pets, Beer…. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLR Chapter 5  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read DDS Ch2 before Tuesday
+Share chosen DDS Case study on Thursday. </t>
+  </si>
+  <si>
+    <t>DDS CH 2
+Slack poll in #readings (Tue 2/18)</t>
   </si>
 </sst>
 </file>
@@ -1552,11 +1559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1575,7 @@
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
     <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
     <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.75" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1613,13 +1620,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1633,14 +1640,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1652,23 +1659,23 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1680,23 +1687,23 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,27 +1711,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B20" si="0">B5+7</f>
+        <f t="shared" ref="B6:B19" si="0">B5+7</f>
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1732,211 +1739,222 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <f>B6+7</f>
+        <f t="shared" ref="B7:B12" si="1">B6+7</f>
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f>B7+7</f>
+        <f t="shared" si="1"/>
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>170</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>42430</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f>B8+7</f>
-        <v>42430</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>42437</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
-        <f>B10+7</f>
-        <v>42437</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24">
-        <f>B11+7</f>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="24">
+        <f t="shared" si="1"/>
         <v>42444</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <f t="shared" si="1"/>
+        <v>42451</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="29">
-        <f>B12+7</f>
-        <v>42451</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <f t="shared" si="0"/>
+        <v>42458</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>42458</v>
+        <v>42465</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>42465</v>
+        <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>42472</v>
+        <v>42479</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
-        <v>42479</v>
+        <v>42486</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -1948,13 +1966,15 @@
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
-        <v>42486</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>42493</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="6"/>
@@ -1964,14 +1984,14 @@
     </row>
     <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
-        <v>42493</v>
+        <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1979,24 +1999,6 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2531,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2552,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2594,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2615,10 +2617,10 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2631,10 +2633,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D7"/>
     </row>
@@ -2643,10 +2645,10 @@
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8"/>
     </row>
@@ -2655,10 +2657,10 @@
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9"/>
     </row>
@@ -2667,10 +2669,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D10"/>
     </row>
@@ -2679,10 +2681,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
@@ -2692,10 +2694,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
@@ -2705,10 +2707,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
@@ -2718,10 +2720,10 @@
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
@@ -2731,10 +2733,10 @@
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
@@ -2744,10 +2746,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
@@ -2757,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
@@ -2770,10 +2772,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
@@ -2783,10 +2785,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
@@ -2796,7 +2798,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2807,10 +2809,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD40E79C-8FCE-4334-8224-B9BAC80AAEF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033B345-ED2A-D946-9467-66F137B7383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
     <sheet name="assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
   <si>
     <t>Finals Week</t>
   </si>
@@ -650,12 +642,6 @@
     <t xml:space="preserve">Research on Twitter Examples (Google Drive)  </t>
   </si>
   <si>
-    <t>Respond to poll in Slack #reading, and read that paper before Tuesday</t>
-  </si>
-  <si>
-    <t>Open work day to finish twtiter tutorials</t>
-  </si>
-  <si>
     <t>[hw01: Personal Website](hw/hw01-website.html) (Due Fri 1/31 )</t>
   </si>
   <si>
@@ -667,9 +653,6 @@
   </si>
   <si>
     <t>Review POLS Learn R HW 1 (Due 2/18 )</t>
-  </si>
-  <si>
-    <t>Case Study</t>
   </si>
   <si>
     <t xml:space="preserve">[hw03: Hello Twitter](hw/hw03-hello-twitter.html)  
@@ -680,19 +663,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[hw04: Case study](https://classroom.github.com/a/2BmxOWsY) (Due 2/25 )  
-Review POLS Learn R HW 2 (Due 2/25 )  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Review POLS Learn R HW 3 (Due 3/3 )  
 Blog post &amp; response (Due 2/29 )  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">open work day - robin N/A
-</t>
-  </si>
-  <si>
-    <t>Read ISLR Ch1, Ch2</t>
   </si>
   <si>
     <t xml:space="preserve">* Add questions: 
@@ -723,12 +695,30 @@
     <t xml:space="preserve">ISLR Chapter 5  </t>
   </si>
   <si>
-    <t xml:space="preserve">Read DDS Ch2 before Tuesday
-Share chosen DDS Case study on Thursday. </t>
-  </si>
-  <si>
     <t>DDS CH 2
 Slack poll in #readings (Tue 2/18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read DDS Ch2 before Tuesday
+</t>
+  </si>
+  <si>
+    <t>Share DDS Case study</t>
+  </si>
+  <si>
+    <t>LJ entry - what from the reading stood out to you? What did you learn? 
+Intro to Real estate case study from DDS Ch 2</t>
+  </si>
+  <si>
+    <t>Summarize chosen DDS Case study on Tue  
+Read ISLR Ch1, Ch2 before Th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respond to Slack poll on POLS #reading, and prepare to share on Tue. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hw04: Real estate case study](https://classroom.github.com/a/2BmxOWsY) (Printed report due in class 2/25 )   
+Review POLS Learn R HW 2 (Due 2/25 )  </t>
   </si>
 </sst>
 </file>
@@ -1562,23 +1552,23 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.83203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1623,14 +1613,14 @@
         <v>119</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>123</v>
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1643,14 +1633,14 @@
         <v>118</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1669,7 +1659,7 @@
         <v>130</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>129</v>
@@ -1678,7 +1668,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -1697,7 +1687,7 @@
         <v>133</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>138</v>
@@ -1706,7 +1696,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -1719,22 +1709,22 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>153</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
@@ -1747,20 +1737,22 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1773,22 +1765,22 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -1806,11 +1798,11 @@
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -1832,7 +1824,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
@@ -1843,16 +1835,16 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1865,14 +1857,14 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1892,7 +1884,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1910,7 +1902,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1928,7 +1920,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1937,7 +1929,7 @@
         <v>42479</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1945,10 +1937,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1964,7 +1956,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1982,7 +1974,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2015,19 +2007,19 @@
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2056,7 +2048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2085,7 +2077,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2115,7 +2107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2143,7 +2135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2171,7 +2163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2201,7 +2193,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2231,7 +2223,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2261,7 +2253,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2287,7 +2279,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2298,7 +2290,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2327,7 +2319,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2353,7 +2345,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2377,7 +2369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2403,7 +2395,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2425,7 +2417,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2445,7 +2437,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2463,7 +2455,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2493,19 +2485,19 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="34"/>
+    <col min="1" max="1" width="8.83203125" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="19"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="19"/>
+    <col min="5" max="5" width="5.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="12"/>
+    <col min="8" max="8" width="8.83203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31">
         <v>0</v>
       </c>
@@ -2549,7 +2541,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="31">
         <v>0</v>
       </c>
@@ -2570,7 +2562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="31">
         <v>0</v>
       </c>
@@ -2591,7 +2583,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>0</v>
       </c>
@@ -2612,7 +2604,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
@@ -2628,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
@@ -2640,7 +2632,7 @@
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
@@ -2652,7 +2644,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
@@ -2664,7 +2656,7 @@
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -2676,7 +2668,7 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2689,7 +2681,7 @@
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2702,7 +2694,7 @@
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2715,7 +2707,7 @@
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
@@ -2728,7 +2720,7 @@
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
@@ -2741,7 +2733,7 @@
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
@@ -2754,7 +2746,7 @@
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="31">
         <v>4</v>
       </c>
@@ -2767,7 +2759,7 @@
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -2780,7 +2772,7 @@
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -2793,7 +2785,7 @@
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="31">
         <v>9</v>
       </c>
@@ -2804,7 +2796,7 @@
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="31">
         <v>9</v>
       </c>
@@ -2817,278 +2809,278 @@
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3098,7 +3090,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3108,106 +3100,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3216,14 +3208,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3231,7 +3223,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3239,7 +3231,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3247,7 +3239,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3255,7 +3247,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3263,7 +3255,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3271,7 +3263,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3279,7 +3271,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3287,43 +3279,43 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+  <sortState ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdonatello/GitHub/ADS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033B345-ED2A-D946-9467-66F137B7383D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A17E95-B0F0-450F-8500-7CFD5A168D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
     <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
     <sheet name="assignments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
   <si>
     <t>Finals Week</t>
   </si>
@@ -479,12 +487,6 @@
     <t>Ref DDS Ch 5</t>
   </si>
   <si>
-    <t>Read ISLR Chapter 3: Intro, 3.5</t>
-  </si>
-  <si>
-    <t>Linear Regression</t>
-  </si>
-  <si>
     <t>Resampling Methods</t>
   </si>
   <si>
@@ -663,27 +665,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Review POLS Learn R HW 3 (Due 3/3 )  
-Blog post &amp; response (Due 2/29 )  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Add questions: 
--- does KNN perform better than linear regression? 
--- when would you choose to perform KNN over LinReg?
-</t>
-  </si>
-  <si>
     <t>BSS Project Poster Session</t>
   </si>
   <si>
     <t>"I used to think… but now I think…"</t>
-  </si>
-  <si>
-    <t>Return to bridge. 
-Questions in ISLR Ch 2</t>
-  </si>
-  <si>
-    <t>ISLR Ch 1, 2</t>
   </si>
   <si>
     <t>Sleep! Play! Refresh!</t>
@@ -703,22 +688,53 @@
 </t>
   </si>
   <si>
-    <t>Share DDS Case study</t>
-  </si>
-  <si>
     <t>LJ entry - what from the reading stood out to you? What did you learn? 
 Intro to Real estate case study from DDS Ch 2</t>
   </si>
   <si>
-    <t>Summarize chosen DDS Case study on Tue  
-Read ISLR Ch1, Ch2 before Th</t>
-  </si>
-  <si>
     <t xml:space="preserve">Respond to Slack poll on POLS #reading, and prepare to share on Tue. </t>
   </si>
   <si>
     <t xml:space="preserve">[hw04: Real estate case study](https://classroom.github.com/a/2BmxOWsY) (Printed report due in class 2/25 )   
 Review POLS Learn R HW 2 (Due 2/25 )  </t>
+  </si>
+  <si>
+    <t>Share DDS Case study
+Return to bridge (time pending)</t>
+  </si>
+  <si>
+    <t>Summarize chosen DDS Case study on Tue  
+Read ISLR Ch1 before Th. 
+Prepare your part of HW5 before Th.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLR Ch 1, 2  
+ISLR MOOC [Video lectures](http://auapps.american.edu/alberto/www/analytics/ISLRLectures.html)  
+[Materials from DSO/IOM 530 at USC](https://www.alsharif.info/iom530)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review POLS Learn R HW 3 (Due 3/3 )  
+Blog post &amp; response (Due 2/29 )  
+[hw05: Statistical Learning](hw/hw05-statistical-learning.html) (Due x/xx )   </t>
+  </si>
+  <si>
+    <t>Jigsaw lecture on ISLR Ch 2 by answering assigned questions from ISLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Translate a business question into a mathematical model. 
+* Identify cases where a non-parametric approach would be more appropriate than a parametric approach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISLR Ch 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familarize yourself with the advertising data from Ch 2. </t>
+  </si>
+  <si>
+    <t>Part III hw 5</t>
+  </si>
+  <si>
+    <t>Finish Part I of HW 5</t>
   </si>
 </sst>
 </file>
@@ -1551,24 +1567,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1597,7 +1613,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1610,17 +1626,17 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1630,17 +1646,17 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1649,26 +1665,26 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -1677,26 +1693,26 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I5" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="71" thickBot="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -1705,27 +1721,27 @@
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36">
         <v>5</v>
       </c>
       <c r="B7" s="3">
@@ -1733,26 +1749,26 @@
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57" thickBot="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>6</v>
       </c>
@@ -1761,26 +1777,28 @@
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E8" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -1789,20 +1807,26 @@
         <v>42430</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -1824,7 +1848,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
@@ -1835,16 +1859,16 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1853,18 +1877,18 @@
         <v>42451</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -1873,18 +1897,18 @@
         <v>42458</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -1893,7 +1917,7 @@
         <v>42465</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1902,7 +1926,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -1911,7 +1935,7 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1920,7 +1944,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -1929,7 +1953,7 @@
         <v>42479</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1937,10 +1961,10 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -1956,7 +1980,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -1974,7 +1998,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2003,23 +2027,23 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="359" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2077,7 +2101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="211" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2107,7 +2131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2135,7 +2159,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="197" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2223,7 +2247,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2253,7 +2277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="155" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2279,7 +2303,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2290,7 +2314,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="169" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2319,7 +2343,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="333" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2345,7 +2369,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="113" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2369,7 +2393,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="85" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2395,7 +2419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2417,7 +2441,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2437,7 +2461,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2455,7 +2479,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2485,19 +2509,19 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="34"/>
+    <col min="1" max="1" width="8.875" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="19"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="19"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="12"/>
+    <col min="8" max="8" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2520,12 +2544,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2541,12 +2565,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2562,12 +2586,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2583,12 +2607,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2604,15 +2628,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2620,467 +2644,467 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3090,7 +3114,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3100,106 +3124,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3208,14 +3232,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3223,7 +3247,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3231,7 +3255,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3239,7 +3263,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3247,7 +3271,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3255,7 +3279,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3263,7 +3287,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3271,7 +3295,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3279,43 +3303,43 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A17E95-B0F0-450F-8500-7CFD5A168D3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EAF73-AFAF-4C59-AEC5-B752758EC89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1EAF73-AFAF-4C59-AEC5-B752758EC89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BD6D9-36DA-4975-A2F8-A0715F076CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
   <si>
     <t>Finals Week</t>
   </si>
@@ -481,18 +481,9 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Read ISLR Chapter 4 (Intro), 4.1, 4.35, 4.4, 4.5</t>
-  </si>
-  <si>
     <t>Ref DDS Ch 5</t>
   </si>
   <si>
-    <t>Resampling Methods</t>
-  </si>
-  <si>
-    <t>Ethics of ML algorithms</t>
-  </si>
-  <si>
     <t>Read WMD: Intro, Ch 1-2</t>
   </si>
   <si>
@@ -518,9 +509,6 @@
   </si>
   <si>
     <t>Intro to Statistical Learning</t>
-  </si>
-  <si>
-    <t>DATA FEST!</t>
   </si>
   <si>
     <t>[Lec01a - RMarkdown Websites](lec/lec01a_rmarkdown_website.html)  
@@ -638,9 +626,6 @@
     <t>Learning about data science research in the Political Science field</t>
   </si>
   <si>
-    <t>Tree methods</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research on Twitter Examples (Google Drive)  </t>
   </si>
   <si>
@@ -665,9 +650,6 @@
 </t>
   </si>
   <si>
-    <t>BSS Project Poster Session</t>
-  </si>
-  <si>
     <t>"I used to think… but now I think…"</t>
   </si>
   <si>
@@ -697,15 +679,6 @@
   <si>
     <t xml:space="preserve">[hw04: Real estate case study](https://classroom.github.com/a/2BmxOWsY) (Printed report due in class 2/25 )   
 Review POLS Learn R HW 2 (Due 2/25 )  </t>
-  </si>
-  <si>
-    <t>Share DDS Case study
-Return to bridge (time pending)</t>
-  </si>
-  <si>
-    <t>Summarize chosen DDS Case study on Tue  
-Read ISLR Ch1 before Th. 
-Prepare your part of HW5 before Th.</t>
   </si>
   <si>
     <t xml:space="preserve">ISLR Ch 1, 2  
@@ -713,28 +686,108 @@
 [Materials from DSO/IOM 530 at USC](https://www.alsharif.info/iom530)  </t>
   </si>
   <si>
+    <t>Jigsaw lecture on ISLR Ch 2 by answering assigned questions from ISLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Translate a business question into a mathematical model. 
+* Identify cases where a non-parametric approach would be more appropriate than a parametric approach. </t>
+  </si>
+  <si>
+    <t>Part III hw 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Describe the difference between training and testing data sets
+* Describe the difference between a parametric and non-parametric model
+* Identify  and describe situations where classification, regression, and clustering models are appropriate. 
+* Explain the concept of overfitting, and bias-variance tradeoff. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Review POLS Learn R HW 3 (Due 3/3 )  
 Blog post &amp; response (Due 2/29 )  
-[hw05: Statistical Learning](hw/hw05-statistical-learning.html) (Due x/xx )   </t>
-  </si>
-  <si>
-    <t>Jigsaw lecture on ISLR Ch 2 by answering assigned questions from ISLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Translate a business question into a mathematical model. 
-* Identify cases where a non-parametric approach would be more appropriate than a parametric approach. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLR Ch 3. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familarize yourself with the advertising data from Ch 2. </t>
-  </si>
-  <si>
-    <t>Part III hw 5</t>
-  </si>
-  <si>
-    <t>Finish Part I of HW 5</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hw05: Statistical Learning](hw/hw05-statistical-learning.html) (Due 3/13 )   </t>
+  </si>
+  <si>
+    <t>Share DDS Case study</t>
+  </si>
+  <si>
+    <t>Share DDS Case study
+Return to bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summarize chosen DDS Case study on Tue  
+</t>
+  </si>
+  <si>
+    <t>Read ISLR Ch1 before Tue. 
+Prepare your part of HW5 before Tue.</t>
+  </si>
+  <si>
+    <t>Data Science Case Studies</t>
+  </si>
+  <si>
+    <t>campus closed</t>
+  </si>
+  <si>
+    <t>ISLR Ch 3. 
+Comparison of Linear Regression to KNN</t>
+  </si>
+  <si>
+    <t>Familarize yourself with the advertising data from Ch 2. 
+Read ISLR Ch 3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDA, QDA. Lab? </t>
+  </si>
+  <si>
+    <t>Bootstrap</t>
+  </si>
+  <si>
+    <t>Cross-validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSS Project Poster Session
+</t>
+  </si>
+  <si>
+    <t>Moving beyond Linearity</t>
+  </si>
+  <si>
+    <t>ISLR Ch 7.1-7.5</t>
+  </si>
+  <si>
+    <t>Regularization</t>
+  </si>
+  <si>
+    <t>ISLR Ch 6.2, 6.4 (Tue)</t>
+  </si>
+  <si>
+    <t>ISLR Ch 8</t>
+  </si>
+  <si>
+    <t>Cross-Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read ISLR Chapter 4 (Intro), 4.1, 4.4, 4.5 before Tue
+</t>
+  </si>
+  <si>
+    <t>Read ISLR Ch 5.1 before Thu</t>
+  </si>
+  <si>
+    <t>DataFest!</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethics of ML algorithms
+</t>
+  </si>
+  <si>
+    <t>NSC Poster session</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1078,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1127,6 +1180,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1565,11 +1624,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1626,13 +1685,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>117</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1646,14 +1705,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1665,23 +1724,23 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1693,23 +1752,23 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1717,27 +1776,27 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B19" si="0">B5+7</f>
+        <f t="shared" ref="B6:B24" si="0">B5+7</f>
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,27 +1808,27 @@
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="36">
         <v>6</v>
       </c>
       <c r="B8" s="3">
@@ -1777,29 +1836,25 @@
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+    </row>
+    <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36">
         <v>7</v>
       </c>
       <c r="B9" s="3">
@@ -1807,26 +1862,28 @@
         <v>42430</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>171</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="H9" s="4" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28">
         <v>8</v>
       </c>
@@ -1834,19 +1891,25 @@
         <f t="shared" si="1"/>
         <v>42437</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
@@ -1859,16 +1922,16 @@
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1877,31 +1940,32 @@
         <v>42451</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
-        <v>42458</v>
-      </c>
+      <c r="H12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -1910,69 +1974,73 @@
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B12+7</f>
+        <v>42458</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>42465</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>42472</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
-        <v>42479</v>
+        <v>42472</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>158</v>
-      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
-        <v>42486</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="6"/>
@@ -1981,15 +2049,10 @@
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>15</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>42493</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>188</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1998,24 +2061,108 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>42500</v>
+        <f>B16+7</f>
+        <v>42479</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
+      <c r="I19" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B19+7</f>
+        <v>42486</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B21+7</f>
+        <v>42493</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>42500</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2027,8 +2174,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2549,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2570,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2591,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2612,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2633,10 +2780,10 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2649,10 +2796,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D7"/>
     </row>
@@ -2661,10 +2808,10 @@
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D8"/>
     </row>
@@ -2673,10 +2820,10 @@
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D9"/>
     </row>
@@ -2685,10 +2832,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10"/>
     </row>
@@ -2697,10 +2844,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
@@ -2710,10 +2857,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
@@ -2723,10 +2870,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
@@ -2736,10 +2883,10 @@
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
@@ -2749,10 +2896,10 @@
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
@@ -2762,10 +2909,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
@@ -2775,10 +2922,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
@@ -2788,10 +2935,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
@@ -2801,10 +2948,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
@@ -2814,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2825,10 +2972,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5BD6D9-36DA-4975-A2F8-A0715F076CFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11494A59-8C98-4D66-ADC1-5D707AD06BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="187">
   <si>
     <t>Finals Week</t>
   </si>
@@ -653,15 +653,6 @@
     <t>"I used to think… but now I think…"</t>
   </si>
   <si>
-    <t>Sleep! Play! Refresh!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun, Blankets, Books, Pets, Beer…. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISLR Chapter 5  </t>
-  </si>
-  <si>
     <t>DDS CH 2
 Slack poll in #readings (Tue 2/18)</t>
   </si>
@@ -731,70 +722,65 @@
     <t>campus closed</t>
   </si>
   <si>
-    <t>ISLR Ch 3. 
-Comparison of Linear Regression to KNN</t>
-  </si>
-  <si>
     <t>Familarize yourself with the advertising data from Ch 2. 
 Read ISLR Ch 3.5</t>
   </si>
   <si>
-    <t xml:space="preserve">LDA, QDA. Lab? </t>
-  </si>
-  <si>
-    <t>Bootstrap</t>
-  </si>
-  <si>
-    <t>Cross-validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSS Project Poster Session
-</t>
-  </si>
-  <si>
-    <t>Moving beyond Linearity</t>
-  </si>
-  <si>
-    <t>ISLR Ch 7.1-7.5</t>
-  </si>
-  <si>
-    <t>Regularization</t>
-  </si>
-  <si>
     <t>ISLR Ch 6.2, 6.4 (Tue)</t>
   </si>
   <si>
     <t>ISLR Ch 8</t>
-  </si>
-  <si>
-    <t>Cross-Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read ISLR Chapter 4 (Intro), 4.1, 4.4, 4.5 before Tue
-</t>
-  </si>
-  <si>
-    <t>Read ISLR Ch 5.1 before Thu</t>
-  </si>
-  <si>
-    <t>DataFest!</t>
-  </si>
-  <si>
-    <t>SQL</t>
   </si>
   <si>
     <t xml:space="preserve">Ethics of ML algorithms
 </t>
   </si>
   <si>
-    <t>NSC Poster session</t>
+    <t>Reguarization</t>
+  </si>
+  <si>
+    <t>Twitter project updates and next steps. Task identification</t>
+  </si>
+  <si>
+    <t>ISLR Ch 3
+[Class notes from 03-10](notes/wk8-notes-03-10-2020.html)
+[Class notes from 03-12](notes/wk8-notes-03-12-2020.html)</t>
+  </si>
+  <si>
+    <t>[Notes from 03-24](notes/wk9-notes-03-24-2020.html)
+[Class notes from 03-26](notes/wk9-notes-03-26-2020.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review the notes from 3/24 even though we didn’t meet that day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listed in notes from 3/24. </t>
+  </si>
+  <si>
+    <t>Project updates
+NLP (Text processing)</t>
+  </si>
+  <si>
+    <t>NLP- Sentiment analysis</t>
+  </si>
+  <si>
+    <t>ISLR Chapter 4 (Intro), 4.1, 4.4, 4.5</t>
+  </si>
+  <si>
+    <t>Cross-Validation, Bootstrap</t>
+  </si>
+  <si>
+    <t>ISLR Ch 5</t>
+  </si>
+  <si>
+    <t>NLP - Predictive analytics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -867,8 +853,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,6 +888,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1082,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1187,6 +1191,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1624,11 +1634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1776,7 +1786,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" ref="B6:B24" si="0">B5+7</f>
+        <f t="shared" ref="B6:B19" si="0">B5+7</f>
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
@@ -1784,7 +1794,7 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>146</v>
@@ -1812,16 +1822,16 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>131</v>
@@ -1836,21 +1846,21 @@
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1865,26 +1875,26 @@
         <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
+      <c r="A10" s="39">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1895,24 +1905,24 @@
         <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
         <v>42444</v>
@@ -1921,141 +1931,146 @@
         <v>96</v>
       </c>
       <c r="D11" s="25"/>
-      <c r="E11" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>154</v>
-      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="28">
         <v>9</v>
       </c>
       <c r="B12" s="29">
         <f t="shared" si="1"/>
         <v>42451</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
-        <v>186</v>
+      <c r="C12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I12" s="4" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="G12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B13" s="3">
         <f>B12+7</f>
         <v>42458</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>42465</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>183</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>11</v>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>12</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
-        <v>42465</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="5" t="s">
+        <v>42472</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>12</v>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>13</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>42472</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" s="6"/>
+        <f>B15+7</f>
+        <v>42479</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16+7</f>
+        <v>42486</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17+7</f>
+        <v>42493</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -2063,106 +2078,25 @@
     </row>
     <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
-        <f>B16+7</f>
-        <v>42479</v>
+        <f t="shared" si="0"/>
+        <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>14</v>
-      </c>
-      <c r="B21" s="3">
-        <f>B19+7</f>
-        <v>42486</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>15</v>
-      </c>
-      <c r="B23" s="3">
-        <f>B21+7</f>
-        <v>42493</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11494A59-8C98-4D66-ADC1-5D707AD06BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A1CAA0-636E-4B0F-AB37-C76F3C56CE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,14 +22,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -38,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
   <si>
     <t>Finals Week</t>
   </si>
@@ -742,15 +734,6 @@
     <t>Twitter project updates and next steps. Task identification</t>
   </si>
   <si>
-    <t>ISLR Ch 3
-[Class notes from 03-10](notes/wk8-notes-03-10-2020.html)
-[Class notes from 03-12](notes/wk8-notes-03-12-2020.html)</t>
-  </si>
-  <si>
-    <t>[Notes from 03-24](notes/wk9-notes-03-24-2020.html)
-[Class notes from 03-26](notes/wk9-notes-03-26-2020.html)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review the notes from 3/24 even though we didn’t meet that day. </t>
   </si>
   <si>
@@ -774,6 +757,17 @@
   </si>
   <si>
     <t>NLP - Predictive analytics</t>
+  </si>
+  <si>
+    <t>ISLR Ch 3  
+[Class notes from 03-10](notes/wk8-notes-03-10-2020.html)  
+[Class notes from 03-12](notes/wk8-notes-03-12-2020.html)</t>
+  </si>
+  <si>
+    <t>[Week 9 Notes](notes/wk9-notes.html)</t>
+  </si>
+  <si>
+    <t>[Week 10 Notes](notes/wk10-notes.html)</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1905,7 @@
         <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
@@ -1946,17 +1940,17 @@
         <v>42451</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>170</v>
@@ -1972,7 +1966,10 @@
         <v>42458</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>170</v>
@@ -1992,7 +1989,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>102</v>
@@ -2010,11 +2007,11 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2029,7 +2026,7 @@
         <v>42479</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3420,7 +3417,7 @@
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
+  <sortState ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A1CAA0-636E-4B0F-AB37-C76F3C56CE1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875301AF-D67F-4ACF-8318-1F7FD5547FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,14 +760,14 @@
   </si>
   <si>
     <t>ISLR Ch 3  
-[Class notes from 03-10](notes/wk8-notes-03-10-2020.html)  
-[Class notes from 03-12](notes/wk8-notes-03-12-2020.html)</t>
-  </si>
-  <si>
-    <t>[Week 9 Notes](notes/wk9-notes.html)</t>
-  </si>
-  <si>
-    <t>[Week 10 Notes](notes/wk10-notes.html)</t>
+[Class notes from 03-10](lec/wk8-notes-03-10-2020.html)  
+[Class notes from 03-12](lec/wk8-notes-03-12-2020.html)</t>
+  </si>
+  <si>
+    <t>[Week 9 Notes](lec/wk9-notes.html)</t>
+  </si>
+  <si>
+    <t>[Week 10 Notes](lec/wk10-notes.html)</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1632,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875301AF-D67F-4ACF-8318-1F7FD5547FD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF6409-3142-4131-A028-C457CBC2723D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
   <si>
     <t>Finals Week</t>
   </si>
@@ -756,18 +756,21 @@
     <t>ISLR Ch 5</t>
   </si>
   <si>
-    <t>NLP - Predictive analytics</t>
+    <t>[Week 10 Notes](lec/wk10-notes.html)</t>
+  </si>
+  <si>
+    <t>[Text analysis assignment](https://classroom.github.com/a/t2Wt4CIJ) (Draft due Tue 4/7, Final 4/9 )</t>
+  </si>
+  <si>
+    <t>NLP - Predictive analytics/Topic modeling</t>
+  </si>
+  <si>
+    <t>[Week 9 Notes](lec/wk09-notes.html)</t>
   </si>
   <si>
     <t>ISLR Ch 3  
-[Class notes from 03-10](lec/wk8-notes-03-10-2020.html)  
-[Class notes from 03-12](lec/wk8-notes-03-12-2020.html)</t>
-  </si>
-  <si>
-    <t>[Week 9 Notes](lec/wk9-notes.html)</t>
-  </si>
-  <si>
-    <t>[Week 10 Notes](lec/wk10-notes.html)</t>
+[Class notes from 03-10](lec/wk08-notes-03-10-2020.html)  
+[Class notes from 03-12](lec/wk08-notes-03-12-2020.html)</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1634,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1908,7 @@
         <v>171</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
@@ -1947,7 +1950,7 @@
         <v>177</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>178</v>
@@ -1969,7 +1972,10 @@
         <v>180</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>170</v>
@@ -2026,7 +2032,7 @@
         <v>42479</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DF6409-3142-4131-A028-C457CBC2723D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF3080-A6ED-4FEB-B82C-CE272A89EA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="18408" windowHeight="6252" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
   <si>
     <t>Finals Week</t>
   </si>
@@ -473,9 +473,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Ref DDS Ch 5</t>
-  </si>
-  <si>
     <t>Read WMD: Intro, Ch 1-2</t>
   </si>
   <si>
@@ -747,9 +744,6 @@
     <t>NLP- Sentiment analysis</t>
   </si>
   <si>
-    <t>ISLR Chapter 4 (Intro), 4.1, 4.4, 4.5</t>
-  </si>
-  <si>
     <t>Cross-Validation, Bootstrap</t>
   </si>
   <si>
@@ -771,6 +765,21 @@
     <t>ISLR Ch 3  
 [Class notes from 03-10](lec/wk08-notes-03-10-2020.html)  
 [Class notes from 03-12](lec/wk08-notes-03-12-2020.html)</t>
+  </si>
+  <si>
+    <t>Watch at least one recap video (links in Wk 11 notes)</t>
+  </si>
+  <si>
+    <t>Finals week</t>
+  </si>
+  <si>
+    <t>[Classification Assignment]( ) (Due 04/18)</t>
+  </si>
+  <si>
+    <t>[Week 11 Notes](lec/wk11-notes.html)
+[lec03-classifiers Hack MD notes]()
+ISLR Chapter 4
+Doing Data Science Ch 5</t>
   </si>
 </sst>
 </file>
@@ -1634,23 +1643,23 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.8984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.59765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1692,17 +1701,17 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1712,17 +1721,17 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1731,26 +1740,26 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -1759,26 +1768,26 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -1787,26 +1796,26 @@
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -1815,26 +1824,26 @@
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -1843,24 +1852,24 @@
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -1869,28 +1878,28 @@
         <v>42430</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39">
         <v>8</v>
       </c>
@@ -1902,23 +1911,23 @@
         <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28"/>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
@@ -1934,7 +1943,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28">
         <v>9</v>
       </c>
@@ -1943,24 +1952,24 @@
         <v>42451</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="H12" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="28">
         <v>10</v>
       </c>
@@ -1969,20 +1978,20 @@
         <v>42458</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>11</v>
       </c>
@@ -1995,16 +2004,18 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28">
         <v>12</v>
       </c>
@@ -2013,17 +2024,17 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -2032,15 +2043,15 @@
         <v>42479</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2052,14 +2063,14 @@
         <v>57</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2068,18 +2079,18 @@
         <v>42493</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2088,18 +2099,20 @@
         <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2110,24 +2123,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9095851B-4B9F-8945-8A91-05442CABAD87}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="D1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="25.09765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.59765625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.09765625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.09765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2156,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2215,7 +2228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2243,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2271,7 +2284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2301,7 +2314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2331,7 +2344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2361,7 +2374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2387,7 +2400,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2398,7 +2411,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2427,7 +2440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2453,7 +2466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2477,7 +2490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2503,7 +2516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2525,7 +2538,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2545,7 +2558,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2563,7 +2576,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2593,19 +2606,19 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="34"/>
+    <col min="1" max="1" width="8.8984375" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="19"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.8984375" style="19"/>
+    <col min="5" max="5" width="5.09765625" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="12"/>
+    <col min="8" max="8" width="8.8984375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2628,12 +2641,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2649,12 +2662,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2670,12 +2683,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2691,12 +2704,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2712,15 +2725,15 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2728,467 +2741,467 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
         <v>115</v>
       </c>
-      <c r="C10" t="s">
-        <v>116</v>
-      </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3198,7 +3211,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3208,106 +3221,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3316,14 +3329,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3331,7 +3344,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3339,7 +3352,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3347,7 +3360,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3355,7 +3368,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3363,7 +3376,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3371,7 +3384,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3379,7 +3392,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3387,37 +3400,37 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF3080-A6ED-4FEB-B82C-CE272A89EA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319FF2F-AD71-4F2D-A36D-727222133B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="18408" windowHeight="6252" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -777,7 +777,7 @@
   </si>
   <si>
     <t>[Week 11 Notes](lec/wk11-notes.html)
-[lec03-classifiers Hack MD notes]()
+[lec03-classifiers Hack MD notes](https://hackmd.io/@norcalbiostat/lec03_classifiers)
 ISLR Chapter 4
 Doing Data Science Ch 5</t>
   </si>
@@ -1644,22 +1644,22 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.59765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="41.8984375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="37.59765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="36"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
@@ -1731,7 +1731,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="39">
         <v>8</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="24">
         <f t="shared" si="1"/>
@@ -1943,7 +1943,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
     </row>
-    <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28">
         <v>9</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28">
         <v>10</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="53.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>11</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28">
         <v>12</v>
       </c>
@@ -2034,7 +2034,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2090,7 +2090,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2128,19 +2128,19 @@
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="25.09765625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="30.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="26.8984375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="39.59765625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41.09765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="35.09765625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="39.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="41.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="35.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="185.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="198.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="23"/>
@@ -2411,7 +2411,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
     </row>
-    <row r="11" spans="1:9" ht="145.80000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="304.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="79.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="132.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2558,7 +2558,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2606,19 +2606,19 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.8984375" style="34"/>
+    <col min="1" max="1" width="8.875" style="34"/>
     <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.8984375" style="19"/>
-    <col min="5" max="5" width="5.09765625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="19"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.8984375" style="12"/>
+    <col min="8" max="8" width="8.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>0</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>0</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>0</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>0</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>0.1</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1.1000000000000001</v>
       </c>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>1.2</v>
       </c>
@@ -2765,7 +2765,7 @@
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>1.3</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2802,7 +2802,7 @@
       <c r="D11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2815,7 +2815,7 @@
       <c r="D12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -2828,7 +2828,7 @@
       <c r="D13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3.1</v>
       </c>
@@ -2841,7 +2841,7 @@
       <c r="D14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>3.2</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="D15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>3.3</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="D16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>4</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="D17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>4</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="D18"/>
       <c r="H18" s="19"/>
     </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="D19"/>
       <c r="H19" s="19"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>9</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="D20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>9</v>
       </c>
@@ -2930,278 +2930,278 @@
       <c r="D21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="17"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="17"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
       <c r="E50" s="17"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="31"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="31"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
       <c r="E52" s="17"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="31"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="31"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="17"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="31"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="17"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="31"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="17"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="31"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="17"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="31"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="17"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="31"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="17"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="17"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="31"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="17"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
       <c r="E62" s="17"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="31"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="17"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="31"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3211,7 +3211,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="31"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -3221,106 +3221,106 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="31"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="31"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="31"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="17"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="31"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="17"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="31"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
       <c r="E70" s="17"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="31"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
       <c r="E71" s="17"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="31"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
       <c r="E72" s="17"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="31"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="17"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="31"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
       <c r="D75" s="21"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
       <c r="D76" s="21"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
       <c r="D78" s="21"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
       <c r="D79" s="21"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
       <c r="D80" s="21"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -3329,14 +3329,14 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
       <c r="D82" s="21"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -3344,7 +3344,7 @@
       <c r="G83"/>
       <c r="H83"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -3352,7 +3352,7 @@
       <c r="G84"/>
       <c r="H84"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -3360,7 +3360,7 @@
       <c r="G85"/>
       <c r="H85"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -3368,7 +3368,7 @@
       <c r="G86"/>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -3376,7 +3376,7 @@
       <c r="G87"/>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -3384,7 +3384,7 @@
       <c r="G88"/>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -3392,7 +3392,7 @@
       <c r="G89"/>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -3400,37 +3400,37 @@
       <c r="G90"/>
       <c r="H90"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="21"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="21"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
       <c r="D93" s="21"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
       <c r="D94" s="21"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
       <c r="D95" s="21"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="22"/>
       <c r="D96" s="22"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0319FF2F-AD71-4F2D-A36D-727222133B4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9D57E-DECA-44BA-969D-7ECA61CFEAFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="195">
   <si>
     <t>Finals Week</t>
   </si>
@@ -773,13 +773,25 @@
     <t>Finals week</t>
   </si>
   <si>
-    <t>[Classification Assignment]( ) (Due 04/18)</t>
-  </si>
-  <si>
-    <t>[Week 11 Notes](lec/wk11-notes.html)
-[lec03-classifiers Hack MD notes](https://hackmd.io/@norcalbiostat/lec03_classifiers)
-ISLR Chapter 4
+    <t>Presentation slides- through Methods (Due 4/12 )</t>
+  </si>
+  <si>
+    <t>Presentation slides- through Univariate Results (Due 4/19 , PR 4/22)</t>
+  </si>
+  <si>
+    <t>Presentation slides- through EDA/bivariate results (Due 4/26 )</t>
+  </si>
+  <si>
+    <t>Presentation slides-finish (Due 5/3 , PR 5/6 )</t>
+  </si>
+  <si>
+    <t>[Week 11 Notes](lec/wk11-notes.html)  
+[lec03-classifiers Hack MD notes](https://hackmd.io/@norcalbiostat/lec03_classifiers)  
+ISLR Chapter 4  
 Doing Data Science Ch 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Classification Assignment]( ) (Due 04/18)  </t>
   </si>
 </sst>
 </file>
@@ -1644,7 +1656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2007,10 +2019,10 @@
         <v>187</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>194</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2030,11 +2042,13 @@
       <c r="E15" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -2045,11 +2059,11 @@
       <c r="C16" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>151</v>
-      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -2066,7 +2080,9 @@
         <v>172</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
@@ -2086,9 +2102,13 @@
         <v>171</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C9D57E-DECA-44BA-969D-7ECA61CFEAFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E10D9-5E3B-4E8C-AA17-6FD7A5CB540F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
 Doing Data Science Ch 5</t>
   </si>
   <si>
-    <t xml:space="preserve">[Classification Assignment]( ) (Due 04/18)  </t>
+    <t xml:space="preserve">[Classification Assignment](https://classroom.github.com/a/8AQxyAIa ) (Due 04/18)  </t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16E10D9-5E3B-4E8C-AA17-6FD7A5CB540F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF765F2F-C18C-432D-B69C-31D1021D56CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
   <si>
     <t>Finals Week</t>
   </si>
@@ -715,17 +715,11 @@
 Read ISLR Ch 3.5</t>
   </si>
   <si>
-    <t>ISLR Ch 6.2, 6.4 (Tue)</t>
-  </si>
-  <si>
     <t>ISLR Ch 8</t>
   </si>
   <si>
     <t xml:space="preserve">Ethics of ML algorithms
 </t>
-  </si>
-  <si>
-    <t>Reguarization</t>
   </si>
   <si>
     <t>Twitter project updates and next steps. Task identification</t>
@@ -1100,7 +1094,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1215,6 +1209,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1656,7 +1653,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1929,14 +1926,14 @@
         <v>170</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>160</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1964,17 +1961,17 @@
         <v>42451</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H12" s="40" t="s">
         <v>169</v>
@@ -1990,13 +1987,13 @@
         <v>42458</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>169</v>
@@ -2016,13 +2013,13 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2036,19 +2033,19 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -2056,11 +2053,11 @@
         <f>B15+7</f>
         <v>42479</v>
       </c>
-      <c r="C16" t="s">
-        <v>184</v>
+      <c r="C16" s="41" t="s">
+        <v>182</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2077,11 +2074,11 @@
         <v>57</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -2094,16 +2091,12 @@
         <f>B17+7</f>
         <v>42493</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>174</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
@@ -2119,14 +2112,14 @@
         <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF765F2F-C18C-432D-B69C-31D1021D56CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948C544-7221-4A59-8ADF-747E31A374E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="194">
   <si>
     <t>Finals Week</t>
   </si>
@@ -786,6 +786,10 @@
   </si>
   <si>
     <t xml:space="preserve">[Classification Assignment](https://classroom.github.com/a/8AQxyAIa ) (Due 04/18)  </t>
+  </si>
+  <si>
+    <t>[Week 12 Notes](lec/wk12-notes.html)  
+Project instructions linked in navbar</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1657,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2042,9 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>179</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>187</v>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D948C544-7221-4A59-8ADF-747E31A374E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D9E5F-8CD9-4ABC-ABA2-E2C90C2683A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
   <si>
     <t>Finals Week</t>
   </si>
@@ -738,9 +738,6 @@
     <t>NLP- Sentiment analysis</t>
   </si>
   <si>
-    <t>Cross-Validation, Bootstrap</t>
-  </si>
-  <si>
     <t>ISLR Ch 5</t>
   </si>
   <si>
@@ -768,9 +765,6 @@
   </si>
   <si>
     <t>Presentation slides- through Methods (Due 4/12 )</t>
-  </si>
-  <si>
-    <t>Presentation slides- through Univariate Results (Due 4/19 , PR 4/22)</t>
   </si>
   <si>
     <t>Presentation slides- through EDA/bivariate results (Due 4/26 )</t>
@@ -790,6 +784,19 @@
   <si>
     <t>[Week 12 Notes](lec/wk12-notes.html)  
 Project instructions linked in navbar</t>
+  </si>
+  <si>
+    <t>Cross-Validation</t>
+  </si>
+  <si>
+    <t>Bootstrap, comparing multiple ML models</t>
+  </si>
+  <si>
+    <t>No class Tuesday</t>
+  </si>
+  <si>
+    <t>Presentation slides- through Univariate Results (Due 4/19 , PR 4/22)
+Resampling homework (Due 4/28 )</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1930,7 +1937,7 @@
         <v>170</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
@@ -1972,7 +1979,7 @@
         <v>174</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>175</v>
@@ -1994,10 +2001,10 @@
         <v>177</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="40" t="s">
         <v>169</v>
@@ -2017,13 +2024,13 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2037,22 +2044,22 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28">
         <v>13</v>
       </c>
@@ -2061,15 +2068,15 @@
         <v>42479</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2077,20 +2084,19 @@
         <f>B16+7</f>
         <v>42486</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>171</v>
+      <c r="C17" s="41" t="s">
+        <v>181</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>194</v>
+      </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2098,12 +2104,16 @@
         <f>B17+7</f>
         <v>42493</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
@@ -2126,7 +2136,7 @@
         <v>102</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D9E5F-8CD9-4ABC-ABA2-E2C90C2683A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049FE9C4-B36E-456C-AB42-69A8E5A53A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="18405" windowHeight="6255" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="197">
   <si>
     <t>Finals Week</t>
   </si>
@@ -473,9 +481,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Read WMD: Intro, Ch 1-2</t>
-  </si>
-  <si>
     <t>Community Coding</t>
   </si>
   <si>
@@ -715,13 +720,6 @@
 Read ISLR Ch 3.5</t>
   </si>
   <si>
-    <t>ISLR Ch 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethics of ML algorithms
-</t>
-  </si>
-  <si>
     <t>Twitter project updates and next steps. Task identification</t>
   </si>
   <si>
@@ -745,9 +743,6 @@
   </si>
   <si>
     <t>[Text analysis assignment](https://classroom.github.com/a/t2Wt4CIJ) (Draft due Tue 4/7, Final 4/9 )</t>
-  </si>
-  <si>
-    <t>NLP - Predictive analytics/Topic modeling</t>
   </si>
   <si>
     <t>[Week 9 Notes](lec/wk09-notes.html)</t>
@@ -761,16 +756,7 @@
     <t>Watch at least one recap video (links in Wk 11 notes)</t>
   </si>
   <si>
-    <t>Finals week</t>
-  </si>
-  <si>
     <t>Presentation slides- through Methods (Due 4/12 )</t>
-  </si>
-  <si>
-    <t>Presentation slides- through EDA/bivariate results (Due 4/26 )</t>
-  </si>
-  <si>
-    <t>Presentation slides-finish (Due 5/3 , PR 5/6 )</t>
   </si>
   <si>
     <t>[Week 11 Notes](lec/wk11-notes.html)  
@@ -797,6 +783,38 @@
   <si>
     <t>Presentation slides- through Univariate Results (Due 4/19 , PR 4/22)
 Resampling homework (Due 4/28 )</t>
+  </si>
+  <si>
+    <t>[Weapons of Math Destruction Discussion Questions](read/WMD_Discussion_Questions.html)
+[Notes on Tree based models](lec09-tree-models.html)</t>
+  </si>
+  <si>
+    <t>[Week 14 Notes](lec/wk14-notes.html)</t>
+  </si>
+  <si>
+    <t>Tree based methods
+Ethics</t>
+  </si>
+  <si>
+    <t>ISLR CH 8
+Weapons of Math Destruction</t>
+  </si>
+  <si>
+    <t>Final Presentations</t>
+  </si>
+  <si>
+    <t>Presentation slides-finish (Due 5/3 , PR 5/6 )
+Learning journal assignment (Due 5/7 )
+WMD Ch 2-3 reflection question (Due 5/8 )</t>
+  </si>
+  <si>
+    <t>Presentation slides- through EDA/bivariate results (Due 4/26 )
+WMD Intro-Ch1 reflection questions (Due 5/1 )</t>
+  </si>
+  <si>
+    <t>Final Presentation 6-8pm Wednesday
+WMD Ch 4-5 OR 6-7 reflection question (Due 5/15 )
+[CART assignment]() (Due 5/15 )</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1123,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1211,9 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1664,7 +1679,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1721,13 +1736,13 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="9"/>
     </row>
@@ -1741,14 +1756,14 @@
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1760,23 +1775,23 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1788,23 +1803,23 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1816,23 +1831,23 @@
         <v>42409</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1844,23 +1859,23 @@
         <v>42416</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="I7" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1872,21 +1887,21 @@
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1898,29 +1913,29 @@
         <v>42430</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10" s="38">
         <v>8</v>
       </c>
       <c r="B10" s="3">
@@ -1931,20 +1946,20 @@
         <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1972,20 +1987,20 @@
         <v>42451</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="I12" s="4"/>
     </row>
@@ -1998,16 +2013,16 @@
         <v>42458</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="40" t="s">
-        <v>169</v>
+      <c r="H13" s="39" t="s">
+        <v>168</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -2024,13 +2039,13 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -2044,17 +2059,17 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -2067,11 +2082,11 @@
         <f>B15+7</f>
         <v>42479</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>193</v>
+      <c r="C16" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2084,19 +2099,24 @@
         <f>B16+7</f>
         <v>42486</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="6"/>
+      <c r="C17" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="G17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="40" t="s">
-        <v>194</v>
-      </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -2104,20 +2124,19 @@
         <f>B17+7</f>
         <v>42493</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>57</v>
+      <c r="C18" s="40" t="s">
+        <v>191</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="G18" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,16 +2148,14 @@
         <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
@@ -2154,8 +2171,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2676,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -2697,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2718,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -2739,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -2760,10 +2777,10 @@
         <v>0.1</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6"/>
       <c r="G6" s="16">
@@ -2776,10 +2793,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7"/>
     </row>
@@ -2788,10 +2805,10 @@
         <v>1.2</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8"/>
     </row>
@@ -2800,10 +2817,10 @@
         <v>1.3</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9"/>
     </row>
@@ -2812,10 +2829,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
         <v>114</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
       </c>
       <c r="D10"/>
     </row>
@@ -2824,10 +2841,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11"/>
       <c r="G11"/>
@@ -2837,10 +2854,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12"/>
       <c r="G12"/>
@@ -2850,10 +2867,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13"/>
       <c r="G13"/>
@@ -2863,10 +2880,10 @@
         <v>3.1</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14"/>
       <c r="G14"/>
@@ -2876,10 +2893,10 @@
         <v>3.2</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15"/>
       <c r="G15"/>
@@ -2889,10 +2906,10 @@
         <v>3.3</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D16"/>
       <c r="G16"/>
@@ -2902,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17"/>
       <c r="G17"/>
@@ -2915,10 +2932,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18"/>
       <c r="H18" s="19"/>
@@ -2928,10 +2945,10 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19"/>
       <c r="H19" s="19"/>
@@ -2941,7 +2958,7 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2952,10 +2969,10 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21"/>
       <c r="G21"/>
@@ -3466,7 +3483,7 @@
       <c r="D96" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C96">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
     <sortCondition ref="A2:A96"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049FE9C4-B36E-456C-AB42-69A8E5A53A3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FCC5F-DEBF-4847-B3EF-78D2565D12C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4665" yWindow="720" windowWidth="24135" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -803,18 +803,18 @@
     <t>Final Presentations</t>
   </si>
   <si>
-    <t>Presentation slides-finish (Due 5/3 , PR 5/6 )
-Learning journal assignment (Due 5/7 )
-WMD Ch 2-3 reflection question (Due 5/8 )</t>
-  </si>
-  <si>
-    <t>Presentation slides- through EDA/bivariate results (Due 4/26 )
-WMD Intro-Ch1 reflection questions (Due 5/1 )</t>
-  </si>
-  <si>
     <t>Final Presentation 6-8pm Wednesday
 WMD Ch 4-5 OR 6-7 reflection question (Due 5/15 )
 [CART assignment]() (Due 5/15 )</t>
+  </si>
+  <si>
+    <t>Presentation slides- through EDA/bivariate results (Due 4/26 )
+WMD Intro-Ch1 reflection questions (Due 5/4 )</t>
+  </si>
+  <si>
+    <t>Presentation slides-finish (Due 5/3 , PR 5/6 )
+Learning journal assignment (Due 5/7 )
+WMD Ch 2-3 reflection question (Due 5/6 )</t>
   </si>
 </sst>
 </file>
@@ -1678,8 +1678,8 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2132,7 @@
         <v>189</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
@@ -2154,7 +2154,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2171,7 +2171,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FCC5F-DEBF-4847-B3EF-78D2565D12C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7399464-1579-4796-8AAC-391D67558AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="720" windowWidth="24135" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="720" windowWidth="24135" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -803,11 +803,6 @@
     <t>Final Presentations</t>
   </si>
   <si>
-    <t>Final Presentation 6-8pm Wednesday
-WMD Ch 4-5 OR 6-7 reflection question (Due 5/15 )
-[CART assignment]() (Due 5/15 )</t>
-  </si>
-  <si>
     <t>Presentation slides- through EDA/bivariate results (Due 4/26 )
 WMD Intro-Ch1 reflection questions (Due 5/4 )</t>
   </si>
@@ -815,6 +810,11 @@
     <t>Presentation slides-finish (Due 5/3 , PR 5/6 )
 Learning journal assignment (Due 5/7 )
 WMD Ch 2-3 reflection question (Due 5/6 )</t>
+  </si>
+  <si>
+    <t>Final Presentation 6-8pm Wednesday
+WMD Ch 4-5 OR 6-7 reflection question (Due 5/15 )
+CART assignment [[HTML]](hw09-CART-assignment.html)[[RMD]](hw09-CART-assignment.Rmd) (Due 5/15 )</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1679,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2109,7 +2109,7 @@
         <v>190</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>187</v>
@@ -2132,14 +2132,14 @@
         <v>189</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7399464-1579-4796-8AAC-391D67558AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DD67A-08AA-4C55-A3AB-B3E679BFE04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="720" windowWidth="24135" windowHeight="15030" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
-    <sheet name="schedule_s18" sheetId="4" r:id="rId2"/>
-    <sheet name="assignments" sheetId="3" r:id="rId3"/>
+    <sheet name="schedule_20" sheetId="5" r:id="rId2"/>
+    <sheet name="schedule_s18" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="167">
   <si>
     <t>Finals Week</t>
   </si>
@@ -128,18 +128,6 @@
   </si>
   <si>
     <t>Introduction to Statistical Learning</t>
-  </si>
-  <si>
-    <t>Assignment</t>
-  </si>
-  <si>
-    <t>Discussion</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>* ISLR MOOC [Video lectures](http://www.dataschool.io/15-hours-of-expert-machine-learning-videos/)
@@ -226,15 +214,6 @@
   <si>
     <t xml:space="preserve">* Create and evaluate a prediction model using linear regression. 
 * Identify cases where a non-parametric approach would be more appropriate than a parametric approach. </t>
-  </si>
-  <si>
-    <t>Catgory</t>
-  </si>
-  <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Learning</t>
   </si>
   <si>
     <t xml:space="preserve">* You're going to use Hugo/Blogdown to create a professional looking website. 
@@ -481,27 +460,6 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Community Coding</t>
-  </si>
-  <si>
-    <t>DataFest</t>
-  </si>
-  <si>
-    <t>Reflect on DDS case study (n=5)</t>
-  </si>
-  <si>
-    <t>Share DDS Case study (n=1)</t>
-  </si>
-  <si>
-    <t>WMD Reflections</t>
-  </si>
-  <si>
-    <t>Blog posts (5) on external topics of interest</t>
-  </si>
-  <si>
-    <t>Comments on Blog posts</t>
-  </si>
-  <si>
     <t>Intro to Statistical Learning</t>
   </si>
   <si>
@@ -513,12 +471,6 @@
   </si>
   <si>
     <t>What is Data Science?  What's your DS path?</t>
-  </si>
-  <si>
-    <t>What is DS - hack notes</t>
-  </si>
-  <si>
-    <t>participation</t>
   </si>
   <si>
     <t xml:space="preserve">Lec00
@@ -532,18 +484,6 @@
     <t xml:space="preserve">Read DDS Ch1, 16.   </t>
   </si>
   <si>
-    <t>Slack Intro</t>
-  </si>
-  <si>
-    <t>HW2: Share content</t>
-  </si>
-  <si>
-    <t>HW2: reflect on others share</t>
-  </si>
-  <si>
-    <t>Grade POLS Learn R HW (4 x 2 students ea. )</t>
-  </si>
-  <si>
     <t>Blogdown
 Interactive lecture 02 (Hack MD)</t>
   </si>
@@ -579,39 +519,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hackathon / open work time. </t>
-  </si>
-  <si>
-    <t>HW1: R Markdown website demo</t>
-  </si>
-  <si>
-    <t>HW1: Blogdown website demo</t>
-  </si>
-  <si>
-    <t>HW1: Personal website</t>
-  </si>
-  <si>
-    <t>HW3: Twitter tutorial for others</t>
-  </si>
-  <si>
-    <t>HW3: Historical twitter data demo</t>
-  </si>
-  <si>
-    <t>HW3: Sentiment analysis</t>
-  </si>
-  <si>
-    <t>What is DS mind map share out</t>
-  </si>
-  <si>
-    <t>Add info to class-logsitics repo via PR</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>communication</t>
-  </si>
-  <si>
-    <t>skills</t>
   </si>
   <si>
     <t>Statistical Inference, Exploratory Data Analysis, and the Data Science Process</t>
@@ -816,14 +723,24 @@
 WMD Ch 4-5 OR 6-7 reflection question (Due 5/15 )
 CART assignment [[HTML]](hw09-CART-assignment.html)[[RMD]](hw09-CART-assignment.Rmd) (Due 5/15 )</t>
   </si>
+  <si>
+    <t>Showcase your work</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -872,33 +789,18 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -945,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -997,26 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -1028,219 +910,176 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="89" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="89" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="90" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="92" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="91" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="92">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1284,7 +1123,6 @@
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 2" xfId="91" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1329,11 +1167,11 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="91" xr:uid="{E2739FDE-9824-4AB0-B8BE-F333927EB0B9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Percent" xfId="90" builtinId="5"/>
+    <cellStyle name="Normal 3" xfId="90" xr:uid="{F389B7EE-FBAE-444B-8207-B15B66A5DAE1}"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Total" xfId="92" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1675,11 +1513,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1699,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>6</v>
@@ -1711,63 +1549,406 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>43124</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <f>B2+7</f>
+        <v>43131</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <f>B4+7</f>
+        <v>43138</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <f t="shared" ref="B6:B19" si="0">B5+7</f>
+        <v>43145</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <f t="shared" ref="B7:B12" si="1">B6+7</f>
+        <v>43152</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <f t="shared" si="1"/>
+        <v>43159</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <f t="shared" si="1"/>
+        <v>43166</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <f t="shared" si="1"/>
+        <v>43173</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="13">
+        <f t="shared" si="1"/>
+        <v>43180</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18">
+        <f t="shared" si="1"/>
+        <v>43187</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B12+7</f>
+        <v>43194</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <f t="shared" si="0"/>
+        <v>43201</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <f t="shared" si="0"/>
+        <v>43208</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <f>B15+7</f>
+        <v>43215</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B16+7</f>
+        <v>43222</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17+7</f>
+        <v>43229</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>43236</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A93E5A-BA74-42D3-BD28-1405D627EC9E}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="37.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="31.625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>42388</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="3"/>
       <c r="C3" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="3">
@@ -1775,27 +1956,27 @@
         <v>42395</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>147</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="20">
         <v>3</v>
       </c>
       <c r="B5" s="3">
@@ -1803,209 +1984,209 @@
         <v>42402</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ref="B6:B19" si="0">B5+7</f>
         <v>42409</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>143</v>
+      <c r="C6" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="9" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="20">
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <f t="shared" ref="B7:B12" si="1">B6+7</f>
+        <f t="shared" si="0"/>
         <v>42416</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>142</v>
+      <c r="C7" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="9" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42423</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="4" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="20">
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42430</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>166</v>
+        <v>129</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42437</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="24">
-        <f t="shared" si="1"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="13">
+        <f t="shared" si="0"/>
         <v>42444</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="C11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28">
+      <c r="A12" s="17">
         <v>9</v>
       </c>
-      <c r="B12" s="29">
-        <f t="shared" si="1"/>
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
         <v>42451</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>168</v>
+        <v>141</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28">
+      <c r="A13" s="17">
         <v>10</v>
       </c>
       <c r="B13" s="3">
@@ -2013,21 +2194,21 @@
         <v>42458</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>168</v>
+        <v>146</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>137</v>
       </c>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28">
+      <c r="A14" s="17">
         <v>11</v>
       </c>
       <c r="B14" s="3">
@@ -2035,23 +2216,23 @@
         <v>42465</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>183</v>
+        <v>151</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="A15" s="17">
         <v>12</v>
       </c>
       <c r="B15" s="3">
@@ -2059,34 +2240,34 @@
         <v>42472</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>184</v>
+        <v>144</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>153</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
+      <c r="A16" s="17">
         <v>13</v>
       </c>
       <c r="B16" s="3">
         <f>B15+7</f>
         <v>42479</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>186</v>
+      <c r="C16" s="24" t="s">
+        <v>155</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -2099,20 +2280,20 @@
         <f>B16+7</f>
         <v>42486</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>192</v>
+      <c r="C17" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>161</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>187</v>
+        <v>163</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -2124,19 +2305,19 @@
         <f>B17+7</f>
         <v>42493</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>191</v>
+      <c r="C18" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D18" s="4"/>
       <c r="F18" s="6" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2148,13 +2329,13 @@
         <v>42500</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2166,13 +2347,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9095851B-4B9F-8945-8A91-05442CABAD87}">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2385,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -2217,7 +2398,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="306.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="3">
@@ -2233,20 +2414,20 @@
         <v>18</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="179.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="3">
@@ -2254,7 +2435,7 @@
         <v>42397</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>8</v>
@@ -2263,20 +2444,20 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="198.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="3">
@@ -2290,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>16</v>
@@ -2300,11 +2481,11 @@
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="166.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -2312,27 +2493,27 @@
         <v>42411</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="268.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="3">
@@ -2343,26 +2524,26 @@
         <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="3">
@@ -2370,29 +2551,29 @@
         <v>42425</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="192" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="3">
@@ -2400,29 +2581,29 @@
         <v>42432</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="3">
@@ -2430,33 +2611,33 @@
         <v>42439</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" ht="141" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -2466,25 +2647,25 @@
         <v>41724</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="294" thickBot="1" x14ac:dyDescent="0.3">
@@ -2496,21 +2677,21 @@
         <v>41731</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2522,19 +2703,19 @@
         <v>41738</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="7"/>
       <c r="H13" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2546,21 +2727,21 @@
         <v>41745</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="128.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2572,16 +2753,16 @@
         <v>41752</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
       <c r="H15" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -2594,11 +2775,11 @@
         <v>41759</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="7"/>
@@ -2614,7 +2795,7 @@
         <v>41766</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -2643,850 +2824,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H96"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.875" style="34"/>
-    <col min="2" max="2" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="19"/>
-    <col min="5" max="5" width="5.125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="10" style="12" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="12">
-        <f>SUMIF($C$2:$C$87,F2,$D$2:$D$87)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="15" t="e">
-        <f>G2/$G$6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="12">
-        <f>SUMIF($C$2:$C$87,F3,$D$2:$D$87)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="15" t="e">
-        <f>G3/$G$6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="12">
-        <f>SUMIF($C$2:$C$87,F4,$D$2:$D$87)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="15" t="e">
-        <f>G4/$G$6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12">
-        <f>SUMIF($C$2:$C$87,F5,$D$2:$D$87)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="15" t="e">
-        <f>G5/$G$6</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
-        <v>0.1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6"/>
-      <c r="G6" s="16">
-        <f>SUM(G2:G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>3.1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>3.2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>3.3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18"/>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="17"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="20"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="17"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="17"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="17"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="17"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="17"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="17"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="32"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="32"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="32"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="32"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="32"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="18"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="18"/>
-      <c r="G81"/>
-      <c r="H81"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="32"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="18"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="32"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="G83"/>
-      <c r="H83"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="32"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="G84"/>
-      <c r="H84"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="32"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="G85"/>
-      <c r="H85"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="32"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="G86"/>
-      <c r="H86"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="32"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="G87"/>
-      <c r="H87"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="32"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="G88"/>
-      <c r="H88"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="G89"/>
-      <c r="H89"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="32"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="G90"/>
-      <c r="H90"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="32"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="32"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="32"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="32"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="32"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="22"/>
-      <c r="D96" s="22"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C96">
-    <sortCondition ref="A2:A96"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83063510-53B7-4962-BC27-1428675444B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EE63B-9FC4-4027-AA82-525CFF3012F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31830" yWindow="120" windowWidth="21855" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -210,10 +210,6 @@
   </si>
   <si>
     <t>Getting started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Welcome Aboard!](wk/wk1-notes.html)  
-</t>
   </si>
   <si>
     <t>course_obj</t>
@@ -484,6 +480,10 @@
   </si>
   <si>
     <t xml:space="preserve">48hour data analysis competition. Make new friends, compete for prizes and bragging rights. Eat lots of free food. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Welcome Aboard!](wk1-notes.html)  
+</t>
   </si>
 </sst>
 </file>
@@ -1301,8 +1301,8 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>49</v>
@@ -1358,20 +1358,20 @@
         <v>54</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" s="34" t="s">
         <v>51</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1383,18 +1383,18 @@
         <v>53</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1405,25 +1405,25 @@
         <v>43131</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1434,20 +1434,20 @@
         <v>43138</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" s="44"/>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -1476,19 +1476,19 @@
         <v>43145</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
@@ -1514,13 +1514,13 @@
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -1535,13 +1535,13 @@
       <c r="A10" s="32"/>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="44"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
@@ -1657,14 +1657,14 @@
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="44"/>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1714,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="5">
         <v>43125</v>
@@ -1843,11 +1843,11 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G5" s="5">
         <v>43125</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="24" t="s">
@@ -2002,13 +2002,13 @@
         <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="21">
         <v>2</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6">
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6">
@@ -2072,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6">
@@ -2097,16 +2097,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7"/>
       <c r="I13" s="11"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="7"/>
       <c r="I15" s="11"/>
@@ -2185,13 +2185,13 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7"/>
       <c r="I16" s="11"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7"/>
       <c r="I17" s="11"/>
@@ -2242,13 +2242,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7"/>
       <c r="I18" s="11"/>
@@ -2270,10 +2270,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="21">
         <v>5</v>
@@ -2295,10 +2295,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" s="21">
         <v>5</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" s="21">
         <v>5</v>
@@ -2367,14 +2367,14 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7"/>
       <c r="I23" s="11"/>
@@ -2391,11 +2391,11 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="7"/>
       <c r="I24" s="11"/>
@@ -2414,14 +2414,14 @@
         <v>7</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7"/>
       <c r="I25" s="11"/>
@@ -2478,13 +2478,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
@@ -2501,7 +2501,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>27</v>
@@ -2526,11 +2526,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
@@ -2547,7 +2547,7 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" s="19"/>
       <c r="D31" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="13" t="s">
@@ -2573,11 +2573,11 @@
         <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -2594,7 +2594,7 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
       <c r="D33" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13" t="s">
@@ -2620,11 +2620,11 @@
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -2641,7 +2641,7 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
       <c r="D35" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
@@ -2667,11 +2667,11 @@
         <v>16</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -2688,7 +2688,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C37" s="14"/>
       <c r="D37" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
@@ -2714,11 +2714,11 @@
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -2735,7 +2735,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="D39" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
@@ -2761,11 +2761,11 @@
         <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -2782,7 +2782,7 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
       <c r="D41" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
@@ -2882,10 +2882,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C46" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="8"/>
@@ -2904,7 +2904,7 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="21"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4EE63B-9FC4-4027-AA82-525CFF3012F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104C9D2-830B-4F7D-9F99-57AF4D249AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31830" yWindow="120" windowWidth="21855" windowHeight="14145" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -343,16 +343,10 @@
     <t>Statistical Inference, Exploratory Data Analysis, and the Data Science Process</t>
   </si>
   <si>
-    <t>Join HackMD - sign up via github so I can use that username to add you to our team</t>
-  </si>
-  <si>
     <t>Accept assignment for grades, clone that repo to your local computer and check out the data and report script</t>
   </si>
   <si>
     <t>Ensure that your Rstudio can push and pull to github</t>
-  </si>
-  <si>
-    <t>https://hackmd.io/team/ads-s22</t>
   </si>
   <si>
     <t>Update R Studio &amp; all relevant packages. Or consider doing a fresh install of R. It's nice to clean house on occasion, just not if you're in the middle of a different project.</t>
@@ -484,6 +478,12 @@
   <si>
     <t xml:space="preserve">[Welcome Aboard!](wk1-notes.html)  
 </t>
+  </si>
+  <si>
+    <t>Join HackMD - sign up via github and put your name here as a test</t>
+  </si>
+  <si>
+    <t>https://hackmd.io/@norcalbiostat/ads-s22-test/edit</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -1358,11 +1358,11 @@
         <v>54</v>
       </c>
       <c r="D2" s="34" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E2" s="34"/>
       <c r="F2" s="34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>84</v>
@@ -1383,7 +1383,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38" t="s">
@@ -1408,22 +1408,22 @@
         <v>92</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1437,17 +1437,17 @@
         <v>97</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44" t="s">
         <v>94</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I5" s="44"/>
     </row>
@@ -1465,7 +1465,7 @@
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
       <c r="I6" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
@@ -1476,19 +1476,19 @@
         <v>43145</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E7" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
@@ -1502,7 +1502,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
@@ -1514,13 +1514,13 @@
       <c r="A9" s="32"/>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>52</v>
       </c>
       <c r="E9" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
@@ -1538,10 +1538,10 @@
         <v>75</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="44" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F11" s="48"/>
       <c r="G11" s="44"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
@@ -1587,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
@@ -1618,7 +1618,7 @@
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
@@ -1683,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
   <dimension ref="A1:R1052"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1843,14 +1843,17 @@
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="4" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="24" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="G5" s="5">
         <v>43125</v>
+      </c>
+      <c r="H5" s="6">
+        <v>5</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -1872,7 +1875,7 @@
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="4" t="s">
@@ -1882,7 +1885,7 @@
         <v>43125</v>
       </c>
       <c r="H6" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1904,7 +1907,7 @@
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="4" t="s">
@@ -1936,7 +1939,7 @@
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="24" t="s">
@@ -2002,7 +2005,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="21">
         <v>2</v>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
@@ -2214,13 +2217,13 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7"/>
       <c r="I17" s="11"/>
@@ -2242,7 +2245,7 @@
         <v>6</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
@@ -2367,10 +2370,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
@@ -2391,11 +2394,11 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G24" s="7"/>
       <c r="I24" s="11"/>
@@ -2885,7 +2888,7 @@
         <v>68</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="8"/>
@@ -2904,7 +2907,7 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
@@ -19994,11 +19997,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F42" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{C5854867-E30C-4767-B57B-61C5A36F79F1}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0104C9D2-830B-4F7D-9F99-57AF4D249AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD142E9-ED47-494D-80CC-17ED1EF59206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29370" yWindow="120" windowWidth="22785" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
   <si>
     <t>SLO</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Email?</t>
   </si>
   <si>
-    <t>Week 1 course notes</t>
-  </si>
-  <si>
     <t>ISLR Ch2 - Collaborative notes</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t xml:space="preserve">R Markdown website demo. </t>
   </si>
   <si>
-    <t>* What is DS collab notes</t>
-  </si>
-  <si>
     <t>* Jigsaw lecture on DDS Ch 2
 * Open work on case study</t>
   </si>
@@ -460,13 +454,6 @@
     <t xml:space="preserve">Identify cases where a non-parametric approach would be more appropriate than a parametric approach.   </t>
   </si>
   <si>
-    <t>[DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
-  </si>
-  <si>
-    <t>Read Doing Data Science (DDS) Ch 1,16  
-Have ALL last weeks tasks completed</t>
-  </si>
-  <si>
     <t>Read Doing Data Science Ch 2</t>
   </si>
   <si>
@@ -484,6 +471,26 @@
   </si>
   <si>
     <t>https://hackmd.io/@norcalbiostat/ads-s22-test/edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Doing Data Science (DDS) Ch 1,16  
+Have last weeks tasks completed except Hugo/Blogdown. Get a start on Distill. </t>
+  </si>
+  <si>
+    <t>* [What is DS collab notes](https://hackmd.io/@norcalbiostat/whatisds)</t>
+  </si>
+  <si>
+    <t>https://hackmd.io/@norcalbiostat/whatisds</t>
+  </si>
+  <si>
+    <t>https://data485.netlify.app/notes/cn01_rbased_websites</t>
+  </si>
+  <si>
+    <t>Your Learning Journal   &amp;  [Our DS Class Profile](https://docs.google.com/spreadsheets/d/1EUyLcRPlD5jw_IqRFMAeFSpX0mRFxNL1-VF7P152DMI)</t>
+  </si>
+  <si>
+    <t>[Week2 notes](wk2-notes.html)   
+[DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
   </si>
 </sst>
 </file>
@@ -580,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +603,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -790,9 +803,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -861,6 +871,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="92" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1300,377 +1346,377 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="51.75" style="28" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="28" customWidth="1"/>
-    <col min="6" max="7" width="22.375" style="28" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="28" customWidth="1"/>
-    <col min="9" max="9" width="24.875" style="28" customWidth="1"/>
-    <col min="10" max="16384" width="14.875" style="26"/>
+    <col min="1" max="1" width="5.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="20.125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="51.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="27" customWidth="1"/>
+    <col min="6" max="7" width="22.375" style="27" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="24.875" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="14.875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>43124</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="35">
+        <v>43126</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39">
+        <v>43131</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32">
+        <v>43138</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36">
-        <v>43126</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="38" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35">
+        <v>43140</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>4</v>
+      </c>
+      <c r="B7" s="32">
+        <v>43145</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35">
+        <v>43147</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
-        <v>2</v>
-      </c>
-      <c r="B4" s="40">
-        <v>43131</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="42" t="s">
+      <c r="E10" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46">
+        <v>43190</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33">
-        <v>43138</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44" t="s">
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36">
-        <v>43140</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>4</v>
-      </c>
-      <c r="B7" s="33">
-        <v>43145</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G7" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36">
-        <v>43147</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47">
-        <v>43190</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1683,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
   <dimension ref="A1:R1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,7 +1751,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1737,27 +1783,27 @@
       <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="50">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="55">
         <v>43125</v>
       </c>
-      <c r="H2" s="6">
-        <v>5</v>
+      <c r="H2" s="49">
+        <v>10</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
@@ -1771,24 +1817,24 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="50">
         <v>2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="55">
         <v>43125</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="49">
         <v>5</v>
       </c>
       <c r="I3" s="11"/>
@@ -1803,24 +1849,24 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="50">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="55">
         <v>43125</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="49">
         <v>5</v>
       </c>
       <c r="I4" s="11"/>
@@ -1835,24 +1881,24 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="50">
         <v>4</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="55">
         <v>43125</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="49">
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
@@ -1867,25 +1913,25 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="49">
         <v>1</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="50">
         <v>5</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="55">
         <v>43125</v>
       </c>
-      <c r="H6" s="6">
-        <v>5</v>
+      <c r="H6" s="49">
+        <v>10</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1899,25 +1945,25 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="50">
         <v>6</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="55">
         <v>43125</v>
       </c>
-      <c r="H7" s="6">
-        <v>5</v>
+      <c r="H7" s="49">
+        <v>10</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1931,25 +1977,25 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="50">
         <v>7</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="24" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="53"/>
+      <c r="F8" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="55">
         <v>43127</v>
       </c>
-      <c r="H8" s="6">
-        <v>5</v>
+      <c r="H8" s="49">
+        <v>10</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -1963,25 +2009,25 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="50">
         <v>8</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="55">
         <v>43125</v>
       </c>
-      <c r="H9" s="6">
-        <v>5</v>
+      <c r="H9" s="49">
+        <v>15</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -1995,27 +2041,29 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="49">
         <v>1</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="50">
         <v>9</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="D10" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="53">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6">
-        <v>15</v>
+      <c r="G10" s="55">
+        <v>43132</v>
+      </c>
+      <c r="H10" s="49">
+        <v>30</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2028,14 +2076,16 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="B11" s="10">
-        <v>10</v>
-      </c>
-      <c r="C11" s="16"/>
+      <c r="C11" s="59" t="s">
+        <v>53</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
       </c>
@@ -2045,9 +2095,8 @@
       <c r="F11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6">
-        <v>20</v>
+      <c r="G11" s="5">
+        <v>43137</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2060,12 +2109,12 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" s="10">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="4" t="s">
@@ -2074,12 +2123,11 @@
       <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6">
-        <v>25</v>
+      <c r="F12" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="5">
+        <v>43137</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2097,21 +2145,23 @@
         <v>2</v>
       </c>
       <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>92</v>
+        <v>3</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43133</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -2123,22 +2173,26 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
       <c r="B14" s="10">
-        <v>2</v>
-      </c>
-      <c r="C14" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43137</v>
+      </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -2155,19 +2209,21 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43134</v>
+      </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -2184,19 +2240,21 @@
         <v>2</v>
       </c>
       <c r="B16" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G16" s="5">
+        <v>43137</v>
+      </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -2213,19 +2271,21 @@
         <v>2</v>
       </c>
       <c r="B17" s="10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="G17" s="5">
+        <v>43141</v>
+      </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -2242,18 +2302,20 @@
         <v>2</v>
       </c>
       <c r="B18" s="10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43144</v>
+      </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -2266,25 +2328,24 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>2</v>
-      </c>
-      <c r="B19" s="10">
-        <v>7</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="49">
+        <v>3</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="21">
+      <c r="E19" s="53">
         <v>5</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="49"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -2297,17 +2358,20 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="A20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="53">
         <v>5</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="49"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -2320,17 +2384,20 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="53">
         <v>5</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="49"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -2344,7 +2411,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>8</v>
@@ -2370,14 +2437,14 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7"/>
       <c r="I23" s="11"/>
@@ -2394,11 +2461,11 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7"/>
       <c r="I24" s="11"/>
@@ -2417,14 +2484,14 @@
         <v>7</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7"/>
       <c r="I25" s="11"/>
@@ -2481,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
@@ -2504,7 +2571,7 @@
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>27</v>
@@ -2529,11 +2596,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
@@ -2550,7 +2617,7 @@
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C31" s="19"/>
       <c r="D31" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="13" t="s">
@@ -2576,11 +2643,11 @@
         <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -2597,7 +2664,7 @@
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C33" s="14"/>
       <c r="D33" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13" t="s">
@@ -2623,11 +2690,11 @@
         <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -2644,7 +2711,7 @@
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C35" s="14"/>
       <c r="D35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
@@ -2670,11 +2737,11 @@
         <v>16</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -2691,7 +2758,7 @@
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C37" s="14"/>
       <c r="D37" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
@@ -2717,11 +2784,11 @@
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -2738,7 +2805,7 @@
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C39" s="14"/>
       <c r="D39" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
@@ -2764,11 +2831,11 @@
         <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -2785,7 +2852,7 @@
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C41" s="14"/>
       <c r="D41" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
@@ -2885,10 +2952,10 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C46" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="8"/>
@@ -2907,7 +2974,7 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="4"/>
@@ -2925,7 +2992,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="21"/>
@@ -19999,8 +20066,10 @@
     <hyperlink ref="F42" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
+    <hyperlink ref="F13" r:id="rId4" xr:uid="{68529945-179E-492F-9705-11A2E600AF19}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{F0DDE4DF-6A46-43DD-B1D1-7739DEC05D7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD142E9-ED47-494D-80CC-17ED1EF59206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB001C-8C4E-4EE8-8865-B6489C24A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29370" yWindow="120" windowWidth="22785" windowHeight="15060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
   <si>
     <t>SLO</t>
   </si>
@@ -132,10 +132,6 @@
   </si>
   <si>
     <t>Nonlinear models</t>
-  </si>
-  <si>
-    <t>github classroom: ads-case-study-eda
-https://hackmd.io/@norcalbiostat/real-estate-case-study</t>
   </si>
   <si>
     <t>[R based websites](notes/cn01_Rbased_websites.html)</t>
@@ -254,16 +250,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Real estate case study</t>
-  </si>
-  <si>
     <t xml:space="preserve">Forming a mathematical model to a business question. </t>
-  </si>
-  <si>
-    <t>Stakeholder report (draft)</t>
-  </si>
-  <si>
-    <t>Stakeholder report (final as blog post)</t>
   </si>
   <si>
     <t>What is Statistical Learning?</t>
@@ -361,10 +348,6 @@
   </si>
   <si>
     <t xml:space="preserve">R Markdown website demo. </t>
-  </si>
-  <si>
-    <t>* Jigsaw lecture on DDS Ch 2
-* Open work on case study</t>
   </si>
   <si>
     <t>Client project introductions</t>
@@ -491,6 +474,42 @@
   <si>
     <t>[Week2 notes](wk2-notes.html)   
 [DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
+  </si>
+  <si>
+    <t>RAT discussion
+Project work time</t>
+  </si>
+  <si>
+    <t>* Intro on Git with others
+* Open work on case study</t>
+  </si>
+  <si>
+    <t>LJ ranking and justification for project team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank your interest in the project proposals from 1 (most interested) to 3 (least interested) with justification in your learning journal. </t>
+  </si>
+  <si>
+    <t>github classroom: ads-case-study-eda</t>
+  </si>
+  <si>
+    <t>Your Learning Journal</t>
+  </si>
+  <si>
+    <t>Real estate case study: Stakeholder report (draft)</t>
+  </si>
+  <si>
+    <t>Real estate case study: Stakeholder report (final as blog post)</t>
+  </si>
+  <si>
+    <t>* Share out case study progress and approach (Draft)
+* Form project teams</t>
+  </si>
+  <si>
+    <t>Create shared repo, team expectations &amp; workflow in README</t>
+  </si>
+  <si>
+    <t>github</t>
   </si>
 </sst>
 </file>
@@ -737,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -907,6 +926,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1346,14 +1368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="26" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="25" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="25" customWidth="1"/>
     <col min="4" max="4" width="51.75" style="27" customWidth="1"/>
@@ -1366,7 +1388,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -1378,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>29</v>
@@ -1401,23 +1423,23 @@
         <v>43124</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1426,21 +1448,21 @@
         <v>43126</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,25 +1473,25 @@
         <v>43131</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E4" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>145</v>
-      </c>
       <c r="G4" s="41" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
@@ -1480,24 +1502,24 @@
         <v>43138</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="I5" s="43"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="35">
         <v>43140</v>
@@ -1508,65 +1530,73 @@
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>143</v>
+      </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <v>4</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="39">
         <v>43145</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:9" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35">
-        <v>43147</v>
-      </c>
-      <c r="C8" s="44" t="s">
+      <c r="H7" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>5</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="D8" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="31">
+        <v>6</v>
+      </c>
       <c r="B9" s="32"/>
       <c r="C9" s="17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -1578,16 +1608,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="31">
+        <v>7</v>
+      </c>
       <c r="B10" s="32"/>
       <c r="C10" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -1595,14 +1627,16 @@
       <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="45">
+        <v>8</v>
+      </c>
       <c r="B11" s="46"/>
       <c r="C11" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="43"/>
@@ -1610,14 +1644,16 @@
       <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="45">
+        <v>9</v>
+      </c>
       <c r="B12" s="46"/>
       <c r="C12" s="43" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -1633,7 +1669,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -1642,14 +1678,16 @@
       <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="31">
+        <v>10</v>
+      </c>
       <c r="B14" s="32"/>
       <c r="C14" s="43" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -1657,14 +1695,16 @@
       <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="31">
+        <v>11</v>
+      </c>
       <c r="B15" s="32"/>
       <c r="C15" s="43" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -1672,14 +1712,16 @@
       <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="31">
+        <v>12</v>
+      </c>
       <c r="B16" s="32"/>
       <c r="C16" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -1687,14 +1729,16 @@
       <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="31">
+        <v>13</v>
+      </c>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -1703,14 +1747,14 @@
     </row>
     <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -1727,10 +1771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1052"/>
+  <dimension ref="A1:R1053"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1748,10 +1792,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1760,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -1793,11 +1837,11 @@
         <v>20</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="53"/>
       <c r="F2" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G2" s="55">
         <v>43125</v>
@@ -1829,7 +1873,7 @@
       </c>
       <c r="E3" s="53"/>
       <c r="F3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="55">
         <v>43125</v>
@@ -1857,11 +1901,11 @@
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G4" s="55">
         <v>43125</v>
@@ -1889,11 +1933,11 @@
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="52" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="54" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G5" s="55">
         <v>43125</v>
@@ -1921,11 +1965,11 @@
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="55">
         <v>43125</v>
@@ -1953,11 +1997,11 @@
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="55">
         <v>43125</v>
@@ -1985,11 +2029,11 @@
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="52" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E8" s="53"/>
       <c r="F8" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="55">
         <v>43127</v>
@@ -2021,7 +2065,7 @@
       </c>
       <c r="E9" s="53"/>
       <c r="F9" s="52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="55">
         <v>43125</v>
@@ -2048,16 +2092,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E10" s="53">
         <v>2</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="55">
         <v>43132</v>
@@ -2084,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -2093,10 +2137,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
+      </c>
+      <c r="H11" s="6">
+        <v>20</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2124,10 +2171,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
+      </c>
+      <c r="H12" s="6">
+        <v>20</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2148,19 +2198,22 @@
         <v>3</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
+      </c>
+      <c r="H13" s="6">
+        <v>10</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
@@ -2182,16 +2235,19 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G14" s="5">
         <v>43137</v>
+      </c>
+      <c r="H14" s="6">
+        <v>10</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -2213,16 +2269,19 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G15" s="5">
         <v>43134</v>
+      </c>
+      <c r="H15" s="6">
+        <v>10</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2244,16 +2303,19 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G16" s="5">
         <v>43137</v>
+      </c>
+      <c r="H16" s="6">
+        <v>10</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -2275,16 +2337,19 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G17" s="5">
         <v>43141</v>
+      </c>
+      <c r="H17" s="6">
+        <v>10</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -2305,16 +2370,19 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G18" s="5">
         <v>43144</v>
+      </c>
+      <c r="H18" s="6">
+        <v>10</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -2327,25 +2395,31 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="49">
         <v>3</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="50">
+        <v>1</v>
+      </c>
       <c r="C19" s="57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>70</v>
+        <v>147</v>
       </c>
       <c r="E19" s="53">
         <v>5</v>
       </c>
       <c r="F19" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="49"/>
+        <v>145</v>
+      </c>
+      <c r="G19" s="55">
+        <v>43145</v>
+      </c>
+      <c r="H19" s="49">
+        <v>40</v>
+      </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -2357,21 +2431,27 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="57" t="s">
-        <v>69</v>
-      </c>
+    <row r="20" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
+        <v>3</v>
+      </c>
+      <c r="B20" s="50">
+        <v>2</v>
+      </c>
+      <c r="C20" s="57"/>
       <c r="D20" s="52" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="E20" s="53">
         <v>5</v>
       </c>
       <c r="F20" s="52"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="49"/>
+      <c r="G20" s="55">
+        <v>43151</v>
+      </c>
+      <c r="H20" s="49">
+        <v>50</v>
+      </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -2383,21 +2463,29 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
+    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
+        <v>3</v>
+      </c>
+      <c r="B21" s="50">
+        <v>3</v>
+      </c>
       <c r="C21" s="57" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="53">
-        <v>5</v>
-      </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="49"/>
+        <v>144</v>
+      </c>
+      <c r="E21" s="53"/>
+      <c r="F21" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="55">
+        <v>43143</v>
+      </c>
+      <c r="H21" s="49">
+        <v>10</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -2414,16 +2502,21 @@
         <v>4</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="21">
-        <v>5</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="G22" s="5">
+        <v>43146</v>
+      </c>
+      <c r="H22" s="6">
+        <v>40</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -2436,17 +2529,20 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="16" t="s">
-        <v>111</v>
-      </c>
+      <c r="C23" s="16"/>
       <c r="D23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="G23" s="5">
+        <v>43147</v>
+      </c>
+      <c r="H23" s="6">
+        <v>40</v>
+      </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -2458,16 +2554,23 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="16"/>
+    <row r="24" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="G24" s="5">
+        <v>43151</v>
+      </c>
+      <c r="H24" s="6">
+        <v>20</v>
+      </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -2480,20 +2583,22 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>7</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7"/>
+      <c r="A25" s="49">
+        <v>5</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53">
+        <v>5</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="49"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2506,12 +2611,18 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C26" s="17"/>
-      <c r="D26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>27</v>
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G26" s="7"/>
       <c r="I26" s="11"/>
@@ -2527,10 +2638,12 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="17"/>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="21"/>
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="G27" s="7"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -2544,18 +2657,11 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>8</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>82</v>
-      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="21"/>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2569,12 +2675,17 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C29" s="17"/>
+      <c r="A29" s="6">
+        <v>7</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>70</v>
+      </c>
       <c r="D29" s="13" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G29" s="7"/>
       <c r="I29" s="11"/>
@@ -2589,18 +2700,12 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>9</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="23"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="F30" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
@@ -2615,13 +2720,18 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="19"/>
-      <c r="D31" s="13" t="s">
-        <v>76</v>
+      <c r="A31" s="6">
+        <v>8</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -2636,18 +2746,13 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>10</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -2662,13 +2767,18 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="13" t="s">
-        <v>77</v>
+      <c r="A33" s="6">
+        <v>9</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G33" s="7"/>
       <c r="I33" s="11"/>
@@ -2683,18 +2793,13 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>11</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>63</v>
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -2709,13 +2814,18 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
-        <v>78</v>
+      <c r="A35" s="6">
+        <v>10</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="11"/>
@@ -2730,18 +2840,13 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>12</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>64</v>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -2756,13 +2861,18 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="13" t="s">
-        <v>79</v>
+      <c r="A37" s="6">
+        <v>11</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="11"/>
@@ -2777,18 +2887,13 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>13</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>65</v>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -2803,13 +2908,18 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
-        <v>80</v>
+      <c r="A39" s="6">
+        <v>12</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="11"/>
@@ -2824,18 +2934,13 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>14</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>66</v>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -2850,13 +2955,18 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
-      <c r="D41" s="13" t="s">
-        <v>81</v>
+      <c r="A41" s="6">
+        <v>13</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -2871,15 +2981,13 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="9" t="s">
-        <v>37</v>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G42" s="7"/>
       <c r="I42" s="11"/>
@@ -2894,13 +3002,17 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C43" s="20"/>
+      <c r="C43" s="20" t="s">
+        <v>32</v>
+      </c>
       <c r="D43" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="11"/>
+      <c r="G43" s="7"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -2914,11 +3026,11 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C44" s="20"/>
-      <c r="D44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="8"/>
+      <c r="D44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
@@ -2934,7 +3046,7 @@
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C45" s="20"/>
       <c r="D45" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="8"/>
@@ -2951,15 +3063,13 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C46" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="23"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="21"/>
       <c r="F46" s="8"/>
-      <c r="G46" s="7"/>
+      <c r="G46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -2972,13 +3082,15 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="20"/>
+      <c r="C47" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="D47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="E47" s="23"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -2991,11 +3103,11 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="21"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="4"/>
       <c r="G48" s="11"/>
       <c r="I48" s="11"/>
@@ -3010,11 +3122,13 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="16"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="7"/>
+      <c r="C49" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3031,7 +3145,7 @@
       <c r="D50" s="12"/>
       <c r="E50" s="6"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="11"/>
+      <c r="G50" s="7"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3044,11 +3158,11 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="20"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="10"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3061,10 +3175,10 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="4"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="10"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
@@ -3082,7 +3196,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="21"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="7"/>
+      <c r="G53" s="10"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3099,7 +3213,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="21"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="7"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -3116,7 +3230,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="11"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3133,7 +3247,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="7"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -3147,10 +3261,10 @@
     </row>
     <row r="57" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C57" s="16"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="10"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -3164,10 +3278,10 @@
     </row>
     <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="10"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3184,7 +3298,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="7"/>
+      <c r="G59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -3198,7 +3312,10 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
-      <c r="G60" s="11"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="7"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3211,10 +3328,8 @@
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C61" s="20"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="8"/>
+      <c r="C61" s="16"/>
+      <c r="G61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3231,7 +3346,6 @@
       <c r="D62" s="8"/>
       <c r="E62" s="23"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -20023,6 +20137,10 @@
       <c r="R1049" s="11"/>
     </row>
     <row r="1050" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1050" s="20"/>
+      <c r="D1050" s="8"/>
+      <c r="E1050" s="23"/>
+      <c r="F1050" s="8"/>
       <c r="G1050" s="11"/>
       <c r="I1050" s="11"/>
       <c r="J1050" s="11"/>
@@ -20061,9 +20179,22 @@
       <c r="Q1052" s="11"/>
       <c r="R1052" s="11"/>
     </row>
+    <row r="1053" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1053" s="11"/>
+      <c r="I1053" s="11"/>
+      <c r="J1053" s="11"/>
+      <c r="K1053" s="11"/>
+      <c r="L1053" s="11"/>
+      <c r="M1053" s="11"/>
+      <c r="N1053" s="11"/>
+      <c r="O1053" s="11"/>
+      <c r="P1053" s="11"/>
+      <c r="Q1053" s="11"/>
+      <c r="R1053" s="11"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F42" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
+    <hyperlink ref="F43" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
     <hyperlink ref="F13" r:id="rId4" xr:uid="{68529945-179E-492F-9705-11A2E600AF19}"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB001C-8C4E-4EE8-8865-B6489C24A37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE577938-2824-4C5A-8C11-D786C9442BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30930" yWindow="870" windowWidth="23550" windowHeight="14175" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t xml:space="preserve">Rank your interest in the project proposals from 1 (most interested) to 3 (least interested) with justification in your learning journal. </t>
   </si>
   <si>
-    <t>github classroom: ads-case-study-eda</t>
-  </si>
-  <si>
     <t>Your Learning Journal</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>github</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/KowEWfPm</t>
   </si>
 </sst>
 </file>
@@ -756,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -930,6 +930,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="92" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1026,7 +1029,18 @@
     <cellStyle name="Normal 3 2" xfId="91" xr:uid="{20B637C8-DD27-499C-BEC0-85B72C712ADD}"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
@@ -1386,7 +1400,7 @@
     <col min="10" max="16384" width="14.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>49</v>
       </c>
@@ -1561,7 +1575,7 @@
         <v>111</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I7" s="60" t="s">
         <v>141</v>
@@ -1745,7 +1759,7 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>90</v>
       </c>
@@ -1774,7 +1788,7 @@
   <dimension ref="A1:R1053"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2406,13 +2420,13 @@
         <v>68</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E19" s="53">
         <v>5</v>
       </c>
-      <c r="F19" s="52" t="s">
-        <v>145</v>
+      <c r="F19" s="61" t="s">
+        <v>151</v>
       </c>
       <c r="G19" s="55">
         <v>43145</v>
@@ -2440,7 +2454,7 @@
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E20" s="53">
         <v>5</v>
@@ -2478,7 +2492,7 @@
       </c>
       <c r="E21" s="53"/>
       <c r="F21" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G21" s="55">
         <v>43143</v>
@@ -2559,11 +2573,11 @@
         <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" s="5">
         <v>43151</v>
@@ -20193,14 +20207,20 @@
       <c r="R1053" s="11"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="F43" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
     <hyperlink ref="F13" r:id="rId4" xr:uid="{68529945-179E-492F-9705-11A2E600AF19}"/>
     <hyperlink ref="F12" r:id="rId5" xr:uid="{F0DDE4DF-6A46-43DD-B1D1-7739DEC05D7D}"/>
+    <hyperlink ref="F19" r:id="rId6" xr:uid="{B7A07327-84AF-4FBA-ADA3-0719FFEA4F9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE577938-2824-4C5A-8C11-D786C9442BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB149E-F87E-4B26-BCA1-31B796A58DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30930" yWindow="870" windowWidth="23550" windowHeight="14175" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="765" windowWidth="26325" windowHeight="14415" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
   <si>
     <t>SLO</t>
   </si>
@@ -211,12 +211,6 @@
     <t>course_obj</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/1uBe_Dkt</t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/WgHhl_Lz</t>
-  </si>
-  <si>
     <t>Email?</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>Discord</t>
   </si>
   <si>
-    <t>Real estate Case Study</t>
-  </si>
-  <si>
     <t>Finals</t>
   </si>
   <si>
@@ -377,22 +368,13 @@
     <t>order</t>
   </si>
   <si>
-    <t>Preface: Collab notes</t>
-  </si>
-  <si>
     <t>Preface: Reflection questions in Learning Journal</t>
-  </si>
-  <si>
-    <t>RAT</t>
   </si>
   <si>
     <t>[RAT Discussion Guide](notes/RAT Discussion Guide.pdf)</t>
   </si>
   <si>
     <t>Wrangle and aggregate data from multiple tables using a universal language</t>
-  </si>
-  <si>
-    <t>Create a data strategy to a address a business question.</t>
   </si>
   <si>
     <t xml:space="preserve">What is Statistical Learning? </t>
@@ -446,10 +428,6 @@
     <t xml:space="preserve">48hour data analysis competition. Make new friends, compete for prizes and bragging rights. Eat lots of free food. </t>
   </si>
   <si>
-    <t xml:space="preserve">[Welcome Aboard!](wk1-notes.html)  
-</t>
-  </si>
-  <si>
     <t>Join HackMD - sign up via github and put your name here as a test</t>
   </si>
   <si>
@@ -461,19 +439,6 @@
   </si>
   <si>
     <t>* [What is DS collab notes](https://hackmd.io/@norcalbiostat/whatisds)</t>
-  </si>
-  <si>
-    <t>https://hackmd.io/@norcalbiostat/whatisds</t>
-  </si>
-  <si>
-    <t>https://data485.netlify.app/notes/cn01_rbased_websites</t>
-  </si>
-  <si>
-    <t>Your Learning Journal   &amp;  [Our DS Class Profile](https://docs.google.com/spreadsheets/d/1EUyLcRPlD5jw_IqRFMAeFSpX0mRFxNL1-VF7P152DMI)</t>
-  </si>
-  <si>
-    <t>[Week2 notes](wk2-notes.html)   
-[DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
   </si>
   <si>
     <t>RAT discussion
@@ -490,9 +455,6 @@
     <t xml:space="preserve">Rank your interest in the project proposals from 1 (most interested) to 3 (least interested) with justification in your learning journal. </t>
   </si>
   <si>
-    <t>Your Learning Journal</t>
-  </si>
-  <si>
     <t>Real estate case study: Stakeholder report (draft)</t>
   </si>
   <si>
@@ -503,13 +465,71 @@
 * Form project teams</t>
   </si>
   <si>
-    <t>Create shared repo, team expectations &amp; workflow in README</t>
+    <t>Create a data strategy to address a business question.</t>
   </si>
   <si>
-    <t>github</t>
+    <t>[Real estate Case Study](https://classroom.github.com/a/KowEWfPm)</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/KowEWfPm</t>
+    <t>Your Learning Journal  &amp;  Google sheets (Link in HackMD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAT LJ </t>
+  </si>
+  <si>
+    <t>Complete data security training. Instructions forthcoming.</t>
+  </si>
+  <si>
+    <t>[Week 3 notes](wk03-notes.html)   
+[Git with others](https://www.atlassian.com/git/tutorials/comparing-workflows/feature-branch-workflow)  
+ [Using branches](https://www.atlassian.com/git/tutorials/using-branches)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Welcome Aboard!](wk01-notes.html)  
+</t>
+  </si>
+  <si>
+    <t>[Week2 notes](wk02-notes.html)   
+[DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/WgHhl_Lz</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/1uBe_Dkt</t>
+  </si>
+  <si>
+    <t>Week 2 notes</t>
+  </si>
+  <si>
+    <t>https://hackmd.io/@norcalbiostat/whatisds</t>
+  </si>
+  <si>
+    <t>(Team Assignment - Don't accpet until Tuesday in class) https://classroom.github.com/a/KowEWfPm</t>
+  </si>
+  <si>
+    <t>Your website</t>
+  </si>
+  <si>
+    <t>Submit a PR to ADS website with student team roster</t>
+  </si>
+  <si>
+    <t>https://github.com/norcalbiostat/ADS</t>
+  </si>
+  <si>
+    <t>Data485 Github organization</t>
+  </si>
+  <si>
+    <t>Create shared private repo, team expectations &amp; workflow in README</t>
+  </si>
+  <si>
+    <t>Learning Journal, [RAT discussion guide](notes/RAT Discussion guide.pdf)</t>
+  </si>
+  <si>
+    <t>Jigsaw Notes: HackMD</t>
+  </si>
+  <si>
+    <t>Read Introduction and answer assigned question in HackMD</t>
   </si>
 </sst>
 </file>
@@ -891,9 +911,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -931,6 +948,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="92" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1382,9 +1402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>48</v>
@@ -1440,20 +1460,20 @@
         <v>53</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>50</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1465,18 +1485,18 @@
         <v>52</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,28 +1507,28 @@
         <v>43131</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>3</v>
       </c>
@@ -1516,20 +1536,22 @@
         <v>43138</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="43"/>
+        <v>123</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>142</v>
+      </c>
       <c r="G5" s="43" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="I5" s="43"/>
     </row>
@@ -1545,11 +1567,11 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1559,26 +1581,26 @@
       <c r="B7" s="39">
         <v>43145</v>
       </c>
-      <c r="C7" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="60" t="s">
+      <c r="C7" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="F7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I7" s="59" t="s">
         <v>130</v>
-      </c>
-      <c r="F7" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
@@ -1590,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
@@ -1604,13 +1626,13 @@
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="17" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
@@ -1627,13 +1649,13 @@
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
@@ -1650,7 +1672,7 @@
       </c>
       <c r="D11" s="47"/>
       <c r="E11" s="43" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F11" s="47"/>
       <c r="G11" s="43"/>
@@ -1667,7 +1689,7 @@
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -1683,7 +1705,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E13" s="43"/>
       <c r="F13" s="43"/>
@@ -1701,7 +1723,7 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -1718,7 +1740,7 @@
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
@@ -1735,7 +1757,7 @@
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -1752,7 +1774,7 @@
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -1761,14 +1783,14 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="43"/>
@@ -1785,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1053"/>
+  <dimension ref="A1:R1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1831,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1841,26 +1863,26 @@
       <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="49">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="54">
         <v>43125</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="48">
         <v>10</v>
       </c>
       <c r="I2" s="11"/>
@@ -1875,24 +1897,24 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="49">
+      <c r="A3" s="48">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="54">
         <v>43125</v>
       </c>
-      <c r="H3" s="49">
+      <c r="H3" s="48">
         <v>5</v>
       </c>
       <c r="I3" s="11"/>
@@ -1907,24 +1929,24 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="49">
+      <c r="A4" s="48">
         <v>1</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="49">
         <v>3</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="50"/>
+      <c r="D4" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="55">
+      <c r="E4" s="52"/>
+      <c r="F4" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="54">
         <v>43125</v>
       </c>
-      <c r="H4" s="49">
+      <c r="H4" s="48">
         <v>5</v>
       </c>
       <c r="I4" s="11"/>
@@ -1939,24 +1961,24 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="55">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="54">
         <v>43125</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="48">
         <v>5</v>
       </c>
       <c r="I5" s="11"/>
@@ -1971,24 +1993,24 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="49">
+      <c r="A6" s="48">
         <v>1</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="49">
         <v>5</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="54">
         <v>43125</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="48">
         <v>10</v>
       </c>
       <c r="I6" s="11"/>
@@ -2003,24 +2025,24 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="49">
+      <c r="A7" s="48">
         <v>1</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="49">
         <v>6</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="54">
         <v>43125</v>
       </c>
-      <c r="H7" s="49">
+      <c r="H7" s="48">
         <v>10</v>
       </c>
       <c r="I7" s="11"/>
@@ -2035,24 +2057,24 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49">
+      <c r="A8" s="48">
         <v>1</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="49">
         <v>7</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="54">
         <v>43127</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="48">
         <v>10</v>
       </c>
       <c r="I8" s="11"/>
@@ -2067,24 +2089,24 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="49">
+      <c r="A9" s="48">
         <v>1</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="49">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="52" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="54">
         <v>43125</v>
       </c>
-      <c r="H9" s="49">
+      <c r="H9" s="48">
         <v>15</v>
       </c>
       <c r="I9" s="11"/>
@@ -2099,28 +2121,28 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>1</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="49">
         <v>9</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="53">
+      <c r="D10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="52">
         <v>2</v>
       </c>
-      <c r="F10" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="55">
+      <c r="F10" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="54">
         <v>43132</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="48">
         <v>30</v>
       </c>
       <c r="I10" s="11"/>
@@ -2141,7 +2163,7 @@
       <c r="B11" s="10">
         <v>1</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2151,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
@@ -2170,7 +2192,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -2184,8 +2206,8 @@
       <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>138</v>
+      <c r="F12" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
@@ -2212,16 +2234,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="48" t="s">
-        <v>137</v>
+      <c r="F13" s="61" t="s">
+        <v>148</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
@@ -2240,7 +2262,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -2249,7 +2271,7 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
@@ -2283,13 +2305,13 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G15" s="5">
         <v>43134</v>
@@ -2317,13 +2339,13 @@
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G16" s="5">
         <v>43137</v>
@@ -2351,13 +2373,13 @@
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G17" s="5">
         <v>43141</v>
@@ -2384,13 +2406,13 @@
         <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="5">
         <v>43144</v>
@@ -2409,29 +2431,29 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="49">
+    <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
         <v>3</v>
       </c>
-      <c r="B19" s="50">
+      <c r="B19" s="49">
         <v>1</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="53">
+      <c r="C19" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="52">
         <v>5</v>
       </c>
-      <c r="F19" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="55">
+      <c r="F19" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="54">
         <v>43145</v>
       </c>
-      <c r="H19" s="49">
+      <c r="H19" s="48">
         <v>40</v>
       </c>
       <c r="I19" s="11"/>
@@ -2446,24 +2468,26 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="49">
+      <c r="A20" s="48">
         <v>3</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="49">
         <v>2</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" s="53">
+      <c r="C20" s="56"/>
+      <c r="D20" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="52">
         <v>5</v>
       </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="55">
+      <c r="F20" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="54">
         <v>43151</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="48">
         <v>50</v>
       </c>
       <c r="I20" s="11"/>
@@ -2478,26 +2502,26 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>3</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21" s="49">
         <v>3</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="55">
+      <c r="D21" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="54">
         <v>43143</v>
       </c>
-      <c r="H21" s="49">
+      <c r="H21" s="48">
         <v>10</v>
       </c>
       <c r="I21" s="11"/>
@@ -2511,19 +2535,22 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
       <c r="C22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="G22" s="5">
         <v>43146</v>
@@ -2542,20 +2569,25 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="16"/>
+    <row r="23" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>2</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" s="4" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="G23" s="5">
-        <v>43147</v>
+        <v>43151</v>
       </c>
       <c r="H23" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2568,22 +2600,23 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="16" t="s">
-        <v>32</v>
-      </c>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>3</v>
+      </c>
+      <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="4" t="s">
-        <v>150</v>
+      <c r="F24" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="G24" s="5">
-        <v>43151</v>
+        <v>43146</v>
       </c>
       <c r="H24" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -2596,23 +2629,22 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
-        <v>5</v>
-      </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="52"/>
-      <c r="E25" s="53">
-        <v>5</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="49"/>
+    <row r="25" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <v>43158</v>
+      </c>
+      <c r="H25" s="6">
+        <v>40</v>
+      </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -2625,20 +2657,24 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>6</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="7"/>
+      <c r="A26" s="48">
+        <v>5</v>
+      </c>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="51"/>
+      <c r="E26" s="52">
+        <v>5</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="48">
+        <v>50</v>
+      </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
@@ -2650,15 +2686,23 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C27" s="17"/>
-      <c r="D27" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="7"/>
+    <row r="27" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E27" s="52"/>
+      <c r="F27" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="48">
+        <v>50</v>
+      </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
@@ -2671,11 +2715,19 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C28" s="17"/>
+      <c r="A28" s="6">
+        <v>6</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2689,17 +2741,12 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>7</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="C29" s="17"/>
       <c r="D29" s="13" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="G29" s="7"/>
       <c r="I29" s="11"/>
@@ -2715,12 +2762,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" s="17"/>
-      <c r="D30" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -2735,17 +2780,16 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>8</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="23"/>
+        <v>7</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F31" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -2760,11 +2804,10 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="19"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="23"/>
+        <v>69</v>
+      </c>
       <c r="F32" s="13" t="s">
         <v>27</v>
       </c>
@@ -2782,17 +2825,17 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
+        <v>8</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="21"/>
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="23"/>
       <c r="F33" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G33" s="7"/>
       <c r="I33" s="11"/>
@@ -2807,11 +2850,11 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="14"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="21"/>
+        <v>70</v>
+      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="13" t="s">
         <v>27</v>
       </c>
@@ -2829,17 +2872,17 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="11"/>
@@ -2856,7 +2899,7 @@
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C36" s="14"/>
       <c r="D36" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
@@ -2876,17 +2919,17 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="11"/>
@@ -2903,7 +2946,7 @@
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C38" s="14"/>
       <c r="D38" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
@@ -2923,17 +2966,17 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="11"/>
@@ -2950,7 +2993,7 @@
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C40" s="14"/>
       <c r="D40" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
@@ -2970,17 +3013,17 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -2997,7 +3040,7 @@
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C42" s="14"/>
       <c r="D42" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="13" t="s">
@@ -3016,15 +3059,18 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C43" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="9" t="s">
-        <v>36</v>
+      <c r="A43" s="6">
+        <v>13</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="11"/>
@@ -3039,13 +3085,15 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="20"/>
-      <c r="D44" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="11"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" s="7"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
       <c r="K44" s="11"/>
@@ -3058,13 +3106,17 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="20"/>
-      <c r="D45" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="21"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="11"/>
+      <c r="C45" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" s="7"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -3078,11 +3130,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C46" s="20"/>
-      <c r="D46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="8"/>
+      <c r="D46" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -3096,15 +3148,13 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C47" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="23"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="21"/>
       <c r="F47" s="8"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -3118,11 +3168,11 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" s="20"/>
-      <c r="D48" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
@@ -3137,12 +3187,14 @@
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C49" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="11"/>
+        <v>64</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3155,11 +3207,13 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="16"/>
-      <c r="D50" s="12"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="8" t="s">
+        <v>102</v>
+      </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="7"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="11"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3172,10 +3226,12 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="12"/>
+      <c r="C51" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -3189,11 +3245,11 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="20"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="10"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="7"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -3207,10 +3263,10 @@
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C53" s="16"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="10"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3223,11 +3279,11 @@
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="16"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="7"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="10"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -3244,7 +3300,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3292,10 +3348,10 @@
     </row>
     <row r="58" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="10"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3326,10 +3382,10 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="7"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="10"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3343,6 +3399,9 @@
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="4"/>
       <c r="G61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
@@ -3356,10 +3415,11 @@
       <c r="R61" s="11"/>
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C62" s="20"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="8"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3372,10 +3432,7 @@
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="20"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="8"/>
+      <c r="C63" s="16"/>
       <c r="G63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -3393,7 +3450,6 @@
       <c r="D64" s="8"/>
       <c r="E64" s="23"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -20168,6 +20224,10 @@
       <c r="R1050" s="11"/>
     </row>
     <row r="1051" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1051" s="20"/>
+      <c r="D1051" s="8"/>
+      <c r="E1051" s="23"/>
+      <c r="F1051" s="8"/>
       <c r="G1051" s="11"/>
       <c r="I1051" s="11"/>
       <c r="J1051" s="11"/>
@@ -20181,6 +20241,10 @@
       <c r="R1051" s="11"/>
     </row>
     <row r="1052" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1052" s="20"/>
+      <c r="D1052" s="8"/>
+      <c r="E1052" s="23"/>
+      <c r="F1052" s="8"/>
       <c r="G1052" s="11"/>
       <c r="I1052" s="11"/>
       <c r="J1052" s="11"/>
@@ -20206,6 +20270,32 @@
       <c r="Q1053" s="11"/>
       <c r="R1053" s="11"/>
     </row>
+    <row r="1054" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1054" s="11"/>
+      <c r="I1054" s="11"/>
+      <c r="J1054" s="11"/>
+      <c r="K1054" s="11"/>
+      <c r="L1054" s="11"/>
+      <c r="M1054" s="11"/>
+      <c r="N1054" s="11"/>
+      <c r="O1054" s="11"/>
+      <c r="P1054" s="11"/>
+      <c r="Q1054" s="11"/>
+      <c r="R1054" s="11"/>
+    </row>
+    <row r="1055" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1055" s="11"/>
+      <c r="I1055" s="11"/>
+      <c r="J1055" s="11"/>
+      <c r="K1055" s="11"/>
+      <c r="L1055" s="11"/>
+      <c r="M1055" s="11"/>
+      <c r="N1055" s="11"/>
+      <c r="O1055" s="11"/>
+      <c r="P1055" s="11"/>
+      <c r="Q1055" s="11"/>
+      <c r="R1055" s="11"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
@@ -20213,12 +20303,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
+    <hyperlink ref="F45" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
-    <hyperlink ref="F13" r:id="rId4" xr:uid="{68529945-179E-492F-9705-11A2E600AF19}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{F0DDE4DF-6A46-43DD-B1D1-7739DEC05D7D}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{B7A07327-84AF-4FBA-ADA3-0719FFEA4F9A}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{0C554C86-504E-4A7E-88CF-9B00A46FCBEC}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{6FBC17D8-3990-459E-9B48-3EDCD7C3D037}"/>
+    <hyperlink ref="F24" r:id="rId6" xr:uid="{ECC4227F-EDBE-41A5-B8DC-A3B400F5C6AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB149E-F87E-4B26-BCA1-31B796A58DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EDDB9-BB6C-4E2D-A43C-0682E0CB39FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="765" windowWidth="26325" windowHeight="14415" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
   <si>
     <t>SLO</t>
   </si>
@@ -461,10 +461,6 @@
     <t>Real estate case study: Stakeholder report (final as blog post)</t>
   </si>
   <si>
-    <t>* Share out case study progress and approach (Draft)
-* Form project teams</t>
-  </si>
-  <si>
     <t>Create a data strategy to address a business question.</t>
   </si>
   <si>
@@ -475,9 +471,6 @@
   </si>
   <si>
     <t xml:space="preserve">RAT LJ </t>
-  </si>
-  <si>
-    <t>Complete data security training. Instructions forthcoming.</t>
   </si>
   <si>
     <t>[Week 3 notes](wk03-notes.html)   
@@ -530,6 +523,50 @@
   </si>
   <si>
     <t>Read Introduction and answer assigned question in HackMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete data security training.  
+1. Review the information on [this page](https://www.csuchico.edu/isec/data-protection/index.shtml)  
+2. Complete the Data Security and FERPA (Non-Level 1) training through [CSU Learn](https://www.csuchico.edu/hr/pdev/compliance-training.shtml)   
+3. Send a copy of your certificate to Dr. D. </t>
+  </si>
+  <si>
+    <t>The New Jim Code</t>
+  </si>
+  <si>
+    <t>Read Race after Technology Introduction answer questions in HackMD</t>
+  </si>
+  <si>
+    <t>Thinking like a Data Scientist</t>
+  </si>
+  <si>
+    <t>Form project teams</t>
+  </si>
+  <si>
+    <t>Share out case study progress and approach (Draft)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborating with others on writing a report
+Project planning
+Professionalizing your data products </t>
+  </si>
+  <si>
+    <t>Setting the stage for the reading</t>
+  </si>
+  <si>
+    <t>Being open to new ways of thinking and viewing the world</t>
+  </si>
+  <si>
+    <t>[3](wk03-notes.html)</t>
+  </si>
+  <si>
+    <t>[4](wk04-notes.html)</t>
+  </si>
+  <si>
+    <t>[1](wk01-notes.html)</t>
+  </si>
+  <si>
+    <t>[2](wk02-notes.html)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -943,9 +980,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="92" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1400,11 +1434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1450,8 +1484,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
+      <c r="A2" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="B2" s="32">
         <v>43124</v>
@@ -1464,7 +1498,7 @@
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>77</v>
@@ -1500,8 +1534,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38">
-        <v>2</v>
+      <c r="A4" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="B4" s="39">
         <v>43131</v>
@@ -1516,7 +1550,7 @@
         <v>128</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>129</v>
@@ -1529,8 +1563,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>3</v>
+      <c r="A5" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="B5" s="32">
         <v>43138</v>
@@ -1539,16 +1573,16 @@
         <v>89</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E5" s="43" t="s">
         <v>123</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="43" t="s">
         <v>131</v>
@@ -1574,174 +1608,178 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38">
-        <v>4</v>
-      </c>
-      <c r="B7" s="39">
+    <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="32">
         <v>43145</v>
       </c>
-      <c r="C7" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="59" t="s">
+      <c r="C7" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="32">
+        <v>43147</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F8" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="H7" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="I7" s="59" t="s">
+      <c r="G8" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
         <v>5</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="43" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D9" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>6</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>110</v>
-      </c>
+      <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>7</v>
-      </c>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
       <c r="B10" s="32"/>
-      <c r="C10" s="17" t="s">
-        <v>68</v>
+      <c r="C10" s="43" t="s">
+        <v>157</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
-        <v>8</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="47"/>
+      <c r="I10" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>6</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>51</v>
+      </c>
       <c r="E11" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="F11" s="47"/>
+        <v>110</v>
+      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
-        <v>9</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="43"/>
+      <c r="H11" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>7</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46">
-        <v>43190</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <v>8</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="47"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>10</v>
-      </c>
-      <c r="B14" s="32"/>
+      <c r="A14" s="45">
+        <v>9</v>
+      </c>
+      <c r="B14" s="46"/>
       <c r="C14" s="43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>11</v>
-      </c>
-      <c r="B15" s="32"/>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46">
+        <v>43190</v>
+      </c>
       <c r="C15" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43" t="s">
-        <v>115</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" s="43"/>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
@@ -1749,32 +1787,32 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="32"/>
       <c r="C16" s="43" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="43"/>
       <c r="I16" s="43"/>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -1782,21 +1820,55 @@
       <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>87</v>
+      <c r="A18" s="31">
+        <v>12</v>
       </c>
       <c r="B18" s="32"/>
       <c r="C18" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
+        <v>116</v>
+      </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>13</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1809,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
   <dimension ref="A1:R1055"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2136,8 +2208,8 @@
       <c r="E10" s="52">
         <v>2</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>145</v>
+      <c r="F10" s="59" t="s">
+        <v>143</v>
       </c>
       <c r="G10" s="54">
         <v>43132</v>
@@ -2173,7 +2245,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
@@ -2207,7 +2279,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
@@ -2242,8 +2314,8 @@
       <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="61" t="s">
-        <v>148</v>
+      <c r="F13" s="60" t="s">
+        <v>146</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
@@ -2277,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G14" s="5">
         <v>43137</v>
@@ -2448,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="54">
         <v>43145</v>
@@ -2482,7 +2554,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20" s="54">
         <v>43151</v>
@@ -2550,7 +2622,7 @@
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G22" s="5">
         <v>43146</v>
@@ -2577,11 +2649,11 @@
         <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G23" s="5">
         <v>43151</v>
@@ -2606,11 +2678,11 @@
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E24" s="21"/>
-      <c r="F24" s="61" t="s">
-        <v>152</v>
+      <c r="F24" s="60" t="s">
+        <v>150</v>
       </c>
       <c r="G24" s="5">
         <v>43146</v>
@@ -2629,13 +2701,13 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>4</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="4" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="4"/>
@@ -2693,13 +2765,15 @@
         <v>103</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E27" s="52"/>
       <c r="F27" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27" s="57"/>
+        <v>154</v>
+      </c>
+      <c r="G27" s="54">
+        <v>43153</v>
+      </c>
       <c r="H27" s="48">
         <v>50</v>
       </c>
@@ -2726,7 +2800,7 @@
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6EDDB9-BB6C-4E2D-A43C-0682E0CB39FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979832D6-52D5-42E5-BE21-DB2038BBEEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
   <si>
     <t>SLO</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>ISLR Ch2 Exercises: 1, 2, 4 (one example each)</t>
-  </si>
-  <si>
-    <t>Forming a mathematical model to a business question.</t>
   </si>
   <si>
     <t>github classroom</t>
@@ -458,9 +455,6 @@
     <t>Real estate case study: Stakeholder report (draft)</t>
   </si>
   <si>
-    <t>Real estate case study: Stakeholder report (final as blog post)</t>
-  </si>
-  <si>
     <t>Create a data strategy to address a business question.</t>
   </si>
   <si>
@@ -498,22 +492,7 @@
     <t>https://hackmd.io/@norcalbiostat/whatisds</t>
   </si>
   <si>
-    <t>(Team Assignment - Don't accpet until Tuesday in class) https://classroom.github.com/a/KowEWfPm</t>
-  </si>
-  <si>
-    <t>Your website</t>
-  </si>
-  <si>
-    <t>Submit a PR to ADS website with student team roster</t>
-  </si>
-  <si>
     <t>https://github.com/norcalbiostat/ADS</t>
-  </si>
-  <si>
-    <t>Data485 Github organization</t>
-  </si>
-  <si>
-    <t>Create shared private repo, team expectations &amp; workflow in README</t>
   </si>
   <si>
     <t>Learning Journal, [RAT discussion guide](notes/RAT Discussion guide.pdf)</t>
@@ -523,12 +502,6 @@
   </si>
   <si>
     <t>Read Introduction and answer assigned question in HackMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complete data security training.  
-1. Review the information on [this page](https://www.csuchico.edu/isec/data-protection/index.shtml)  
-2. Complete the Data Security and FERPA (Non-Level 1) training through [CSU Learn](https://www.csuchico.edu/hr/pdev/compliance-training.shtml)   
-3. Send a copy of your certificate to Dr. D. </t>
   </si>
   <si>
     <t>The New Jim Code</t>
@@ -567,6 +540,36 @@
   </si>
   <si>
     <t>[2](wk02-notes.html)</t>
+  </si>
+  <si>
+    <t>[5](wk05-notes.html)</t>
+  </si>
+  <si>
+    <t>[Jigsaw Notes: HackMD](https://hackmd.io/@norcalbiostat/rat-intro)</t>
+  </si>
+  <si>
+    <t>[Github classroom Team Assignment](https://classroom.github.com/a/KowEWfPm)</t>
+  </si>
+  <si>
+    <t>Send final report to Dr. D via Discord</t>
+  </si>
+  <si>
+    <t>Submit a PR to ADS website with student team roster on your assigned project page</t>
+  </si>
+  <si>
+    <t>Obtain shared private repo. Follow instructions in README</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Github classroom link in Discord. Pay attention to naming request. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete data security training.  </t>
+  </si>
+  <si>
+    <t>Week 5 notes</t>
+  </si>
+  <si>
+    <t>Real estate case study: Final Stakeholder report. Evaluation rubric in week 4 notes.</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -951,9 +954,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -975,9 +975,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -986,6 +983,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1083,7 +1101,37 @@
     <cellStyle name="Normal 3 2" xfId="91" xr:uid="{20B637C8-DD27-499C-BEC0-85B72C712ADD}"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1436,9 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1504,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -1468,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>2</v>
@@ -1485,29 +1533,29 @@
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B2" s="32">
         <v>43124</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1516,76 +1564,76 @@
         <v>43126</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B4" s="39">
         <v>43131</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>129</v>
-      </c>
       <c r="H4" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B5" s="32">
         <v>43138</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="43"/>
     </row>
@@ -1601,71 +1649,71 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B7" s="32">
         <v>43145</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35">
+        <v>43147</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>161</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32">
-        <v>43147</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>5</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -1677,19 +1725,19 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="126" x14ac:dyDescent="0.25">
@@ -1698,13 +1746,13 @@
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
@@ -1721,13 +1769,13 @@
       </c>
       <c r="B12" s="32"/>
       <c r="C12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
@@ -1744,7 +1792,7 @@
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="43"/>
@@ -1761,7 +1809,7 @@
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
@@ -1777,7 +1825,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
@@ -1795,7 +1843,7 @@
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
@@ -1808,11 +1856,11 @@
       </c>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
@@ -1829,7 +1877,7 @@
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
@@ -1842,11 +1890,11 @@
       </c>
       <c r="B19" s="32"/>
       <c r="C19" s="43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
@@ -1855,14 +1903,14 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="32"/>
       <c r="C20" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
@@ -1879,16 +1927,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1055"/>
+  <dimension ref="A1:R1054"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="9" style="10"/>
+    <col min="1" max="2" width="9" style="60"/>
     <col min="3" max="3" width="22.875" style="18" customWidth="1"/>
     <col min="4" max="4" width="46.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="22" bestFit="1" customWidth="1"/>
@@ -1900,10 +1947,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1912,7 +1959,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -1935,23 +1982,23 @@
       <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48">
+      <c r="A2" s="59">
         <v>1</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="59">
         <v>1</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="54">
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="53">
         <v>43125</v>
       </c>
       <c r="H2" s="48">
@@ -1969,21 +2016,23 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="59">
         <v>1</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="59">
         <v>2</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="54">
+      <c r="E3" s="51"/>
+      <c r="F3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="53">
         <v>43125</v>
       </c>
       <c r="H3" s="48">
@@ -2001,21 +2050,23 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="59">
         <v>1</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="59">
         <v>3</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="54">
+      <c r="C4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="53">
         <v>43125</v>
       </c>
       <c r="H4" s="48">
@@ -2033,21 +2084,23 @@
       <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="59">
         <v>4</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="54">
+      <c r="G5" s="53">
         <v>43125</v>
       </c>
       <c r="H5" s="48">
@@ -2065,21 +2118,23 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="59">
         <v>5</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="54">
+      <c r="C6" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="53">
         <v>43125</v>
       </c>
       <c r="H6" s="48">
@@ -2097,21 +2152,23 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="59">
         <v>6</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="54">
+      <c r="C7" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="53">
         <v>43125</v>
       </c>
       <c r="H7" s="48">
@@ -2129,21 +2186,23 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="59">
         <v>1</v>
       </c>
-      <c r="B8" s="49">
+      <c r="B8" s="59">
         <v>7</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="54">
+      <c r="C8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="53">
         <v>43127</v>
       </c>
       <c r="H8" s="48">
@@ -2161,21 +2220,23 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="59">
         <v>1</v>
       </c>
-      <c r="B9" s="49">
+      <c r="B9" s="59">
         <v>8</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="54">
+      <c r="E9" s="51"/>
+      <c r="F9" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="53">
         <v>43125</v>
       </c>
       <c r="H9" s="48">
@@ -2193,25 +2254,25 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="59">
         <v>1</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="59">
         <v>9</v>
       </c>
-      <c r="C10" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="52">
+      <c r="C10" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="51">
         <v>2</v>
       </c>
-      <c r="F10" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="54">
+      <c r="F10" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="53">
         <v>43132</v>
       </c>
       <c r="H10" s="48">
@@ -2229,14 +2290,14 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="60">
         <v>2</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="60">
         <v>1</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>52</v>
+      <c r="C11" s="56" t="s">
+        <v>51</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -2245,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
@@ -2264,14 +2325,16 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="60">
         <v>2</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="60">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="56" t="s">
+        <v>51</v>
+      </c>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
@@ -2279,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
@@ -2299,23 +2362,23 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="60">
         <v>2</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="60">
         <v>3</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>146</v>
+      <c r="F13" s="58" t="s">
+        <v>144</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
@@ -2335,21 +2398,23 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="60">
         <v>2</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="60">
         <v>4</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="5">
         <v>43137</v>
@@ -2369,21 +2434,23 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="60">
         <v>2</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="60">
         <v>5</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G15" s="5">
         <v>43134</v>
@@ -2403,21 +2470,23 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="60">
         <v>2</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="60">
         <v>6</v>
       </c>
-      <c r="C16" s="17"/>
+      <c r="C16" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" s="5">
         <v>43137</v>
@@ -2437,21 +2506,23 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="60">
         <v>2</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="60">
         <v>7</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5">
         <v>43141</v>
@@ -2470,21 +2541,24 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="60">
         <v>2</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="60">
         <v>8</v>
       </c>
+      <c r="C18" s="24" t="s">
+        <v>84</v>
+      </c>
       <c r="D18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="5">
         <v>43144</v>
@@ -2504,29 +2578,29 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="48">
+      <c r="A19" s="59">
         <v>3</v>
       </c>
-      <c r="B19" s="49">
+      <c r="B19" s="59">
         <v>1</v>
       </c>
-      <c r="C19" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="52">
+      <c r="C19" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="51">
         <v>5</v>
       </c>
-      <c r="F19" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="54">
+      <c r="F19" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="53">
         <v>43145</v>
       </c>
       <c r="H19" s="48">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -2539,28 +2613,28 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="48">
+    <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="59">
         <v>3</v>
       </c>
-      <c r="B20" s="49">
-        <v>2</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="52">
-        <v>5</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="G20" s="54">
-        <v>43151</v>
+      <c r="B20" s="59">
+        <v>3</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="53">
+        <v>43143</v>
       </c>
       <c r="H20" s="48">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -2573,28 +2647,28 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="48">
-        <v>3</v>
-      </c>
-      <c r="B21" s="49">
-        <v>3</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G21" s="54">
-        <v>43143</v>
-      </c>
-      <c r="H21" s="48">
-        <v>10</v>
+    <row r="21" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="60">
+        <v>4</v>
+      </c>
+      <c r="B21" s="60">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="5">
+        <v>43146</v>
+      </c>
+      <c r="H21" s="6">
+        <v>20</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -2608,27 +2682,29 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="61">
         <v>4</v>
       </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="5">
-        <v>43146</v>
-      </c>
-      <c r="H22" s="6">
-        <v>40</v>
+      <c r="B22" s="61">
+        <v>2</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="63">
+        <v>5</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="64">
+        <v>43151</v>
+      </c>
+      <c r="H22" s="65">
+        <v>50</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -2641,25 +2717,28 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>2</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" s="5">
-        <v>43151</v>
-      </c>
-      <c r="H23" s="6">
-        <v>20</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="61">
+        <v>4</v>
+      </c>
+      <c r="B23" s="61">
+        <v>3</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="63"/>
+      <c r="F23" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="64">
+        <v>43158</v>
+      </c>
+      <c r="H23" s="65">
+        <v>30</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -2673,22 +2752,27 @@
       <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="10">
-        <v>3</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="5">
-        <v>43146</v>
-      </c>
-      <c r="H24" s="6">
-        <v>10</v>
+      <c r="A24" s="59">
+        <v>5</v>
+      </c>
+      <c r="B24" s="59">
+        <v>1</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51">
+        <v>5</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="53">
+        <v>43159</v>
+      </c>
+      <c r="H24" s="48">
+        <v>30</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -2701,21 +2785,28 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="10">
-        <v>4</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="5">
-        <v>43158</v>
-      </c>
-      <c r="H25" s="6">
-        <v>40</v>
+    <row r="25" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="59">
+        <v>5</v>
+      </c>
+      <c r="B25" s="59">
+        <v>2</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="53">
+        <v>43151</v>
+      </c>
+      <c r="H25" s="48">
+        <v>20</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -2728,24 +2819,28 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="48">
+    <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="59">
         <v>5</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52">
-        <v>5</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="57"/>
+      <c r="B26" s="59">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="53">
+        <v>43153</v>
+      </c>
       <c r="H26" s="48">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -2758,24 +2853,28 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="54">
+    <row r="27" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="59">
+        <v>5</v>
+      </c>
+      <c r="B27" s="59">
+        <v>4</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="53">
         <v>43153</v>
       </c>
       <c r="H27" s="48">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -2789,18 +2888,18 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="60">
         <v>6</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
@@ -2820,7 +2919,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="7"/>
       <c r="I29" s="11"/>
@@ -2835,11 +2934,18 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="21"/>
+      <c r="A30" s="60">
+        <v>7</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -2853,17 +2959,12 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>7</v>
-      </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F31" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -2878,12 +2979,18 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="13" t="s">
-        <v>69</v>
-      </c>
+      <c r="A32" s="60">
+        <v>8</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -2898,18 +3005,13 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>58</v>
+      <c r="C33" s="19"/>
+      <c r="D33" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G33" s="7"/>
       <c r="I33" s="11"/>
@@ -2924,13 +3026,18 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="23"/>
+      <c r="A34" s="60">
+        <v>9</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="21"/>
       <c r="F34" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -2945,18 +3052,13 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>9</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>59</v>
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="11"/>
@@ -2971,13 +3073,18 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>71</v>
+      <c r="A36" s="60">
+        <v>10</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -2992,18 +3099,13 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>10</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>60</v>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="11"/>
@@ -3018,13 +3120,18 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>72</v>
+      <c r="A38" s="60">
+        <v>11</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -3039,18 +3146,13 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>11</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>61</v>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="11"/>
@@ -3065,13 +3167,18 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
-        <v>73</v>
+      <c r="A40" s="60">
+        <v>12</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -3086,18 +3193,13 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>12</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>62</v>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -3112,13 +3214,18 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>74</v>
+      <c r="A42" s="60">
+        <v>13</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="13" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G42" s="7"/>
       <c r="I42" s="11"/>
@@ -3133,18 +3240,13 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>13</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>63</v>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="13" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="11"/>
@@ -3159,13 +3261,15 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="13" t="s">
-        <v>27</v>
+      <c r="C44" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="G44" s="7"/>
       <c r="I44" s="11"/>
@@ -3180,17 +3284,13 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="C45" s="20"/>
       <c r="D45" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="7"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -3204,11 +3304,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C46" s="20"/>
-      <c r="D46" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
+      <c r="D46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -3224,7 +3324,7 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="8"/>
@@ -3241,13 +3341,15 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="20"/>
-      <c r="D48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="21"/>
+      <c r="C48" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E48" s="23"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="11"/>
+      <c r="G48" s="7"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -3260,15 +3362,13 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C49" s="20"/>
       <c r="D49" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E49" s="23"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3281,11 +3381,11 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="20"/>
-      <c r="D50" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="6"/>
+      <c r="C50" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="21"/>
       <c r="F50" s="4"/>
       <c r="G50" s="11"/>
       <c r="I50" s="11"/>
@@ -3300,13 +3400,11 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="11"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="7"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3323,7 +3421,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="6"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -3336,11 +3434,11 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C53" s="16"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="10"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3353,10 +3451,10 @@
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="20"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="8"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="4"/>
       <c r="G54" s="10"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -3374,7 +3472,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="10"/>
+      <c r="G55" s="7"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3391,7 +3489,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="11"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -3408,7 +3506,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="7"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -3425,7 +3523,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3439,10 +3537,10 @@
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="11"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="10"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -3456,10 +3554,10 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3476,7 +3574,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="21"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="11"/>
+      <c r="G61" s="7"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3490,10 +3588,7 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3506,8 +3601,10 @@
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="16"/>
-      <c r="G63" s="11"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="8"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -3524,6 +3621,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="23"/>
       <c r="F64" s="8"/>
+      <c r="G64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -20315,10 +20413,6 @@
       <c r="R1051" s="11"/>
     </row>
     <row r="1052" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1052" s="20"/>
-      <c r="D1052" s="8"/>
-      <c r="E1052" s="23"/>
-      <c r="F1052" s="8"/>
       <c r="G1052" s="11"/>
       <c r="I1052" s="11"/>
       <c r="J1052" s="11"/>
@@ -20357,32 +20451,34 @@
       <c r="Q1054" s="11"/>
       <c r="R1054" s="11"/>
     </row>
-    <row r="1055" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="G1055" s="11"/>
-      <c r="I1055" s="11"/>
-      <c r="J1055" s="11"/>
-      <c r="K1055" s="11"/>
-      <c r="L1055" s="11"/>
-      <c r="M1055" s="11"/>
-      <c r="N1055" s="11"/>
-      <c r="O1055" s="11"/>
-      <c r="P1055" s="11"/>
-      <c r="Q1055" s="11"/>
-      <c r="R1055" s="11"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
+  <conditionalFormatting sqref="G27:G1048576 G1:G21 G24">
+    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G25,1)&lt;=6,FLOOR(G25,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G22,1)&lt;=6,FLOOR(G22,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G23,1)&lt;=6,FLOOR(G23,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
+    <hyperlink ref="F44" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
     <hyperlink ref="F10" r:id="rId4" xr:uid="{0C554C86-504E-4A7E-88CF-9B00A46FCBEC}"/>
     <hyperlink ref="F13" r:id="rId5" xr:uid="{6FBC17D8-3990-459E-9B48-3EDCD7C3D037}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{ECC4227F-EDBE-41A5-B8DC-A3B400F5C6AF}"/>
+    <hyperlink ref="F26" r:id="rId6" xr:uid="{FCAC682D-62FD-4125-86A8-F60487A7CA26}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979832D6-52D5-42E5-BE21-DB2038BBEEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C942E5-AD8A-4539-BE91-3B1FD8499E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:R1054"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2668,7 @@
         <v>43146</v>
       </c>
       <c r="H21" s="6">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -2738,7 +2738,7 @@
         <v>43158</v>
       </c>
       <c r="H23" s="65">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C942E5-AD8A-4539-BE91-3B1FD8499E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633502D-C84A-4427-9BB4-0D6B325CB91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11505" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30540" yWindow="1170" windowWidth="21600" windowHeight="11505" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="190">
   <si>
     <t>SLO</t>
   </si>
@@ -122,9 +122,6 @@
     <t>github classroom</t>
   </si>
   <si>
-    <t>github classroom: sql</t>
-  </si>
-  <si>
     <t>Assignments</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Unsupervised Clustering</t>
   </si>
   <si>
-    <t>https://happygitwithr.com/</t>
-  </si>
-  <si>
     <t>Send via Discord</t>
   </si>
   <si>
@@ -170,16 +164,10 @@
     <t>week</t>
   </si>
   <si>
-    <t>https://discord.gg/tzcB4MJadW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Join the Discord Server. After you agree to the code of conduct you will be able to select `DATA-485` as your role which will grant you access to our class channels.  Post an introduction: Name, What is one thing you want us to know about you? Introduce your pets and/or favorite items. </t>
   </si>
   <si>
     <t>Post in Discord #class-chat</t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/u2p6oThE</t>
   </si>
   <si>
     <t>Notes</t>
@@ -428,9 +416,6 @@
     <t>Join HackMD - sign up via github and put your name here as a test</t>
   </si>
   <si>
-    <t>https://hackmd.io/@norcalbiostat/ads-s22-test/edit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Read Doing Data Science (DDS) Ch 1,16  
 Have last weeks tasks completed except Hugo/Blogdown. Get a start on Distill. </t>
   </si>
@@ -480,28 +465,7 @@
 [DDS online](https://learning.oreilly.com/library/view/doing-data-science/9781449363871/ch01.html)</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/WgHhl_Lz</t>
-  </si>
-  <si>
-    <t>https://classroom.github.com/a/1uBe_Dkt</t>
-  </si>
-  <si>
-    <t>Week 2 notes</t>
-  </si>
-  <si>
-    <t>https://hackmd.io/@norcalbiostat/whatisds</t>
-  </si>
-  <si>
-    <t>https://github.com/norcalbiostat/ADS</t>
-  </si>
-  <si>
-    <t>Learning Journal, [RAT discussion guide](notes/RAT Discussion guide.pdf)</t>
-  </si>
-  <si>
     <t>Jigsaw Notes: HackMD</t>
-  </si>
-  <si>
-    <t>Read Introduction and answer assigned question in HackMD</t>
   </si>
   <si>
     <t>The New Jim Code</t>
@@ -545,12 +509,6 @@
     <t>[5](wk05-notes.html)</t>
   </si>
   <si>
-    <t>[Jigsaw Notes: HackMD](https://hackmd.io/@norcalbiostat/rat-intro)</t>
-  </si>
-  <si>
-    <t>[Github classroom Team Assignment](https://classroom.github.com/a/KowEWfPm)</t>
-  </si>
-  <si>
     <t>Send final report to Dr. D via Discord</t>
   </si>
   <si>
@@ -566,10 +524,111 @@
     <t xml:space="preserve">Complete data security training.  </t>
   </si>
   <si>
-    <t>Week 5 notes</t>
+    <t>Real estate case study: Final Stakeholder report. Evaluation rubric in week 4 notes.</t>
   </si>
   <si>
-    <t>Real estate case study: Final Stakeholder report. Evaluation rubric in week 4 notes.</t>
+    <t xml:space="preserve">Work through the SQLBolt interactive tutorial up until lesson 12. Screenshot your answer for the last exercise and send to me via Discord. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Introduction and answer assigned question in HackMD. Will discuss as Jigsaw discussion in class. </t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hackmd.io/@norcalbiostat/ads-s22-test/edit", target="_blank"&gt;HackMD Test file&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://discord.gg/tzcB4MJadW", target="_blank"&gt;Discord Join Link&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://happygitwithr.com/", target="_blank"&gt; Happy Git with R&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://classroom.github.com/a/u2p6oThE", target="_blank"&gt;Github Classroom&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://classroom.github.com/a/WgHhl_Lz", target="_blank"&gt;Github Classroom&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://classroom.github.com/a/1uBe_Dkt", target="_blank"&gt;Github Classroom&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://data485.netlify.app/wk02-notes.html", target="_blank"&gt;Week 2 notes&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hackmd.io/@norcalbiostat/whatisds", target="_blank"&gt;HackMD What is DS&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://classroom.github.com/a/KowEWfPm", target="_blank"&gt;Github Classroom&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://data485.netlify.app/wk05-notes.html", target="_blank"&gt;Week 5 notes&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://sqlbolt.com/", target="_blank"&gt;SQL Bolt&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Project Orientation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do a needs assessment and create a scope of work for your project. </t>
+  </si>
+  <si>
+    <t>Register at https://chicodatafest.netlify.app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project </t>
+  </si>
+  <si>
+    <t>Engineered Inequity</t>
+  </si>
+  <si>
+    <t>Read RAT Part 1 and answer discussion questions in HackMD</t>
+  </si>
+  <si>
+    <t>Default Discrimination</t>
+  </si>
+  <si>
+    <t>Read RAT Part 2 and answer discussion questions in HackMD</t>
+  </si>
+  <si>
+    <t>Coded exposure</t>
+  </si>
+  <si>
+    <t>Technological benevolence</t>
+  </si>
+  <si>
+    <t>Read RAT Part 3 and answer discussion questions in HackMD</t>
+  </si>
+  <si>
+    <t>Read RAT Part 4 and answer discussion questions in HackMD</t>
+  </si>
+  <si>
+    <t>Retoolign Solidarity, Reimagining Justice</t>
+  </si>
+  <si>
+    <t>Read RAT Part 5 and answer discussion questions in HackMD</t>
+  </si>
+  <si>
+    <t>Race as a predictor</t>
+  </si>
+  <si>
+    <t>Critically examine policies used to predict student success</t>
+  </si>
+  <si>
+    <t>Read the article, [Major Universities Are Using Race as a “High Impact Predictor” of Student Success.](https://themarkup.org/news/2021/03/02/major-universities-are-using-race-as-a-high-impact-predictor-of-student-success)
+Answer questions in HackMD</t>
+  </si>
+  <si>
+    <t>Pull your github repo according to directions in Discord. Review the README.
+Complete your Data Security Training</t>
+  </si>
+  <si>
+    <t>Learning Journal, &lt;a href="https://data485.netlify.app/notes/RAT Discussion guide.pdf"&gt;Reading iscussion guide&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hackmd.io/@norcalbiostat/rat-intro", target="_blank"&gt;HackMD Reading Intro Jigsaw Notes&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://github.com/norcalbiostat/ADS", target="_blank"&gt;Github repo for this class webpage&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -816,7 +875,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1004,6 +1063,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1482,11 +1550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1495,7 +1563,7 @@
     <col min="2" max="2" width="12.625" style="25" customWidth="1"/>
     <col min="3" max="3" width="20.125" style="25" customWidth="1"/>
     <col min="4" max="4" width="51.75" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="40.625" style="27" customWidth="1"/>
     <col min="6" max="7" width="22.375" style="27" customWidth="1"/>
     <col min="8" max="8" width="27.125" style="27" customWidth="1"/>
     <col min="9" max="9" width="24.875" style="27" customWidth="1"/>
@@ -1504,7 +1572,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>1</v>
@@ -1516,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>2</v>
@@ -1533,29 +1601,29 @@
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B2" s="32">
         <v>43124</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1564,76 +1632,76 @@
         <v>43126</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B4" s="39">
         <v>43131</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B5" s="32">
         <v>43138</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I5" s="43"/>
     </row>
@@ -1649,34 +1717,34 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B7" s="32">
         <v>43145</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1685,35 +1753,37 @@
         <v>43147</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E8" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G8" s="44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H8" s="44"/>
       <c r="I8" s="44" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="32"/>
+        <v>149</v>
+      </c>
+      <c r="B9" s="32">
+        <v>43152</v>
+      </c>
       <c r="C9" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -1725,198 +1795,328 @@
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="43" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="126" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>6</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="17" t="s">
-        <v>108</v>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32">
+        <v>43154</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="43" t="s">
-        <v>14</v>
-      </c>
+      <c r="H11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
-        <v>7</v>
-      </c>
-      <c r="B12" s="32"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="32">
+        <v>43159</v>
+      </c>
       <c r="C12" s="17" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="H12" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <v>8</v>
-      </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="47"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <v>9</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>7</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="E14" s="43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46">
-        <v>43190</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="43"/>
+    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
+        <v>174</v>
+      </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>10</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="43"/>
+      <c r="A16" s="45">
+        <v>8</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="47"/>
       <c r="E16" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="43"/>
+        <v>107</v>
+      </c>
+      <c r="F16" s="47"/>
       <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <v>9</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="43" t="s">
         <v>11</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>12</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="43" t="s">
-        <v>12</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
     </row>
-    <row r="19" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>13</v>
-      </c>
-      <c r="B19" s="32"/>
+    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="46">
+        <v>43190</v>
+      </c>
       <c r="C19" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="43"/>
+        <v>10</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="E19" s="43" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="32"/>
+    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="43"/>
+        <v>175</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43" t="s">
+        <v>176</v>
+      </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>10</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>11</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+    </row>
+    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>12</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+    </row>
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>13</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>15</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1927,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1054"/>
+  <dimension ref="A1:R1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1947,10 +2147,10 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>17</v>
@@ -1959,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -1992,11 +2192,11 @@
         <v>20</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="52" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="G2" s="53">
         <v>43125</v>
@@ -2016,21 +2216,17 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
-        <v>1</v>
-      </c>
+      <c r="A3" s="59"/>
       <c r="B3" s="59">
         <v>2</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C3" s="49"/>
       <c r="D3" s="50" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="51"/>
       <c r="F3" s="50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" s="53">
         <v>43125</v>
@@ -2050,21 +2246,17 @@
       <c r="R3" s="11"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
-        <v>1</v>
-      </c>
+      <c r="A4" s="59"/>
       <c r="B4" s="59">
         <v>3</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C4" s="49"/>
       <c r="D4" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G4" s="53">
         <v>43125</v>
@@ -2083,22 +2275,18 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
     </row>
-    <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="59">
-        <v>1</v>
-      </c>
+    <row r="5" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
       <c r="B5" s="59">
         <v>4</v>
       </c>
-      <c r="C5" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C5" s="49"/>
       <c r="D5" s="50" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="52" t="s">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="G5" s="53">
         <v>43125</v>
@@ -2118,21 +2306,17 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="59">
-        <v>1</v>
-      </c>
+      <c r="A6" s="59"/>
       <c r="B6" s="59">
         <v>5</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C6" s="49"/>
       <c r="D6" s="50" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="53">
         <v>43125</v>
@@ -2151,22 +2335,18 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="59">
-        <v>1</v>
-      </c>
+    <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
       <c r="B7" s="59">
         <v>6</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C7" s="49"/>
       <c r="D7" s="50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="50" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="G7" s="53">
         <v>43125</v>
@@ -2186,21 +2366,17 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59">
-        <v>1</v>
-      </c>
+      <c r="A8" s="59"/>
       <c r="B8" s="59">
         <v>7</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C8" s="49"/>
       <c r="D8" s="50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E8" s="51"/>
       <c r="F8" s="52" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="G8" s="53">
         <v>43127</v>
@@ -2220,21 +2396,17 @@
       <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
-        <v>1</v>
-      </c>
+      <c r="A9" s="59"/>
       <c r="B9" s="59">
         <v>8</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="49"/>
       <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="51"/>
       <c r="F9" s="50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="53">
         <v>43125</v>
@@ -2253,24 +2425,22 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="59">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
       <c r="B10" s="59">
         <v>9</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E10" s="51">
         <v>2</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="G10" s="53">
         <v>43132</v>
@@ -2289,7 +2459,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="60">
         <v>2</v>
       </c>
@@ -2297,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="56" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -2305,8 +2475,8 @@
       <c r="E11" s="21">
         <v>2</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>142</v>
+      <c r="F11" s="67" t="s">
+        <v>163</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
@@ -2315,7 +2485,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="58"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -2325,24 +2495,19 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="60">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B12" s="60">
         <v>2</v>
       </c>
-      <c r="C12" s="56" t="s">
-        <v>51</v>
-      </c>
+      <c r="C12" s="56"/>
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="21">
         <v>2</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>143</v>
+      <c r="F12" s="67" t="s">
+        <v>164</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
@@ -2361,24 +2526,21 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="60">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B13" s="60">
         <v>3</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E13" s="21">
         <v>6</v>
       </c>
       <c r="F13" s="58" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
@@ -2398,23 +2560,18 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="60">
-        <v>2</v>
-      </c>
       <c r="B14" s="60">
         <v>4</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" s="21">
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G14" s="5">
         <v>43137</v>
@@ -2434,23 +2591,18 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="60">
-        <v>2</v>
-      </c>
       <c r="B15" s="60">
         <v>5</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="24"/>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="21">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G15" s="5">
         <v>43134</v>
@@ -2470,23 +2622,18 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
-        <v>2</v>
-      </c>
       <c r="B16" s="60">
         <v>6</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" s="21">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G16" s="5">
         <v>43137</v>
@@ -2506,23 +2653,18 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="60">
-        <v>2</v>
-      </c>
       <c r="B17" s="60">
         <v>7</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E17" s="21">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="5">
         <v>43141</v>
@@ -2541,24 +2683,19 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="60">
-        <v>2</v>
-      </c>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="60">
         <v>8</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>84</v>
-      </c>
+      <c r="C18" s="24"/>
       <c r="D18" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" s="21">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G18" s="5">
         <v>43144</v>
@@ -2585,16 +2722,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E19" s="51">
         <v>5</v>
       </c>
-      <c r="F19" s="50" t="s">
-        <v>163</v>
+      <c r="F19" s="57" t="s">
+        <v>166</v>
       </c>
       <c r="G19" s="53">
         <v>43145</v>
@@ -2604,7 +2741,7 @@
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -2614,21 +2751,19 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="59">
-        <v>3</v>
-      </c>
+      <c r="A20" s="59"/>
       <c r="B20" s="59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E20" s="51"/>
       <c r="F20" s="50" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G20" s="53">
         <v>43143</v>
@@ -2647,7 +2782,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="60">
         <v>4</v>
       </c>
@@ -2655,14 +2790,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="4" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="G21" s="5">
         <v>43146</v>
@@ -2682,23 +2817,21 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
-        <v>4</v>
-      </c>
+      <c r="A22" s="61"/>
       <c r="B22" s="61">
         <v>2</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E22" s="63">
         <v>5</v>
       </c>
       <c r="F22" s="62" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="G22" s="64">
         <v>43151</v>
@@ -2717,22 +2850,20 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
-        <v>4</v>
-      </c>
+    <row r="23" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="61"/>
       <c r="B23" s="61">
         <v>3</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E23" s="63"/>
-      <c r="F23" s="62" t="s">
-        <v>169</v>
+      <c r="F23" s="67" t="s">
+        <v>167</v>
       </c>
       <c r="G23" s="64">
         <v>43158</v>
@@ -2751,7 +2882,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="59">
         <v>5</v>
       </c>
@@ -2761,17 +2892,19 @@
       <c r="C24" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="50" t="s">
+        <v>156</v>
+      </c>
       <c r="E24" s="51">
         <v>5</v>
       </c>
-      <c r="F24" s="50" t="s">
-        <v>27</v>
+      <c r="F24" s="57" t="s">
+        <v>168</v>
       </c>
       <c r="G24" s="53">
         <v>43159</v>
       </c>
-      <c r="H24" s="48">
+      <c r="H24" s="66">
         <v>30</v>
       </c>
       <c r="I24" s="11"/>
@@ -2785,28 +2918,26 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="59">
-        <v>5</v>
-      </c>
+    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="59"/>
       <c r="B25" s="59">
         <v>2</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="D25" s="50" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E25" s="51"/>
-      <c r="F25" s="50" t="s">
-        <v>167</v>
+      <c r="F25" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="G25" s="53">
-        <v>43151</v>
-      </c>
-      <c r="H25" s="48">
-        <v>20</v>
+        <v>43153</v>
+      </c>
+      <c r="H25" s="66">
+        <v>40</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -2820,27 +2951,25 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="59">
-        <v>5</v>
-      </c>
+      <c r="A26" s="59"/>
       <c r="B26" s="59">
         <v>3</v>
       </c>
       <c r="C26" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="50" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="E26" s="51"/>
-      <c r="F26" s="57" t="s">
-        <v>145</v>
+      <c r="F26" s="50" t="s">
+        <v>153</v>
       </c>
       <c r="G26" s="53">
-        <v>43153</v>
-      </c>
-      <c r="H26" s="48">
-        <v>10</v>
+        <v>43151</v>
+      </c>
+      <c r="H26" s="66">
+        <v>20</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -2853,28 +2982,24 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="59">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" s="59"/>
       <c r="B27" s="59">
         <v>4</v>
       </c>
-      <c r="C27" s="49" t="s">
-        <v>102</v>
-      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E27" s="51"/>
-      <c r="F27" s="50" t="s">
-        <v>162</v>
+      <c r="F27" s="57" t="s">
+        <v>189</v>
       </c>
       <c r="G27" s="53">
         <v>43153</v>
       </c>
-      <c r="H27" s="48">
-        <v>40</v>
+      <c r="H27" s="66">
+        <v>10</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -2892,14 +3017,14 @@
         <v>6</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="4" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G28" s="7"/>
       <c r="I28" s="11"/>
@@ -2934,18 +3059,7 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="60">
-        <v>7</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>75</v>
-      </c>
+      <c r="C30" s="17"/>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -2959,12 +3073,17 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C31" s="17"/>
+      <c r="A31" s="60">
+        <v>7</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>63</v>
+      </c>
       <c r="D31" s="13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -2979,18 +3098,12 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="60">
-        <v>8</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="23"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="F32" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G32" s="7"/>
       <c r="I32" s="11"/>
@@ -3005,13 +3118,18 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="13" t="s">
-        <v>69</v>
+      <c r="A33" s="60">
+        <v>8</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G33" s="7"/>
       <c r="I33" s="11"/>
@@ -3026,18 +3144,13 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="60">
-        <v>9</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="23"/>
       <c r="F34" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -3052,13 +3165,18 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C35" s="14"/>
-      <c r="D35" s="13" t="s">
-        <v>70</v>
+      <c r="A35" s="60">
+        <v>9</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="11"/>
@@ -3073,18 +3191,13 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="60">
-        <v>10</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>59</v>
+      <c r="C36" s="14"/>
+      <c r="D36" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -3099,13 +3212,18 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C37" s="14"/>
-      <c r="D37" s="13" t="s">
-        <v>71</v>
+      <c r="A37" s="60">
+        <v>10</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="11"/>
@@ -3120,18 +3238,13 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="60">
-        <v>11</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>60</v>
+      <c r="C38" s="14"/>
+      <c r="D38" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -3146,13 +3259,18 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="14"/>
-      <c r="D39" s="13" t="s">
-        <v>72</v>
+      <c r="A39" s="60">
+        <v>11</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="11"/>
@@ -3167,18 +3285,13 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="60">
-        <v>12</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>61</v>
+      <c r="C40" s="14"/>
+      <c r="D40" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -3193,13 +3306,18 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C41" s="14"/>
-      <c r="D41" s="13" t="s">
-        <v>73</v>
+      <c r="A41" s="60">
+        <v>12</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -3214,18 +3332,13 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="60">
-        <v>13</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>62</v>
+      <c r="C42" s="14"/>
+      <c r="D42" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="13" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="G42" s="7"/>
       <c r="I42" s="11"/>
@@ -3240,13 +3353,18 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>74</v>
+      <c r="A43" s="60">
+        <v>13</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="11"/>
@@ -3261,15 +3379,13 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="9" t="s">
-        <v>35</v>
+      <c r="C44" s="14"/>
+      <c r="D44" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="G44" s="7"/>
       <c r="I44" s="11"/>
@@ -3284,13 +3400,17 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="20"/>
+      <c r="C45" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="11"/>
+      <c r="G45" s="7"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
       <c r="K45" s="11"/>
@@ -3304,11 +3424,11 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C46" s="20"/>
-      <c r="D46" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="8"/>
+      <c r="D46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -3324,7 +3444,7 @@
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
       <c r="D47" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="8"/>
@@ -3341,15 +3461,13 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C48" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E48" s="23"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="21"/>
       <c r="F48" s="8"/>
-      <c r="G48" s="7"/>
+      <c r="G48" s="11"/>
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
@@ -3362,13 +3480,15 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="20"/>
+      <c r="C49" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D49" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3381,11 +3501,11 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="21"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="4"/>
       <c r="G50" s="11"/>
       <c r="I50" s="11"/>
@@ -3400,11 +3520,13 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="16"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="7"/>
+      <c r="C51" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="11"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -3421,7 +3543,7 @@
       <c r="D52" s="12"/>
       <c r="E52" s="6"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="11"/>
+      <c r="G52" s="7"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -3434,11 +3556,11 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C53" s="20"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="10"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="11"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3451,10 +3573,10 @@
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="16"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="4"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="10"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -3472,7 +3594,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="21"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="7"/>
+      <c r="G55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -3489,7 +3611,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="7"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -3506,7 +3628,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="7"/>
+      <c r="G57" s="11"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -3523,7 +3645,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="11"/>
+      <c r="G58" s="7"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3537,10 +3659,10 @@
     </row>
     <row r="59" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C59" s="16"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="10"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="11"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -3554,10 +3676,10 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="11"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="10"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3574,7 +3696,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="21"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="7"/>
+      <c r="G61" s="11"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3588,7 +3710,10 @@
     </row>
     <row r="62" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C62" s="16"/>
-      <c r="G62" s="11"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="7"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3601,10 +3726,8 @@
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="20"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="8"/>
+      <c r="C63" s="16"/>
+      <c r="G63" s="11"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -3621,7 +3744,6 @@
       <c r="D64" s="8"/>
       <c r="E64" s="23"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -20413,6 +20535,10 @@
       <c r="R1051" s="11"/>
     </row>
     <row r="1052" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1052" s="20"/>
+      <c r="D1052" s="8"/>
+      <c r="E1052" s="23"/>
+      <c r="F1052" s="8"/>
       <c r="G1052" s="11"/>
       <c r="I1052" s="11"/>
       <c r="J1052" s="11"/>
@@ -20451,15 +20577,28 @@
       <c r="Q1054" s="11"/>
       <c r="R1054" s="11"/>
     </row>
+    <row r="1055" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1055" s="11"/>
+      <c r="I1055" s="11"/>
+      <c r="J1055" s="11"/>
+      <c r="K1055" s="11"/>
+      <c r="L1055" s="11"/>
+      <c r="M1055" s="11"/>
+      <c r="N1055" s="11"/>
+      <c r="O1055" s="11"/>
+      <c r="P1055" s="11"/>
+      <c r="Q1055" s="11"/>
+      <c r="R1055" s="11"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G27:G1048576 G1:G21 G24">
+  <conditionalFormatting sqref="G1:G21 G28:G1048576 G24:G25">
     <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25:G26">
+  <conditionalFormatting sqref="G26:G27">
     <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G25,1)&lt;=6,FLOOR(G25,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(G26,1)&lt;=6,FLOOR(G26,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
@@ -20473,14 +20612,19 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F44" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{0C554C86-504E-4A7E-88CF-9B00A46FCBEC}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{6FBC17D8-3990-459E-9B48-3EDCD7C3D037}"/>
-    <hyperlink ref="F26" r:id="rId6" xr:uid="{FCAC682D-62FD-4125-86A8-F60487A7CA26}"/>
+    <hyperlink ref="F45" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
+    <hyperlink ref="F2" r:id="rId2" display="https://discord.gg/tzcB4MJadW" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
+    <hyperlink ref="F8" r:id="rId3" display="https://classroom.github.com/a/u2p6oThE" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{0C554C86-504E-4A7E-88CF-9B00A46FCBEC}"/>
+    <hyperlink ref="F13" r:id="rId5" display="https://hackmd.io/@norcalbiostat/whatisds" xr:uid="{6FBC17D8-3990-459E-9B48-3EDCD7C3D037}"/>
+    <hyperlink ref="F27" r:id="rId6" display="https://github.com/norcalbiostat/ADS" xr:uid="{FCAC682D-62FD-4125-86A8-F60487A7CA26}"/>
+    <hyperlink ref="F11" r:id="rId7" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{436D0DCA-485C-437C-849C-9D2DE8DF58F9}"/>
+    <hyperlink ref="F12" r:id="rId8" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{D19D602F-7206-4F9B-A606-91A6FDD1BF31}"/>
+    <hyperlink ref="F19" r:id="rId9" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{37F0FCE5-07DD-4846-8D4C-F64AA592A145}"/>
+    <hyperlink ref="F23" r:id="rId10" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{35F5057C-7909-45FD-862F-0689977999EC}"/>
+    <hyperlink ref="F24" r:id="rId11" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{2914F4AF-B27C-47F4-98BA-8F1BB2A7ADC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633502D-C84A-4427-9BB4-0D6B325CB91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDEDAED-E26F-4845-A4CD-8B1FEFBEC316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="1170" windowWidth="21600" windowHeight="11505" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="195">
   <si>
     <t>SLO</t>
   </si>
@@ -630,6 +630,21 @@
   <si>
     <t>&lt;a href="https://github.com/norcalbiostat/ADS", target="_blank"&gt;Github repo for this class webpage&lt;/a&gt;</t>
   </si>
+  <si>
+    <t>Learning Reflection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LJ Entry: 1) What new information have you learned so far in this class? 2) Are you putting your best effort into your work? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning journal reflection -  1) What new information have you learned so far in this class? 2) Are you putting your best effort into your work? </t>
+  </si>
+  <si>
+    <t>Edit your project page to adjust or add to the timeline and milestones sections. Update the NSC Poster session date to May 2nd.</t>
+  </si>
+  <si>
+    <t>ADS Website</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1072,6 +1087,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="92" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1550,11 +1577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1747,7 +1774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="35">
         <v>43147</v>
@@ -1808,7 +1835,7 @@
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
-    <row r="11" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="32">
         <v>43154</v>
@@ -1867,136 +1894,134 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>7</v>
-      </c>
+    <row r="14" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>106</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="G14" s="43" t="s">
+        <v>191</v>
+      </c>
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>7</v>
+      </c>
       <c r="B15" s="32"/>
       <c r="C15" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" s="43"/>
+        <v>63</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>117</v>
+      </c>
       <c r="E15" s="43" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
         <v>8</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="1:9" ht="189" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
       <c r="B17" s="46"/>
       <c r="C17" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>184</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D17" s="47"/>
       <c r="E17" s="43" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="F17" s="47"/>
       <c r="G17" s="43"/>
       <c r="H17" s="47"/>
       <c r="I17" s="47"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
+    <row r="18" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
         <v>9</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="43" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43" t="s">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46">
-        <v>43190</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>171</v>
       </c>
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
     </row>
-    <row r="20" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="46">
+        <v>43190</v>
+      </c>
       <c r="C20" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D20" s="43"/>
+        <v>10</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>120</v>
+      </c>
       <c r="E20" s="43" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="43"/>
       <c r="I20" s="43"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>10</v>
-      </c>
-      <c r="B21" s="32"/>
+    <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="43" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
@@ -2005,118 +2030,135 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="32"/>
       <c r="C22" s="43" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
     </row>
-    <row r="23" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>11</v>
+      </c>
       <c r="B23" s="32"/>
       <c r="C23" s="43" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>12</v>
-      </c>
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="43" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="D24" s="43"/>
       <c r="E24" s="43" t="s">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
       <c r="I24" s="43"/>
     </row>
-    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="43" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D25" s="43"/>
       <c r="E25" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
     </row>
-    <row r="26" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+    <row r="26" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>13</v>
+      </c>
       <c r="B26" s="32"/>
       <c r="C26" s="43" t="s">
-        <v>178</v>
+        <v>37</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43" t="s">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
     </row>
-    <row r="27" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="31">
-        <v>15</v>
-      </c>
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="43" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>82</v>
+    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>15</v>
       </c>
       <c r="B28" s="32"/>
       <c r="C28" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="43"/>
+        <v>181</v>
+      </c>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43" t="s">
+        <v>182</v>
+      </c>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2127,10 +2169,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1055"/>
+  <dimension ref="A1:R1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3058,8 +3101,16 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C30" s="17"/>
+    <row r="30" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>194</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
@@ -3072,18 +3123,15 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="60">
-        <v>7</v>
-      </c>
+    <row r="31" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C31" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>52</v>
+        <v>190</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G31" s="7"/>
       <c r="I31" s="11"/>
@@ -3098,14 +3146,22 @@
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="7"/>
+      <c r="A32" s="59">
+        <v>7</v>
+      </c>
+      <c r="B32" s="59"/>
+      <c r="C32" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="71"/>
+      <c r="F32" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="72"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
@@ -3118,20 +3174,18 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="60">
-        <v>8</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="7"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="71"/>
+      <c r="F33" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="72"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
@@ -3144,13 +3198,18 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C34" s="19"/>
-      <c r="D34" s="13" t="s">
-        <v>65</v>
+      <c r="A34" s="60">
+        <v>8</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G34" s="7"/>
       <c r="I34" s="11"/>
@@ -3165,18 +3224,13 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="60">
-        <v>9</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="F35" s="13" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G35" s="7"/>
       <c r="I35" s="11"/>
@@ -3191,13 +3245,18 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C36" s="14"/>
-      <c r="D36" s="13" t="s">
-        <v>66</v>
+      <c r="A36" s="60">
+        <v>9</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G36" s="7"/>
       <c r="I36" s="11"/>
@@ -3212,18 +3271,13 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="60">
-        <v>10</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>55</v>
+      <c r="C37" s="14"/>
+      <c r="D37" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="13" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G37" s="7"/>
       <c r="I37" s="11"/>
@@ -3238,13 +3292,18 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C38" s="14"/>
-      <c r="D38" s="13" t="s">
-        <v>67</v>
+      <c r="A38" s="60">
+        <v>10</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G38" s="7"/>
       <c r="I38" s="11"/>
@@ -3259,18 +3318,13 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="60">
-        <v>11</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>56</v>
+      <c r="C39" s="14"/>
+      <c r="D39" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="13" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G39" s="7"/>
       <c r="I39" s="11"/>
@@ -3285,13 +3339,18 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C40" s="14"/>
-      <c r="D40" s="13" t="s">
-        <v>68</v>
+      <c r="A40" s="60">
+        <v>11</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G40" s="7"/>
       <c r="I40" s="11"/>
@@ -3306,18 +3365,13 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="60">
-        <v>12</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>57</v>
+      <c r="C41" s="14"/>
+      <c r="D41" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="13" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G41" s="7"/>
       <c r="I41" s="11"/>
@@ -3332,13 +3386,18 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
-        <v>69</v>
+      <c r="A42" s="60">
+        <v>12</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G42" s="7"/>
       <c r="I42" s="11"/>
@@ -3353,18 +3412,13 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="60">
-        <v>13</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>58</v>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="13" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="11"/>
@@ -3379,13 +3433,18 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C44" s="14"/>
-      <c r="D44" s="13" t="s">
-        <v>70</v>
+      <c r="A44" s="60">
+        <v>13</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="13" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="G44" s="7"/>
       <c r="I44" s="11"/>
@@ -3400,15 +3459,13 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C45" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="9" t="s">
-        <v>34</v>
+      <c r="C45" s="14"/>
+      <c r="D45" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="G45" s="7"/>
       <c r="I45" s="11"/>
@@ -3423,13 +3480,17 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C46" s="20"/>
+      <c r="C46" s="20" t="s">
+        <v>30</v>
+      </c>
       <c r="D46" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="7"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -3443,11 +3504,11 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C47" s="20"/>
-      <c r="D47" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="8"/>
+      <c r="D47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="11"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -3463,7 +3524,7 @@
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C48" s="20"/>
       <c r="D48" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="8"/>
@@ -3480,15 +3541,13 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="23"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="21"/>
       <c r="F49" s="8"/>
-      <c r="G49" s="7"/>
+      <c r="G49" s="11"/>
       <c r="I49" s="11"/>
       <c r="J49" s="11"/>
       <c r="K49" s="11"/>
@@ -3501,13 +3560,15 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C50" s="20"/>
+      <c r="C50" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D50" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="11"/>
+        <v>96</v>
+      </c>
+      <c r="E50" s="23"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -3520,11 +3581,11 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="4"/>
       <c r="G51" s="11"/>
       <c r="I51" s="11"/>
@@ -3539,11 +3600,13 @@
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="16"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="7"/>
+      <c r="C52" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="11"/>
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -3560,7 +3623,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="6"/>
       <c r="F53" s="12"/>
-      <c r="G53" s="11"/>
+      <c r="G53" s="7"/>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11"/>
@@ -3573,11 +3636,11 @@
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="20"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="10"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="11"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -3590,10 +3653,10 @@
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C55" s="16"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="4"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="10"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -3611,7 +3674,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="21"/>
       <c r="F56" s="4"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="10"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -3628,7 +3691,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="21"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="11"/>
+      <c r="G57" s="7"/>
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11"/>
@@ -3645,7 +3708,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="21"/>
       <c r="F58" s="4"/>
-      <c r="G58" s="7"/>
+      <c r="G58" s="11"/>
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -3662,7 +3725,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="21"/>
       <c r="F59" s="4"/>
-      <c r="G59" s="11"/>
+      <c r="G59" s="7"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -3676,10 +3739,10 @@
     </row>
     <row r="60" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C60" s="16"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="10"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="11"/>
       <c r="I60" s="11"/>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
@@ -3693,10 +3756,10 @@
     </row>
     <row r="61" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C61" s="16"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="11"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="10"/>
       <c r="I61" s="11"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
@@ -3713,7 +3776,7 @@
       <c r="D62" s="4"/>
       <c r="E62" s="21"/>
       <c r="F62" s="4"/>
-      <c r="G62" s="7"/>
+      <c r="G62" s="11"/>
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
@@ -3727,7 +3790,10 @@
     </row>
     <row r="63" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C63" s="16"/>
-      <c r="G63" s="11"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="7"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -3740,10 +3806,8 @@
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="20"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="8"/>
+      <c r="C64" s="16"/>
+      <c r="G64" s="11"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -3760,7 +3824,6 @@
       <c r="D65" s="8"/>
       <c r="E65" s="23"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="11"/>
       <c r="I65" s="11"/>
       <c r="J65" s="11"/>
       <c r="K65" s="11"/>
@@ -20552,6 +20615,10 @@
       <c r="R1052" s="11"/>
     </row>
     <row r="1053" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1053" s="20"/>
+      <c r="D1053" s="8"/>
+      <c r="E1053" s="23"/>
+      <c r="F1053" s="8"/>
       <c r="G1053" s="11"/>
       <c r="I1053" s="11"/>
       <c r="J1053" s="11"/>
@@ -20589,6 +20656,19 @@
       <c r="P1055" s="11"/>
       <c r="Q1055" s="11"/>
       <c r="R1055" s="11"/>
+    </row>
+    <row r="1056" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1056" s="11"/>
+      <c r="I1056" s="11"/>
+      <c r="J1056" s="11"/>
+      <c r="K1056" s="11"/>
+      <c r="L1056" s="11"/>
+      <c r="M1056" s="11"/>
+      <c r="N1056" s="11"/>
+      <c r="O1056" s="11"/>
+      <c r="P1056" s="11"/>
+      <c r="Q1056" s="11"/>
+      <c r="R1056" s="11"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G21 G28:G1048576 G24:G25">
@@ -20612,7 +20692,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F45" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
+    <hyperlink ref="F46" r:id="rId1" xr:uid="{2D8093C6-6A70-4C38-B09F-3BB0227B641A}"/>
     <hyperlink ref="F2" r:id="rId2" display="https://discord.gg/tzcB4MJadW" xr:uid="{6E565947-21CF-47F9-8CA2-995C0C03266C}"/>
     <hyperlink ref="F8" r:id="rId3" display="https://classroom.github.com/a/u2p6oThE" xr:uid="{0259A5C9-8486-4A9E-9B9D-E5C611482C63}"/>
     <hyperlink ref="F10" r:id="rId4" display="https://classroom.github.com/a/WgHhl_Lz" xr:uid="{0C554C86-504E-4A7E-88CF-9B00A46FCBEC}"/>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C52CA6-B202-4CB8-BFC0-5BF391848A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BE0E5B-EE7A-4270-A032-B6E16D65A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="1980" windowWidth="23820" windowHeight="13635" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>SLO</t>
   </si>
@@ -163,12 +163,6 @@
 * Get all the things</t>
   </si>
   <si>
-    <t xml:space="preserve">* Describe the difference between training and testing data sets  
-* Describe the difference between a parametric and non-parametric model  
-* Identify  and describe situations where classification, regression, and clustering models are appropriate.   
-* Explain the concept of overfitting, and bias-variance tradeoff. </t>
-  </si>
-  <si>
     <t>Creating a professional website</t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>Email?</t>
   </si>
   <si>
-    <t>ISLR Ch 4 - Collaborative notes</t>
-  </si>
-  <si>
     <t>ISLR Ch 5 - Collaborative notes</t>
   </si>
   <si>
@@ -212,9 +203,6 @@
   </si>
   <si>
     <t>Linear Regression</t>
-  </si>
-  <si>
-    <t>ISLR Ch 4 - Practice Exercises</t>
   </si>
   <si>
     <t>ISLR Ch 5 - Practice Exercises</t>
@@ -338,9 +326,6 @@
     <t xml:space="preserve">What is Statistical Learning? </t>
   </si>
   <si>
-    <t>ISLR Ch 3</t>
-  </si>
-  <si>
     <t>ISLR Ch 4</t>
   </si>
   <si>
@@ -356,9 +341,6 @@
     <t>ISLR Ch 8</t>
   </si>
   <si>
-    <t>ISLR Ch 10</t>
-  </si>
-  <si>
     <t>Understand what the New Jim Code is and how it impacts our society</t>
   </si>
   <si>
@@ -369,9 +351,6 @@
   </si>
   <si>
     <t xml:space="preserve">Get connected to the class learning tools </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identify cases where a non-parametric approach would be more appropriate than a parametric approach.   </t>
   </si>
   <si>
     <t>Read Doing Data Science Ch 2</t>
@@ -461,21 +440,6 @@
     <t>Being open to new ways of thinking and viewing the world</t>
   </si>
   <si>
-    <t>[3](wk03-notes.html)</t>
-  </si>
-  <si>
-    <t>[4](wk04-notes.html)</t>
-  </si>
-  <si>
-    <t>[1](wk01-notes.html)</t>
-  </si>
-  <si>
-    <t>[2](wk02-notes.html)</t>
-  </si>
-  <si>
-    <t>[5](wk05-notes.html)</t>
-  </si>
-  <si>
     <t>Send final report to Dr. D via Discord</t>
   </si>
   <si>
@@ -555,9 +519,6 @@
   </si>
   <si>
     <t>Technological benevolence</t>
-  </si>
-  <si>
-    <t>Retoolign Solidarity, Reimagining Justice</t>
   </si>
   <si>
     <t>Race as a predictor</t>
@@ -595,13 +556,6 @@
     <t>ADS Website</t>
   </si>
   <si>
-    <t>[6](wk06-notes.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read/watch [[ISLR Ch 1]](https://www.youtube.com/playlist?list=PLAOUn-KLSAVOPE3yQ04EZCbt0ycTib6OH) before class on Tuesday.
-Pull your ISLR github classroom repo. Prepare Chapter 2 answers per [Week 6 notes](wk06-notes.html). Finish all questions before Thursday. </t>
-  </si>
-  <si>
     <t>Learning Tidymodels</t>
   </si>
   <si>
@@ -671,16 +625,78 @@
     <t>ISLR Ch2  Notes &amp; Exercises</t>
   </si>
   <si>
-    <t>ISLR Ch 3 Notes &amp; Exercises</t>
-  </si>
-  <si>
     <t>Classwide &amp; Client project share out</t>
   </si>
   <si>
     <t>Preprocessing your data with recipies</t>
   </si>
   <si>
-    <t>ISLR Repo: ch3-lin-reg</t>
+    <t>Unsupervised Learning</t>
+  </si>
+  <si>
+    <t>ISLR Ch 12</t>
+  </si>
+  <si>
+    <t>Model Selection and Regularization</t>
+  </si>
+  <si>
+    <t>Retooling Solidarity, Reimagining Justice</t>
+  </si>
+  <si>
+    <t>Special Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skim ISLR Ch 3. Start on the Tidymodels lab. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a tutorial for your website on how to use Tidymodels to build and assess a linear regression model. Data &amp; Topic is your choice. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverage your knowledge of linear models and write a tutorial on how to fit a regression model in the Tidy models framework. The data and model you fit is your choice. </t>
+  </si>
+  <si>
+    <t>Reading discussion</t>
+  </si>
+  <si>
+    <t>Project share out</t>
+  </si>
+  <si>
+    <t>Open work</t>
+  </si>
+  <si>
+    <t>Review another classmates tutorial and provide comments &amp; feedback in Discord. Is there something that isn't clear? Did you spot a mistake they can fix? What did you find helpful &amp; useful about their tutorial (be specific)</t>
+  </si>
+  <si>
+    <t>Peer review</t>
+  </si>
+  <si>
+    <t>ISLR Ch 4 - Notes &amp; Exercises</t>
+  </si>
+  <si>
+    <t>[Notes](wk01-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk02-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk03-notes.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read/watch [[ISLR Ch 1]](https://www.youtube.com/playlist?list=PLAOUn-KLSAVOPE3yQ04EZCbt0ycTib6OH) before class on Tuesday.  
+Pull your [ISLR github classroom repo](https://classroom.github.com/a/E2rqFG9T).   
+Prepare Chapter 2 answers per [Week 6 notes](wk06-notes.html). Finish all questions before Thursday.   </t>
+  </si>
+  <si>
+    <t>[Notes](wk06-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk07-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk05-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk04-notes.html)</t>
   </si>
 </sst>
 </file>
@@ -927,7 +943,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1151,6 +1167,24 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1247,7 +1281,27 @@
     <cellStyle name="Normal 3 2" xfId="91" xr:uid="{20B637C8-DD27-499C-BEC0-85B72C712ADD}"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1638,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1672,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>37</v>
@@ -1689,29 +1743,29 @@
     </row>
     <row r="2" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="B2" s="31">
         <v>43124</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1720,76 +1774,76 @@
         <v>43126</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E3" s="36"/>
       <c r="F3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="36"/>
       <c r="I3" s="36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="B4" s="38">
         <v>43131</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I4" s="40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="B5" s="31">
         <v>43138</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I5" s="42"/>
     </row>
@@ -1805,34 +1859,34 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H6" s="43"/>
       <c r="I6" s="43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="B7" s="31">
         <v>43145</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
       <c r="G7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -1841,28 +1895,28 @@
         <v>43147</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>138</v>
+        <v>211</v>
       </c>
       <c r="B9" s="31">
         <v>43152</v>
@@ -1871,7 +1925,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="42"/>
       <c r="F9" s="42"/>
@@ -1883,13 +1937,13 @@
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="42" t="s">
         <v>158</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="F10" s="42"/>
       <c r="G10" s="42"/>
@@ -1902,36 +1956,34 @@
         <v>43154</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="141.75" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="189" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="B12" s="31">
         <v>43159</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>40</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
@@ -1946,11 +1998,11 @@
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="42" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -1961,10 +2013,10 @@
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="72" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
@@ -1972,40 +2024,44 @@
       <c r="H14" s="43"/>
       <c r="I14" s="43"/>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>7</v>
+    <row r="15" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>210</v>
       </c>
       <c r="B15" s="31">
         <v>43166</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="H15" s="42" t="s">
+        <v>201</v>
+      </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="42" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="H16" s="42" t="s">
+        <v>199</v>
+      </c>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,12 +2072,14 @@
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
+      <c r="I17" s="43" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="44">
@@ -2035,7 +2093,7 @@
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="42" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F18" s="46"/>
       <c r="G18" s="42"/>
@@ -2046,13 +2104,13 @@
       <c r="A19" s="44"/>
       <c r="B19" s="45"/>
       <c r="C19" s="46" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="42"/>
@@ -2084,7 +2142,7 @@
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -2100,10 +2158,10 @@
         <v>10</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -2114,11 +2172,11 @@
       <c r="A23" s="73"/>
       <c r="B23" s="74"/>
       <c r="C23" s="43" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -2131,28 +2189,28 @@
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="42" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="D24" s="42"/>
       <c r="E24" s="42" t="s">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>11</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="42" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="D25" s="42"/>
       <c r="E25" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -2163,11 +2221,11 @@
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="42" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D26" s="42"/>
       <c r="E26" s="42" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -2180,28 +2238,28 @@
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="42" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
       <c r="H27" s="42"/>
       <c r="I27" s="42"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>13</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="42" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D28" s="42"/>
       <c r="E28" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -2212,50 +2270,65 @@
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="42" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="42" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
       <c r="H29" s="42"/>
       <c r="I29" s="42"/>
     </row>
-    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="42" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D30" s="42"/>
-      <c r="E30" s="42" t="s">
-        <v>199</v>
-      </c>
+      <c r="E30" s="42"/>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>73</v>
+    <row r="31" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>15</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="42"/>
+        <v>194</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42" t="s">
+        <v>185</v>
+      </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2269,8 +2342,8 @@
   <dimension ref="A1:R1061"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2290,7 +2363,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>17</v>
@@ -2299,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>23</v>
@@ -2336,7 +2409,7 @@
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="51" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G2" s="52">
         <v>43125</v>
@@ -2396,7 +2469,7 @@
       </c>
       <c r="E4" s="50"/>
       <c r="F4" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="52">
         <v>43125</v>
@@ -2422,11 +2495,11 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="49" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E5" s="50"/>
       <c r="F5" s="51" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G5" s="52">
         <v>43125</v>
@@ -2452,7 +2525,7 @@
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="50"/>
       <c r="F6" s="49" t="s">
@@ -2482,11 +2555,11 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="49" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G7" s="52">
         <v>43125</v>
@@ -2512,11 +2585,11 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="49" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="51" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G8" s="52">
         <v>43127</v>
@@ -2571,16 +2644,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" s="50">
         <v>2</v>
       </c>
       <c r="F10" s="56" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="G10" s="52">
         <v>43132</v>
@@ -2607,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>21</v>
@@ -2616,7 +2689,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G11" s="5">
         <v>43137</v>
@@ -2647,7 +2720,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="66" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G12" s="5">
         <v>43137</v>
@@ -2671,16 +2744,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="20">
         <v>6</v>
       </c>
       <c r="F13" s="57" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G13" s="5">
         <v>43133</v>
@@ -2705,13 +2778,13 @@
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E14" s="20">
         <v>7</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G14" s="5">
         <v>43137</v>
@@ -2736,13 +2809,13 @@
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E15" s="20">
         <v>7</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="5">
         <v>43134</v>
@@ -2767,13 +2840,13 @@
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E16" s="20">
         <v>7</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="5">
         <v>43137</v>
@@ -2798,13 +2871,13 @@
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E17" s="20">
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5">
         <v>43141</v>
@@ -2829,13 +2902,13 @@
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="20">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="5">
         <v>43144</v>
@@ -2862,16 +2935,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E19" s="50">
         <v>5</v>
       </c>
       <c r="F19" s="56" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="G19" s="52">
         <v>43145</v>
@@ -2899,11 +2972,11 @@
         <v>29</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E20" s="50"/>
       <c r="F20" s="49" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G20" s="52">
         <v>43143</v>
@@ -2930,14 +3003,14 @@
         <v>1</v>
       </c>
       <c r="C21" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G21" s="5">
         <v>43146</v>
@@ -2962,16 +3035,16 @@
         <v>2</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="61" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E22" s="62">
         <v>5</v>
       </c>
       <c r="F22" s="61" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G22" s="63">
         <v>43151</v>
@@ -2999,11 +3072,11 @@
         <v>29</v>
       </c>
       <c r="D23" s="61" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E23" s="62"/>
       <c r="F23" s="66" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G23" s="63">
         <v>43158</v>
@@ -3033,13 +3106,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E24" s="50">
         <v>5</v>
       </c>
       <c r="F24" s="56" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="G24" s="52">
         <v>43159</v>
@@ -3064,14 +3137,14 @@
         <v>2</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E25" s="50"/>
       <c r="F25" s="51" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="G25" s="52">
         <v>43153</v>
@@ -3099,11 +3172,11 @@
         <v>29</v>
       </c>
       <c r="D26" s="49" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E26" s="50"/>
       <c r="F26" s="49" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G26" s="52">
         <v>43151</v>
@@ -3129,11 +3202,11 @@
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="49" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E27" s="50"/>
       <c r="F27" s="56" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="G27" s="52">
         <v>43153</v>
@@ -3160,14 +3233,14 @@
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="4" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G28" s="5">
         <v>43165</v>
@@ -3191,13 +3264,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G29" s="5">
         <v>43165</v>
@@ -3224,10 +3297,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="G30" s="63">
         <v>43160</v>
@@ -3251,13 +3324,13 @@
         <v>4</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" s="5">
         <v>43165</v>
@@ -3276,25 +3349,25 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="58">
         <v>7</v>
       </c>
       <c r="B32" s="58">
         <v>1</v>
       </c>
-      <c r="C32" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>203</v>
+      <c r="C32" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="E32" s="70"/>
       <c r="F32" s="69" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="G32" s="52">
-        <v>43179</v>
+        <v>43166</v>
       </c>
       <c r="H32" s="47"/>
       <c r="I32" s="10"/>
@@ -3314,17 +3387,15 @@
         <v>2</v>
       </c>
       <c r="C33" s="68" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E33" s="70"/>
-      <c r="F33" s="69" t="s">
-        <v>182</v>
-      </c>
+      <c r="F33" s="69"/>
       <c r="G33" s="52">
-        <v>43179</v>
+        <v>43168</v>
       </c>
       <c r="H33" s="47"/>
       <c r="I33" s="10"/>
@@ -3338,21 +3409,19 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="34" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="58">
         <v>3</v>
       </c>
-      <c r="C34" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="76" t="s">
-        <v>192</v>
+      <c r="C34" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>198</v>
       </c>
       <c r="E34" s="70"/>
-      <c r="F34" s="69" t="s">
-        <v>187</v>
-      </c>
+      <c r="F34" s="69"/>
       <c r="G34" s="52">
         <v>43179</v>
       </c>
@@ -3368,21 +3437,23 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="58">
         <v>4</v>
       </c>
       <c r="C35" s="68" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E35" s="70"/>
-      <c r="F35" s="69"/>
+      <c r="F35" s="69" t="s">
+        <v>69</v>
+      </c>
       <c r="G35" s="52">
-        <v>43168</v>
+        <v>43182</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="10"/>
@@ -3397,20 +3468,24 @@
       <c r="R35" s="10"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
-        <v>8</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="7"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58">
+        <v>5</v>
+      </c>
+      <c r="C36" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="70"/>
+      <c r="F36" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="52">
+        <v>43179</v>
+      </c>
+      <c r="H36" s="47"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -3423,14 +3498,16 @@
       <c r="R36" s="10"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C37" s="18"/>
-      <c r="D37" s="12" t="s">
-        <v>56</v>
+      <c r="A37" s="59">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="E37" s="22"/>
-      <c r="F37" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="G37" s="7"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -3445,7 +3522,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C38" s="18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E38" s="22"/>
       <c r="G38" s="7"/>
@@ -3460,12 +3537,17 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="18" t="s">
+    <row r="39" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="G39" s="7"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
@@ -3486,11 +3568,11 @@
         <v>11</v>
       </c>
       <c r="D40" s="49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="50"/>
       <c r="F40" s="69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G40" s="71"/>
       <c r="H40" s="47"/>
@@ -3510,7 +3592,7 @@
       <c r="B41" s="58"/>
       <c r="C41" s="54"/>
       <c r="D41" s="69" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41" s="50"/>
       <c r="F41" s="69" t="s">
@@ -3533,14 +3615,14 @@
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
       <c r="C42" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E42" s="50"/>
       <c r="F42" s="69" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G42" s="71"/>
       <c r="H42" s="47"/>
@@ -3563,11 +3645,11 @@
         <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" s="7"/>
       <c r="I43" s="10"/>
@@ -3584,7 +3666,7 @@
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C44" s="13"/>
       <c r="D44" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="12" t="s">
@@ -3611,11 +3693,11 @@
         <v>16</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G45" s="71"/>
       <c r="H45" s="47"/>
@@ -3635,7 +3717,7 @@
       <c r="B46" s="58"/>
       <c r="C46" s="54"/>
       <c r="D46" s="69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E46" s="50"/>
       <c r="F46" s="69" t="s">
@@ -3658,14 +3740,14 @@
       <c r="A47" s="58"/>
       <c r="B47" s="58"/>
       <c r="C47" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E47" s="50"/>
       <c r="F47" s="69" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G47" s="71"/>
       <c r="H47" s="47"/>
@@ -3688,11 +3770,11 @@
         <v>12</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G48" s="7"/>
       <c r="I48" s="10"/>
@@ -3709,7 +3791,7 @@
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C49" s="13"/>
       <c r="D49" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="12" t="s">
@@ -3736,11 +3818,11 @@
         <v>31</v>
       </c>
       <c r="D50" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E50" s="50"/>
       <c r="F50" s="69" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="47"/>
@@ -3760,7 +3842,7 @@
       <c r="B51" s="58"/>
       <c r="C51" s="54"/>
       <c r="D51" s="69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E51" s="50"/>
       <c r="F51" s="69" t="s">
@@ -3783,14 +3865,14 @@
       <c r="A52" s="58"/>
       <c r="B52" s="58"/>
       <c r="C52" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E52" s="50"/>
       <c r="F52" s="69" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G52" s="71"/>
       <c r="H52" s="47"/>
@@ -3830,14 +3912,14 @@
       </c>
       <c r="B54" s="58"/>
       <c r="C54" s="48" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="E54" s="50"/>
       <c r="F54" s="69" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G54" s="71"/>
       <c r="H54" s="47"/>
@@ -3854,10 +3936,10 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C55" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="8"/>
@@ -3876,7 +3958,7 @@
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
       <c r="D56" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="4"/>
@@ -3894,7 +3976,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C57" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="20"/>
@@ -20964,29 +21046,39 @@
       <c r="R1061" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31:G1048576">
-    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="last7Days">
+  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G37:G1048576">
+    <cfRule type="timePeriod" dxfId="6" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="5" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G26,1)&lt;=6,FLOOR(G26,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G22,1)&lt;=6,FLOOR(G22,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="timePeriod" dxfId="1" priority="3" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G23,1)&lt;=6,FLOOR(G23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G30,1)&lt;=6,FLOOR(G30,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G36">
+    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G34,1)&lt;=6,FLOOR(G34,1)&lt;=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G33">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G32,1)&lt;=6,FLOOR(G32,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8692ED8A-F265-48A4-A3EE-A62E6E3E4560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCA564-4821-4221-8365-0EFBED9959B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30855" yWindow="1065" windowWidth="21600" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="1620" windowWidth="21600" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
   <si>
     <t>SLO</t>
   </si>
@@ -998,7 +998,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1300,6 +1300,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -2599,8 +2611,8 @@
   <dimension ref="A1:R1068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2686,7 +2698,9 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
+      <c r="A3" s="56">
+        <v>1</v>
+      </c>
       <c r="B3" s="56">
         <v>2</v>
       </c>
@@ -2716,7 +2730,9 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
+      <c r="A4" s="56">
+        <v>1</v>
+      </c>
       <c r="B4" s="56">
         <v>3</v>
       </c>
@@ -2746,7 +2762,9 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="56">
+        <v>1</v>
+      </c>
       <c r="B5" s="56">
         <v>4</v>
       </c>
@@ -2776,7 +2794,9 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
+      <c r="A6" s="56">
+        <v>1</v>
+      </c>
       <c r="B6" s="56">
         <v>5</v>
       </c>
@@ -2806,7 +2826,9 @@
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56"/>
+      <c r="A7" s="56">
+        <v>1</v>
+      </c>
       <c r="B7" s="56">
         <v>6</v>
       </c>
@@ -2836,7 +2858,9 @@
       <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
+      <c r="A8" s="56">
+        <v>1</v>
+      </c>
       <c r="B8" s="56">
         <v>7</v>
       </c>
@@ -2866,7 +2890,9 @@
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
+      <c r="A9" s="56">
+        <v>1</v>
+      </c>
       <c r="B9" s="56">
         <v>8</v>
       </c>
@@ -2896,7 +2922,9 @@
       <c r="R9" s="9"/>
     </row>
     <row r="10" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="56">
+        <v>1</v>
+      </c>
       <c r="B10" s="56">
         <v>9</v>
       </c>
@@ -2966,6 +2994,9 @@
       <c r="R11" s="9"/>
     </row>
     <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="57">
+        <v>2</v>
+      </c>
       <c r="B12" s="57">
         <v>2</v>
       </c>
@@ -2997,6 +3028,9 @@
       <c r="R12" s="9"/>
     </row>
     <row r="13" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="57">
+        <v>2</v>
+      </c>
       <c r="B13" s="57">
         <v>3</v>
       </c>
@@ -3030,6 +3064,9 @@
       <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="57">
+        <v>2</v>
+      </c>
       <c r="B14" s="57">
         <v>4</v>
       </c>
@@ -3061,6 +3098,9 @@
       <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="57">
+        <v>2</v>
+      </c>
       <c r="B15" s="57">
         <v>5</v>
       </c>
@@ -3092,6 +3132,9 @@
       <c r="R15" s="9"/>
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57">
+        <v>2</v>
+      </c>
       <c r="B16" s="57">
         <v>6</v>
       </c>
@@ -3123,6 +3166,9 @@
       <c r="R16" s="9"/>
     </row>
     <row r="17" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
+        <v>2</v>
+      </c>
       <c r="B17" s="57">
         <v>7</v>
       </c>
@@ -3154,6 +3200,9 @@
       <c r="R17" s="9"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>2</v>
+      </c>
       <c r="B18" s="57">
         <v>8</v>
       </c>
@@ -3221,7 +3270,9 @@
       <c r="R19" s="9"/>
     </row>
     <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
+      <c r="A20" s="56">
+        <v>3</v>
+      </c>
       <c r="B20" s="56">
         <v>2</v>
       </c>
@@ -3287,7 +3338,9 @@
       <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="58">
+        <v>4</v>
+      </c>
       <c r="B22" s="58">
         <v>2</v>
       </c>
@@ -3321,7 +3374,9 @@
       <c r="R22" s="9"/>
     </row>
     <row r="23" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
+      <c r="A23" s="58">
+        <v>4</v>
+      </c>
       <c r="B23" s="58">
         <v>3</v>
       </c>
@@ -3389,7 +3444,9 @@
       <c r="R24" s="9"/>
     </row>
     <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="56">
+        <v>5</v>
+      </c>
       <c r="B25" s="56">
         <v>2</v>
       </c>
@@ -3421,7 +3478,9 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="56">
+        <v>5</v>
+      </c>
       <c r="B26" s="56">
         <v>3</v>
       </c>
@@ -3453,7 +3512,9 @@
       <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="56">
+        <v>5</v>
+      </c>
       <c r="B27" s="56">
         <v>4</v>
       </c>
@@ -3517,6 +3578,9 @@
       <c r="R28" s="9"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="57">
+        <v>6</v>
+      </c>
       <c r="B29" s="57">
         <v>2</v>
       </c>
@@ -3547,6 +3611,9 @@
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="57">
+        <v>6</v>
+      </c>
       <c r="B30" s="57">
         <v>3</v>
       </c>
@@ -3577,6 +3644,9 @@
       <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="57">
+        <v>6</v>
+      </c>
       <c r="B31" s="57">
         <v>4</v>
       </c>
@@ -3641,7 +3711,9 @@
       <c r="R32" s="9"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="56">
+        <v>7</v>
+      </c>
       <c r="B33" s="56">
         <v>2</v>
       </c>
@@ -3671,7 +3743,9 @@
       <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
+      <c r="A34" s="56">
+        <v>7</v>
+      </c>
       <c r="B34" s="56">
         <v>3</v>
       </c>
@@ -3703,7 +3777,9 @@
       <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
+      <c r="A35" s="56">
+        <v>7</v>
+      </c>
       <c r="B35" s="56">
         <v>4</v>
       </c>
@@ -3735,7 +3811,9 @@
       <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
+      <c r="A36" s="74">
+        <v>7</v>
+      </c>
       <c r="B36" s="74">
         <v>5</v>
       </c>
@@ -3801,6 +3879,9 @@
       <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
+        <v>8</v>
+      </c>
       <c r="B38" s="57">
         <v>2</v>
       </c>
@@ -3832,6 +3913,9 @@
       <c r="R38" s="9"/>
     </row>
     <row r="39" spans="1:18" ht="126" x14ac:dyDescent="0.25">
+      <c r="A39" s="57">
+        <v>8</v>
+      </c>
       <c r="B39" s="57">
         <v>3</v>
       </c>
@@ -3893,7 +3977,9 @@
       <c r="R40" s="9"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="56"/>
+      <c r="A41" s="56">
+        <v>9</v>
+      </c>
       <c r="B41" s="56">
         <v>2</v>
       </c>
@@ -3923,7 +4009,9 @@
       <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="56"/>
+      <c r="A42" s="56">
+        <v>9</v>
+      </c>
       <c r="B42" s="56">
         <v>3</v>
       </c>
@@ -3951,7 +4039,9 @@
       <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="56"/>
+      <c r="A43" s="56">
+        <v>9</v>
+      </c>
       <c r="B43" s="56">
         <v>4</v>
       </c>
@@ -4010,6 +4100,9 @@
       <c r="R44" s="9"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="57">
+        <v>10</v>
+      </c>
       <c r="B45" s="57">
         <v>2</v>
       </c>
@@ -4034,6 +4127,9 @@
       <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>10</v>
+      </c>
       <c r="B46" s="57">
         <v>3</v>
       </c>
@@ -4092,7 +4188,9 @@
       <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
+      <c r="A48" s="56">
+        <v>11</v>
+      </c>
       <c r="B48" s="56">
         <v>2</v>
       </c>
@@ -4118,7 +4216,9 @@
       <c r="R48" s="9"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
+      <c r="A49" s="56">
+        <v>11</v>
+      </c>
       <c r="B49" s="56">
         <v>3</v>
       </c>
@@ -4148,7 +4248,9 @@
       <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="56"/>
+      <c r="A50" s="56">
+        <v>11</v>
+      </c>
       <c r="B50" s="56">
         <v>4</v>
       </c>
@@ -4205,6 +4307,9 @@
       <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>12</v>
+      </c>
       <c r="B52" s="57">
         <v>2</v>
       </c>
@@ -4229,6 +4334,9 @@
       <c r="R52" s="9"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="57">
+        <v>12</v>
+      </c>
       <c r="B53" s="57">
         <v>3</v>
       </c>
@@ -4289,7 +4397,9 @@
       <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="56"/>
+      <c r="A55" s="56">
+        <v>13</v>
+      </c>
       <c r="B55" s="56">
         <v>2</v>
       </c>
@@ -4319,7 +4429,9 @@
       <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="56"/>
+      <c r="A56" s="56">
+        <v>13</v>
+      </c>
       <c r="B56" s="56">
         <v>3</v>
       </c>
@@ -4377,6 +4489,9 @@
       <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" s="57">
+        <v>14</v>
+      </c>
       <c r="B58" s="57">
         <v>2</v>
       </c>
@@ -4403,6 +4518,9 @@
       <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="57">
+        <v>14</v>
+      </c>
       <c r="B59" s="57">
         <v>3</v>
       </c>
@@ -4427,6 +4545,9 @@
       <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="57">
+        <v>14</v>
+      </c>
       <c r="B60" s="57">
         <v>4</v>
       </c>
@@ -4485,18 +4606,22 @@
       <c r="R61" s="9"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="57">
+      <c r="A62" s="56">
+        <v>15</v>
+      </c>
+      <c r="B62" s="56">
         <v>1</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="6"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="68"/>
+      <c r="H62" s="62"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4509,16 +4634,20 @@
       <c r="R62" s="9"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="57">
+      <c r="A63" s="56">
+        <v>15</v>
+      </c>
+      <c r="B63" s="56">
         <v>2</v>
       </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="7" t="s">
+      <c r="C63" s="104"/>
+      <c r="D63" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="9"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="107"/>
+      <c r="H63" s="62"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
@@ -4531,8 +4660,8 @@
       <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
-        <v>64</v>
+      <c r="A64" s="98">
+        <v>16</v>
       </c>
       <c r="B64" s="98">
         <v>1</v>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FCA564-4821-4221-8365-0EFBED9959B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225A441-5FA7-433D-A5F5-169D32D9BE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31920" yWindow="1620" windowWidth="21600" windowHeight="14580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30795" yWindow="1260" windowWidth="22905" windowHeight="13815" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="232">
   <si>
     <t>SLO</t>
   </si>
@@ -674,9 +674,6 @@
     <t>Final project presentation for stakeholders</t>
   </si>
   <si>
-    <t>Project Poster - Very solid Draft</t>
-  </si>
-  <si>
     <t>Project repo</t>
   </si>
   <si>
@@ -687,9 +684,6 @@
   </si>
   <si>
     <t>Client share out</t>
-  </si>
-  <si>
-    <t>ISLR Ch 5 - Notes &amp; Exercises</t>
   </si>
   <si>
     <t xml:space="preserve">Read/watch ISLR Chapter 5 content &amp; prepare answers to questions to discuss in class. We'll spend half the class each day on this topic. </t>
@@ -734,6 +728,33 @@
   </si>
   <si>
     <t>Your blog website</t>
+  </si>
+  <si>
+    <t>cesar chavez day no school</t>
+  </si>
+  <si>
+    <t>ISLR Ch 5 - Exercises</t>
+  </si>
+  <si>
+    <t>ISLR Ch 5 - Notes</t>
+  </si>
+  <si>
+    <t>Project Poster - Very solid Draft to present &amp; peer review</t>
+  </si>
+  <si>
+    <t>Returning to the learning bridge</t>
+  </si>
+  <si>
+    <t>Post semester reflection</t>
+  </si>
+  <si>
+    <t>What's next?</t>
+  </si>
+  <si>
+    <t>Cesar Chavez day</t>
+  </si>
+  <si>
+    <t>No class on Thursday</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1019,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1310,7 +1331,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="4" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1860,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2303,7 +2327,7 @@
     </row>
     <row r="18" spans="1:10" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B18" s="95">
         <v>8.1</v>
@@ -2316,7 +2340,7 @@
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="41" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="41"/>
@@ -2336,7 +2360,7 @@
         <v>148</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G19" s="72"/>
       <c r="H19" s="42"/>
@@ -2358,54 +2382,58 @@
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
       <c r="J20" s="41"/>
     </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="95">
-        <v>9.1999999999999993</v>
+        <v>4.5</v>
       </c>
       <c r="C21" s="44">
-        <v>43190</v>
+        <v>43189</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>96</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
       <c r="I21" s="41"/>
       <c r="J21" s="41"/>
     </row>
-    <row r="22" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="70"/>
       <c r="B22" s="96">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="71">
+        <v>43190</v>
+      </c>
       <c r="D22" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="42"/>
+        <v>210</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="F22" s="42" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J22" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <v>10</v>
       </c>
@@ -2414,165 +2442,161 @@
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
-        <v>11</v>
-      </c>
+    <row r="24" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
       <c r="B24" s="91">
-        <v>11.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="41" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E24" s="41"/>
       <c r="F24" s="41" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
       <c r="I24" s="41"/>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="29">
+        <v>11</v>
+      </c>
       <c r="B25" s="91">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="41" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
-        <v>12</v>
-      </c>
+    <row r="26" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
       <c r="B26" s="91">
-        <v>12.1</v>
+        <v>11.2</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="41" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="91">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="41" t="s">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="E27" s="41"/>
       <c r="F27" s="41" t="s">
-        <v>218</v>
+        <v>89</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
-        <v>14</v>
-      </c>
+    <row r="28" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
       <c r="B28" s="91">
-        <v>14.1</v>
+        <v>12.2</v>
       </c>
       <c r="C28" s="30"/>
       <c r="D28" s="41" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="E28" s="41"/>
       <c r="F28" s="41" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
       <c r="J28" s="41"/>
     </row>
-    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29">
+        <v>13</v>
+      </c>
       <c r="B29" s="91">
-        <v>14.2</v>
+        <v>13.1</v>
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="41" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
       <c r="J29" s="41"/>
     </row>
-    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="91">
-        <v>15.1</v>
+        <v>14.1</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E30" s="41"/>
       <c r="F30" s="41" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="91">
-        <v>15.2</v>
-      </c>
+      <c r="B31" s="91"/>
       <c r="C31" s="30"/>
       <c r="D31" s="41" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -2580,24 +2604,60 @@
       <c r="J31" s="41"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>64</v>
+      <c r="A32" s="29">
+        <v>15</v>
       </c>
       <c r="B32" s="91">
-        <v>16.100000000000001</v>
+        <v>15.1</v>
       </c>
       <c r="C32" s="30"/>
-      <c r="D32" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="41"/>
+      <c r="D32" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
       <c r="J32" s="41"/>
+    </row>
+    <row r="33" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="91">
+        <v>15.2</v>
+      </c>
+      <c r="C33" s="30"/>
+      <c r="D33" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="91">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2608,11 +2668,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1068"/>
+  <dimension ref="A1:R1070"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2668,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="56">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>19</v>
@@ -2702,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="56">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="47" t="s">
@@ -2734,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="56">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="47" t="s">
@@ -2766,7 +2826,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="56">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="47" t="s">
@@ -2798,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="56">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="47" t="s">
@@ -2830,7 +2890,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="56">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="47" t="s">
@@ -2862,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="56">
-        <v>7</v>
+        <v>1.7</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="47" t="s">
@@ -2894,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="56">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="47" t="s">
@@ -2926,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="56">
-        <v>9</v>
+        <v>1.9</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>38</v>
@@ -2962,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="57">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>38</v>
@@ -2998,7 +3058,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="57">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="3" t="s">
@@ -3032,7 +3092,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="57">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>62</v>
@@ -3068,7 +3128,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="57">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="3" t="s">
@@ -3102,7 +3162,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="57">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="3" t="s">
@@ -3136,7 +3196,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="57">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="3" t="s">
@@ -3170,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="57">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="3" t="s">
@@ -3204,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="57">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="3" t="s">
@@ -3238,7 +3298,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="56">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>47</v>
@@ -3274,7 +3334,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="56">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>27</v>
@@ -3308,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="57">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>80</v>
@@ -3342,7 +3402,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="58">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>47</v>
@@ -3378,7 +3438,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="58">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>27</v>
@@ -3412,7 +3472,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="56">
-        <v>1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C24" s="46" t="s">
         <v>8</v>
@@ -3448,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="56">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="C25" s="46" t="s">
         <v>80</v>
@@ -3482,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="56">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="C26" s="46" t="s">
         <v>27</v>
@@ -3516,7 +3576,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="56">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47" t="s">
@@ -3548,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="57">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>48</v>
@@ -3582,7 +3642,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="57">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>158</v>
@@ -3615,7 +3675,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="57">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>27</v>
@@ -3648,7 +3708,7 @@
         <v>6</v>
       </c>
       <c r="B31" s="57">
-        <v>4</v>
+        <v>6.4</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>153</v>
@@ -3681,7 +3741,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="56">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="C32" s="46" t="s">
         <v>80</v>
@@ -3715,7 +3775,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="56">
-        <v>2</v>
+        <v>7.2</v>
       </c>
       <c r="C33" s="65" t="s">
         <v>27</v>
@@ -3747,7 +3807,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="56">
-        <v>3</v>
+        <v>7.3</v>
       </c>
       <c r="C34" s="65" t="s">
         <v>49</v>
@@ -3757,7 +3817,7 @@
       </c>
       <c r="E34" s="67"/>
       <c r="F34" s="66" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G34" s="50">
         <v>43179</v>
@@ -3781,7 +3841,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="56">
-        <v>4</v>
+        <v>7.4</v>
       </c>
       <c r="C35" s="65" t="s">
         <v>191</v>
@@ -3814,8 +3874,8 @@
       <c r="A36" s="74">
         <v>7</v>
       </c>
-      <c r="B36" s="74">
-        <v>5</v>
+      <c r="B36" s="56">
+        <v>7.5</v>
       </c>
       <c r="C36" s="75" t="s">
         <v>158</v>
@@ -3849,13 +3909,13 @@
         <v>8</v>
       </c>
       <c r="B37" s="57">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="11" t="s">
@@ -3883,13 +3943,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="57">
-        <v>2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="11" t="s">
@@ -3917,13 +3977,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="57">
-        <v>3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="11" t="s">
@@ -3951,19 +4011,21 @@
         <v>9</v>
       </c>
       <c r="B40" s="56">
-        <v>1</v>
+        <v>9.1</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="68"/>
+      <c r="G40" s="79">
+        <v>43193</v>
+      </c>
       <c r="H40" s="62"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -3981,20 +4043,20 @@
         <v>9</v>
       </c>
       <c r="B41" s="56">
-        <v>2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="66" t="s">
-        <v>201</v>
+        <v>10</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>224</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G41" s="79">
-        <v>43188</v>
+        <v>43193</v>
       </c>
       <c r="H41" s="62"/>
       <c r="I41" s="9"/>
@@ -4013,18 +4075,20 @@
         <v>9</v>
       </c>
       <c r="B42" s="56">
-        <v>3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="66" t="s">
-        <v>209</v>
+        <v>153</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>227</v>
       </c>
       <c r="E42" s="48"/>
-      <c r="F42" s="66"/>
+      <c r="F42" s="66" t="s">
+        <v>81</v>
+      </c>
       <c r="G42" s="79">
-        <v>43189</v>
+        <v>43187</v>
       </c>
       <c r="H42" s="62"/>
       <c r="I42" s="9"/>
@@ -4038,27 +4102,29 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="56">
         <v>9</v>
       </c>
       <c r="B43" s="56">
-        <v>4</v>
-      </c>
-      <c r="C43" s="46" t="s">
-        <v>80</v>
+        <v>9.4</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="66" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G43" s="79">
-        <v>43189</v>
-      </c>
-      <c r="H43" s="62"/>
+        <v>43188</v>
+      </c>
+      <c r="H43" s="62">
+        <v>10</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
@@ -4070,24 +4136,26 @@
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>10</v>
       </c>
       <c r="B44" s="57">
-        <v>1</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>10.1</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="60"/>
+      <c r="F44" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" s="82">
+        <v>43194</v>
+      </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
@@ -4104,17 +4172,19 @@
         <v>10</v>
       </c>
       <c r="B45" s="57">
-        <v>2</v>
-      </c>
-      <c r="C45" s="17"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="D45" s="81" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>208</v>
+      </c>
+      <c r="E45" s="60"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="82">
+        <v>43194</v>
+      </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
@@ -4131,7 +4201,7 @@
         <v>10</v>
       </c>
       <c r="B46" s="57">
-        <v>3</v>
+        <v>10.3</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>27</v>
@@ -4158,24 +4228,25 @@
       <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="56">
-        <v>11</v>
-      </c>
-      <c r="B47" s="56">
-        <v>1</v>
-      </c>
-      <c r="C47" s="52" t="s">
+      <c r="A47" s="57">
+        <v>10</v>
+      </c>
+      <c r="B47" s="57">
+        <v>10.4</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="48"/>
-      <c r="F47" s="66" t="s">
+      <c r="E47" s="19"/>
+      <c r="F47" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="68"/>
-      <c r="H47" s="62"/>
+      <c r="G47" s="80">
+        <v>43200</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -4188,22 +4259,23 @@
       <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="56">
-        <v>11</v>
-      </c>
-      <c r="B48" s="56">
-        <v>2</v>
-      </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="66" t="s">
+      <c r="A48" s="57">
+        <v>10</v>
+      </c>
+      <c r="B48" s="57">
+        <v>10.5</v>
+      </c>
+      <c r="C48" s="17"/>
+      <c r="D48" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="66" t="s">
+      <c r="E48" s="19"/>
+      <c r="F48" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="G48" s="68"/>
-      <c r="H48" s="62"/>
+      <c r="G48" s="80">
+        <v>43200</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -4215,25 +4287,25 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" s="56">
         <v>11</v>
       </c>
       <c r="B49" s="56">
-        <v>3</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>27</v>
+        <v>11.1</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>80</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E49" s="48"/>
       <c r="F49" s="66" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="G49" s="79">
-        <v>43202</v>
+        <v>43201</v>
       </c>
       <c r="H49" s="62"/>
       <c r="I49" s="9"/>
@@ -4247,24 +4319,24 @@
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
     </row>
-    <row r="50" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="56">
         <v>11</v>
       </c>
       <c r="B50" s="56">
-        <v>4</v>
-      </c>
-      <c r="C50" s="46" t="s">
-        <v>80</v>
+        <v>11.2</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>27</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="E50" s="48"/>
       <c r="F50" s="66" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="68"/>
+        <v>200</v>
+      </c>
+      <c r="G50" s="79"/>
       <c r="H50" s="62"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -4278,23 +4350,24 @@
       <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
-        <v>12</v>
-      </c>
-      <c r="B51" s="57">
-        <v>1</v>
-      </c>
-      <c r="C51" s="17" t="s">
+      <c r="A51" s="56">
+        <v>11</v>
+      </c>
+      <c r="B51" s="56">
+        <v>11.3</v>
+      </c>
+      <c r="C51" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="59" t="s">
+      <c r="D51" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="81" t="s">
+      <c r="E51" s="48"/>
+      <c r="F51" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="62"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -4307,21 +4380,22 @@
       <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="57">
-        <v>12</v>
-      </c>
-      <c r="B52" s="57">
-        <v>2</v>
-      </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="81" t="s">
+      <c r="A52" s="56">
+        <v>11</v>
+      </c>
+      <c r="B52" s="56">
+        <v>11.4</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="60"/>
-      <c r="F52" s="81" t="s">
+      <c r="E52" s="48"/>
+      <c r="F52" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="6"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
@@ -4338,20 +4412,20 @@
         <v>12</v>
       </c>
       <c r="B53" s="57">
-        <v>3</v>
+        <v>12.1</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="11" t="s">
-        <v>200</v>
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="60"/>
+      <c r="F53" s="81" t="s">
+        <v>202</v>
       </c>
       <c r="G53" s="80">
-        <v>43209</v>
+        <v>43221</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -4365,26 +4439,23 @@
       <c r="R53" s="9"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="56">
-        <v>13</v>
-      </c>
-      <c r="B54" s="56">
-        <v>1</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="66" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="48"/>
-      <c r="F54" s="66" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54" s="79">
-        <v>43216</v>
-      </c>
-      <c r="H54" s="62"/>
+      <c r="A54" s="57">
+        <v>12</v>
+      </c>
+      <c r="B54" s="57">
+        <v>12.2</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="60"/>
+      <c r="F54" s="81" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="80">
+        <v>43221</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -4397,26 +4468,23 @@
       <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="56">
-        <v>13</v>
-      </c>
-      <c r="B55" s="56">
-        <v>2</v>
-      </c>
-      <c r="C55" s="52" t="s">
+      <c r="A55" s="57">
+        <v>12</v>
+      </c>
+      <c r="B55" s="57">
+        <v>12.3</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="66" t="s">
-        <v>205</v>
-      </c>
-      <c r="E55" s="48"/>
-      <c r="F55" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="G55" s="79">
-        <v>43214</v>
-      </c>
-      <c r="H55" s="62"/>
+      <c r="D55" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="80"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -4428,27 +4496,26 @@
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="56">
-        <v>13</v>
-      </c>
-      <c r="B56" s="56">
-        <v>3</v>
-      </c>
-      <c r="C56" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D56" s="66" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="66" t="s">
-        <v>206</v>
-      </c>
-      <c r="G56" s="79">
-        <v>43218</v>
-      </c>
-      <c r="H56" s="62"/>
+    <row r="56" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="57">
+        <v>12</v>
+      </c>
+      <c r="B56" s="57">
+        <v>12.4</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="E56" s="60"/>
+      <c r="F56" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="82">
+        <v>43208</v>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
@@ -4460,23 +4527,27 @@
       <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="57">
-        <v>14</v>
-      </c>
-      <c r="B57" s="57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="12" t="s">
+    <row r="57" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="56">
+        <v>13</v>
+      </c>
+      <c r="B57" s="56">
+        <v>13.1</v>
+      </c>
+      <c r="C57" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E57" s="19"/>
-      <c r="G57" s="80">
-        <v>43221</v>
-      </c>
+      <c r="D57" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G57" s="79">
+        <v>43214</v>
+      </c>
+      <c r="H57" s="62"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
@@ -4489,23 +4560,26 @@
       <c r="R57" s="9"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="57">
-        <v>14</v>
-      </c>
-      <c r="B58" s="57">
-        <v>2</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G58" s="80"/>
+      <c r="A58" s="56">
+        <v>13</v>
+      </c>
+      <c r="B58" s="56">
+        <v>13.2</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58" s="66" t="s">
+        <v>206</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="G58" s="79">
+        <v>43218</v>
+      </c>
+      <c r="H58" s="62"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
@@ -4522,17 +4596,18 @@
         <v>14</v>
       </c>
       <c r="B59" s="57">
-        <v>3</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="11" t="s">
-        <v>52</v>
+        <v>14.1</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G59" s="80"/>
+      <c r="G59" s="80">
+        <v>43221</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
@@ -4545,26 +4620,27 @@
       <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="57">
+      <c r="A60" s="58">
         <v>14</v>
       </c>
-      <c r="B60" s="57">
-        <v>4</v>
+      <c r="B60" s="58">
+        <v>14.2</v>
       </c>
       <c r="C60" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D60" s="81" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E60" s="60"/>
       <c r="F60" s="81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G60" s="82">
-        <v>43210</v>
-      </c>
-      <c r="I60" s="9"/>
+        <v>43222</v>
+      </c>
+      <c r="H60" s="88"/>
+      <c r="I60" s="107"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -4575,25 +4651,26 @@
       <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
     </row>
-    <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="56">
-        <v>15</v>
-      </c>
-      <c r="B61" s="56">
-        <v>1</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" s="48"/>
-      <c r="F61" s="66" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="68"/>
-      <c r="H61" s="62"/>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="57">
+        <v>14</v>
+      </c>
+      <c r="B61" s="57">
+        <v>14.3</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="19"/>
+      <c r="F61" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" s="80">
+        <v>43228</v>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
@@ -4606,22 +4683,23 @@
       <c r="R61" s="9"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="56">
-        <v>15</v>
-      </c>
-      <c r="B62" s="56">
-        <v>1</v>
-      </c>
-      <c r="C62" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="105"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="62"/>
+      <c r="A62" s="57">
+        <v>14</v>
+      </c>
+      <c r="B62" s="57">
+        <v>14.4</v>
+      </c>
+      <c r="C62" s="17"/>
+      <c r="D62" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="80">
+        <v>43228</v>
+      </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
@@ -4638,15 +4716,19 @@
         <v>15</v>
       </c>
       <c r="B63" s="56">
-        <v>2</v>
-      </c>
-      <c r="C63" s="104"/>
+        <v>15.1</v>
+      </c>
+      <c r="C63" s="104" t="s">
+        <v>46</v>
+      </c>
       <c r="D63" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="E63" s="106"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="107"/>
+        <v>78</v>
+      </c>
+      <c r="E63" s="105"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="79">
+        <v>43231</v>
+      </c>
       <c r="H63" s="62"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -4660,22 +4742,22 @@
       <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="98">
-        <v>16</v>
-      </c>
-      <c r="B64" s="98">
-        <v>1</v>
-      </c>
-      <c r="C64" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="D64" s="100" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="101"/>
-      <c r="F64" s="100"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="103"/>
+      <c r="A64" s="56">
+        <v>15</v>
+      </c>
+      <c r="B64" s="56">
+        <v>15.2</v>
+      </c>
+      <c r="C64" s="104"/>
+      <c r="D64" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="106"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="108">
+        <v>43238</v>
+      </c>
+      <c r="H64" s="62"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
@@ -4687,12 +4769,27 @@
       <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C65" s="14"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="6"/>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="56">
+        <v>15</v>
+      </c>
+      <c r="B65" s="56">
+        <v>15.3</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="106"/>
+      <c r="F65" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="108">
+        <v>43229</v>
+      </c>
+      <c r="H65" s="62"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
@@ -4704,12 +4801,23 @@
       <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="9"/>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="98">
+        <v>16</v>
+      </c>
+      <c r="B66" s="98">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C66" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="101"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="103"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
@@ -4721,12 +4829,12 @@
       <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
     </row>
-    <row r="67" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C67" s="10"/>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C67" s="14"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="8"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="6"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
@@ -4738,12 +4846,10 @@
       <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
     </row>
-    <row r="68" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C68" s="14"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="8"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E68" s="5"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
@@ -4755,12 +4861,10 @@
       <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C69" s="14"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="6"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E69" s="21"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="8"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -4772,12 +4876,12 @@
       <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
     </row>
-    <row r="70" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C70" s="14"/>
       <c r="D70" s="3"/>
       <c r="E70" s="19"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="9"/>
+      <c r="G70" s="8"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
@@ -4789,7 +4893,7 @@
       <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
     </row>
-    <row r="71" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C71" s="14"/>
       <c r="D71" s="3"/>
       <c r="E71" s="19"/>
@@ -4806,7 +4910,7 @@
       <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
     </row>
-    <row r="72" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C72" s="14"/>
       <c r="D72" s="3"/>
       <c r="E72" s="19"/>
@@ -4823,12 +4927,12 @@
       <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
     </row>
-    <row r="73" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C73" s="14"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="8"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="6"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4840,7 +4944,7 @@
       <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
     </row>
-    <row r="74" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C74" s="14"/>
       <c r="D74" s="3"/>
       <c r="E74" s="19"/>
@@ -4857,12 +4961,12 @@
       <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
     </row>
-    <row r="75" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C75" s="14"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="6"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="8"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
@@ -4874,8 +4978,11 @@
       <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
     </row>
-    <row r="76" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C76" s="14"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4888,11 +4995,12 @@
       <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C77" s="18"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="7"/>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C77" s="14"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="6"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
@@ -4904,11 +5012,8 @@
       <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
     </row>
-    <row r="78" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C78" s="18"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="7"/>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C78" s="14"/>
       <c r="G78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4921,12 +5026,11 @@
       <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
     </row>
-    <row r="79" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C79" s="18"/>
       <c r="D79" s="7"/>
       <c r="E79" s="21"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
@@ -4938,7 +5042,7 @@
       <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
     </row>
-    <row r="80" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C80" s="18"/>
       <c r="D80" s="7"/>
       <c r="E80" s="21"/>
@@ -21701,6 +21805,10 @@
       <c r="R1065" s="9"/>
     </row>
     <row r="1066" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1066" s="18"/>
+      <c r="D1066" s="7"/>
+      <c r="E1066" s="21"/>
+      <c r="F1066" s="7"/>
       <c r="G1066" s="9"/>
       <c r="I1066" s="9"/>
       <c r="J1066" s="9"/>
@@ -21714,6 +21822,10 @@
       <c r="R1066" s="9"/>
     </row>
     <row r="1067" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C1067" s="18"/>
+      <c r="D1067" s="7"/>
+      <c r="E1067" s="21"/>
+      <c r="F1067" s="7"/>
       <c r="G1067" s="9"/>
       <c r="I1067" s="9"/>
       <c r="J1067" s="9"/>
@@ -21739,60 +21851,90 @@
       <c r="Q1068" s="9"/>
       <c r="R1068" s="9"/>
     </row>
+    <row r="1069" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1069" s="9"/>
+      <c r="I1069" s="9"/>
+      <c r="J1069" s="9"/>
+      <c r="K1069" s="9"/>
+      <c r="L1069" s="9"/>
+      <c r="M1069" s="9"/>
+      <c r="N1069" s="9"/>
+      <c r="O1069" s="9"/>
+      <c r="P1069" s="9"/>
+      <c r="Q1069" s="9"/>
+      <c r="R1069" s="9"/>
+    </row>
+    <row r="1070" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="G1070" s="9"/>
+      <c r="I1070" s="9"/>
+      <c r="J1070" s="9"/>
+      <c r="K1070" s="9"/>
+      <c r="L1070" s="9"/>
+      <c r="M1070" s="9"/>
+      <c r="N1070" s="9"/>
+      <c r="O1070" s="9"/>
+      <c r="P1070" s="9"/>
+      <c r="Q1070" s="9"/>
+      <c r="R1070" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G55 G61:G1048576 G57:G59 G37:G52">
-    <cfRule type="timePeriod" dxfId="10" priority="12" timePeriod="last7Days">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1074">
+    <sortCondition ref="A2:A1074"/>
+    <sortCondition ref="B2:B1074"/>
+  </sortState>
+  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G56 G62:G1048576 G58:G60 G37:G46 G49:G54">
+    <cfRule type="timePeriod" dxfId="10" priority="13" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="timePeriod" dxfId="9" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="9" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G26,1)&lt;=6,FLOOR(G26,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="timePeriod" dxfId="8" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="8" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G22,1)&lt;=6,FLOOR(G22,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="timePeriod" dxfId="7" priority="9" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="7" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G23,1)&lt;=6,FLOOR(G23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="timePeriod" dxfId="6" priority="8" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="6" priority="9" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G30,1)&lt;=6,FLOOR(G30,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G36">
-    <cfRule type="timePeriod" dxfId="5" priority="6" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="5" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G34,1)&lt;=6,FLOOR(G34,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="timePeriod" dxfId="4" priority="5" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G32,1)&lt;=6,FLOOR(G32,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G53">
-    <cfRule type="timePeriod" dxfId="3" priority="4" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G53,1)&lt;=6,FLOOR(G53,1)&lt;=TODAY())</formula>
+  <conditionalFormatting sqref="G55">
+    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G55,1)&lt;=6,FLOOR(G55,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56">
-    <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G56,1)&lt;=6,FLOOR(G56,1)&lt;=TODAY())</formula>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(G57,1)&lt;=6,FLOOR(G57,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
+  <conditionalFormatting sqref="G61">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G54,1)&lt;=6,FLOOR(G54,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(G61,1)&lt;=6,FLOOR(G61,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
+  <conditionalFormatting sqref="G47:G48">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G60,1)&lt;=6,FLOOR(G60,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(G47,1)&lt;=6,FLOOR(G47,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4225A441-5FA7-433D-A5F5-169D32D9BE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BD80C-35F2-4B3C-A358-C6B72E34D48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30795" yWindow="1260" windowWidth="22905" windowHeight="13815" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -692,9 +692,6 @@
     <t>DataFest (Optional)</t>
   </si>
   <si>
-    <t>Read RAT Part 2 and answer discussion questions in [HackMD](https://hackmd.io/@norcalbiostat/default_discrimination). We'll discuss in class on 3/31</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pull an update to your ISLR repo. Read/watch ISLR Chapter 4 content &amp; prepare answers to questions to discuss in class. We'll spend half the class each day on this topic. </t>
   </si>
   <si>
@@ -755,6 +752,9 @@
   </si>
   <si>
     <t>No class on Thursday</t>
+  </si>
+  <si>
+    <t>Read RAT Part 2 and answer discussion questions in [HackMD](https://hackmd.io/@norcalbiostat/default_discrimination). We'll discuss in class on 4/05</t>
   </si>
 </sst>
 </file>
@@ -1887,8 +1887,8 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="18" spans="1:10" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B18" s="95">
         <v>8.1</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="41"/>
@@ -2360,7 +2360,7 @@
         <v>148</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G19" s="72"/>
       <c r="H19" s="42"/>
@@ -2398,11 +2398,11 @@
         <v>43189</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -2430,7 +2430,7 @@
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2453,23 +2453,23 @@
       <c r="I23" s="41"/>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="91">
+    <row r="24" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="32"/>
+      <c r="B24" s="92">
         <v>10.199999999999999</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="41" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
@@ -2556,11 +2556,11 @@
       </c>
       <c r="C29" s="30"/>
       <c r="D29" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E29" s="41"/>
       <c r="F29" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -2612,7 +2612,7 @@
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -2628,11 +2628,11 @@
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="E34" s="67"/>
       <c r="F34" s="66" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G34" s="50">
         <v>43179</v>
@@ -3915,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="11" t="s">
@@ -3949,7 +3949,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="11" t="s">
@@ -3983,7 +3983,7 @@
         <v>147</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="11" t="s">
@@ -4017,7 +4017,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="66" t="s">
@@ -4049,7 +4049,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="66" t="s">
@@ -4081,7 +4081,7 @@
         <v>153</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="66" t="s">
@@ -4538,7 +4538,7 @@
         <v>27</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E57" s="48"/>
       <c r="F57" s="66" t="s">
@@ -4780,7 +4780,7 @@
         <v>153</v>
       </c>
       <c r="D65" s="73" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E65" s="106"/>
       <c r="F65" s="47" t="s">

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16908FF1-A5BC-40A7-87E9-F590DE32B790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83216D79-5C1D-4D55-8B73-945850182D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -883,6 +883,12 @@
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1053,7 +1059,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1383,6 +1389,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1479,17 +1488,7 @@
     <cellStyle name="Normal 3 2" xfId="91" xr:uid="{20B637C8-DD27-499C-BEC0-85B72C712ADD}"/>
     <cellStyle name="Percent 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2737,8 +2736,8 @@
   <dimension ref="A1:R1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A2:A52"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4309,7 +4308,7 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="109">
+      <c r="A47" s="113">
         <v>11</v>
       </c>
       <c r="B47" s="53">
@@ -4343,7 +4342,7 @@
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="109">
+      <c r="A48" s="113">
         <v>11</v>
       </c>
       <c r="B48" s="53">
@@ -4377,7 +4376,7 @@
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="109">
+      <c r="A49" s="113">
         <v>11</v>
       </c>
       <c r="B49" s="53">
@@ -4411,7 +4410,7 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="109">
+      <c r="A50" s="113">
         <v>11</v>
       </c>
       <c r="B50" s="53">
@@ -4443,7 +4442,7 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="109">
+      <c r="A51" s="113">
         <v>11</v>
       </c>
       <c r="B51" s="53">
@@ -4477,7 +4476,7 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" s="109">
+      <c r="A52" s="113">
         <v>11</v>
       </c>
       <c r="B52" s="53">
@@ -21051,52 +21050,52 @@
     <sortCondition ref="B2:B1075"/>
   </sortState>
   <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G55:G56 G63:G1048576 G59:G61 G37:G53">
-    <cfRule type="timePeriod" dxfId="10" priority="13" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="9" priority="13" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="timePeriod" dxfId="9" priority="12" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="8" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G26,1)&lt;=6,FLOOR(G26,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="timePeriod" dxfId="8" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="7" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G22,1)&lt;=6,FLOOR(G22,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="timePeriod" dxfId="7" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="6" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G23,1)&lt;=6,FLOOR(G23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="timePeriod" dxfId="6" priority="9" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="5" priority="9" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G30,1)&lt;=6,FLOOR(G30,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G36">
-    <cfRule type="timePeriod" dxfId="5" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="4" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G34,1)&lt;=6,FLOOR(G34,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="timePeriod" dxfId="4" priority="6" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="3" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G32,1)&lt;=6,FLOOR(G32,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="timePeriod" dxfId="3" priority="5" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G54,1)&lt;=6,FLOOR(G54,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G58">
-    <cfRule type="timePeriod" dxfId="2" priority="4" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G57,1)&lt;=6,FLOOR(G57,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62">
-    <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G62,1)&lt;=6,FLOOR(G62,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83216D79-5C1D-4D55-8B73-945850182D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272FC8A-48B1-4DB5-A7F3-9C38FA0E3F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7485" yWindow="870" windowWidth="19680" windowHeight="12285" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="241">
   <si>
     <t>SLO</t>
   </si>
@@ -2736,8 +2736,8 @@
   <dimension ref="A1:R1071"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47:A52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4416,7 +4416,9 @@
       <c r="B50" s="53">
         <v>11.4</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="49" t="s">
+        <v>11</v>
+      </c>
       <c r="D50" s="62" t="s">
         <v>44</v>
       </c>
@@ -4851,7 +4853,9 @@
       <c r="B63" s="54">
         <v>14.4</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D63" s="73" t="s">
         <v>232</v>
       </c>
@@ -4911,7 +4915,9 @@
       <c r="B65" s="53">
         <v>15.2</v>
       </c>
-      <c r="C65" s="94"/>
+      <c r="C65" s="94" t="s">
+        <v>40</v>
+      </c>
       <c r="D65" s="68" t="s">
         <v>69</v>
       </c>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272FC8A-48B1-4DB5-A7F3-9C38FA0E3F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA42D6-1691-4749-A3B5-4289847E9581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="870" windowWidth="19680" windowHeight="12285" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="251">
   <si>
     <t>SLO</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Discord</t>
   </si>
   <si>
-    <t>Finals</t>
-  </si>
-  <si>
     <t>Statistical Inference, Exploratory Data Analysis, and the Data Science Process</t>
   </si>
   <si>
@@ -638,9 +635,6 @@
     <t>Project poster - Printable version</t>
   </si>
   <si>
-    <t>ISLR Ch 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">Read/watch ISLR Chapter 5 content &amp; prepare answers to questions to discuss in class. We'll spend half the class each day on this topic. </t>
   </si>
   <si>
@@ -688,9 +682,6 @@
     <t>Returning to the learning bridge</t>
   </si>
   <si>
-    <t>Post semester reflection</t>
-  </si>
-  <si>
     <t>What's next?</t>
   </si>
   <si>
@@ -760,9 +751,6 @@
     <t>ISLR Ch 12 - Practice Exercises</t>
   </si>
   <si>
-    <t>Formal 30 minute stakeholder presentations. 12pm - 2pm. (20 minute presentation, 10 minute discussion / Q&amp;A)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Communicate your project as parts/whole of the data science lifecycle to a scientific, but non technical audience. </t>
   </si>
   <si>
@@ -782,6 +770,48 @@
   </si>
   <si>
     <t>Client report out</t>
+  </si>
+  <si>
+    <t>Preparing your project repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write a reflective summary of your project experience. Prompt questions on week 16 of the course website. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post semester reflection </t>
+  </si>
+  <si>
+    <t>[Notes](wk14-notes.html)</t>
+  </si>
+  <si>
+    <t>[Notes](wk16-notes.html)</t>
+  </si>
+  <si>
+    <t>Project wrap up</t>
+  </si>
+  <si>
+    <t>Clean up &amp; prepare your repository for 'hand off'</t>
+  </si>
+  <si>
+    <t>Formal 30 minute stakeholder presentations. 12pm - 2pm. (15 minute presentation, 10 minute discussion / Q&amp;A)</t>
+  </si>
+  <si>
+    <t>ISLR Ch 12</t>
+  </si>
+  <si>
+    <t>Project Reflection</t>
+  </si>
+  <si>
+    <t>[Notes](wk15-notes.html)</t>
+  </si>
+  <si>
+    <t>Google docs</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
+    <t>Colusa 100A/B</t>
   </si>
 </sst>
 </file>
@@ -1368,9 +1398,6 @@
     <xf numFmtId="16" fontId="7" fillId="4" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,6 +1418,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="5" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1929,11 +1959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1955,7 +1985,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -1984,7 +2014,7 @@
     </row>
     <row r="2" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="82">
         <v>1.1000000000000001</v>
@@ -1996,11 +2026,11 @@
         <v>36</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>45</v>
@@ -2024,7 +2054,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
@@ -2040,7 +2070,7 @@
     </row>
     <row r="4" spans="1:10" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" s="84">
         <v>2.1</v>
@@ -2052,27 +2082,27 @@
         <v>53</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="82">
         <v>3.1</v>
@@ -2081,22 +2111,22 @@
         <v>43138</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>94</v>
-      </c>
       <c r="I5" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" s="39"/>
     </row>
@@ -2115,16 +2145,16 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="82">
         <v>4.0999999999999996</v>
@@ -2133,19 +2163,19 @@
         <v>43145</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -2157,28 +2187,28 @@
         <v>43147</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>107</v>
-      </c>
       <c r="F8" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="82">
         <v>5.0999999999999996</v>
@@ -2190,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
@@ -2205,13 +2235,13 @@
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>128</v>
-      </c>
       <c r="F10" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -2227,24 +2257,24 @@
         <v>43154</v>
       </c>
       <c r="D11" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>100</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>101</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B12" s="82">
         <v>6.1</v>
@@ -2253,11 +2283,11 @@
         <v>43159</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
@@ -2275,11 +2305,11 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
@@ -2293,10 +2323,10 @@
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -2306,7 +2336,7 @@
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="82">
         <v>7.1</v>
@@ -2318,15 +2348,15 @@
         <v>43</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J15" s="39"/>
     </row>
@@ -2337,16 +2367,16 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J16" s="39"/>
     </row>
@@ -2361,18 +2391,18 @@
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B18" s="86">
         <v>8.1</v>
@@ -2385,7 +2415,7 @@
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="39"/>
@@ -2399,13 +2429,13 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="40"/>
@@ -2414,7 +2444,7 @@
     </row>
     <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B20" s="86">
         <v>9.1</v>
@@ -2427,7 +2457,7 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
@@ -2443,11 +2473,11 @@
         <v>43189</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
@@ -2463,24 +2493,24 @@
         <v>43190</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B23" s="83">
         <v>10.1</v>
@@ -2489,11 +2519,11 @@
         <v>43194</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -2502,7 +2532,7 @@
     </row>
     <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B24" s="82">
         <v>11.1</v>
@@ -2515,7 +2545,7 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -2531,11 +2561,11 @@
         <v>43203</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -2557,89 +2587,87 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="82">
-        <v>12.2</v>
-      </c>
-      <c r="C27" s="28">
-        <v>43210</v>
-      </c>
+        <v>12.3</v>
+      </c>
+      <c r="C27" s="28"/>
       <c r="D27" s="39" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
+    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>13</v>
+      </c>
       <c r="B28" s="82">
-        <v>12.3</v>
-      </c>
-      <c r="C28" s="28"/>
+        <v>13.1</v>
+      </c>
+      <c r="C28" s="28">
+        <v>43215</v>
+      </c>
       <c r="D28" s="39" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
     </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
-        <v>13</v>
+    <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>240</v>
       </c>
       <c r="B29" s="82">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="C29" s="28">
-        <v>43215</v>
+        <v>43222</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
       <c r="I29" s="39"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>14</v>
-      </c>
+    <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
       <c r="B30" s="82">
-        <v>14.1</v>
-      </c>
-      <c r="C30" s="28">
-        <v>43222</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="C30" s="28"/>
       <c r="D30" s="39" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -2647,62 +2675,64 @@
       <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39" t="s">
-        <v>163</v>
-      </c>
+      <c r="A31" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="82">
+        <v>15.1</v>
+      </c>
+      <c r="C31" s="28">
+        <v>43229</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
-        <v>15</v>
-      </c>
+    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
       <c r="B32" s="82">
-        <v>15.1</v>
-      </c>
-      <c r="C32" s="28">
-        <v>43229</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+        <v>15.2</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>231</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
       <c r="J32" s="39"/>
     </row>
-    <row r="33" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="82">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="39" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="27" t="s">
-        <v>55</v>
+        <v>241</v>
       </c>
       <c r="B34" s="82">
         <v>16.100000000000001</v>
@@ -2714,15 +2744,26 @@
         <v>12</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
       <c r="J34" s="39"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="88">
+        <v>16.2</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2735,9 +2776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
   <dimension ref="A1:R1071"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2747,7 +2788,7 @@
     <col min="4" max="4" width="46.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="108" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="107" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
@@ -2757,7 +2798,7 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>14</v>
@@ -2789,7 +2830,7 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="109">
+      <c r="A2" s="108">
         <v>1</v>
       </c>
       <c r="B2" s="53">
@@ -2803,7 +2844,7 @@
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="99">
         <v>43125</v>
@@ -2823,7 +2864,7 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="109">
+      <c r="A3" s="108">
         <v>1</v>
       </c>
       <c r="B3" s="53">
@@ -2855,7 +2896,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="109">
+      <c r="A4" s="108">
         <v>1</v>
       </c>
       <c r="B4" s="53">
@@ -2887,7 +2928,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
       <c r="B5" s="53">
@@ -2895,11 +2936,11 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="99">
         <v>43125</v>
@@ -2919,7 +2960,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="108">
         <v>1</v>
       </c>
       <c r="B6" s="53">
@@ -2927,7 +2968,7 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="45" t="s">
@@ -2951,7 +2992,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <v>1</v>
       </c>
       <c r="B7" s="53">
@@ -2959,11 +3000,11 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="99">
         <v>43125</v>
@@ -2983,7 +3024,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -2991,11 +3032,11 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" s="99">
         <v>43127</v>
@@ -3015,7 +3056,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <v>1</v>
       </c>
       <c r="B9" s="53">
@@ -3047,7 +3088,7 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <v>1</v>
       </c>
       <c r="B10" s="53">
@@ -3057,13 +3098,13 @@
         <v>35</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="46">
         <v>2</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G10" s="99">
         <v>43132</v>
@@ -3083,7 +3124,7 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <v>2</v>
       </c>
       <c r="B11" s="54">
@@ -3099,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="100">
         <v>43137</v>
@@ -3119,7 +3160,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <v>2</v>
       </c>
       <c r="B12" s="54">
@@ -3133,7 +3174,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G12" s="100">
         <v>43137</v>
@@ -3153,7 +3194,7 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <v>2</v>
       </c>
       <c r="B13" s="54">
@@ -3169,7 +3210,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G13" s="100">
         <v>43133</v>
@@ -3189,7 +3230,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <v>2</v>
       </c>
       <c r="B14" s="54">
@@ -3197,13 +3238,13 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="17">
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="100">
         <v>43137</v>
@@ -3223,7 +3264,7 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <v>2</v>
       </c>
       <c r="B15" s="54">
@@ -3257,7 +3298,7 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <v>2</v>
       </c>
       <c r="B16" s="54">
@@ -3291,7 +3332,7 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <v>2</v>
       </c>
       <c r="B17" s="54">
@@ -3299,13 +3340,13 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="17">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G17" s="100">
         <v>43141</v>
@@ -3325,7 +3366,7 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -3333,7 +3374,7 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="17">
         <v>6</v>
@@ -3359,7 +3400,7 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="109">
+      <c r="A19" s="108">
         <v>3</v>
       </c>
       <c r="B19" s="53">
@@ -3369,13 +3410,13 @@
         <v>41</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E19" s="46">
         <v>5</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="99">
         <v>43145</v>
@@ -3395,7 +3436,7 @@
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <v>3</v>
       </c>
       <c r="B20" s="53">
@@ -3405,11 +3446,11 @@
         <v>24</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G20" s="99">
         <v>43143</v>
@@ -3429,21 +3470,21 @@
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <v>4</v>
       </c>
       <c r="B21" s="54">
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G21" s="100">
         <v>43146</v>
@@ -3463,7 +3504,7 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="111">
+      <c r="A22" s="110">
         <v>4</v>
       </c>
       <c r="B22" s="55">
@@ -3473,13 +3514,13 @@
         <v>41</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E22" s="57">
         <v>5</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G22" s="101">
         <v>43151</v>
@@ -3499,7 +3540,7 @@
       <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="111">
+      <c r="A23" s="110">
         <v>4</v>
       </c>
       <c r="B23" s="55">
@@ -3509,11 +3550,11 @@
         <v>24</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="101">
         <v>43158</v>
@@ -3533,7 +3574,7 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="109">
+      <c r="A24" s="108">
         <v>5</v>
       </c>
       <c r="B24" s="53">
@@ -3543,13 +3584,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="46">
         <v>5</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="99">
         <v>43159</v>
@@ -3569,21 +3610,21 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="109">
+      <c r="A25" s="108">
         <v>5</v>
       </c>
       <c r="B25" s="53">
         <v>5.2</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="99">
         <v>43153</v>
@@ -3603,7 +3644,7 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="109">
+      <c r="A26" s="108">
         <v>5</v>
       </c>
       <c r="B26" s="53">
@@ -3613,11 +3654,11 @@
         <v>24</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="99">
         <v>43151</v>
@@ -3637,7 +3678,7 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="109">
+      <c r="A27" s="108">
         <v>5</v>
       </c>
       <c r="B27" s="53">
@@ -3645,11 +3686,11 @@
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="99">
         <v>43153</v>
@@ -3669,7 +3710,7 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="110">
+      <c r="A28" s="109">
         <v>6</v>
       </c>
       <c r="B28" s="54">
@@ -3679,11 +3720,11 @@
         <v>42</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="100">
         <v>43165</v>
@@ -3703,20 +3744,20 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="110">
+      <c r="A29" s="109">
         <v>6</v>
       </c>
       <c r="B29" s="54">
         <v>6.2</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>146</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="G29" s="100">
         <v>43165</v>
@@ -3736,7 +3777,7 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="110">
+      <c r="A30" s="109">
         <v>6</v>
       </c>
       <c r="B30" s="54">
@@ -3746,10 +3787,10 @@
         <v>24</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="G30" s="101">
         <v>43160</v>
@@ -3769,20 +3810,20 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="110">
+      <c r="A31" s="109">
         <v>6</v>
       </c>
       <c r="B31" s="54">
         <v>6.4</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>142</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G31" s="100">
         <v>43165</v>
@@ -3802,21 +3843,21 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="109">
+      <c r="A32" s="108">
         <v>7</v>
       </c>
       <c r="B32" s="53">
         <v>7.1</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E32" s="63"/>
       <c r="F32" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G32" s="99">
         <v>43166</v>
@@ -3836,7 +3877,7 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="109">
+      <c r="A33" s="108">
         <v>7</v>
       </c>
       <c r="B33" s="53">
@@ -3846,7 +3887,7 @@
         <v>24</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="62"/>
@@ -3868,7 +3909,7 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="109">
+      <c r="A34" s="108">
         <v>7</v>
       </c>
       <c r="B34" s="53">
@@ -3878,11 +3919,11 @@
         <v>43</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="62" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G34" s="99">
         <v>43179</v>
@@ -3902,17 +3943,17 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="109">
+      <c r="A35" s="108">
         <v>7</v>
       </c>
       <c r="B35" s="53">
         <v>7.4</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="62" t="s">
@@ -3936,21 +3977,21 @@
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="112">
+      <c r="A36" s="111">
         <v>7</v>
       </c>
       <c r="B36" s="69">
         <v>7.5</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="71" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G36" s="102">
         <v>43179</v>
@@ -3970,7 +4011,7 @@
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="110">
+      <c r="A37" s="109">
         <v>8</v>
       </c>
       <c r="B37" s="54">
@@ -3980,11 +4021,11 @@
         <v>9</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G37" s="103">
         <v>43186</v>
@@ -4004,7 +4045,7 @@
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="110">
+      <c r="A38" s="109">
         <v>8</v>
       </c>
       <c r="B38" s="54">
@@ -4014,11 +4055,11 @@
         <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="103">
         <v>43186</v>
@@ -4038,21 +4079,21 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" ht="126" x14ac:dyDescent="0.25">
-      <c r="A39" s="110">
+      <c r="A39" s="109">
         <v>8</v>
       </c>
       <c r="B39" s="54">
         <v>8.3000000000000007</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" s="103">
         <v>43182</v>
@@ -4072,7 +4113,7 @@
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="109">
+      <c r="A40" s="108">
         <v>9</v>
       </c>
       <c r="B40" s="53">
@@ -4082,11 +4123,11 @@
         <v>10</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G40" s="98">
         <v>43193</v>
@@ -4106,7 +4147,7 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="109">
+      <c r="A41" s="108">
         <v>9</v>
       </c>
       <c r="B41" s="53">
@@ -4116,11 +4157,11 @@
         <v>10</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G41" s="98">
         <v>43193</v>
@@ -4140,21 +4181,21 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="109">
+      <c r="A42" s="108">
         <v>9</v>
       </c>
       <c r="B42" s="53">
         <v>9.3000000000000007</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G42" s="98">
         <v>43187</v>
@@ -4174,7 +4215,7 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="109">
+      <c r="A43" s="108">
         <v>9</v>
       </c>
       <c r="B43" s="53">
@@ -4184,11 +4225,11 @@
         <v>24</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G43" s="98">
         <v>43188</v>
@@ -4208,21 +4249,21 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="110">
+      <c r="A44" s="109">
         <v>10</v>
       </c>
       <c r="B44" s="54">
         <v>10.1</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" s="73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G44" s="104">
         <v>43194</v>
@@ -4242,7 +4283,7 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="110">
+      <c r="A45" s="109">
         <v>10</v>
       </c>
       <c r="B45" s="54">
@@ -4252,7 +4293,7 @@
         <v>24</v>
       </c>
       <c r="D45" s="73" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E45" s="57"/>
       <c r="F45" s="73"/>
@@ -4274,7 +4315,7 @@
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="110">
+      <c r="A46" s="109">
         <v>10</v>
       </c>
       <c r="B46" s="54">
@@ -4284,11 +4325,11 @@
         <v>24</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G46" s="103">
         <v>43195</v>
@@ -4308,21 +4349,21 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="113">
+      <c r="A47" s="112">
         <v>11</v>
       </c>
       <c r="B47" s="53">
         <v>11.1</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="98">
         <v>43203</v>
@@ -4342,7 +4383,7 @@
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="113">
+      <c r="A48" s="112">
         <v>11</v>
       </c>
       <c r="B48" s="53">
@@ -4352,11 +4393,11 @@
         <v>24</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G48" s="98">
         <v>43202</v>
@@ -4376,7 +4417,7 @@
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="113">
+      <c r="A49" s="112">
         <v>11</v>
       </c>
       <c r="B49" s="53">
@@ -4390,7 +4431,7 @@
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G49" s="98">
         <v>43214</v>
@@ -4410,7 +4451,7 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="113">
+      <c r="A50" s="112">
         <v>11</v>
       </c>
       <c r="B50" s="53">
@@ -4424,7 +4465,7 @@
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G50" s="98">
         <v>43214</v>
@@ -4444,7 +4485,7 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="113">
+      <c r="A51" s="112">
         <v>11</v>
       </c>
       <c r="B51" s="53">
@@ -4454,11 +4495,11 @@
         <v>24</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="62" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G51" s="98">
         <v>43203</v>
@@ -4478,7 +4519,7 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" s="113">
+      <c r="A52" s="112">
         <v>11</v>
       </c>
       <c r="B52" s="53">
@@ -4488,11 +4529,11 @@
         <v>24</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="62" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G52" s="98">
         <v>43204</v>
@@ -4522,17 +4563,17 @@
         <v>24</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="73" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G53" s="104">
         <v>43208</v>
       </c>
       <c r="H53" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -4556,17 +4597,17 @@
         <v>24</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G54" s="103">
         <v>43209</v>
       </c>
       <c r="H54" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -4579,7 +4620,7 @@
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
     </row>
-    <row r="55" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A55" s="54">
         <v>12</v>
       </c>
@@ -4587,20 +4628,20 @@
         <v>12.3</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="73" t="s">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="G55" s="104">
-        <v>43210</v>
+        <v>43211</v>
       </c>
       <c r="H55" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -4613,28 +4654,28 @@
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
     </row>
-    <row r="56" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="54">
-        <v>12</v>
-      </c>
-      <c r="B56" s="54">
-        <v>12.4</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="D56" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="E56" s="57"/>
-      <c r="F56" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="104">
-        <v>43211</v>
-      </c>
-      <c r="H56" s="6">
-        <v>20</v>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" s="53">
+        <v>13</v>
+      </c>
+      <c r="B56" s="53">
+        <v>13.1</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="98">
+        <v>43215</v>
+      </c>
+      <c r="H56" s="58">
+        <v>40</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -4652,23 +4693,23 @@
         <v>13</v>
       </c>
       <c r="B57" s="53">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C57" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="62" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G57" s="98">
-        <v>43215</v>
+        <v>43217</v>
       </c>
       <c r="H57" s="58">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4686,23 +4727,23 @@
         <v>13</v>
       </c>
       <c r="B58" s="53">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C58" s="49" t="s">
         <v>24</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="E58" s="46"/>
       <c r="F58" s="62" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="G58" s="98">
-        <v>43217</v>
+        <v>43218</v>
       </c>
       <c r="H58" s="58">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -4716,27 +4757,27 @@
       <c r="R58" s="7"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="53">
-        <v>13</v>
-      </c>
-      <c r="B59" s="53">
-        <v>13.3</v>
-      </c>
-      <c r="C59" s="49" t="s">
+      <c r="A59" s="54">
+        <v>14</v>
+      </c>
+      <c r="B59" s="54">
+        <v>14.1</v>
+      </c>
+      <c r="C59" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="E59" s="46"/>
-      <c r="F59" s="62" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="98">
-        <v>43218</v>
-      </c>
-      <c r="H59" s="58">
-        <v>40</v>
+      <c r="D59" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G59" s="103">
+        <v>43221</v>
+      </c>
+      <c r="H59" s="6">
+        <v>10</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -4749,27 +4790,30 @@
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="54">
+    <row r="60" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="55">
         <v>14</v>
       </c>
-      <c r="B60" s="54">
-        <v>14.1</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E60" s="17"/>
-      <c r="G60" s="103">
-        <v>43221</v>
-      </c>
-      <c r="H60" s="6">
-        <v>10</v>
-      </c>
-      <c r="I60" s="7"/>
+      <c r="B60" s="55">
+        <v>14.2</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="57"/>
+      <c r="F60" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G60" s="104">
+        <v>43222</v>
+      </c>
+      <c r="H60" s="79">
+        <v>20</v>
+      </c>
+      <c r="I60" s="97"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -4780,30 +4824,30 @@
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
     </row>
-    <row r="61" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="55">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="54">
         <v>14</v>
       </c>
-      <c r="B61" s="55">
-        <v>14.2</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="G61" s="104">
-        <v>43222</v>
-      </c>
-      <c r="H61" s="79">
-        <v>20</v>
-      </c>
-      <c r="I61" s="97"/>
+      <c r="B61" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="103">
+        <v>43235</v>
+      </c>
+      <c r="H61" s="6">
+        <v>35</v>
+      </c>
+      <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4819,19 +4863,21 @@
         <v>14</v>
       </c>
       <c r="B62" s="54">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="56" t="s">
-        <v>231</v>
+      <c r="D62" s="73" t="s">
+        <v>229</v>
       </c>
       <c r="E62" s="17"/>
       <c r="F62" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="103"/>
+        <v>187</v>
+      </c>
+      <c r="G62" s="103">
+        <v>43235</v>
+      </c>
       <c r="H62" s="6">
         <v>35</v>
       </c>
@@ -4847,25 +4893,25 @@
       <c r="R62" s="7"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="54">
-        <v>14</v>
-      </c>
-      <c r="B63" s="54">
-        <v>14.4</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63" s="73" t="s">
-        <v>232</v>
-      </c>
-      <c r="E63" s="17"/>
-      <c r="F63" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G63" s="103"/>
-      <c r="H63" s="6">
-        <v>35</v>
+      <c r="A63" s="53">
+        <v>15</v>
+      </c>
+      <c r="B63" s="53">
+        <v>15.1</v>
+      </c>
+      <c r="C63" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="95"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="98">
+        <v>43232</v>
+      </c>
+      <c r="H63" s="58">
+        <v>25</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -4883,7 +4929,7 @@
         <v>15</v>
       </c>
       <c r="B64" s="53">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C64" s="94" t="s">
         <v>40</v>
@@ -4891,12 +4937,14 @@
       <c r="D64" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="E64" s="95"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="98">
-        <v>43446</v>
-      </c>
-      <c r="H64" s="58"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="105">
+        <v>43239</v>
+      </c>
+      <c r="H64" s="58">
+        <v>25</v>
+      </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="7"/>
@@ -4913,20 +4961,24 @@
         <v>15</v>
       </c>
       <c r="B65" s="53">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="D65" s="68" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="E65" s="96"/>
-      <c r="F65" s="45"/>
+      <c r="F65" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="G65" s="105">
-        <v>43453</v>
-      </c>
-      <c r="H65" s="58"/>
+        <v>43231</v>
+      </c>
+      <c r="H65" s="58">
+        <v>25</v>
+      </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -4938,27 +4990,29 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="53">
         <v>15</v>
       </c>
       <c r="B66" s="53">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="D66" s="68" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E66" s="96"/>
       <c r="F66" s="45" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="G66" s="105">
         <v>43229</v>
       </c>
-      <c r="H66" s="58"/>
+      <c r="H66" s="58">
+        <v>25</v>
+      </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
@@ -4981,12 +5035,18 @@
         <v>24</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E67" s="92"/>
-      <c r="F67" s="91"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="93"/>
+      <c r="F67" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="113">
+        <v>43236</v>
+      </c>
+      <c r="H67" s="93">
+        <v>25</v>
+      </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -4999,11 +5059,28 @@
       <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C68" s="12"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="107"/>
+      <c r="A68" s="89">
+        <v>16</v>
+      </c>
+      <c r="B68" s="89">
+        <v>16.2</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="E68" s="92"/>
+      <c r="F68" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" s="113">
+        <v>43239</v>
+      </c>
+      <c r="H68" s="93">
+        <v>25</v>
+      </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -5015,9 +5092,29 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E69" s="4"/>
-      <c r="F69" s="8"/>
+    <row r="69" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="89">
+        <v>16</v>
+      </c>
+      <c r="B69" s="89">
+        <v>16.3</v>
+      </c>
+      <c r="C69" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" s="92"/>
+      <c r="F69" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="113">
+        <v>43239</v>
+      </c>
+      <c r="H69" s="93">
+        <v>50</v>
+      </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -5066,7 +5163,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="17"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="107"/>
+      <c r="G72" s="106"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -5099,7 +5196,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="17"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="107"/>
+      <c r="G74" s="106"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -5165,7 +5262,7 @@
       <c r="D78" s="3"/>
       <c r="E78" s="17"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="107"/>
+      <c r="G78" s="106"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -21055,7 +21152,7 @@
     <sortCondition ref="A2:A1075"/>
     <sortCondition ref="B2:B1075"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G55:G56 G63:G1048576 G59:G61 G37:G53">
+  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G58:G60 G37:G53 G55 G63:G1048576">
     <cfRule type="timePeriod" dxfId="9" priority="13" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
@@ -21095,14 +21192,14 @@
       <formula>AND(TODAY()-FLOOR(G54,1)&lt;=6,FLOOR(G54,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:G58">
+  <conditionalFormatting sqref="G56:G57">
     <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G57,1)&lt;=6,FLOOR(G57,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(G56,1)&lt;=6,FLOOR(G56,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G62">
+  <conditionalFormatting sqref="G61:G62">
     <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(G62,1)&lt;=6,FLOOR(G62,1)&lt;=TODAY())</formula>
+      <formula>AND(TODAY()-FLOOR(G61,1)&lt;=6,FLOOR(G61,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/schedule_485.xlsx
+++ b/schedule_485.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ADS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA42D6-1691-4749-A3B5-4289847E9581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A387E723-7FFA-4C6C-9BA7-602C579F85EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="246">
   <si>
     <t>SLO</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Accept invite to github classroom</t>
-  </si>
-  <si>
-    <t>Unsupervised Clustering</t>
   </si>
   <si>
     <t>Send via Discord</t>
@@ -558,9 +555,6 @@
     <t>Classwide &amp; Client project share out</t>
   </si>
   <si>
-    <t>Unsupervised Learning</t>
-  </si>
-  <si>
     <t>Retooling Solidarity, Reimagining Justice</t>
   </si>
   <si>
@@ -745,12 +739,6 @@
     <t>In class</t>
   </si>
   <si>
-    <t>ISLR Ch 12 - Collaborative notes</t>
-  </si>
-  <si>
-    <t>ISLR Ch 12 - Practice Exercises</t>
-  </si>
-  <si>
     <t xml:space="preserve">Communicate your project as parts/whole of the data science lifecycle to a scientific, but non technical audience. </t>
   </si>
   <si>
@@ -794,9 +782,6 @@
   </si>
   <si>
     <t>Formal 30 minute stakeholder presentations. 12pm - 2pm. (15 minute presentation, 10 minute discussion / Q&amp;A)</t>
-  </si>
-  <si>
-    <t>ISLR Ch 12</t>
   </si>
   <si>
     <t>Project Reflection</t>
@@ -1089,7 +1074,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="91" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1366,9 +1351,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1421,6 +1403,12 @@
     </xf>
     <xf numFmtId="16" fontId="7" fillId="5" borderId="0" xfId="91" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="91" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="93">
@@ -1959,11 +1947,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+    <sheetView zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1982,10 +1970,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="25" t="s">
         <v>1</v>
@@ -1997,10 +1985,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="25" t="s">
         <v>22</v>
@@ -2014,7 +2002,7 @@
     </row>
     <row r="2" spans="1:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="82">
         <v>1.1000000000000001</v>
@@ -2023,23 +2011,23 @@
         <v>43124</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2051,26 +2039,26 @@
         <v>43126</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="33"/>
       <c r="G3" s="33" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="33"/>
       <c r="J3" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="84">
         <v>2.1</v>
@@ -2079,30 +2067,30 @@
         <v>43131</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>86</v>
-      </c>
       <c r="I4" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="82">
         <v>3.1</v>
@@ -2111,22 +2099,22 @@
         <v>43138</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>93</v>
-      </c>
       <c r="I5" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="39"/>
     </row>
@@ -2145,16 +2133,16 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
       <c r="H6" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="40"/>
       <c r="J6" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B7" s="82">
         <v>4.0999999999999996</v>
@@ -2163,19 +2151,19 @@
         <v>43145</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -2187,28 +2175,28 @@
         <v>43147</v>
       </c>
       <c r="D8" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="40" t="s">
-        <v>106</v>
-      </c>
       <c r="F8" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9" s="82">
         <v>5.0999999999999996</v>
@@ -2220,7 +2208,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
@@ -2235,13 +2223,13 @@
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>127</v>
-      </c>
       <c r="F10" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
@@ -2257,24 +2245,24 @@
         <v>43154</v>
       </c>
       <c r="D11" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="40" t="s">
         <v>99</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>100</v>
       </c>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="189" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B12" s="82">
         <v>6.1</v>
@@ -2283,11 +2271,11 @@
         <v>43159</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
@@ -2305,11 +2293,11 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
@@ -2323,10 +2311,10 @@
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
@@ -2336,7 +2324,7 @@
     </row>
     <row r="15" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="82">
         <v>7.1</v>
@@ -2345,18 +2333,18 @@
         <v>43166</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J15" s="39"/>
     </row>
@@ -2367,16 +2355,16 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J16" s="39"/>
     </row>
@@ -2391,18 +2379,18 @@
       </c>
       <c r="E17" s="77"/>
       <c r="F17" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G17" s="77"/>
       <c r="H17" s="77"/>
       <c r="I17" s="77"/>
       <c r="J17" s="77" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="63.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B18" s="86">
         <v>8.1</v>
@@ -2415,7 +2403,7 @@
       </c>
       <c r="E18" s="43"/>
       <c r="F18" s="39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G18" s="43"/>
       <c r="H18" s="39"/>
@@ -2429,13 +2417,13 @@
       </c>
       <c r="C19" s="66"/>
       <c r="D19" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="E19" s="67" t="s">
-        <v>135</v>
-      </c>
       <c r="F19" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G19" s="67"/>
       <c r="H19" s="40"/>
@@ -2444,7 +2432,7 @@
     </row>
     <row r="20" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B20" s="86">
         <v>9.1</v>
@@ -2457,7 +2445,7 @@
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="39" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
@@ -2473,11 +2461,11 @@
         <v>43189</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
@@ -2493,24 +2481,24 @@
         <v>43190</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B23" s="83">
         <v>10.1</v>
@@ -2519,11 +2507,11 @@
         <v>43194</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -2532,7 +2520,7 @@
     </row>
     <row r="24" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B24" s="82">
         <v>11.1</v>
@@ -2545,7 +2533,7 @@
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -2561,11 +2549,11 @@
         <v>43203</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -2587,7 +2575,7 @@
       </c>
       <c r="E26" s="39"/>
       <c r="F26" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
@@ -2601,11 +2589,11 @@
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="39" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
@@ -2623,11 +2611,11 @@
         <v>43215</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -2636,7 +2624,7 @@
     </row>
     <row r="29" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B29" s="82">
         <v>14.1</v>
@@ -2645,11 +2633,11 @@
         <v>43222</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
@@ -2657,55 +2645,55 @@
       <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
+      <c r="A30" s="27" t="s">
+        <v>242</v>
+      </c>
       <c r="B30" s="82">
-        <v>14.2</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39" t="s">
-        <v>161</v>
-      </c>
+        <v>15.1</v>
+      </c>
+      <c r="C30" s="28">
+        <v>43229</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
       <c r="J30" s="39"/>
     </row>
-    <row r="31" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>247</v>
-      </c>
+    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
       <c r="B31" s="82">
-        <v>15.1</v>
-      </c>
-      <c r="C31" s="28">
-        <v>43229</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+        <v>15.2</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>227</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
     </row>
-    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="82">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="39" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="E32" s="39"/>
       <c r="F32" s="39" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
@@ -2713,56 +2701,38 @@
       <c r="J32" s="39"/>
     </row>
     <row r="33" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="27" t="s">
+        <v>237</v>
+      </c>
       <c r="B33" s="82">
-        <v>15.3</v>
-      </c>
-      <c r="C33" s="28"/>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C33" s="28">
+        <v>43236</v>
+      </c>
       <c r="D33" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="39"/>
+        <v>12</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>226</v>
+      </c>
       <c r="F33" s="39" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
       <c r="J33" s="39"/>
     </row>
-    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" s="82">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C34" s="28">
-        <v>43236</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="88">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="88">
         <v>16.2</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>243</v>
+      <c r="D34" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2774,11 +2744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBC2D3D-FE18-4FBF-825C-8A0A6D387E1B}">
-  <dimension ref="A1:R1071"/>
+  <dimension ref="A1:R1069"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2788,17 +2758,17 @@
     <col min="4" max="4" width="46.625" style="9" customWidth="1"/>
     <col min="5" max="5" width="15.375" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39.625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="106" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="6" customWidth="1"/>
     <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>14</v>
@@ -2807,7 +2777,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
@@ -2830,7 +2800,7 @@
       <c r="R1" s="7"/>
     </row>
     <row r="2" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="108">
+      <c r="A2" s="107">
         <v>1</v>
       </c>
       <c r="B2" s="53">
@@ -2840,13 +2810,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G2" s="99">
+        <v>115</v>
+      </c>
+      <c r="G2" s="98">
         <v>43125</v>
       </c>
       <c r="H2" s="58">
@@ -2864,7 +2834,7 @@
       <c r="R2" s="7"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="108">
+      <c r="A3" s="107">
         <v>1</v>
       </c>
       <c r="B3" s="53">
@@ -2876,9 +2846,9 @@
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="99">
+        <v>30</v>
+      </c>
+      <c r="G3" s="98">
         <v>43125</v>
       </c>
       <c r="H3" s="58">
@@ -2896,7 +2866,7 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="108">
+      <c r="A4" s="107">
         <v>1</v>
       </c>
       <c r="B4" s="53">
@@ -2908,9 +2878,9 @@
       </c>
       <c r="E4" s="46"/>
       <c r="F4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="99">
+        <v>37</v>
+      </c>
+      <c r="G4" s="98">
         <v>43125</v>
       </c>
       <c r="H4" s="58">
@@ -2928,7 +2898,7 @@
       <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
       <c r="B5" s="53">
@@ -2936,13 +2906,13 @@
       </c>
       <c r="C5" s="44"/>
       <c r="D5" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="99">
+        <v>114</v>
+      </c>
+      <c r="G5" s="98">
         <v>43125</v>
       </c>
       <c r="H5" s="58">
@@ -2960,7 +2930,7 @@
       <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <v>1</v>
       </c>
       <c r="B6" s="53">
@@ -2968,13 +2938,13 @@
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="46"/>
       <c r="F6" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="99">
+        <v>27</v>
+      </c>
+      <c r="G6" s="98">
         <v>43125</v>
       </c>
       <c r="H6" s="58">
@@ -2992,7 +2962,7 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <v>1</v>
       </c>
       <c r="B7" s="53">
@@ -3000,13 +2970,13 @@
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="99">
+        <v>116</v>
+      </c>
+      <c r="G7" s="98">
         <v>43125</v>
       </c>
       <c r="H7" s="58">
@@ -3024,7 +2994,7 @@
       <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <v>1</v>
       </c>
       <c r="B8" s="53">
@@ -3032,13 +3002,13 @@
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="99">
+        <v>117</v>
+      </c>
+      <c r="G8" s="98">
         <v>43127</v>
       </c>
       <c r="H8" s="58">
@@ -3056,7 +3026,7 @@
       <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <v>1</v>
       </c>
       <c r="B9" s="53">
@@ -3068,9 +3038,9 @@
       </c>
       <c r="E9" s="46"/>
       <c r="F9" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="99">
+        <v>26</v>
+      </c>
+      <c r="G9" s="98">
         <v>43125</v>
       </c>
       <c r="H9" s="58">
@@ -3088,25 +3058,25 @@
       <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <v>1</v>
       </c>
       <c r="B10" s="53">
         <v>1.9</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="46">
         <v>2</v>
       </c>
       <c r="F10" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="99">
+        <v>118</v>
+      </c>
+      <c r="G10" s="98">
         <v>43132</v>
       </c>
       <c r="H10" s="58">
@@ -3124,14 +3094,14 @@
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <v>2</v>
       </c>
       <c r="B11" s="54">
         <v>2.1</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>18</v>
@@ -3140,9 +3110,9 @@
         <v>2</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" s="100">
+        <v>119</v>
+      </c>
+      <c r="G11" s="99">
         <v>43137</v>
       </c>
       <c r="H11" s="6">
@@ -3160,7 +3130,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <v>2</v>
       </c>
       <c r="B12" s="54">
@@ -3174,9 +3144,9 @@
         <v>2</v>
       </c>
       <c r="F12" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="100">
+        <v>120</v>
+      </c>
+      <c r="G12" s="99">
         <v>43137</v>
       </c>
       <c r="H12" s="6">
@@ -3194,25 +3164,25 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="108">
         <v>2</v>
       </c>
       <c r="B13" s="54">
         <v>2.2999999999999998</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="17">
         <v>6</v>
       </c>
       <c r="F13" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="100">
+        <v>121</v>
+      </c>
+      <c r="G13" s="99">
         <v>43133</v>
       </c>
       <c r="H13" s="6">
@@ -3230,7 +3200,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <v>2</v>
       </c>
       <c r="B14" s="54">
@@ -3238,15 +3208,15 @@
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="17">
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="100">
+        <v>93</v>
+      </c>
+      <c r="G14" s="99">
         <v>43137</v>
       </c>
       <c r="H14" s="6">
@@ -3264,7 +3234,7 @@
       <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <v>2</v>
       </c>
       <c r="B15" s="54">
@@ -3272,15 +3242,15 @@
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="17">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="100">
+        <v>53</v>
+      </c>
+      <c r="G15" s="99">
         <v>43134</v>
       </c>
       <c r="H15" s="6">
@@ -3298,7 +3268,7 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <v>2</v>
       </c>
       <c r="B16" s="54">
@@ -3306,15 +3276,15 @@
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="17">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="100">
+        <v>53</v>
+      </c>
+      <c r="G16" s="99">
         <v>43137</v>
       </c>
       <c r="H16" s="6">
@@ -3332,7 +3302,7 @@
       <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="109">
+      <c r="A17" s="108">
         <v>2</v>
       </c>
       <c r="B17" s="54">
@@ -3340,15 +3310,15 @@
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="17">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="100">
+        <v>65</v>
+      </c>
+      <c r="G17" s="99">
         <v>43141</v>
       </c>
       <c r="H17" s="6">
@@ -3366,7 +3336,7 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <v>2</v>
       </c>
       <c r="B18" s="54">
@@ -3374,15 +3344,15 @@
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="17">
         <v>6</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="100">
+        <v>53</v>
+      </c>
+      <c r="G18" s="99">
         <v>43144</v>
       </c>
       <c r="H18" s="6">
@@ -3400,25 +3370,25 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <v>3</v>
       </c>
       <c r="B19" s="53">
         <v>3.1</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="46">
         <v>5</v>
       </c>
       <c r="F19" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G19" s="99">
+        <v>122</v>
+      </c>
+      <c r="G19" s="98">
         <v>43145</v>
       </c>
       <c r="H19" s="58">
@@ -3436,7 +3406,7 @@
       <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <v>3</v>
       </c>
       <c r="B20" s="53">
@@ -3446,13 +3416,13 @@
         <v>24</v>
       </c>
       <c r="D20" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="99">
+        <v>69</v>
+      </c>
+      <c r="G20" s="98">
         <v>43143</v>
       </c>
       <c r="H20" s="58">
@@ -3470,23 +3440,23 @@
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+      <c r="A21" s="108">
         <v>4</v>
       </c>
       <c r="B21" s="54">
         <v>4.0999999999999996</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="100">
+        <v>136</v>
+      </c>
+      <c r="G21" s="99">
         <v>43146</v>
       </c>
       <c r="H21" s="6">
@@ -3504,25 +3474,25 @@
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <v>4</v>
       </c>
       <c r="B22" s="55">
         <v>4.2</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22" s="57">
         <v>5</v>
       </c>
       <c r="F22" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="101">
+        <v>106</v>
+      </c>
+      <c r="G22" s="100">
         <v>43151</v>
       </c>
       <c r="H22" s="79">
@@ -3540,7 +3510,7 @@
       <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <v>4</v>
       </c>
       <c r="B23" s="55">
@@ -3550,13 +3520,13 @@
         <v>24</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="57"/>
       <c r="F23" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="101">
+        <v>123</v>
+      </c>
+      <c r="G23" s="100">
         <v>43158</v>
       </c>
       <c r="H23" s="79">
@@ -3574,7 +3544,7 @@
       <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <v>5</v>
       </c>
       <c r="B24" s="53">
@@ -3584,15 +3554,15 @@
         <v>8</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E24" s="46">
         <v>5</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G24" s="99">
+        <v>124</v>
+      </c>
+      <c r="G24" s="98">
         <v>43159</v>
       </c>
       <c r="H24" s="58">
@@ -3610,23 +3580,23 @@
       <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
+      <c r="A25" s="107">
         <v>5</v>
       </c>
       <c r="B25" s="53">
         <v>5.2</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="99">
+        <v>137</v>
+      </c>
+      <c r="G25" s="98">
         <v>43153</v>
       </c>
       <c r="H25" s="58">
@@ -3644,7 +3614,7 @@
       <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
+      <c r="A26" s="107">
         <v>5</v>
       </c>
       <c r="B26" s="53">
@@ -3654,13 +3624,13 @@
         <v>24</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="99">
+        <v>109</v>
+      </c>
+      <c r="G26" s="98">
         <v>43151</v>
       </c>
       <c r="H26" s="58">
@@ -3678,7 +3648,7 @@
       <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+      <c r="A27" s="107">
         <v>5</v>
       </c>
       <c r="B27" s="53">
@@ -3686,13 +3656,13 @@
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="99">
+        <v>138</v>
+      </c>
+      <c r="G27" s="98">
         <v>43153</v>
       </c>
       <c r="H27" s="58">
@@ -3710,23 +3680,23 @@
       <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="109">
+      <c r="A28" s="108">
         <v>6</v>
       </c>
       <c r="B28" s="54">
         <v>6.1</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="100">
+        <v>146</v>
+      </c>
+      <c r="G28" s="99">
         <v>43165</v>
       </c>
       <c r="H28" s="6">
@@ -3744,22 +3714,22 @@
       <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="109">
+      <c r="A29" s="108">
         <v>6</v>
       </c>
       <c r="B29" s="54">
         <v>6.2</v>
       </c>
       <c r="C29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="100">
+      <c r="G29" s="99">
         <v>43165</v>
       </c>
       <c r="H29" s="6">
@@ -3777,7 +3747,7 @@
       <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="109">
+      <c r="A30" s="108">
         <v>6</v>
       </c>
       <c r="B30" s="54">
@@ -3787,12 +3757,12 @@
         <v>24</v>
       </c>
       <c r="D30" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="101">
+      <c r="G30" s="100">
         <v>43160</v>
       </c>
       <c r="H30" s="6">
@@ -3810,22 +3780,22 @@
       <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="109">
+      <c r="A31" s="108">
         <v>6</v>
       </c>
       <c r="B31" s="54">
         <v>6.4</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="39" t="s">
-        <v>141</v>
-      </c>
       <c r="F31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="100">
+        <v>69</v>
+      </c>
+      <c r="G31" s="99">
         <v>43165</v>
       </c>
       <c r="H31" s="6">
@@ -3843,23 +3813,23 @@
       <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="108">
+      <c r="A32" s="107">
         <v>7</v>
       </c>
       <c r="B32" s="53">
         <v>7.1</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E32" s="63"/>
       <c r="F32" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="99">
+        <v>150</v>
+      </c>
+      <c r="G32" s="98">
         <v>43166</v>
       </c>
       <c r="H32" s="58">
@@ -3877,7 +3847,7 @@
       <c r="R32" s="7"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="108">
+      <c r="A33" s="107">
         <v>7</v>
       </c>
       <c r="B33" s="53">
@@ -3887,11 +3857,11 @@
         <v>24</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="63"/>
       <c r="F33" s="62"/>
-      <c r="G33" s="99">
+      <c r="G33" s="98">
         <v>43168</v>
       </c>
       <c r="H33" s="58">
@@ -3909,23 +3879,23 @@
       <c r="R33" s="7"/>
     </row>
     <row r="34" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
+      <c r="A34" s="107">
         <v>7</v>
       </c>
       <c r="B34" s="53">
         <v>7.3</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E34" s="63"/>
       <c r="F34" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="99">
+        <v>200</v>
+      </c>
+      <c r="G34" s="98">
         <v>43179</v>
       </c>
       <c r="H34" s="58">
@@ -3943,23 +3913,23 @@
       <c r="R34" s="7"/>
     </row>
     <row r="35" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="108">
+      <c r="A35" s="107">
         <v>7</v>
       </c>
       <c r="B35" s="53">
         <v>7.4</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E35" s="63"/>
       <c r="F35" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="99">
+        <v>53</v>
+      </c>
+      <c r="G35" s="98">
         <v>43182</v>
       </c>
       <c r="H35" s="58">
@@ -3977,23 +3947,23 @@
       <c r="R35" s="7"/>
     </row>
     <row r="36" spans="1:18" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="111">
+      <c r="A36" s="110">
         <v>7</v>
       </c>
       <c r="B36" s="69">
         <v>7.5</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" s="72"/>
       <c r="F36" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" s="102">
+        <v>210</v>
+      </c>
+      <c r="G36" s="101">
         <v>43179</v>
       </c>
       <c r="H36" s="80">
@@ -4011,7 +3981,7 @@
       <c r="R36" s="7"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="109">
+      <c r="A37" s="108">
         <v>8</v>
       </c>
       <c r="B37" s="54">
@@ -4021,13 +3991,13 @@
         <v>9</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="103">
+        <v>185</v>
+      </c>
+      <c r="G37" s="102">
         <v>43186</v>
       </c>
       <c r="H37" s="6">
@@ -4045,7 +4015,7 @@
       <c r="R37" s="7"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="109">
+      <c r="A38" s="108">
         <v>8</v>
       </c>
       <c r="B38" s="54">
@@ -4055,13 +4025,13 @@
         <v>9</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G38" s="103">
+        <v>185</v>
+      </c>
+      <c r="G38" s="102">
         <v>43186</v>
       </c>
       <c r="H38" s="6">
@@ -4079,23 +4049,23 @@
       <c r="R38" s="7"/>
     </row>
     <row r="39" spans="1:18" ht="126" x14ac:dyDescent="0.25">
-      <c r="A39" s="109">
+      <c r="A39" s="108">
         <v>8</v>
       </c>
       <c r="B39" s="54">
         <v>8.3000000000000007</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D39" s="39" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="103">
+        <v>69</v>
+      </c>
+      <c r="G39" s="102">
         <v>43182</v>
       </c>
       <c r="H39" s="6">
@@ -4113,7 +4083,7 @@
       <c r="R39" s="7"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="108">
+      <c r="A40" s="107">
         <v>9</v>
       </c>
       <c r="B40" s="53">
@@ -4123,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="46"/>
       <c r="F40" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="98">
+        <v>185</v>
+      </c>
+      <c r="G40" s="97">
         <v>43193</v>
       </c>
       <c r="H40" s="58">
@@ -4147,7 +4117,7 @@
       <c r="R40" s="7"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="108">
+      <c r="A41" s="107">
         <v>9</v>
       </c>
       <c r="B41" s="53">
@@ -4157,13 +4127,13 @@
         <v>10</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E41" s="46"/>
       <c r="F41" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="98">
+        <v>185</v>
+      </c>
+      <c r="G41" s="97">
         <v>43193</v>
       </c>
       <c r="H41" s="58">
@@ -4181,23 +4151,23 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="108">
+      <c r="A42" s="107">
         <v>9</v>
       </c>
       <c r="B42" s="53">
         <v>9.3000000000000007</v>
       </c>
       <c r="C42" s="49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E42" s="46"/>
       <c r="F42" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="98">
+        <v>69</v>
+      </c>
+      <c r="G42" s="97">
         <v>43187</v>
       </c>
       <c r="H42" s="58">
@@ -4215,7 +4185,7 @@
       <c r="R42" s="7"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="108">
+      <c r="A43" s="107">
         <v>9</v>
       </c>
       <c r="B43" s="53">
@@ -4225,13 +4195,13 @@
         <v>24</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="G43" s="98">
+        <v>183</v>
+      </c>
+      <c r="G43" s="97">
         <v>43188</v>
       </c>
       <c r="H43" s="58">
@@ -4249,23 +4219,23 @@
       <c r="R43" s="7"/>
     </row>
     <row r="44" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="109">
+      <c r="A44" s="108">
         <v>10</v>
       </c>
       <c r="B44" s="54">
         <v>10.1</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E44" s="57"/>
       <c r="F44" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="G44" s="104">
+        <v>155</v>
+      </c>
+      <c r="G44" s="103">
         <v>43194</v>
       </c>
       <c r="H44" s="6">
@@ -4283,7 +4253,7 @@
       <c r="R44" s="7"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="109">
+      <c r="A45" s="108">
         <v>10</v>
       </c>
       <c r="B45" s="54">
@@ -4293,11 +4263,11 @@
         <v>24</v>
       </c>
       <c r="D45" s="73" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E45" s="57"/>
       <c r="F45" s="73"/>
-      <c r="G45" s="104">
+      <c r="G45" s="103">
         <v>43194</v>
       </c>
       <c r="H45" s="6">
@@ -4315,7 +4285,7 @@
       <c r="R45" s="7"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="109">
+      <c r="A46" s="108">
         <v>10</v>
       </c>
       <c r="B46" s="54">
@@ -4325,13 +4295,13 @@
         <v>24</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E46" s="17"/>
       <c r="F46" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G46" s="103">
+        <v>183</v>
+      </c>
+      <c r="G46" s="102">
         <v>43195</v>
       </c>
       <c r="H46" s="6">
@@ -4349,23 +4319,23 @@
       <c r="R46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="112">
+      <c r="A47" s="111">
         <v>11</v>
       </c>
       <c r="B47" s="53">
         <v>11.1</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E47" s="46"/>
       <c r="F47" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="G47" s="98">
+        <v>153</v>
+      </c>
+      <c r="G47" s="97">
         <v>43203</v>
       </c>
       <c r="H47" s="58">
@@ -4383,7 +4353,7 @@
       <c r="R47" s="7"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="112">
+      <c r="A48" s="111">
         <v>11</v>
       </c>
       <c r="B48" s="53">
@@ -4393,13 +4363,13 @@
         <v>24</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E48" s="46"/>
       <c r="F48" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="G48" s="98">
+        <v>183</v>
+      </c>
+      <c r="G48" s="97">
         <v>43202</v>
       </c>
       <c r="H48" s="58">
@@ -4417,7 +4387,7 @@
       <c r="R48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="112">
+      <c r="A49" s="111">
         <v>11</v>
       </c>
       <c r="B49" s="53">
@@ -4427,13 +4397,13 @@
         <v>11</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E49" s="46"/>
       <c r="F49" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="98">
+        <v>185</v>
+      </c>
+      <c r="G49" s="97">
         <v>43214</v>
       </c>
       <c r="H49" s="58">
@@ -4451,7 +4421,7 @@
       <c r="R49" s="7"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="112">
+      <c r="A50" s="111">
         <v>11</v>
       </c>
       <c r="B50" s="53">
@@ -4461,13 +4431,13 @@
         <v>11</v>
       </c>
       <c r="D50" s="62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E50" s="46"/>
       <c r="F50" s="62" t="s">
-        <v>187</v>
-      </c>
-      <c r="G50" s="98">
+        <v>185</v>
+      </c>
+      <c r="G50" s="97">
         <v>43214</v>
       </c>
       <c r="H50" s="58">
@@ -4485,7 +4455,7 @@
       <c r="R50" s="7"/>
     </row>
     <row r="51" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="112">
+      <c r="A51" s="111">
         <v>11</v>
       </c>
       <c r="B51" s="53">
@@ -4495,13 +4465,13 @@
         <v>24</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E51" s="46"/>
       <c r="F51" s="62" t="s">
-        <v>219</v>
-      </c>
-      <c r="G51" s="98">
+        <v>217</v>
+      </c>
+      <c r="G51" s="97">
         <v>43203</v>
       </c>
       <c r="H51" s="58">
@@ -4519,7 +4489,7 @@
       <c r="R51" s="7"/>
     </row>
     <row r="52" spans="1:18" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" s="112">
+      <c r="A52" s="111">
         <v>11</v>
       </c>
       <c r="B52" s="53">
@@ -4529,13 +4499,13 @@
         <v>24</v>
       </c>
       <c r="D52" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="G52" s="98">
+        <v>215</v>
+      </c>
+      <c r="G52" s="97">
         <v>43204</v>
       </c>
       <c r="H52" s="58">
@@ -4563,13 +4533,13 @@
         <v>24</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E53" s="57"/>
       <c r="F53" s="73" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" s="104">
+        <v>213</v>
+      </c>
+      <c r="G53" s="103">
         <v>43208</v>
       </c>
       <c r="H53" s="6">
@@ -4597,13 +4567,13 @@
         <v>24</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="G54" s="103">
+        <v>183</v>
+      </c>
+      <c r="G54" s="102">
         <v>43209</v>
       </c>
       <c r="H54" s="6">
@@ -4628,16 +4598,16 @@
         <v>12.3</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D55" s="73" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E55" s="57"/>
       <c r="F55" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="104">
+        <v>30</v>
+      </c>
+      <c r="G55" s="103">
         <v>43211</v>
       </c>
       <c r="H55" s="6">
@@ -4665,13 +4635,13 @@
         <v>24</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E56" s="46"/>
       <c r="F56" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="G56" s="98">
+        <v>188</v>
+      </c>
+      <c r="G56" s="97">
         <v>43215</v>
       </c>
       <c r="H56" s="58">
@@ -4699,13 +4669,13 @@
         <v>24</v>
       </c>
       <c r="D57" s="62" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E57" s="46"/>
       <c r="F57" s="62" t="s">
-        <v>227</v>
-      </c>
-      <c r="G57" s="98">
+        <v>225</v>
+      </c>
+      <c r="G57" s="97">
         <v>43217</v>
       </c>
       <c r="H57" s="58">
@@ -4733,13 +4703,13 @@
         <v>24</v>
       </c>
       <c r="D58" s="62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E58" s="46"/>
       <c r="F58" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="G58" s="98">
+        <v>188</v>
+      </c>
+      <c r="G58" s="97">
         <v>43218</v>
       </c>
       <c r="H58" s="58">
@@ -4767,17 +4737,17 @@
         <v>24</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E59" s="17"/>
       <c r="F59" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="G59" s="103">
+        <v>245</v>
+      </c>
+      <c r="G59" s="102">
         <v>43221</v>
       </c>
       <c r="H59" s="6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -4798,22 +4768,22 @@
         <v>14.2</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="57"/>
       <c r="F60" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="104">
+        <v>159</v>
+      </c>
+      <c r="G60" s="103">
         <v>43222</v>
       </c>
       <c r="H60" s="79">
-        <v>20</v>
-      </c>
-      <c r="I60" s="97"/>
+        <v>30</v>
+      </c>
+      <c r="I60" s="96"/>
       <c r="J60" s="7"/>
       <c r="K60" s="7"/>
       <c r="L60" s="7"/>
@@ -4825,29 +4795,27 @@
       <c r="R60" s="7"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="54">
+      <c r="A61" s="55">
         <v>14</v>
       </c>
-      <c r="B61" s="54">
+      <c r="B61" s="55">
         <v>14.3</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="E61" s="17"/>
-      <c r="F61" s="9" t="s">
-        <v>187</v>
-      </c>
+      <c r="C61" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="114"/>
+      <c r="F61" s="113"/>
       <c r="G61" s="103">
-        <v>43235</v>
-      </c>
-      <c r="H61" s="6">
-        <v>35</v>
-      </c>
-      <c r="I61" s="7"/>
+        <v>43232</v>
+      </c>
+      <c r="H61" s="79">
+        <v>50</v>
+      </c>
+      <c r="I61" s="96"/>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="7"/>
@@ -4859,27 +4827,25 @@
       <c r="R61" s="7"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="54">
-        <v>14</v>
-      </c>
-      <c r="B62" s="54">
-        <v>14.4</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D62" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="103">
-        <v>43235</v>
-      </c>
-      <c r="H62" s="6">
-        <v>35</v>
+      <c r="A62" s="53">
+        <v>15</v>
+      </c>
+      <c r="B62" s="53">
+        <v>15.2</v>
+      </c>
+      <c r="C62" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="95"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="104">
+        <v>43239</v>
+      </c>
+      <c r="H62" s="58">
+        <v>50</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4897,18 +4863,20 @@
         <v>15</v>
       </c>
       <c r="B63" s="53">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="D63" s="68" t="s">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="E63" s="95"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="98">
-        <v>43232</v>
+      <c r="F63" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="104">
+        <v>43231</v>
       </c>
       <c r="H63" s="58">
         <v>25</v>
@@ -4924,23 +4892,25 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="53">
         <v>15</v>
       </c>
       <c r="B64" s="53">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="C64" s="94" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D64" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="E64" s="96"/>
-      <c r="F64" s="45"/>
-      <c r="G64" s="105">
-        <v>43239</v>
+        <v>162</v>
+      </c>
+      <c r="E64" s="95"/>
+      <c r="F64" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" s="104">
+        <v>43229</v>
       </c>
       <c r="H64" s="58">
         <v>25</v>
@@ -4957,26 +4927,26 @@
       <c r="R64" s="7"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="53">
-        <v>15</v>
-      </c>
-      <c r="B65" s="53">
-        <v>15.3</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="E65" s="96"/>
-      <c r="F65" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="105">
-        <v>43231</v>
-      </c>
-      <c r="H65" s="58">
+      <c r="A65" s="89">
+        <v>16</v>
+      </c>
+      <c r="B65" s="89">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C65" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="92"/>
+      <c r="F65" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="G65" s="112">
+        <v>43236</v>
+      </c>
+      <c r="H65" s="93">
         <v>25</v>
       </c>
       <c r="I65" s="7"/>
@@ -4990,27 +4960,27 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
     </row>
-    <row r="66" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="53">
-        <v>15</v>
-      </c>
-      <c r="B66" s="53">
-        <v>15.4</v>
-      </c>
-      <c r="C66" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="68" t="s">
-        <v>163</v>
-      </c>
-      <c r="E66" s="96"/>
-      <c r="F66" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="105">
-        <v>43229</v>
-      </c>
-      <c r="H66" s="58">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="89">
+        <v>16</v>
+      </c>
+      <c r="B66" s="89">
+        <v>16.2</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="92"/>
+      <c r="F66" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="112">
+        <v>43239</v>
+      </c>
+      <c r="H66" s="93">
         <v>25</v>
       </c>
       <c r="I66" s="7"/>
@@ -5024,28 +4994,28 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="89">
         <v>16</v>
       </c>
       <c r="B67" s="89">
-        <v>16.100000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="C67" s="90" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="D67" s="91" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="E67" s="92"/>
       <c r="F67" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="G67" s="113">
-        <v>43236</v>
+        <v>69</v>
+      </c>
+      <c r="G67" s="112">
+        <v>43239</v>
       </c>
       <c r="H67" s="93">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -5059,28 +5029,9 @@
       <c r="R67" s="7"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="89">
-        <v>16</v>
-      </c>
-      <c r="B68" s="89">
-        <v>16.2</v>
-      </c>
-      <c r="C68" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="91" t="s">
-        <v>237</v>
-      </c>
-      <c r="E68" s="92"/>
-      <c r="F68" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="G68" s="113">
-        <v>43239</v>
-      </c>
-      <c r="H68" s="93">
-        <v>25</v>
-      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
@@ -5092,29 +5043,12 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
     </row>
-    <row r="69" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="89">
-        <v>16</v>
-      </c>
-      <c r="B69" s="89">
-        <v>16.3</v>
-      </c>
-      <c r="C69" s="90" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" s="91" t="s">
-        <v>238</v>
-      </c>
-      <c r="E69" s="92"/>
-      <c r="F69" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="113">
-        <v>43239</v>
-      </c>
-      <c r="H69" s="93">
-        <v>50</v>
-      </c>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C69" s="12"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="6"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
@@ -5127,9 +5061,11 @@
       <c r="R69" s="7"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E70" s="19"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="105"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="7"/>
@@ -5146,7 +5082,6 @@
       <c r="D71" s="3"/>
       <c r="E71" s="17"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="6"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="7"/>
@@ -5163,7 +5098,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="17"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="106"/>
+      <c r="G72" s="105"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="7"/>
@@ -5193,10 +5128,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C74" s="12"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="106"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="6"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
@@ -5226,10 +5161,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C76" s="12"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="6"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="105"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="7"/>
@@ -5243,9 +5178,6 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C77" s="12"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="3"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
@@ -5258,11 +5190,10 @@
       <c r="R77" s="7"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C78" s="12"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="106"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="5"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
@@ -5275,7 +5206,10 @@
       <c r="R78" s="7"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C79" s="12"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="5"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="7"/>
@@ -21080,10 +21014,6 @@
       <c r="R1066" s="7"/>
     </row>
     <row r="1067" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1067" s="16"/>
-      <c r="D1067" s="5"/>
-      <c r="E1067" s="19"/>
-      <c r="F1067" s="5"/>
       <c r="I1067" s="7"/>
       <c r="J1067" s="7"/>
       <c r="K1067" s="7"/>
@@ -21096,10 +21026,6 @@
       <c r="R1067" s="7"/>
     </row>
     <row r="1068" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C1068" s="16"/>
-      <c r="D1068" s="5"/>
-      <c r="E1068" s="19"/>
-      <c r="F1068" s="5"/>
       <c r="I1068" s="7"/>
       <c r="J1068" s="7"/>
       <c r="K1068" s="7"/>
@@ -21123,82 +21049,58 @@
       <c r="Q1069" s="7"/>
       <c r="R1069" s="7"/>
     </row>
-    <row r="1070" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="I1070" s="7"/>
-      <c r="J1070" s="7"/>
-      <c r="K1070" s="7"/>
-      <c r="L1070" s="7"/>
-      <c r="M1070" s="7"/>
-      <c r="N1070" s="7"/>
-      <c r="O1070" s="7"/>
-      <c r="P1070" s="7"/>
-      <c r="Q1070" s="7"/>
-      <c r="R1070" s="7"/>
-    </row>
-    <row r="1071" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="I1071" s="7"/>
-      <c r="J1071" s="7"/>
-      <c r="K1071" s="7"/>
-      <c r="L1071" s="7"/>
-      <c r="M1071" s="7"/>
-      <c r="N1071" s="7"/>
-      <c r="O1071" s="7"/>
-      <c r="P1071" s="7"/>
-      <c r="Q1071" s="7"/>
-      <c r="R1071" s="7"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1075">
-    <sortCondition ref="A2:A1075"/>
-    <sortCondition ref="B2:B1075"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R1073">
+    <sortCondition ref="A2:A1073"/>
+    <sortCondition ref="B2:B1073"/>
   </sortState>
-  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G58:G60 G37:G53 G55 G63:G1048576">
-    <cfRule type="timePeriod" dxfId="9" priority="13" timePeriod="last7Days">
+  <conditionalFormatting sqref="G1:G21 G24:G25 G28:G29 G31 G37:G53 G55 G58:G60 G62:G1048576">
+    <cfRule type="timePeriod" dxfId="9" priority="14" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G1,1)&lt;=6,FLOOR(G1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:G27">
-    <cfRule type="timePeriod" dxfId="8" priority="12" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="8" priority="13" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G26,1)&lt;=6,FLOOR(G26,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="timePeriod" dxfId="7" priority="11" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="7" priority="12" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G22,1)&lt;=6,FLOOR(G22,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="timePeriod" dxfId="6" priority="10" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="6" priority="11" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G23,1)&lt;=6,FLOOR(G23,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
-    <cfRule type="timePeriod" dxfId="5" priority="9" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="5" priority="10" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G30,1)&lt;=6,FLOOR(G30,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34:G36">
-    <cfRule type="timePeriod" dxfId="4" priority="7" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="4" priority="8" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G34,1)&lt;=6,FLOOR(G34,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G33">
-    <cfRule type="timePeriod" dxfId="3" priority="6" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="3" priority="7" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G32,1)&lt;=6,FLOOR(G32,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="timePeriod" dxfId="2" priority="5" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="2" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G54,1)&lt;=6,FLOOR(G54,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56:G57">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="1" priority="5" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G56,1)&lt;=6,FLOOR(G56,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:G62">
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="last7Days">
+  <conditionalFormatting sqref="G61">
+    <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(G61,1)&lt;=6,FLOOR(G61,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
